--- a/docs/modelleerregels/data/Modelleerregels.xlsx
+++ b/docs/modelleerregels/data/Modelleerregels.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingcrow-my.sharepoint.com/personal/rik_opgenoort_crow_nl/Documents/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\imbor\docs\modelleerregels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{0724EF72-FBB6-4FCB-BE32-3AF4C7961917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FC92701-8C1E-41BF-BE02-091638EA0E03}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D2180F-2F98-463B-B176-1EE41D571536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{3A8095FC-6EC2-448F-A544-71A49C170C1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3A8095FC-6EC2-448F-A544-71A49C170C1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Regels" sheetId="1" r:id="rId1"/>
-    <sheet name="Markdown" sheetId="3" r:id="rId2"/>
-    <sheet name="TODO" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="MD GEN" sheetId="3" r:id="rId2"/>
+    <sheet name="GUID GEN" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regels!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regels!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="243">
   <si>
     <t>ID</t>
   </si>
@@ -71,24 +70,12 @@
     <t>Indeling in TopConcepten</t>
   </si>
   <si>
-    <t>Vraag</t>
-  </si>
-  <si>
-    <t>chekcAttributenEnEenheden</t>
-  </si>
-  <si>
-    <t>Typefout in query naam? Geldt dit niet voor meer dan xsd:decimal?</t>
-  </si>
-  <si>
     <t>checkAttributenZonderKlasse</t>
   </si>
   <si>
     <t>checkAttributenZonderTypeAttribuut</t>
   </si>
   <si>
-    <t>checkDomeinwaardenZonderEnumeratie</t>
-  </si>
-  <si>
     <t>Elk attribuut moet aan minstens één klasse worden toegewezen, maar dit mag aan meerdere.</t>
   </si>
   <si>
@@ -104,9 +91,6 @@
     <t>Elk Enumeratietype is per klasse uniek. (Dit is misgegaan bij Boom)</t>
   </si>
   <si>
-    <t>Ik vraag me af of we dit ook moeten doen…?</t>
-  </si>
-  <si>
     <t>Elke GUID is uniek</t>
   </si>
   <si>
@@ -191,9 +175,6 @@
     <t>Binnen een collectie van termen is een term uniek, dat wil zeggen, er is maar één definitie van de term en de term is maar één keer binnen de collectie vastgelegd. Twee niet identieke termen mogen niet één en dezelfde definitie hebben</t>
   </si>
   <si>
-    <t>Aanvulling hier op?</t>
-  </si>
-  <si>
     <t>Elke klasse mag maar één keer aan dezelfde klasse als kind worden toegewezen.</t>
   </si>
   <si>
@@ -224,141 +205,6 @@
     <t>Meerdere Typen van hetzelfde ObjectType mogen niet tegelijkertijd op één object van toepassing zijn. Hieruit volgt dat het ook niet zo mag zijn dat een concreet object bij meerdere ObjectTypen ondergebracht kan worden. En hieruit volgt dat het niet zo mag zijn dat een object bij zowel een Type van het ene ObjectType als bij een ander ObjectType ondergebracht kan worden (bijv. Overweg).</t>
   </si>
   <si>
-    <t>    xxiv.        checkEnumeratietypesMetDomeinwaarden</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> xxii.         checkEnumeratiesDomeinwaarden</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a.     </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Museo Sans 300"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Welke regel is hier ingebed? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Museo Sans 300"/>
-        <family val="3"/>
-      </rPr>
-      <t>Domeinwaarden mogen niet onnodig aan meerdere Enumeratitypes worden toegewezen. NIET ZEKER OVER DEZE REGEL: in de praktijk delen Enumeratietypes Domeinwaarden. Is dit ongewenst?</t>
-    </r>
-  </si>
-  <si>
-    <t>xxiii.         checkEnumeratietypes</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a.     </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Museo Sans 300"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Welke regel is hier ingebed? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Museo Sans 300"/>
-        <family val="3"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a.     </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Museo Sans 300"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Welke regel is hier ingebed? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Museo Sans 300"/>
-        <family val="3"/>
-      </rPr>
-      <t>Aan Enumeratietypes met als Enumeratietype Enumeratie moeten één of meerdere Domeinwaarden zijn toegewezen.</t>
-    </r>
-  </si>
-  <si>
-    <t>xxv.         checkEnumeratietypesZonderDomeinwaarden</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a.     </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Museo Sans 300"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Welke regel is hier ingebed? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Museo Sans 300"/>
-        <family val="3"/>
-      </rPr>
-      <t>Voor alle Enumeratietypes met als Enumeratietype Referentie moeten één of meerdere Domeinwaarden zijn toegewezen; als dit niet het geval is, dan moet de domeinwaarde “Organisatiespecifieke domeinwaarden” worden toegeschreven.</t>
-    </r>
-  </si>
-  <si>
-    <t>  xlii.         checkObjecttypenRioleringZonderGWSWMapping</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a.     </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Museo Sans 300"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Welke regel is hier ingebed? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Museo Sans 300"/>
-        <family val="3"/>
-      </rPr>
-      <t>Geen regel maar vertelt wat IMBOR meer over Riolering zegt, uitgedrukt in ObjectTypen, dan GWSW. Zou het een regel moeten zijn dat er geen ObjectTypen aan deze voorwaarde voldoen?</t>
-    </r>
-  </si>
-  <si>
     <t>Voor alle ObjectTypen met het attribuut type extra gedetailleerd geldt dat er een Enumeratietype van de vorm [Objecttype]TypeExtraGedetailleerd moet bestaan en aan de combinatie van KlasseAttribuut is gekoppeld waarvoor geldt dat: Klasse = [Objecttype] en Attribuut = TypeExtraGedetailleerd.</t>
   </si>
   <si>
@@ -395,24 +241,12 @@
     <t>checkDubbelerefModelDomeinwaarden</t>
   </si>
   <si>
-    <t>Binnen elke afstemming met een ander informatiemodel figureert een specifieke combinatie uit IMBOR één en slechts één keer, dan wel niet.</t>
-  </si>
-  <si>
-    <t>Dan wel niet?</t>
-  </si>
-  <si>
     <t>checkDubbeleObjecttypenAttributen</t>
   </si>
   <si>
-    <t>Elke semantische relatie van de vorm aRb wordt maar één keer opgenomen, waarbij het omgekeerde, d.w.z. bRa niet als equivalent wordt beschouwd. (Semiotisch anders interpretabel vs. machineleesbaar equivalent)</t>
-  </si>
-  <si>
     <t>checkDubbeleSemantischeRelaties</t>
   </si>
   <si>
-    <t>Nadere toelichting nodig</t>
-  </si>
-  <si>
     <t>Semantische relaties worden alleen in dominante richting opgenomen</t>
   </si>
   <si>
@@ -455,14 +289,6 @@
     <t>https://github.com/Stichting-CROW/imbor/issues/984</t>
   </si>
   <si>
-    <t>iii.	https://github.com/Stichting-CROW/imbor/issues/805 
-a.	Welke regel is hier ingebed? Elk attribuut heeft één TypeAttribuut voor alle combinaties van de Klasse en dat attribuut.</t>
-  </si>
-  <si>
-    <t>v.	https://github.com/Stichting-CROW/imbor/issues/991 
-a.	Welke regel is hier ingebed? Mogen ObjectTypen als Domeinwaarde van een attribuut worden gebruikt?</t>
-  </si>
-  <si>
     <t>IMBOR neemt in principe geen aspecten over uit andere standaarden, maar gaat uit van mappingen. Maar IMBOR neemt alleen aspecten van andere standaarden over als hier (i) voldoende reden voor is; of (ii) de standaard geen informatiemodel is waar IMBOR aan gerelateerd kan worden.</t>
   </si>
   <si>
@@ -478,9 +304,6 @@
     <t>Naamgeving Klassen</t>
   </si>
   <si>
-    <t>Naamgeving Attributen</t>
-  </si>
-  <si>
     <t>Naamgeving Relaties</t>
   </si>
   <si>
@@ -502,10 +325,6 @@
     <t>De termen die Relaties representeren worden volgens de NEN2660-2 conventies beschreven. In dit geval geldt dat deze lower case zijn, spaties mogen bevatten en in enkelvoud beschreven worden. En daarnaast voldoende beschrijvend moeten zijn. De enige relaties de gebruikt worden zijn uit de NEN2660-2, deze zijn vertaald in IMBOR naar NL.</t>
   </si>
   <si>
-    <t>ix.	https://github.com/Stichting-CROW/imbor/issues/1056 
-a.	Welke regel is hier ingebed? Elke IMBOR-term moet een functie hebben in de praktijk.</t>
-  </si>
-  <si>
     <t>Semantische conflicten tussen mogelijke invullingen van attributen en domeinwaarden en de definitie van een ObjectType of Type mogen niet voorkomen. Als ze wel voorkomen, moeten ze m.b.v. een best practice toegelicht worden.</t>
   </si>
   <si>
@@ -527,10 +346,6 @@
     <t>https://github.com/Stichting-CROW/imbor/issues/332; https://github.com/Stichting-CROW/imbor/issues/1023</t>
   </si>
   <si>
-    <t>xiii.	https://github.com/Stichting-CROW/imbor/issues/1028 en https://github.com/Stichting-CROW/imbor/issues/880 
-a.	Welke regel is hier ingebed? ObjectTypen mogen geen onzinnige attributen toegeschreven krijgen, tenzij dat onvermijdelijk is.</t>
-  </si>
-  <si>
     <t>Decompositie (partonomie) vermijden in IMBOR</t>
   </si>
   <si>
@@ -540,10 +355,6 @@
     <t xml:space="preserve">https://github.com/Stichting-CROW/imbor/issues/1064 </t>
   </si>
   <si>
-    <t>xv.	https://github.com/Stichting-CROW/imbor/issues/1006 
-a.	Welke regel is hier ingebed? Het is onwenselijk om attributen zeer algemene namen te geven, maar hun toepassing te beperken tot een niche.</t>
-  </si>
-  <si>
     <t>Openlijke tegenspraak met andere informatiemodellen in definities moet worden vermeden, tenzij de definitie uit het beschouwde gerelateerde informatiemodel niet past in de IMBOR context.</t>
   </si>
   <si>
@@ -562,9 +373,6 @@
     <t>Grammaticale correctheid van woorden en teksten</t>
   </si>
   <si>
-    <t>Attributen met een brede toepassing moeten op een zo abstract mogelijk niveau als zinnig is in de Klassenhiërarchie worden geïntroduceerd (dan wel als semantische relatie mogelijk zijn).</t>
-  </si>
-  <si>
     <t>https://github.com/Stichting-CROW/imbor/issues/1062</t>
   </si>
   <si>
@@ -890,6 +698,78 @@
   </si>
   <si>
     <t>Markdown (for copying and replacing ")</t>
+  </si>
+  <si>
+    <t>checkDomeinwaardenZonderEnumeratie; checkEnumeratietypesZonderDomeinwaarden; checkEnumeratietypesMetDomeinwaarden</t>
+  </si>
+  <si>
+    <t>R0043</t>
+  </si>
+  <si>
+    <t>Attributen met een brede toepassing moeten op een zo abstract mogelijk niveau als zinnig is in de Klassenhiërarchie worden geïntroduceerd (dan wel als semantische relatie mogelijk zijn). Daarbij moet wel rekening worden gehouden dat ObjectTypen geen onzinnige attributen toegeschreven krijgen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bij het indelen van (nieuwe) Objecttypen wordt eerst gekeken naar de semantiek (waar in de klassestructuur deze ingedeeld zouden moeten worden. Pas daarna moet gekeken worden of de juiste attributen erbij horen. </t>
+  </si>
+  <si>
+    <t>f5a17556-2d50-432d-a091-d7c7c80d8fc0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Stichting-CROW/imbor/issues/1006 </t>
+  </si>
+  <si>
+    <t>Alles met betrekking tot datums en tijdstippen zou volgens de NEN3610 temporele aspecten gemodelleerd moeten worden, tenzij.</t>
+  </si>
+  <si>
+    <t>Binnen elke afstemming met een ander informatiemodel figureert een specifieke combinatie uit IMBOR maximaal één keer of niet.</t>
+  </si>
+  <si>
+    <t>Elke semantische relatie van de vorm aRb wordt maar één keer opgenomen, waarbij het omgekeerde, d.w.z. bRa niet als equivalent wordt beschouwd. (Semiotisch anders interpretabel vs. machineleesbaar equivalent). Vandaar dat de inverse dus ook expliciet opgenomen mag worden, als het nuttig is.</t>
+  </si>
+  <si>
+    <t>checkAttributenEnEenheden</t>
+  </si>
+  <si>
+    <t>R0044</t>
+  </si>
+  <si>
+    <t>R0045</t>
+  </si>
+  <si>
+    <t>R0046</t>
+  </si>
+  <si>
+    <t>Termen (vooral met betrekking tot attributen) moeten aansluiten bij de definitie en daarmee dus niet te algemeen zijn</t>
+  </si>
+  <si>
+    <t>db35e4f5-5c31-020c-8596-8d31a35f4f1b</t>
+  </si>
+  <si>
+    <t>b586e279-9956-8a52-0745-a336bdd8958f</t>
+  </si>
+  <si>
+    <t>a020d7d9-64be-517a-0ff9-6e4103bc060f</t>
+  </si>
+  <si>
+    <t>Discriminator semantiek gaat voor attributen indeling</t>
+  </si>
+  <si>
+    <t>Naamgeving Attributen 1</t>
+  </si>
+  <si>
+    <t>Naamgeving Attributen 2</t>
+  </si>
+  <si>
+    <t>Temporele aspecten worden gemodelleerd volgens de NEN3610</t>
+  </si>
+  <si>
+    <t>Waar mogelijk moeten Enumeratietypen hergebruikt worden. Waardelijsten moeten dus zo veel mogelijk samengesteld worden zodat ze zo veel mogelijk herbruikbaar zijn. Namen voor Enumeratietypen hoeven dus ook niet aan een conventie te voldoen.</t>
+  </si>
+  <si>
+    <t>Enumeratietypen moeten hergebruik faciliteren</t>
+  </si>
+  <si>
+    <t>Relatie tussen datatype en eenheid moet consistent zijn</t>
   </si>
 </sst>
 </file>
@@ -933,21 +813,6 @@
       <family val="3"/>
     </font>
     <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Museo Sans 300"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Museo Sans 300"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -961,19 +826,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Museo Sans 300"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Museo Sans 300"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -989,11 +861,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1003,14 +872,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1318,7 +1187,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1326,1240 +1195,1314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188C7535-DE94-40B4-B3C6-1EA29470252A}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="3"/>
-    <col min="2" max="2" width="54.1796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="95.453125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" style="3"/>
-    <col min="8" max="8" width="56.36328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="34.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="103.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.81640625" style="3"/>
+    <col min="1" max="1" width="8.81640625" style="2"/>
+    <col min="2" max="2" width="54.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="95.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="2"/>
+    <col min="8" max="8" width="56.36328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="34.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="3" t="str">
+      <c r="I1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="10" t="str">
         <f>MID(D2,3,99)</f>
         <v>Decompositie</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="10" t="str">
+        <f>MID(D3,3,99)</f>
+        <v>Instanties</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f>MID(D4,3,99)</f>
+        <v>Klassenstructuur</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="10" t="str">
+        <f>MID(D5,3,99)</f>
+        <v>Klassenstructuur</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="10" t="str">
+        <f>MID(D6,3,99)</f>
+        <v>Klassenstructuur</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="10" t="str">
+        <f>MID(D7,3,99)</f>
+        <v>Klassenstructuur</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="10" t="str">
+        <f>MID(D8,3,99)</f>
+        <v>Klassenstructuur</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="10" t="str">
+        <f>MID(D9,3,99)</f>
+        <v>Mapping</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="10" t="str">
+        <f>MID(D10,3,99)</f>
+        <v>Mapping</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="10" t="str">
+        <f>MID(D11,3,99)</f>
+        <v>Mapping</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="10" t="str">
+        <f>MID(D12,3,99)</f>
+        <v>Mapping</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="10" t="str">
+        <f>MID(D13,3,99)</f>
+        <v>Mapping</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="10" t="str">
+        <f>MID(D14,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="10" t="str">
+        <f>MID(D15,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="I15" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="10" t="str">
+        <f>MID(D16,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" s="10" t="str">
+        <f>MID(D17,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="I17" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" s="10" t="str">
+        <f>MID(D18,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" s="10" t="str">
+        <f>MID(D19,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="10" t="str">
+        <f>MID(D20,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="10" t="str">
+        <f>MID(D21,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="10" t="str">
+        <f>MID(D22,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="10" t="str">
+        <f>MID(D23,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="10" t="str">
+        <f>MID(D24,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" s="10" t="str">
+        <f>MID(D25,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" s="10" t="str">
+        <f>MID(D26,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" s="10" t="str">
+        <f>MID(D27,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" s="10" t="str">
+        <f>MID(D28,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="10" t="str">
+        <f>MID(D29,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="10" t="str">
+        <f>MID(D30,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="I30" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" s="10" t="str">
+        <f>MID(D31,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" s="10" t="str">
+        <f>MID(D32,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" s="10" t="str">
+        <f>MID(D33,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="48" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E43" si="0">MID(D3,3,99)</f>
-        <v>Instanties</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="34" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" s="10" t="str">
+        <f>MID(D34,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" s="10" t="str">
+        <f>MID(D35,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="10" t="str">
+        <f>MID(D36,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" s="10" t="str">
+        <f>MID(D37,3,99)</f>
+        <v>Ontologie</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" s="10" t="str">
+        <f>MID(D38,3,99)</f>
+        <v>Vocabulaire</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" s="10" t="str">
+        <f>MID(D39,3,99)</f>
+        <v>Vocabulaire</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40" s="10" t="str">
+        <f>MID(D40,3,99)</f>
+        <v>Vocabulaire</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Klassenstructuur</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Klassenstructuur</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Klassenstructuur</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Klassenstructuur</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Klassenstructuur</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="10" t="str">
+        <f>MID(D41,3,99)</f>
+        <v>Vocabulaire</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Mapping</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Mapping</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="I41" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" s="10" t="str">
+        <f>MID(D42,3,99)</f>
+        <v>Vocabulaire</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Mapping</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="D43" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" s="10" t="str">
+        <f>MID(D43,3,99)</f>
+        <v>Vocabulaire</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="I43" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="10" t="str">
+        <f>MID(D44,3,99)</f>
+        <v>Vocabulaire</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="I44" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Mapping</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="D45" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="10" t="str">
+        <f>MID(D45,3,99)</f>
+        <v>Vocabulaire</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="I45" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46" s="10" t="str">
+        <f>MID(D46,3,99)</f>
+        <v>Vocabulaire</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Mapping</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="D47" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E47" s="10" t="str">
+        <f>MID(D47,3,99)</f>
+        <v>Vocabulaire</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="I47" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Vocabulaire</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Vocabulaire</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Vocabulaire</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E38" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Vocabulaire</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Vocabulaire</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="I39" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E40" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Vocabulaire</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="I40" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E41" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Vocabulaire</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="I41" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="48" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E42" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Vocabulaire</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E43" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Vocabulaire</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G48" s="5"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G48" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{188C7535-DE94-40B4-B3C6-1EA29470252A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J43">
-      <sortCondition ref="A1"/>
+  <autoFilter ref="A1:I1" xr:uid="{188C7535-DE94-40B4-B3C6-1EA29470252A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I47">
+      <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J48">
-    <sortCondition ref="E2:E48"/>
-    <sortCondition ref="F2:F48"/>
-    <sortCondition ref="B2:B48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I47">
+    <sortCondition ref="E2:E47"/>
+    <sortCondition ref="F2:F47"/>
+    <sortCondition ref="B2:B47"/>
   </sortState>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{EFD552ED-5F35-48E8-81D4-403784151D82}"/>
-    <hyperlink ref="G35" r:id="rId2" xr:uid="{03AAA5B6-6186-496A-9461-906AFEF9A6AD}"/>
-    <hyperlink ref="G32" r:id="rId3" xr:uid="{B89CB078-C184-4B42-AD55-20A04C61F84A}"/>
-    <hyperlink ref="G42" r:id="rId4" display="https://github.com/Stichting-CROW/imbor/issues/332" xr:uid="{D79637A1-33AE-420C-B4CA-34C749851141}"/>
+    <hyperlink ref="G38" r:id="rId2" xr:uid="{03AAA5B6-6186-496A-9461-906AFEF9A6AD}"/>
+    <hyperlink ref="G35" r:id="rId3" xr:uid="{B89CB078-C184-4B42-AD55-20A04C61F84A}"/>
+    <hyperlink ref="G46" r:id="rId4" display="https://github.com/Stichting-CROW/imbor/issues/332" xr:uid="{D79637A1-33AE-420C-B4CA-34C749851141}"/>
     <hyperlink ref="G13" r:id="rId5" xr:uid="{149CADC3-DEC6-4692-B849-97B3403D8759}"/>
-    <hyperlink ref="G31" r:id="rId6" xr:uid="{D5BA18AC-00A7-4851-B4A0-33F7344DDE33}"/>
-    <hyperlink ref="G38" r:id="rId7" xr:uid="{BF4AB91E-A612-4F12-866E-1F7F7309C1BB}"/>
-    <hyperlink ref="G43" r:id="rId8" xr:uid="{1D19924F-F878-4D73-B3CB-E149E488A9E0}"/>
-    <hyperlink ref="G33" r:id="rId9" xr:uid="{62D7072B-57B4-4D98-8EFC-4A6951AABD6E}"/>
+    <hyperlink ref="G34" r:id="rId6" xr:uid="{D5BA18AC-00A7-4851-B4A0-33F7344DDE33}"/>
+    <hyperlink ref="G41" r:id="rId7" xr:uid="{BF4AB91E-A612-4F12-866E-1F7F7309C1BB}"/>
+    <hyperlink ref="G47" r:id="rId8" xr:uid="{1D19924F-F878-4D73-B3CB-E149E488A9E0}"/>
+    <hyperlink ref="G36" r:id="rId9" xr:uid="{62D7072B-57B4-4D98-8EFC-4A6951AABD6E}"/>
     <hyperlink ref="G2" r:id="rId10" xr:uid="{1ED6557A-3E70-4A1F-8CF4-DB4DFAA5BE49}"/>
-    <hyperlink ref="G36" r:id="rId11" xr:uid="{F2C1818C-A710-4A3D-9480-952E22C0436A}"/>
+    <hyperlink ref="G39" r:id="rId11" xr:uid="{F2C1818C-A710-4A3D-9480-952E22C0436A}"/>
     <hyperlink ref="G6" r:id="rId12" xr:uid="{F213BAF6-DEB6-461E-AD00-942606921BCB}"/>
-    <hyperlink ref="G34" r:id="rId13" xr:uid="{94BBF135-EB11-4405-8320-D169EAB224E1}"/>
+    <hyperlink ref="G37" r:id="rId13" xr:uid="{94BBF135-EB11-4405-8320-D169EAB224E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
@@ -2568,24 +2511,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DE38E5-EC5C-4F66-8670-FCF0F19FC35C}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:B372"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.7265625" customWidth="1"/>
-    <col min="2" max="2" width="127" style="10" customWidth="1"/>
+    <col min="2" max="2" width="127" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>245</v>
+      <c r="A1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2593,7 +2539,7 @@
         <f>Regels!D2</f>
         <v>4-Decompositie</v>
       </c>
-      <c r="B2" s="10" t="str">
+      <c r="B2" s="6" t="str">
         <f>"### "&amp;Regels!B2&amp;" ("&amp;Regels!A2&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E2&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F2&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C2&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A2&amp;" *("&amp;Regels!I2&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F2&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G2&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H2&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Decompositie (partonomie) vermijden in IMBOR (R0001)
 Van toepassing op de `Decompositie`, en valt binnen de categorie: `Semantiek`
@@ -2613,7 +2559,7 @@
         <f>Regels!D3</f>
         <v>6-Instanties</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="6" t="str">
         <f>"### "&amp;Regels!B3&amp;" ("&amp;Regels!A3&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E3&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F3&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C3&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A3&amp;" *("&amp;Regels!I3&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F3&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G3&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H3&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Luukstelregel (R0002)
 Van toepassing op de `Instanties`, en valt binnen de categorie: `Semantiek`
@@ -2633,7 +2579,7 @@
         <f>Regels!D4</f>
         <v>3-Klassenstructuur</v>
       </c>
-      <c r="B4" s="10" t="str">
+      <c r="B4" s="6" t="str">
         <f>"### "&amp;Regels!B4&amp;" ("&amp;Regels!A4&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E4&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F4&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C4&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A4&amp;" *("&amp;Regels!I4&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F4&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G4&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H4&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Consistentie in overerving klasse structuur 1 (R0003)
 Van toepassing op de `Klassenstructuur`, en valt binnen de categorie: `Model consistentie`
@@ -2653,7 +2599,7 @@
         <f>Regels!D5</f>
         <v>3-Klassenstructuur</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="6" t="str">
         <f>"### "&amp;Regels!B5&amp;" ("&amp;Regels!A5&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E5&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F5&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C5&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A5&amp;" *("&amp;Regels!I5&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F5&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G5&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H5&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Consistentie in overerving klasse structuur 2 (R0004)
 Van toepassing op de `Klassenstructuur`, en valt binnen de categorie: `Model consistentie`
@@ -2673,13 +2619,13 @@
         <f>Regels!D6</f>
         <v>3-Klassenstructuur</v>
       </c>
-      <c r="B6" s="10" t="str">
+      <c r="B6" s="6" t="str">
         <f>"### "&amp;Regels!B6&amp;" ("&amp;Regels!A6&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E6&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F6&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C6&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A6&amp;" *("&amp;Regels!I6&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F6&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G6&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H6&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Attributen zo hoog mogelijk in de hiërarchie (R0005)
 Van toepassing op de `Klassenstructuur`, en valt binnen de categorie: `Semantiek`
 | | |
 | ----- | ---- | 
-| *Regel* | Attributen met een brede toepassing moeten op een zo abstract mogelijk niveau als zinnig is in de Klassenhiërarchie worden geïntroduceerd (dan wel als semantische relatie mogelijk zijn). | 
+| *Regel* | Attributen met een brede toepassing moeten op een zo abstract mogelijk niveau als zinnig is in de Klassenhiërarchie worden geïntroduceerd (dan wel als semantische relatie mogelijk zijn). Daarbij moet wel rekening worden gehouden dat ObjectTypen geen onzinnige attributen toegeschreven krijgen. | 
 | *ID* | R0005 *(f9a1dde6-15ca-56f7-39f9-ff98b28f5c89)* |
 | *Categorie* | Semantiek
  |*Gerelateerd issue* | https://github.com/Stichting-CROW/imbor/issues/1062 |
@@ -2693,7 +2639,7 @@
         <f>Regels!D7</f>
         <v>3-Klassenstructuur</v>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="6" t="str">
         <f>"### "&amp;Regels!B7&amp;" ("&amp;Regels!A7&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E7&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F7&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C7&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A7&amp;" *("&amp;Regels!I7&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F7&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G7&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H7&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Indeling in TopConcepten (R0006)
 Van toepassing op de `Klassenstructuur`, en valt binnen de categorie: `Semantiek`
@@ -2713,7 +2659,7 @@
         <f>Regels!D8</f>
         <v>3-Klassenstructuur</v>
       </c>
-      <c r="B8" s="10" t="str">
+      <c r="B8" s="6" t="str">
         <f>"### "&amp;Regels!B8&amp;" ("&amp;Regels!A8&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E8&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F8&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C8&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A8&amp;" *("&amp;Regels!I8&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F8&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G8&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H8&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Semantische expansieregel (R0007)
 Van toepassing op de `Klassenstructuur`, en valt binnen de categorie: `Semantiek`
@@ -2733,7 +2679,7 @@
         <f>Regels!D9</f>
         <v>5-Mapping</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="6" t="str">
         <f>"### "&amp;Regels!B9&amp;" ("&amp;Regels!A9&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E9&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F9&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C9&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A9&amp;" *("&amp;Regels!I9&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F9&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G9&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H9&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Consistentie in uniciteit mappingen 1 (R0008)
 Van toepassing op de `Mapping`, en valt binnen de categorie: `Model consistentie`
@@ -2753,13 +2699,13 @@
         <f>Regels!D10</f>
         <v>5-Mapping</v>
       </c>
-      <c r="B10" s="10" t="str">
+      <c r="B10" s="6" t="str">
         <f>"### "&amp;Regels!B10&amp;" ("&amp;Regels!A10&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E10&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F10&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C10&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A10&amp;" *("&amp;Regels!I10&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F10&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G10&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H10&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Consistentie in uniciteit mappingen 2 (R0009)
 Van toepassing op de `Mapping`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Binnen elke afstemming met een ander informatiemodel figureert een specifieke combinatie uit IMBOR één en slechts één keer, dan wel niet. | 
+| *Regel* | Binnen elke afstemming met een ander informatiemodel figureert een specifieke combinatie uit IMBOR maximaal één keer of niet. | 
 | *ID* | R0009 *(6a29938f-8ef4-8dc6-7966-820a9d283a6f)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
@@ -2773,7 +2719,7 @@
         <f>Regels!D11</f>
         <v>5-Mapping</v>
       </c>
-      <c r="B11" s="10" t="str">
+      <c r="B11" s="6" t="str">
         <f>"### "&amp;Regels!B11&amp;" ("&amp;Regels!A11&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E11&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F11&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C11&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A11&amp;" *("&amp;Regels!I11&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F11&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G11&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H11&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Consistentie in uniciteit mappingen 3 (R0010)
 Van toepassing op de `Mapping`, en valt binnen de categorie: `Model consistentie`
@@ -2793,7 +2739,7 @@
         <f>Regels!D12</f>
         <v>5-Mapping</v>
       </c>
-      <c r="B12" s="10" t="str">
+      <c r="B12" s="6" t="str">
         <f>"### "&amp;Regels!B12&amp;" ("&amp;Regels!A12&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E12&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F12&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C12&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A12&amp;" *("&amp;Regels!I12&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F12&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G12&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H12&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Elk ObjectType moet een relatie hebben met IMGeo (R0011)
 Van toepassing op de `Mapping`, en valt binnen de categorie: `Model consistentie`
@@ -2813,7 +2759,7 @@
         <f>Regels!D13</f>
         <v>5-Mapping</v>
       </c>
-      <c r="B13" s="10" t="str">
+      <c r="B13" s="6" t="str">
         <f>"### "&amp;Regels!B13&amp;" ("&amp;Regels!A13&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E13&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F13&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C13&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A13&amp;" *("&amp;Regels!I13&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F13&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G13&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H13&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Relateren andere standaarden geniet de voorkeur boven includeren (R0012)
 Van toepassing op de `Mapping`, en valt binnen de categorie: `Semantiek`
@@ -2833,7 +2779,7 @@
         <f>Regels!D14</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B14" s="10" t="str">
+      <c r="B14" s="6" t="str">
         <f>"### "&amp;Regels!B14&amp;" ("&amp;Regels!A14&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E14&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F14&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C14&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A14&amp;" *("&amp;Regels!I14&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F14&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G14&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H14&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Consistentie in gebruik van 'Bovenliggende waarde' (R0013)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -2853,17 +2799,17 @@
         <f>Regels!D15</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B15" s="10" t="str">
+      <c r="B15" s="6" t="str">
         <f>"### "&amp;Regels!B15&amp;" ("&amp;Regels!A15&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E15&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F15&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C15&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A15&amp;" *("&amp;Regels!I15&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F15&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G15&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H15&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Elke GUID is uniek (R0014)
+        <v xml:space="preserve">### Discriminator semantiek gaat voor attributen indeling (R0043)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Elke VocabulairGUID in imborVoc_Termen is uniek. Elke IMBORGUID is uniek. | 
-| *ID* | R0014 *(24177f9a-a179-6dee-3dc2-f55c255f30ac)* |
+| *Regel* | Bij het indelen van (nieuwe) Objecttypen wordt eerst gekeken naar de semantiek (waar in de klassestructuur deze ingedeeld zouden moeten worden. Pas daarna moet gekeken worden of de juiste attributen erbij horen.  | 
+| *ID* | R0043 *(f5a17556-2d50-432d-a091-d7c7c80d8fc0)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
- |*Controle query* | checkDubbeleGUIDsTermen; checkDubbeleIMBORGUIDs; checkIMBORGUIDTermen; checkVocabulairGUIDTermen |
+ |*Controle query* |  |
 | {.index} | | 
 </v>
       </c>
@@ -2873,17 +2819,17 @@
         <f>Regels!D16</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B16" s="10" t="str">
+      <c r="B16" s="6" t="str">
         <f>"### "&amp;Regels!B16&amp;" ("&amp;Regels!A16&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E16&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F16&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C16&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A16&amp;" *("&amp;Regels!I16&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F16&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G16&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H16&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Relatie tussen een Attribuut en een Klasse is 1:n (R0015)
+        <v xml:space="preserve">### Elke GUID is uniek (R0014)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Elk attribuut moet aan minstens één klasse worden toegewezen, maar dit mag aan meerdere. | 
-| *ID* | R0015 *(1e0bbf6a-1f60-a5ff-9037-85b0e05d88de)* |
+| *Regel* | Elke VocabulairGUID in imborVoc_Termen is uniek. Elke IMBORGUID is uniek. | 
+| *ID* | R0014 *(24177f9a-a179-6dee-3dc2-f55c255f30ac)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
- |*Controle query* | checkAttributenZonderKlasse |
+ |*Controle query* | checkDubbeleGUIDsTermen; checkDubbeleIMBORGUIDs; checkIMBORGUIDTermen; checkVocabulairGUIDTermen |
 | {.index} | | 
 </v>
       </c>
@@ -2893,17 +2839,17 @@
         <f>Regels!D17</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B17" s="10" t="str">
+      <c r="B17" s="6" t="str">
         <f>"### "&amp;Regels!B17&amp;" ("&amp;Regels!A17&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E17&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F17&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C17&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A17&amp;" *("&amp;Regels!I17&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F17&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G17&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H17&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Relatie tussen een Attribuut en een TypeAttribuut is 1:1 (R0016)
+        <v xml:space="preserve">### Enumeratietypen moeten hergebruik faciliteren (R0046)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Elk attribuut moet één en slechts één relatie naar een TypeAttribuut hebben. | 
-| *ID* | R0016 *(a4128a71-9200-5eec-40de-39281e8b47bc)* |
+| *Regel* | Waar mogelijk moeten Enumeratietypen hergebruikt worden. Waardelijsten moeten dus zo veel mogelijk samengesteld worden zodat ze zo veel mogelijk herbruikbaar zijn. Namen voor Enumeratietypen hoeven dus ook niet aan een conventie te voldoen. | 
+| *ID* | R0046 *(a020d7d9-64be-517a-0ff9-6e4103bc060f)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
- |*Controle query* | checkAttributenZonderTypeAttribuut |
+ |*Controle query* |  |
 | {.index} | | 
 </v>
       </c>
@@ -2913,17 +2859,17 @@
         <f>Regels!D18</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B18" s="10" t="str">
+      <c r="B18" s="6" t="str">
         <f>"### "&amp;Regels!B18&amp;" ("&amp;Regels!A18&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E18&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F18&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C18&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A18&amp;" *("&amp;Regels!I18&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F18&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G18&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H18&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Relatie tussen een Domeinwaarde en een Enumeratietype is 1:n (R0017)
+        <v xml:space="preserve">### Relatie tussen datatype en eenheid moet consistent zijn (R0029)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Elke Domeinwaarde moet aan minstens één Enumeratietype zijn toegewezen, maar dit mag aan meerdere. | 
-| *ID* | R0017 *(302cccc9-98d0-3049-0d8d-cf4deafe627b)* |
+| *Regel* | Als een attribuut het datatype xsd:decimal heeft, dan moet het attribuut ook een gedefinieerde eenheid hebben. | 
+| *ID* | R0029 *(0b62bb2a-21d5-631a-634c-0330d6112258)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
- |*Controle query* | checkDomeinwaardenZonderEnumeratie |
+ |*Controle query* | checkAttributenEnEenheden |
 | {.index} | | 
 </v>
       </c>
@@ -2933,17 +2879,17 @@
         <f>Regels!D19</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B19" s="10" t="str">
+      <c r="B19" s="6" t="str">
         <f>"### "&amp;Regels!B19&amp;" ("&amp;Regels!A19&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E19&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F19&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C19&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A19&amp;" *("&amp;Regels!I19&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F19&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G19&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H19&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Relatie tussen een Enumeratietype en een Domeinwaarde is 1:1 (R0018)
+        <v xml:space="preserve">### Relatie tussen een Attribuut en een Klasse is 1:n (R0015)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Binnen hetzelfde Enumeratietype mag één domeinwaarde één en slechts één keer voorkomen.  | 
-| *ID* | R0018 *(f459906c-5b6a-559b-1548-cb5aeb323e99)* |
+| *Regel* | Elk attribuut moet aan minstens één klasse worden toegewezen, maar dit mag aan meerdere. | 
+| *ID* | R0015 *(1e0bbf6a-1f60-a5ff-9037-85b0e05d88de)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
- |*Controle query* | checkDubbeleEnumeratieDomeinwaarden;  |
+ |*Controle query* | checkAttributenZonderKlasse |
 | {.index} | | 
 </v>
       </c>
@@ -2953,17 +2899,17 @@
         <f>Regels!D20</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B20" s="10" t="str">
+      <c r="B20" s="6" t="str">
         <f>"### "&amp;Regels!B20&amp;" ("&amp;Regels!A20&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E20&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F20&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C20&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A20&amp;" *("&amp;Regels!I20&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F20&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G20&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H20&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Relatie tussen een Enumeratietype en een Klasse is 1:1 (R0019)
+        <v xml:space="preserve">### Relatie tussen een Attribuut en een TypeAttribuut is 1:1 (R0016)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Elk Enumeratietype is per klasse uniek. (Dit is misgegaan bij Boom) | 
-| *ID* | R0019 *(83c851f2-3edb-8f7a-2732-d99253296ec4)* |
+| *Regel* | Elk attribuut moet één en slechts één relatie naar een TypeAttribuut hebben. | 
+| *ID* | R0016 *(a4128a71-9200-5eec-40de-39281e8b47bc)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
- |*Controle query* | checkDubbeleEnumeratietypes |
+ |*Controle query* | checkAttributenZonderTypeAttribuut |
 | {.index} | | 
 </v>
       </c>
@@ -2973,17 +2919,17 @@
         <f>Regels!D21</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B21" s="10" t="str">
+      <c r="B21" s="6" t="str">
         <f>"### "&amp;Regels!B21&amp;" ("&amp;Regels!A21&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E21&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F21&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C21&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A21&amp;" *("&amp;Regels!I21&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F21&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G21&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H21&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Relatie tussen een Klasse en een Attribuut is 1:1 (R0020)
+        <v xml:space="preserve">### Relatie tussen een Domeinwaarde en een Enumeratietype is 1:n (R0017)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Een attribuut mag één en slechts één keer aan een klasse worden toegewezen. | 
-| *ID* | R0020 *(04c47ac7-5a91-3929-0f56-a789a7809e88)* |
+| *Regel* | Elke Domeinwaarde moet aan minstens één Enumeratietype zijn toegewezen, maar dit mag aan meerdere. | 
+| *ID* | R0017 *(302cccc9-98d0-3049-0d8d-cf4deafe627b)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
- |*Controle query* | checkDubbeleKlassenAttributen |
+ |*Controle query* | checkDomeinwaardenZonderEnumeratie; checkEnumeratietypesZonderDomeinwaarden; checkEnumeratietypesMetDomeinwaarden |
 | {.index} | | 
 </v>
       </c>
@@ -2993,17 +2939,17 @@
         <f>Regels!D22</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B22" s="10" t="str">
+      <c r="B22" s="6" t="str">
         <f>"### "&amp;Regels!B22&amp;" ("&amp;Regels!A22&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E22&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F22&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C22&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A22&amp;" *("&amp;Regels!I22&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F22&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G22&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H22&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Relatie tussen een ObjectType en een Vakdiscipline is 1:n (R0021)
+        <v xml:space="preserve">### Relatie tussen een Enumeratietype en een Domeinwaarde is 1:1 (R0018)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Elk ObjectType is toegewezen aan minstens één Vakdiscipline | 
-| *ID* | R0021 *(cd4fb6ba-6594-49c4-393f-4fcf10d0a307)* |
+| *Regel* | Binnen hetzelfde Enumeratietype mag één domeinwaarde één en slechts één keer voorkomen.  | 
+| *ID* | R0018 *(f459906c-5b6a-559b-1548-cb5aeb323e99)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
- |*Controle query* | checkObjecttypenBinnenVakdiscipline; checkObjecttypenZonderVakdiscipline |
+ |*Controle query* | checkDubbeleEnumeratieDomeinwaarden;  |
 | {.index} | | 
 </v>
       </c>
@@ -3013,17 +2959,17 @@
         <f>Regels!D23</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B23" s="10" t="str">
+      <c r="B23" s="6" t="str">
         <f>"### "&amp;Regels!B23&amp;" ("&amp;Regels!A23&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E23&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F23&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C23&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A23&amp;" *("&amp;Regels!I23&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F23&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G23&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H23&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Relatie tussen een Vakdiscipline en een ObjectType is 1:1 (R0022)
+        <v xml:space="preserve">### Relatie tussen een Enumeratietype en een Klasse is 1:1 (R0019)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Binnen de mantel van één Vakdiscipline mag een ObjectType niet tweemaal of vaker voorkomen. | 
-| *ID* | R0022 *(d6dd1d2c-a725-2266-5751-a4d0a659a54b)* |
+| *Regel* | Elk Enumeratietype is per klasse uniek. (Dit is misgegaan bij Boom) | 
+| *ID* | R0019 *(83c851f2-3edb-8f7a-2732-d99253296ec4)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
- |*Controle query* | checkDubbeleVakdisciplineObjecttypen |
+ |*Controle query* | checkDubbeleEnumeratietypes |
 | {.index} | | 
 </v>
       </c>
@@ -3033,17 +2979,17 @@
         <f>Regels!D24</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B24" s="10" t="str">
+      <c r="B24" s="6" t="str">
         <f>"### "&amp;Regels!B24&amp;" ("&amp;Regels!A24&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E24&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F24&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C24&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A24&amp;" *("&amp;Regels!I24&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F24&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G24&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H24&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Relatie tussen IMBOR Concept en IMBOR Term is 1:n (R0023)
+        <v xml:space="preserve">### Relatie tussen een Klasse en een Attribuut is 1:1 (R0020)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Elk Klasse moet minimaal één relatie hebben naar een term uit de vocabulaire. | 
-| *ID* | R0023 *(f90e3a6c-24c0-303a-4766-51ecae8a25a5)* |
+| *Regel* | Een attribuut mag één en slechts één keer aan een klasse worden toegewezen. | 
+| *ID* | R0020 *(04c47ac7-5a91-3929-0f56-a789a7809e88)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
- |*Controle query* | checkKlassenDieOntbreken; checkObjecttypenZonderKlasse |
+ |*Controle query* | checkDubbeleKlassenAttributen |
 | {.index} | | 
 </v>
       </c>
@@ -3053,17 +2999,17 @@
         <f>Regels!D25</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B25" s="10" t="str">
+      <c r="B25" s="6" t="str">
         <f>"### "&amp;Regels!B25&amp;" ("&amp;Regels!A25&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E25&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F25&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C25&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A25&amp;" *("&amp;Regels!I25&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F25&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G25&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H25&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Relatie tussen ObjectType een GM Klassen is 1:n (R0024)
+        <v xml:space="preserve">### Relatie tussen een ObjectType en een Vakdiscipline is 1:n (R0021)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Aan elk ObjectType wordt minstens één geometrische representatie klasse gerelateerd, maar dit mogen er meerdere zijn (eentje is met multipliciteit 1:1) | 
-| *ID* | R0024 *(994c9e3e-0318-50ce-4502-2173f6389e70)* |
+| *Regel* | Elk ObjectType is toegewezen aan minstens één Vakdiscipline | 
+| *ID* | R0021 *(cd4fb6ba-6594-49c4-393f-4fcf10d0a307)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
- |*Controle query* | checkObjecttypenGMDefault |
+ |*Controle query* | checkObjecttypenBinnenVakdiscipline; checkObjecttypenZonderVakdiscipline |
 | {.index} | | 
 </v>
       </c>
@@ -3073,17 +3019,17 @@
         <f>Regels!D26</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B26" s="10" t="str">
+      <c r="B26" s="6" t="str">
         <f>"### "&amp;Regels!B26&amp;" ("&amp;Regels!A26&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E26&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F26&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C26&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A26&amp;" *("&amp;Regels!I26&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F26&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G26&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H26&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Semantische relaties worden alleen in dominante richting opgenomen (R0025)
+        <v xml:space="preserve">### Relatie tussen een Vakdiscipline en een ObjectType is 1:1 (R0022)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Elke semantische relatie van de vorm aRb wordt maar één keer opgenomen, waarbij het omgekeerde, d.w.z. bRa niet als equivalent wordt beschouwd. (Semiotisch anders interpretabel vs. machineleesbaar equivalent) | 
-| *ID* | R0025 *(e976d9a8-2f8c-60ea-2463-764cc4587ecd)* |
+| *Regel* | Binnen de mantel van één Vakdiscipline mag een ObjectType niet tweemaal of vaker voorkomen. | 
+| *ID* | R0022 *(d6dd1d2c-a725-2266-5751-a4d0a659a54b)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
- |*Controle query* | checkDubbeleSemantischeRelaties |
+ |*Controle query* | checkDubbeleVakdisciplineObjecttypen |
 | {.index} | | 
 </v>
       </c>
@@ -3093,17 +3039,17 @@
         <f>Regels!D27</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B27" s="10" t="str">
+      <c r="B27" s="6" t="str">
         <f>"### "&amp;Regels!B27&amp;" ("&amp;Regels!A27&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E27&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F27&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C27&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A27&amp;" *("&amp;Regels!I27&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F27&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G27&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H27&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### TypeExtraGedetailleerd mag alleen gebruikt worden als TypeGedetailleerd wordt gebruikt, en er moet een corresponderend Enumeratietype zijn (R0026)
+        <v xml:space="preserve">### Relatie tussen IMBOR Concept en IMBOR Term is 1:n (R0023)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Voor alle ObjectTypen met het attribuut type extra gedetailleerd geldt dat er een Enumeratietype van de vorm [Objecttype]TypeExtraGedetailleerd moet bestaan en aan de combinatie van KlasseAttribuut is gekoppeld waarvoor geldt dat: Klasse = [Objecttype] en Attribuut = TypeExtraGedetailleerd. | 
-| *ID* | R0026 *(70d83af8-2d4c-2e0e-5bfc-ed4dbc990ef7)* |
+| *Regel* | Elk Klasse moet minimaal één relatie hebben naar een term uit de vocabulaire. | 
+| *ID* | R0023 *(f90e3a6c-24c0-303a-4766-51ecae8a25a5)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
- |*Controle query* | checkObjecttypenMetTypeExtraGedetailleerd |
+ |*Controle query* | checkKlassenDieOntbreken; checkObjecttypenZonderKlasse |
 | {.index} | | 
 </v>
       </c>
@@ -3113,17 +3059,17 @@
         <f>Regels!D28</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B28" s="10" t="str">
+      <c r="B28" s="6" t="str">
         <f>"### "&amp;Regels!B28&amp;" ("&amp;Regels!A28&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E28&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F28&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C28&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A28&amp;" *("&amp;Regels!I28&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F28&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G28&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H28&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### TypeGedetailleerd mag alleen gebruikt worden als TypeGedetailleerd gebruikt is en er moet een corresponderend Enumeratietype zijn (R0027)
+        <v xml:space="preserve">### Relatie tussen ObjectType een GM Klassen is 1:n (R0024)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Voor alle ObjectTypen met het attribuut type gedetailleerd geldt dat er een Enumeratietype van de vorm [Objecttype]TypeGedetailleerd moet bestaan en aan de combinatie van KlasseAttribuut is gekoppeld waarvoor geldt dat: Klasse = [Objecttype] en Attribuut = TypeGedetailleerd. | 
-| *ID* | R0027 *(9cca4941-7530-8d4d-2862-e2ed93003500)* |
+| *Regel* | Aan elk ObjectType wordt minstens één geometrische representatie klasse gerelateerd, maar dit mogen er meerdere zijn (eentje is met multipliciteit 1:1) | 
+| *ID* | R0024 *(994c9e3e-0318-50ce-4502-2173f6389e70)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
- |*Controle query* | checkObjecttypenMetTypeGedetailleerd |
+ |*Controle query* | checkObjecttypenGMDefault |
 | {.index} | | 
 </v>
       </c>
@@ -3133,17 +3079,17 @@
         <f>Regels!D29</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B29" s="10" t="str">
+      <c r="B29" s="6" t="str">
         <f>"### "&amp;Regels!B29&amp;" ("&amp;Regels!A29&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E29&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F29&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C29&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A29&amp;" *("&amp;Regels!I29&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F29&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G29&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H29&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Wanneer het Attribuut 'Type' gebruikt wordt, moet er een 1;1 zijn naar een corresponderend Enumeratietype (R0028)
+        <v xml:space="preserve">### Semantische relaties worden alleen in dominante richting opgenomen (R0025)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Voor alle ObjectTypen met het attribuut type geldt dat er een Enumeratietype van de vorm [Objecttype]Type moet bestaan en aan de combinatie van KlasseAttribuut is gekoppeld waarvoor geldt dat: Klasse = [Objecttype] en Attribuut = Type. | 
-| *ID* | R0028 *(74296337-106b-2d1e-61a2-2fe747b03f6a)* |
+| *Regel* | Elke semantische relatie van de vorm aRb wordt maar één keer opgenomen, waarbij het omgekeerde, d.w.z. bRa niet als equivalent wordt beschouwd. (Semiotisch anders interpretabel vs. machineleesbaar equivalent). Vandaar dat de inverse dus ook expliciet opgenomen mag worden, als het nuttig is. | 
+| *ID* | R0025 *(e976d9a8-2f8c-60ea-2463-764cc4587ecd)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
- |*Controle query* | checkObjecttypenMetType |
+ |*Controle query* | checkDubbeleSemantischeRelaties |
 | {.index} | | 
 </v>
       </c>
@@ -3153,17 +3099,17 @@
         <f>Regels!D30</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B30" s="10" t="str">
+      <c r="B30" s="6" t="str">
         <f>"### "&amp;Regels!B30&amp;" ("&amp;Regels!A30&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E30&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F30&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C30&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A30&amp;" *("&amp;Regels!I30&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F30&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G30&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H30&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">###  (R0029)
+        <v xml:space="preserve">### Temporele aspecten worden gemodelleerd volgens de NEN3610 (R0045)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Als een attribuut het datatype xsd:decimal heeft, dan moet het attribuut ook een gedefinieerde eenheid hebben. | 
-| *ID* | R0029 *(0b62bb2a-21d5-631a-634c-0330d6112258)* |
+| *Regel* | Alles met betrekking tot datums en tijdstippen zou volgens de NEN3610 temporele aspecten gemodelleerd moeten worden, tenzij. | 
+| *ID* | R0045 *(b586e279-9956-8a52-0745-a336bdd8958f)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
- |*Controle query* | chekcAttributenEnEenheden |
+ |*Controle query* |  |
 | {.index} | | 
 </v>
       </c>
@@ -3173,8 +3119,68 @@
         <f>Regels!D31</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B31" s="10" t="str">
+      <c r="B31" s="6" t="str">
         <f>"### "&amp;Regels!B31&amp;" ("&amp;Regels!A31&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E31&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F31&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C31&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A31&amp;" *("&amp;Regels!I31&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F31&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G31&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H31&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <v xml:space="preserve">### TypeExtraGedetailleerd mag alleen gebruikt worden als TypeGedetailleerd wordt gebruikt, en er moet een corresponderend Enumeratietype zijn (R0026)
+Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
+| | |
+| ----- | ---- | 
+| *Regel* | Voor alle ObjectTypen met het attribuut type extra gedetailleerd geldt dat er een Enumeratietype van de vorm [Objecttype]TypeExtraGedetailleerd moet bestaan en aan de combinatie van KlasseAttribuut is gekoppeld waarvoor geldt dat: Klasse = [Objecttype] en Attribuut = TypeExtraGedetailleerd. | 
+| *ID* | R0026 *(70d83af8-2d4c-2e0e-5bfc-ed4dbc990ef7)* |
+| *Categorie* | Model consistentie
+ |*Gerelateerd issue* |  |
+ |*Controle query* | checkObjecttypenMetTypeExtraGedetailleerd |
+| {.index} | | 
+</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <f>Regels!D32</f>
+        <v>2-Ontologie</v>
+      </c>
+      <c r="B32" s="6" t="str">
+        <f>"### "&amp;Regels!B32&amp;" ("&amp;Regels!A32&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E32&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F32&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C32&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A32&amp;" *("&amp;Regels!I32&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F32&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G32&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H32&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <v xml:space="preserve">### TypeGedetailleerd mag alleen gebruikt worden als TypeGedetailleerd gebruikt is en er moet een corresponderend Enumeratietype zijn (R0027)
+Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
+| | |
+| ----- | ---- | 
+| *Regel* | Voor alle ObjectTypen met het attribuut type gedetailleerd geldt dat er een Enumeratietype van de vorm [Objecttype]TypeGedetailleerd moet bestaan en aan de combinatie van KlasseAttribuut is gekoppeld waarvoor geldt dat: Klasse = [Objecttype] en Attribuut = TypeGedetailleerd. | 
+| *ID* | R0027 *(9cca4941-7530-8d4d-2862-e2ed93003500)* |
+| *Categorie* | Model consistentie
+ |*Gerelateerd issue* |  |
+ |*Controle query* | checkObjecttypenMetTypeGedetailleerd |
+| {.index} | | 
+</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
+        <f>Regels!D33</f>
+        <v>2-Ontologie</v>
+      </c>
+      <c r="B33" s="6" t="str">
+        <f>"### "&amp;Regels!B33&amp;" ("&amp;Regels!A33&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E33&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F33&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C33&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A33&amp;" *("&amp;Regels!I33&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F33&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G33&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H33&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <v xml:space="preserve">### Wanneer het Attribuut 'Type' gebruikt wordt, moet er een 1;1 zijn naar een corresponderend Enumeratietype (R0028)
+Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
+| | |
+| ----- | ---- | 
+| *Regel* | Voor alle ObjectTypen met het attribuut type geldt dat er een Enumeratietype van de vorm [Objecttype]Type moet bestaan en aan de combinatie van KlasseAttribuut is gekoppeld waarvoor geldt dat: Klasse = [Objecttype] en Attribuut = Type. | 
+| *ID* | R0028 *(74296337-106b-2d1e-61a2-2fe747b03f6a)* |
+| *Categorie* | Model consistentie
+ |*Gerelateerd issue* |  |
+ |*Controle query* | checkObjecttypenMetType |
+| {.index} | | 
+</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="str">
+        <f>Regels!D34</f>
+        <v>2-Ontologie</v>
+      </c>
+      <c r="B34" s="6" t="str">
+        <f>"### "&amp;Regels!B34&amp;" ("&amp;Regels!A34&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E34&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F34&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C34&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A34&amp;" *("&amp;Regels!I34&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F34&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G34&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H34&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Consistent toepassen van topmodellen (R0030)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3188,13 +3194,13 @@
 </v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="str">
-        <f>Regels!D32</f>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="str">
+        <f>Regels!D35</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B32" s="10" t="str">
-        <f>"### "&amp;Regels!B32&amp;" ("&amp;Regels!A32&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E32&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F32&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C32&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A32&amp;" *("&amp;Regels!I32&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F32&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G32&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H32&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+      <c r="B35" s="6" t="str">
+        <f>"### "&amp;Regels!B35&amp;" ("&amp;Regels!A35&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E35&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F35&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C35&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A35&amp;" *("&amp;Regels!I35&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F35&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G35&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H35&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Semantische relaties genieten de voorkeur boven Attributen (R0031)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3208,13 +3214,13 @@
 </v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="str">
-        <f>Regels!D33</f>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="str">
+        <f>Regels!D36</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B33" s="10" t="str">
-        <f>"### "&amp;Regels!B33&amp;" ("&amp;Regels!A33&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E33&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F33&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C33&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A33&amp;" *("&amp;Regels!I33&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F33&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G33&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H33&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+      <c r="B36" s="6" t="str">
+        <f>"### "&amp;Regels!B36&amp;" ("&amp;Regels!A36&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E36&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F36&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C36&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A36&amp;" *("&amp;Regels!I36&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F36&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G36&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H36&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Toevoegen van nieuwe Klassen (en Objecttypen) 1 (R0032)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3228,13 +3234,13 @@
 </v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="str">
-        <f>Regels!D34</f>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="str">
+        <f>Regels!D37</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B34" s="10" t="str">
-        <f>"### "&amp;Regels!B34&amp;" ("&amp;Regels!A34&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E34&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F34&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C34&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A34&amp;" *("&amp;Regels!I34&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F34&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G34&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H34&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+      <c r="B37" s="6" t="str">
+        <f>"### "&amp;Regels!B37&amp;" ("&amp;Regels!A37&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E37&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F37&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C37&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A37&amp;" *("&amp;Regels!I37&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F37&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G37&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H37&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Toevoegen van nieuwe Klassen (en Objecttypen) 2 (R0033)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3248,13 +3254,13 @@
 </v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="str">
-        <f>Regels!D35</f>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
+        <f>Regels!D38</f>
         <v>1-Vocabulaire</v>
       </c>
-      <c r="B35" s="10" t="str">
-        <f>"### "&amp;Regels!B35&amp;" ("&amp;Regels!A35&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E35&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F35&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C35&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A35&amp;" *("&amp;Regels!I35&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F35&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G35&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H35&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+      <c r="B38" s="6" t="str">
+        <f>"### "&amp;Regels!B38&amp;" ("&amp;Regels!A38&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E38&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F38&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C38&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A38&amp;" *("&amp;Regels!I38&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F38&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G38&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H38&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Elke term heeft een unieke definitie binnen een collectie (R0034)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3268,13 +3274,13 @@
 </v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="str">
-        <f>Regels!D36</f>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <f>Regels!D39</f>
         <v>1-Vocabulaire</v>
       </c>
-      <c r="B36" s="10" t="str">
-        <f>"### "&amp;Regels!B36&amp;" ("&amp;Regels!A36&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E36&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F36&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C36&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A36&amp;" *("&amp;Regels!I36&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F36&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G36&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H36&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+      <c r="B39" s="6" t="str">
+        <f>"### "&amp;Regels!B39&amp;" ("&amp;Regels!A39&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E39&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F39&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C39&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A39&amp;" *("&amp;Regels!I39&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F39&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G39&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H39&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Grammaticale correctheid van woorden en teksten (R0035)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3288,13 +3294,13 @@
 </v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="str">
-        <f>Regels!D37</f>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <f>Regels!D40</f>
         <v>1-Vocabulaire</v>
       </c>
-      <c r="B37" s="10" t="str">
-        <f>"### "&amp;Regels!B37&amp;" ("&amp;Regels!A37&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E37&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F37&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C37&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A37&amp;" *("&amp;Regels!I37&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F37&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G37&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H37&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+      <c r="B40" s="6" t="str">
+        <f>"### "&amp;Regels!B40&amp;" ("&amp;Regels!A40&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E40&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F40&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C40&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A40&amp;" *("&amp;Regels!I40&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F40&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G40&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H40&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Hergebruik van termen en definities uit andere modellen (R0036)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3308,14 +3314,14 @@
 </v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="str">
-        <f>Regels!D38</f>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <f>Regels!D41</f>
         <v>1-Vocabulaire</v>
       </c>
-      <c r="B38" s="10" t="str">
-        <f>"### "&amp;Regels!B38&amp;" ("&amp;Regels!A38&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E38&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F38&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C38&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A38&amp;" *("&amp;Regels!I38&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F38&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G38&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H38&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Naamgeving Attributen (R0037)
+      <c r="B41" s="6" t="str">
+        <f>"### "&amp;Regels!B41&amp;" ("&amp;Regels!A41&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E41&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F41&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C41&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A41&amp;" *("&amp;Regels!I41&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F41&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G41&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H41&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <v xml:space="preserve">### Naamgeving Attributen 1 (R0037)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
 | | |
 | ----- | ---- | 
@@ -3328,73 +3334,93 @@
 </v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="str">
-        <f>Regels!D39</f>
-        <v>1-Vocabulaire</v>
-      </c>
-      <c r="B39" s="10" t="str">
-        <f>"### "&amp;Regels!B39&amp;" ("&amp;Regels!A39&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E39&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F39&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C39&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A39&amp;" *("&amp;Regels!I39&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F39&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G39&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H39&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Naamgeving Domeinwaarden (R0038)
-Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
-| | |
-| ----- | ---- | 
-| *Regel* | De termen die Domeinwaarden representeren worden volgens de NEN2660-2 conventies beschreven. In dit geval geldt dat deze beginnen met een hoofdletter, spaties mogen bevatten en in enkelvoud beschreven worden. | 
-| *ID* | R0038 *(d3182e34-97d8-2f33-1d41-1f33252a5def)* |
-| *Categorie* | Semantiek
- |*Gerelateerd issue* |  |
- |*Controle query* |  |
-| {.index} | | 
-</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="str">
-        <f>Regels!D40</f>
-        <v>1-Vocabulaire</v>
-      </c>
-      <c r="B40" s="10" t="str">
-        <f>"### "&amp;Regels!B40&amp;" ("&amp;Regels!A40&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E40&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F40&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C40&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A40&amp;" *("&amp;Regels!I40&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F40&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G40&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H40&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Naamgeving Klassen (R0039)
-Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
-| | |
-| ----- | ---- | 
-| *Regel* | De termen die Klassen representeren (dus ook: Objecttype, InformatieObjecten, Materie, Functies, etc.) worden volgens de NEN2660-2 conventies beschreven. In dit geval geldt dat deze beginnen met een hoofdletter, spaties mogen bevatten en in enkelvoud beschreven worden. En daarnaast voldoende beschrijvend moeten zijn. | 
-| *ID* | R0039 *(b9439077-2dc8-931f-54d7-9ed77ed41a94)* |
-| *Categorie* | Semantiek
- |*Gerelateerd issue* |  |
- |*Controle query* |  |
-| {.index} | | 
-</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="str">
-        <f>Regels!D41</f>
-        <v>1-Vocabulaire</v>
-      </c>
-      <c r="B41" s="10" t="str">
-        <f>"### "&amp;Regels!B41&amp;" ("&amp;Regels!A41&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E41&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F41&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C41&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A41&amp;" *("&amp;Regels!I41&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F41&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G41&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H41&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Naamgeving Relaties (R0040)
-Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
-| | |
-| ----- | ---- | 
-| *Regel* | De termen die Relaties representeren worden volgens de NEN2660-2 conventies beschreven. In dit geval geldt dat deze lower case zijn, spaties mogen bevatten en in enkelvoud beschreven worden. En daarnaast voldoende beschrijvend moeten zijn. De enige relaties de gebruikt worden zijn uit de NEN2660-2, deze zijn vertaald in IMBOR naar NL. | 
-| *ID* | R0040 *(f9f886bb-9456-6402-03e5-09485d2b9581)* |
-| *Categorie* | Semantiek
- |*Gerelateerd issue* |  |
- |*Controle query* |  |
-| {.index} | | 
-</v>
-      </c>
-    </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>Regels!D42</f>
         <v>1-Vocabulaire</v>
       </c>
-      <c r="B42" s="10" t="str">
+      <c r="B42" s="6" t="str">
         <f>"### "&amp;Regels!B42&amp;" ("&amp;Regels!A42&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E42&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F42&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C42&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A42&amp;" *("&amp;Regels!I42&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F42&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G42&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H42&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <v xml:space="preserve">### Naamgeving Attributen 2 (R0044)
+Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
+| | |
+| ----- | ---- | 
+| *Regel* | Termen (vooral met betrekking tot attributen) moeten aansluiten bij de definitie en daarmee dus niet te algemeen zijn | 
+| *ID* | R0044 *(db35e4f5-5c31-020c-8596-8d31a35f4f1b)* |
+| *Categorie* | Semantiek
+ |*Gerelateerd issue* | https://github.com/Stichting-CROW/imbor/issues/1006  |
+ |*Controle query* |  |
+| {.index} | | 
+</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
+        <f>Regels!D43</f>
+        <v>1-Vocabulaire</v>
+      </c>
+      <c r="B43" s="6" t="str">
+        <f>"### "&amp;Regels!B43&amp;" ("&amp;Regels!A43&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E43&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F43&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C43&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A43&amp;" *("&amp;Regels!I43&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F43&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G43&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H43&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <v xml:space="preserve">### Naamgeving Domeinwaarden (R0038)
+Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
+| | |
+| ----- | ---- | 
+| *Regel* | De termen die Domeinwaarden representeren worden volgens de NEN2660-2 conventies beschreven. In dit geval geldt dat deze beginnen met een hoofdletter, spaties mogen bevatten en in enkelvoud beschreven worden. | 
+| *ID* | R0038 *(d3182e34-97d8-2f33-1d41-1f33252a5def)* |
+| *Categorie* | Semantiek
+ |*Gerelateerd issue* |  |
+ |*Controle query* |  |
+| {.index} | | 
+</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
+        <f>Regels!D44</f>
+        <v>1-Vocabulaire</v>
+      </c>
+      <c r="B44" s="6" t="str">
+        <f>"### "&amp;Regels!B44&amp;" ("&amp;Regels!A44&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E44&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F44&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C44&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A44&amp;" *("&amp;Regels!I44&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F44&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G44&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H44&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <v xml:space="preserve">### Naamgeving Klassen (R0039)
+Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
+| | |
+| ----- | ---- | 
+| *Regel* | De termen die Klassen representeren (dus ook: Objecttype, InformatieObjecten, Materie, Functies, etc.) worden volgens de NEN2660-2 conventies beschreven. In dit geval geldt dat deze beginnen met een hoofdletter, spaties mogen bevatten en in enkelvoud beschreven worden. En daarnaast voldoende beschrijvend moeten zijn. | 
+| *ID* | R0039 *(b9439077-2dc8-931f-54d7-9ed77ed41a94)* |
+| *Categorie* | Semantiek
+ |*Gerelateerd issue* |  |
+ |*Controle query* |  |
+| {.index} | | 
+</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="str">
+        <f>Regels!D45</f>
+        <v>1-Vocabulaire</v>
+      </c>
+      <c r="B45" s="6" t="str">
+        <f>"### "&amp;Regels!B45&amp;" ("&amp;Regels!A45&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E45&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F45&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C45&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A45&amp;" *("&amp;Regels!I45&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F45&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G45&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H45&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <v xml:space="preserve">### Naamgeving Relaties (R0040)
+Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
+| | |
+| ----- | ---- | 
+| *Regel* | De termen die Relaties representeren worden volgens de NEN2660-2 conventies beschreven. In dit geval geldt dat deze lower case zijn, spaties mogen bevatten en in enkelvoud beschreven worden. En daarnaast voldoende beschrijvend moeten zijn. De enige relaties de gebruikt worden zijn uit de NEN2660-2, deze zijn vertaald in IMBOR naar NL. | 
+| *ID* | R0040 *(f9f886bb-9456-6402-03e5-09485d2b9581)* |
+| *Categorie* | Semantiek
+ |*Gerelateerd issue* |  |
+ |*Controle query* |  |
+| {.index} | | 
+</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <f>Regels!D46</f>
+        <v>1-Vocabulaire</v>
+      </c>
+      <c r="B46" s="6" t="str">
+        <f>"### "&amp;Regels!B46&amp;" ("&amp;Regels!A46&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E46&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F46&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C46&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A46&amp;" *("&amp;Regels!I46&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F46&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G46&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H46&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Overlap in semantiek moet vermeden worden 1 (R0041)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3408,13 +3434,13 @@
 </v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="str">
-        <f>Regels!D43</f>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
+        <f>Regels!D47</f>
         <v>1-Vocabulaire</v>
       </c>
-      <c r="B43" s="10" t="str">
-        <f>"### "&amp;Regels!B43&amp;" ("&amp;Regels!A43&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E43&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F43&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C43&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A43&amp;" *("&amp;Regels!I43&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F43&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G43&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H43&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+      <c r="B47" s="6" t="str">
+        <f>"### "&amp;Regels!B47&amp;" ("&amp;Regels!A47&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E47&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F47&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C47&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A47&amp;" *("&amp;Regels!I47&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F47&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G47&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H47&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Overlap in semantiek moet vermeden worden 2 (R0042)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3428,92 +3454,12 @@
 </v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <f>Regels!D44</f>
-        <v>0</v>
-      </c>
-      <c r="B44" s="10" t="str">
-        <f>"### "&amp;Regels!B44&amp;" ("&amp;Regels!A44&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E44&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F44&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C44&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A44&amp;" *("&amp;Regels!I44&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F44&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G44&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H44&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">###  ()
-Van toepassing op de ``, en valt binnen de categorie: ``
-| | |
-| ----- | ---- | 
-| *Regel* |  | 
-| *ID* |  *()* |
-| *Categorie* | 
- |*Gerelateerd issue* |  |
- |*Controle query* |  |
-| {.index} | | 
-</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <f>Regels!D45</f>
-        <v>0</v>
-      </c>
-      <c r="B45" s="10" t="str">
-        <f>"### "&amp;Regels!B45&amp;" ("&amp;Regels!A45&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E45&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F45&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C45&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A45&amp;" *("&amp;Regels!I45&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F45&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G45&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H45&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">###  ()
-Van toepassing op de ``, en valt binnen de categorie: ``
-| | |
-| ----- | ---- | 
-| *Regel* |  | 
-| *ID* |  *()* |
-| *Categorie* | 
- |*Gerelateerd issue* |  |
- |*Controle query* |  |
-| {.index} | | 
-</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <f>Regels!D46</f>
-        <v>0</v>
-      </c>
-      <c r="B46" s="10" t="str">
-        <f>"### "&amp;Regels!B46&amp;" ("&amp;Regels!A46&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E46&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F46&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C46&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A46&amp;" *("&amp;Regels!I46&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F46&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G46&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H46&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">###  ()
-Van toepassing op de ``, en valt binnen de categorie: ``
-| | |
-| ----- | ---- | 
-| *Regel* |  | 
-| *ID* |  *()* |
-| *Categorie* | 
- |*Gerelateerd issue* |  |
- |*Controle query* |  |
-| {.index} | | 
-</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <f>Regels!D47</f>
-        <v>0</v>
-      </c>
-      <c r="B47" s="10" t="str">
-        <f>"### "&amp;Regels!B47&amp;" ("&amp;Regels!A47&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E47&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F47&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C47&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A47&amp;" *("&amp;Regels!I47&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F47&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G47&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H47&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">###  ()
-Van toepassing op de ``, en valt binnen de categorie: ``
-| | |
-| ----- | ---- | 
-| *Regel* |  | 
-| *ID* |  *()* |
-| *Categorie* | 
- |*Gerelateerd issue* |  |
- |*Controle query* |  |
-| {.index} | | 
-</v>
-      </c>
-    </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <f>Regels!D48</f>
         <v>0</v>
       </c>
-      <c r="B48" s="10" t="str">
+      <c r="B48" s="6" t="str">
         <f>"### "&amp;Regels!B48&amp;" ("&amp;Regels!A48&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E48&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F48&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C48&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A48&amp;" *("&amp;Regels!I48&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F48&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G48&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H48&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3533,7 +3479,7 @@
         <f>Regels!D49</f>
         <v>0</v>
       </c>
-      <c r="B49" s="10" t="str">
+      <c r="B49" s="6" t="str">
         <f>"### "&amp;Regels!B49&amp;" ("&amp;Regels!A49&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E49&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F49&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C49&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A49&amp;" *("&amp;Regels!I49&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F49&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G49&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H49&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3553,7 +3499,7 @@
         <f>Regels!D50</f>
         <v>0</v>
       </c>
-      <c r="B50" s="10" t="str">
+      <c r="B50" s="6" t="str">
         <f>"### "&amp;Regels!B50&amp;" ("&amp;Regels!A50&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E50&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F50&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C50&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A50&amp;" *("&amp;Regels!I50&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F50&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G50&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H50&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3573,7 +3519,7 @@
         <f>Regels!D51</f>
         <v>0</v>
       </c>
-      <c r="B51" s="10" t="str">
+      <c r="B51" s="6" t="str">
         <f>"### "&amp;Regels!B51&amp;" ("&amp;Regels!A51&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E51&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F51&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C51&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A51&amp;" *("&amp;Regels!I51&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F51&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G51&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H51&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3593,7 +3539,7 @@
         <f>Regels!D52</f>
         <v>0</v>
       </c>
-      <c r="B52" s="10" t="str">
+      <c r="B52" s="6" t="str">
         <f>"### "&amp;Regels!B52&amp;" ("&amp;Regels!A52&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E52&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F52&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C52&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A52&amp;" *("&amp;Regels!I52&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F52&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G52&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H52&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3613,7 +3559,7 @@
         <f>Regels!D53</f>
         <v>0</v>
       </c>
-      <c r="B53" s="10" t="str">
+      <c r="B53" s="6" t="str">
         <f>"### "&amp;Regels!B53&amp;" ("&amp;Regels!A53&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E53&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F53&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C53&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A53&amp;" *("&amp;Regels!I53&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F53&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G53&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H53&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3633,7 +3579,7 @@
         <f>Regels!D54</f>
         <v>0</v>
       </c>
-      <c r="B54" s="10" t="str">
+      <c r="B54" s="6" t="str">
         <f>"### "&amp;Regels!B54&amp;" ("&amp;Regels!A54&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E54&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F54&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C54&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A54&amp;" *("&amp;Regels!I54&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F54&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G54&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H54&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3653,7 +3599,7 @@
         <f>Regels!D55</f>
         <v>0</v>
       </c>
-      <c r="B55" s="10" t="str">
+      <c r="B55" s="6" t="str">
         <f>"### "&amp;Regels!B55&amp;" ("&amp;Regels!A55&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E55&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F55&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C55&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A55&amp;" *("&amp;Regels!I55&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F55&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G55&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H55&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3673,7 +3619,7 @@
         <f>Regels!D56</f>
         <v>0</v>
       </c>
-      <c r="B56" s="10" t="str">
+      <c r="B56" s="6" t="str">
         <f>"### "&amp;Regels!B56&amp;" ("&amp;Regels!A56&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E56&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F56&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C56&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A56&amp;" *("&amp;Regels!I56&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F56&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G56&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H56&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3693,7 +3639,7 @@
         <f>Regels!D57</f>
         <v>0</v>
       </c>
-      <c r="B57" s="10" t="str">
+      <c r="B57" s="6" t="str">
         <f>"### "&amp;Regels!B57&amp;" ("&amp;Regels!A57&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E57&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F57&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C57&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A57&amp;" *("&amp;Regels!I57&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F57&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G57&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H57&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3713,7 +3659,7 @@
         <f>Regels!D58</f>
         <v>0</v>
       </c>
-      <c r="B58" s="10" t="str">
+      <c r="B58" s="6" t="str">
         <f>"### "&amp;Regels!B58&amp;" ("&amp;Regels!A58&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E58&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F58&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C58&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A58&amp;" *("&amp;Regels!I58&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F58&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G58&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H58&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3733,7 +3679,7 @@
         <f>Regels!D59</f>
         <v>0</v>
       </c>
-      <c r="B59" s="10" t="str">
+      <c r="B59" s="6" t="str">
         <f>"### "&amp;Regels!B59&amp;" ("&amp;Regels!A59&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E59&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F59&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C59&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A59&amp;" *("&amp;Regels!I59&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F59&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G59&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H59&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3753,7 +3699,7 @@
         <f>Regels!D60</f>
         <v>0</v>
       </c>
-      <c r="B60" s="10" t="str">
+      <c r="B60" s="6" t="str">
         <f>"### "&amp;Regels!B60&amp;" ("&amp;Regels!A60&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E60&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F60&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C60&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A60&amp;" *("&amp;Regels!I60&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F60&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G60&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H60&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3773,7 +3719,7 @@
         <f>Regels!D61</f>
         <v>0</v>
       </c>
-      <c r="B61" s="10" t="str">
+      <c r="B61" s="6" t="str">
         <f>"### "&amp;Regels!B61&amp;" ("&amp;Regels!A61&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E61&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F61&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C61&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A61&amp;" *("&amp;Regels!I61&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F61&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G61&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H61&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3793,7 +3739,7 @@
         <f>Regels!D62</f>
         <v>0</v>
       </c>
-      <c r="B62" s="10" t="str">
+      <c r="B62" s="6" t="str">
         <f>"### "&amp;Regels!B62&amp;" ("&amp;Regels!A62&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E62&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F62&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C62&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A62&amp;" *("&amp;Regels!I62&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F62&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G62&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H62&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3813,7 +3759,7 @@
         <f>Regels!D63</f>
         <v>0</v>
       </c>
-      <c r="B63" s="10" t="str">
+      <c r="B63" s="6" t="str">
         <f>"### "&amp;Regels!B63&amp;" ("&amp;Regels!A63&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E63&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F63&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C63&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A63&amp;" *("&amp;Regels!I63&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F63&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G63&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H63&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3833,7 +3779,7 @@
         <f>Regels!D64</f>
         <v>0</v>
       </c>
-      <c r="B64" s="10" t="str">
+      <c r="B64" s="6" t="str">
         <f>"### "&amp;Regels!B64&amp;" ("&amp;Regels!A64&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E64&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F64&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C64&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A64&amp;" *("&amp;Regels!I64&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F64&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G64&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H64&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3853,7 +3799,7 @@
         <f>Regels!D65</f>
         <v>0</v>
       </c>
-      <c r="B65" s="10" t="str">
+      <c r="B65" s="6" t="str">
         <f>"### "&amp;Regels!B65&amp;" ("&amp;Regels!A65&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E65&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F65&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C65&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A65&amp;" *("&amp;Regels!I65&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F65&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G65&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H65&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3873,7 +3819,7 @@
         <f>Regels!D66</f>
         <v>0</v>
       </c>
-      <c r="B66" s="10" t="str">
+      <c r="B66" s="6" t="str">
         <f>"### "&amp;Regels!B66&amp;" ("&amp;Regels!A66&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E66&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F66&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C66&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A66&amp;" *("&amp;Regels!I66&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F66&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G66&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H66&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3893,7 +3839,7 @@
         <f>Regels!D67</f>
         <v>0</v>
       </c>
-      <c r="B67" s="10" t="str">
+      <c r="B67" s="6" t="str">
         <f>"### "&amp;Regels!B67&amp;" ("&amp;Regels!A67&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E67&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F67&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C67&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A67&amp;" *("&amp;Regels!I67&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F67&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G67&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H67&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3913,7 +3859,7 @@
         <f>Regels!D68</f>
         <v>0</v>
       </c>
-      <c r="B68" s="10" t="str">
+      <c r="B68" s="6" t="str">
         <f>"### "&amp;Regels!B68&amp;" ("&amp;Regels!A68&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E68&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F68&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C68&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A68&amp;" *("&amp;Regels!I68&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F68&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G68&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H68&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3933,7 +3879,7 @@
         <f>Regels!D69</f>
         <v>0</v>
       </c>
-      <c r="B69" s="10" t="str">
+      <c r="B69" s="6" t="str">
         <f>"### "&amp;Regels!B69&amp;" ("&amp;Regels!A69&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E69&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F69&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C69&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A69&amp;" *("&amp;Regels!I69&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F69&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G69&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H69&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3953,7 +3899,7 @@
         <f>Regels!D70</f>
         <v>0</v>
       </c>
-      <c r="B70" s="10" t="str">
+      <c r="B70" s="6" t="str">
         <f>"### "&amp;Regels!B70&amp;" ("&amp;Regels!A70&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E70&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F70&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C70&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A70&amp;" *("&amp;Regels!I70&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F70&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G70&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H70&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3973,7 +3919,7 @@
         <f>Regels!D71</f>
         <v>0</v>
       </c>
-      <c r="B71" s="10" t="str">
+      <c r="B71" s="6" t="str">
         <f>"### "&amp;Regels!B71&amp;" ("&amp;Regels!A71&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E71&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F71&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C71&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A71&amp;" *("&amp;Regels!I71&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F71&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G71&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H71&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3993,7 +3939,7 @@
         <f>Regels!D72</f>
         <v>0</v>
       </c>
-      <c r="B72" s="10" t="str">
+      <c r="B72" s="6" t="str">
         <f>"### "&amp;Regels!B72&amp;" ("&amp;Regels!A72&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E72&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F72&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C72&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A72&amp;" *("&amp;Regels!I72&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F72&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G72&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H72&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4013,7 +3959,7 @@
         <f>Regels!D73</f>
         <v>0</v>
       </c>
-      <c r="B73" s="10" t="str">
+      <c r="B73" s="6" t="str">
         <f>"### "&amp;Regels!B73&amp;" ("&amp;Regels!A73&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E73&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F73&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C73&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A73&amp;" *("&amp;Regels!I73&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F73&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G73&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H73&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4033,7 +3979,7 @@
         <f>Regels!D74</f>
         <v>0</v>
       </c>
-      <c r="B74" s="10" t="str">
+      <c r="B74" s="6" t="str">
         <f>"### "&amp;Regels!B74&amp;" ("&amp;Regels!A74&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E74&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F74&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C74&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A74&amp;" *("&amp;Regels!I74&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F74&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G74&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H74&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4053,7 +3999,7 @@
         <f>Regels!D75</f>
         <v>0</v>
       </c>
-      <c r="B75" s="10" t="str">
+      <c r="B75" s="6" t="str">
         <f>"### "&amp;Regels!B75&amp;" ("&amp;Regels!A75&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E75&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F75&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C75&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A75&amp;" *("&amp;Regels!I75&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F75&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G75&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H75&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4073,7 +4019,7 @@
         <f>Regels!D76</f>
         <v>0</v>
       </c>
-      <c r="B76" s="10" t="str">
+      <c r="B76" s="6" t="str">
         <f>"### "&amp;Regels!B76&amp;" ("&amp;Regels!A76&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E76&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F76&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C76&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A76&amp;" *("&amp;Regels!I76&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F76&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G76&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H76&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4093,7 +4039,7 @@
         <f>Regels!D77</f>
         <v>0</v>
       </c>
-      <c r="B77" s="10" t="str">
+      <c r="B77" s="6" t="str">
         <f>"### "&amp;Regels!B77&amp;" ("&amp;Regels!A77&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E77&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F77&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C77&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A77&amp;" *("&amp;Regels!I77&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F77&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G77&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H77&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4113,7 +4059,7 @@
         <f>Regels!D78</f>
         <v>0</v>
       </c>
-      <c r="B78" s="10" t="str">
+      <c r="B78" s="6" t="str">
         <f>"### "&amp;Regels!B78&amp;" ("&amp;Regels!A78&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E78&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F78&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C78&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A78&amp;" *("&amp;Regels!I78&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F78&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G78&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H78&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4133,7 +4079,7 @@
         <f>Regels!D79</f>
         <v>0</v>
       </c>
-      <c r="B79" s="10" t="str">
+      <c r="B79" s="6" t="str">
         <f>"### "&amp;Regels!B79&amp;" ("&amp;Regels!A79&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E79&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F79&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C79&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A79&amp;" *("&amp;Regels!I79&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F79&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G79&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H79&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4153,7 +4099,7 @@
         <f>Regels!D80</f>
         <v>0</v>
       </c>
-      <c r="B80" s="10" t="str">
+      <c r="B80" s="6" t="str">
         <f>"### "&amp;Regels!B80&amp;" ("&amp;Regels!A80&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E80&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F80&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C80&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A80&amp;" *("&amp;Regels!I80&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F80&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G80&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H80&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4173,7 +4119,7 @@
         <f>Regels!D81</f>
         <v>0</v>
       </c>
-      <c r="B81" s="10" t="str">
+      <c r="B81" s="6" t="str">
         <f>"### "&amp;Regels!B81&amp;" ("&amp;Regels!A81&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E81&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F81&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C81&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A81&amp;" *("&amp;Regels!I81&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F81&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G81&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H81&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4193,7 +4139,7 @@
         <f>Regels!D82</f>
         <v>0</v>
       </c>
-      <c r="B82" s="10" t="str">
+      <c r="B82" s="6" t="str">
         <f>"### "&amp;Regels!B82&amp;" ("&amp;Regels!A82&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E82&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F82&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C82&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A82&amp;" *("&amp;Regels!I82&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F82&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G82&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H82&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4213,7 +4159,7 @@
         <f>Regels!D83</f>
         <v>0</v>
       </c>
-      <c r="B83" s="10" t="str">
+      <c r="B83" s="6" t="str">
         <f>"### "&amp;Regels!B83&amp;" ("&amp;Regels!A83&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E83&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F83&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C83&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A83&amp;" *("&amp;Regels!I83&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F83&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G83&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H83&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4233,7 +4179,7 @@
         <f>Regels!D84</f>
         <v>0</v>
       </c>
-      <c r="B84" s="10" t="str">
+      <c r="B84" s="6" t="str">
         <f>"### "&amp;Regels!B84&amp;" ("&amp;Regels!A84&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E84&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F84&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C84&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A84&amp;" *("&amp;Regels!I84&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F84&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G84&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H84&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4253,7 +4199,7 @@
         <f>Regels!D85</f>
         <v>0</v>
       </c>
-      <c r="B85" s="10" t="str">
+      <c r="B85" s="6" t="str">
         <f>"### "&amp;Regels!B85&amp;" ("&amp;Regels!A85&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E85&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F85&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C85&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A85&amp;" *("&amp;Regels!I85&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F85&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G85&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H85&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4273,7 +4219,7 @@
         <f>Regels!D86</f>
         <v>0</v>
       </c>
-      <c r="B86" s="10" t="str">
+      <c r="B86" s="6" t="str">
         <f>"### "&amp;Regels!B86&amp;" ("&amp;Regels!A86&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E86&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F86&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C86&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A86&amp;" *("&amp;Regels!I86&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F86&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G86&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H86&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4293,7 +4239,7 @@
         <f>Regels!D87</f>
         <v>0</v>
       </c>
-      <c r="B87" s="10" t="str">
+      <c r="B87" s="6" t="str">
         <f>"### "&amp;Regels!B87&amp;" ("&amp;Regels!A87&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E87&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F87&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C87&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A87&amp;" *("&amp;Regels!I87&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F87&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G87&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H87&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4313,7 +4259,7 @@
         <f>Regels!D88</f>
         <v>0</v>
       </c>
-      <c r="B88" s="10" t="str">
+      <c r="B88" s="6" t="str">
         <f>"### "&amp;Regels!B88&amp;" ("&amp;Regels!A88&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E88&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F88&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C88&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A88&amp;" *("&amp;Regels!I88&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F88&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G88&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H88&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4333,7 +4279,7 @@
         <f>Regels!D89</f>
         <v>0</v>
       </c>
-      <c r="B89" s="10" t="str">
+      <c r="B89" s="6" t="str">
         <f>"### "&amp;Regels!B89&amp;" ("&amp;Regels!A89&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E89&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F89&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C89&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A89&amp;" *("&amp;Regels!I89&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F89&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G89&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H89&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4353,7 +4299,7 @@
         <f>Regels!D90</f>
         <v>0</v>
       </c>
-      <c r="B90" s="10" t="str">
+      <c r="B90" s="6" t="str">
         <f>"### "&amp;Regels!B90&amp;" ("&amp;Regels!A90&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E90&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F90&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C90&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A90&amp;" *("&amp;Regels!I90&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F90&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G90&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H90&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4373,7 +4319,7 @@
         <f>Regels!D91</f>
         <v>0</v>
       </c>
-      <c r="B91" s="10" t="str">
+      <c r="B91" s="6" t="str">
         <f>"### "&amp;Regels!B91&amp;" ("&amp;Regels!A91&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E91&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F91&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C91&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A91&amp;" *("&amp;Regels!I91&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F91&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G91&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H91&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4393,7 +4339,7 @@
         <f>Regels!D92</f>
         <v>0</v>
       </c>
-      <c r="B92" s="10" t="str">
+      <c r="B92" s="6" t="str">
         <f>"### "&amp;Regels!B92&amp;" ("&amp;Regels!A92&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E92&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F92&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C92&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A92&amp;" *("&amp;Regels!I92&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F92&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G92&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H92&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4413,7 +4359,7 @@
         <f>Regels!D93</f>
         <v>0</v>
       </c>
-      <c r="B93" s="10" t="str">
+      <c r="B93" s="6" t="str">
         <f>"### "&amp;Regels!B93&amp;" ("&amp;Regels!A93&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E93&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F93&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C93&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A93&amp;" *("&amp;Regels!I93&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F93&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G93&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H93&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4433,7 +4379,7 @@
         <f>Regels!D94</f>
         <v>0</v>
       </c>
-      <c r="B94" s="10" t="str">
+      <c r="B94" s="6" t="str">
         <f>"### "&amp;Regels!B94&amp;" ("&amp;Regels!A94&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E94&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F94&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C94&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A94&amp;" *("&amp;Regels!I94&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F94&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G94&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H94&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4453,7 +4399,7 @@
         <f>Regels!D95</f>
         <v>0</v>
       </c>
-      <c r="B95" s="10" t="str">
+      <c r="B95" s="6" t="str">
         <f>"### "&amp;Regels!B95&amp;" ("&amp;Regels!A95&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E95&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F95&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C95&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A95&amp;" *("&amp;Regels!I95&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F95&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G95&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H95&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4473,7 +4419,7 @@
         <f>Regels!D96</f>
         <v>0</v>
       </c>
-      <c r="B96" s="10" t="str">
+      <c r="B96" s="6" t="str">
         <f>"### "&amp;Regels!B96&amp;" ("&amp;Regels!A96&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E96&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F96&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C96&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A96&amp;" *("&amp;Regels!I96&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F96&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G96&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H96&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4493,7 +4439,7 @@
         <f>Regels!D97</f>
         <v>0</v>
       </c>
-      <c r="B97" s="10" t="str">
+      <c r="B97" s="6" t="str">
         <f>"### "&amp;Regels!B97&amp;" ("&amp;Regels!A97&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E97&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F97&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C97&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A97&amp;" *("&amp;Regels!I97&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F97&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G97&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H97&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4513,7 +4459,7 @@
         <f>Regels!D98</f>
         <v>0</v>
       </c>
-      <c r="B98" s="10" t="str">
+      <c r="B98" s="6" t="str">
         <f>"### "&amp;Regels!B98&amp;" ("&amp;Regels!A98&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E98&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F98&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C98&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A98&amp;" *("&amp;Regels!I98&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F98&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G98&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H98&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4533,7 +4479,7 @@
         <f>Regels!D99</f>
         <v>0</v>
       </c>
-      <c r="B99" s="10" t="str">
+      <c r="B99" s="6" t="str">
         <f>"### "&amp;Regels!B99&amp;" ("&amp;Regels!A99&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E99&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F99&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C99&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A99&amp;" *("&amp;Regels!I99&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F99&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G99&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H99&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4553,7 +4499,7 @@
         <f>Regels!D100</f>
         <v>0</v>
       </c>
-      <c r="B100" s="10" t="str">
+      <c r="B100" s="6" t="str">
         <f>"### "&amp;Regels!B100&amp;" ("&amp;Regels!A100&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E100&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F100&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C100&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A100&amp;" *("&amp;Regels!I100&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F100&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G100&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H100&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4573,7 +4519,7 @@
         <f>Regels!D101</f>
         <v>0</v>
       </c>
-      <c r="B101" s="10" t="str">
+      <c r="B101" s="6" t="str">
         <f>"### "&amp;Regels!B101&amp;" ("&amp;Regels!A101&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E101&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F101&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C101&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A101&amp;" *("&amp;Regels!I101&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F101&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G101&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H101&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4593,7 +4539,7 @@
         <f>Regels!D102</f>
         <v>0</v>
       </c>
-      <c r="B102" s="10" t="str">
+      <c r="B102" s="6" t="str">
         <f>"### "&amp;Regels!B102&amp;" ("&amp;Regels!A102&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E102&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F102&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C102&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A102&amp;" *("&amp;Regels!I102&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F102&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G102&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H102&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4613,7 +4559,7 @@
         <f>Regels!D103</f>
         <v>0</v>
       </c>
-      <c r="B103" s="10" t="str">
+      <c r="B103" s="6" t="str">
         <f>"### "&amp;Regels!B103&amp;" ("&amp;Regels!A103&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E103&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F103&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C103&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A103&amp;" *("&amp;Regels!I103&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F103&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G103&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H103&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4633,7 +4579,7 @@
         <f>Regels!D104</f>
         <v>0</v>
       </c>
-      <c r="B104" s="10" t="str">
+      <c r="B104" s="6" t="str">
         <f>"### "&amp;Regels!B104&amp;" ("&amp;Regels!A104&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E104&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F104&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C104&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A104&amp;" *("&amp;Regels!I104&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F104&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G104&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H104&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4653,7 +4599,7 @@
         <f>Regels!D105</f>
         <v>0</v>
       </c>
-      <c r="B105" s="10" t="str">
+      <c r="B105" s="6" t="str">
         <f>"### "&amp;Regels!B105&amp;" ("&amp;Regels!A105&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E105&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F105&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C105&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A105&amp;" *("&amp;Regels!I105&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F105&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G105&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H105&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4673,7 +4619,7 @@
         <f>Regels!D106</f>
         <v>0</v>
       </c>
-      <c r="B106" s="10" t="str">
+      <c r="B106" s="6" t="str">
         <f>"### "&amp;Regels!B106&amp;" ("&amp;Regels!A106&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E106&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F106&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C106&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A106&amp;" *("&amp;Regels!I106&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F106&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G106&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H106&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4693,7 +4639,7 @@
         <f>Regels!D107</f>
         <v>0</v>
       </c>
-      <c r="B107" s="10" t="str">
+      <c r="B107" s="6" t="str">
         <f>"### "&amp;Regels!B107&amp;" ("&amp;Regels!A107&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E107&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F107&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C107&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A107&amp;" *("&amp;Regels!I107&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F107&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G107&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H107&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4713,7 +4659,7 @@
         <f>Regels!D108</f>
         <v>0</v>
       </c>
-      <c r="B108" s="10" t="str">
+      <c r="B108" s="6" t="str">
         <f>"### "&amp;Regels!B108&amp;" ("&amp;Regels!A108&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E108&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F108&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C108&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A108&amp;" *("&amp;Regels!I108&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F108&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G108&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H108&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4733,7 +4679,7 @@
         <f>Regels!D109</f>
         <v>0</v>
       </c>
-      <c r="B109" s="10" t="str">
+      <c r="B109" s="6" t="str">
         <f>"### "&amp;Regels!B109&amp;" ("&amp;Regels!A109&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E109&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F109&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C109&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A109&amp;" *("&amp;Regels!I109&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F109&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G109&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H109&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4753,7 +4699,7 @@
         <f>Regels!D110</f>
         <v>0</v>
       </c>
-      <c r="B110" s="10" t="str">
+      <c r="B110" s="6" t="str">
         <f>"### "&amp;Regels!B110&amp;" ("&amp;Regels!A110&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E110&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F110&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C110&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A110&amp;" *("&amp;Regels!I110&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F110&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G110&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H110&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4773,7 +4719,7 @@
         <f>Regels!D111</f>
         <v>0</v>
       </c>
-      <c r="B111" s="10" t="str">
+      <c r="B111" s="6" t="str">
         <f>"### "&amp;Regels!B111&amp;" ("&amp;Regels!A111&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E111&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F111&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C111&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A111&amp;" *("&amp;Regels!I111&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F111&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G111&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H111&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4793,7 +4739,7 @@
         <f>Regels!D112</f>
         <v>0</v>
       </c>
-      <c r="B112" s="10" t="str">
+      <c r="B112" s="6" t="str">
         <f>"### "&amp;Regels!B112&amp;" ("&amp;Regels!A112&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E112&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F112&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C112&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A112&amp;" *("&amp;Regels!I112&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F112&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G112&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H112&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4813,7 +4759,7 @@
         <f>Regels!D113</f>
         <v>0</v>
       </c>
-      <c r="B113" s="10" t="str">
+      <c r="B113" s="6" t="str">
         <f>"### "&amp;Regels!B113&amp;" ("&amp;Regels!A113&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E113&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F113&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C113&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A113&amp;" *("&amp;Regels!I113&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F113&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G113&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H113&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4833,7 +4779,7 @@
         <f>Regels!D114</f>
         <v>0</v>
       </c>
-      <c r="B114" s="10" t="str">
+      <c r="B114" s="6" t="str">
         <f>"### "&amp;Regels!B114&amp;" ("&amp;Regels!A114&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E114&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F114&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C114&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A114&amp;" *("&amp;Regels!I114&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F114&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G114&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H114&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4853,7 +4799,7 @@
         <f>Regels!D115</f>
         <v>0</v>
       </c>
-      <c r="B115" s="10" t="str">
+      <c r="B115" s="6" t="str">
         <f>"### "&amp;Regels!B115&amp;" ("&amp;Regels!A115&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E115&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F115&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C115&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A115&amp;" *("&amp;Regels!I115&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F115&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G115&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H115&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4873,7 +4819,7 @@
         <f>Regels!D116</f>
         <v>0</v>
       </c>
-      <c r="B116" s="10" t="str">
+      <c r="B116" s="6" t="str">
         <f>"### "&amp;Regels!B116&amp;" ("&amp;Regels!A116&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E116&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F116&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C116&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A116&amp;" *("&amp;Regels!I116&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F116&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G116&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H116&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4893,7 +4839,7 @@
         <f>Regels!D117</f>
         <v>0</v>
       </c>
-      <c r="B117" s="10" t="str">
+      <c r="B117" s="6" t="str">
         <f>"### "&amp;Regels!B117&amp;" ("&amp;Regels!A117&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E117&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F117&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C117&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A117&amp;" *("&amp;Regels!I117&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F117&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G117&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H117&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4913,7 +4859,7 @@
         <f>Regels!D118</f>
         <v>0</v>
       </c>
-      <c r="B118" s="10" t="str">
+      <c r="B118" s="6" t="str">
         <f>"### "&amp;Regels!B118&amp;" ("&amp;Regels!A118&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E118&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F118&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C118&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A118&amp;" *("&amp;Regels!I118&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F118&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G118&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H118&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4933,7 +4879,7 @@
         <f>Regels!D119</f>
         <v>0</v>
       </c>
-      <c r="B119" s="10" t="str">
+      <c r="B119" s="6" t="str">
         <f>"### "&amp;Regels!B119&amp;" ("&amp;Regels!A119&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E119&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F119&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C119&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A119&amp;" *("&amp;Regels!I119&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F119&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G119&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H119&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4953,7 +4899,7 @@
         <f>Regels!D120</f>
         <v>0</v>
       </c>
-      <c r="B120" s="10" t="str">
+      <c r="B120" s="6" t="str">
         <f>"### "&amp;Regels!B120&amp;" ("&amp;Regels!A120&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E120&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F120&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C120&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A120&amp;" *("&amp;Regels!I120&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F120&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G120&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H120&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4973,7 +4919,7 @@
         <f>Regels!D121</f>
         <v>0</v>
       </c>
-      <c r="B121" s="10" t="str">
+      <c r="B121" s="6" t="str">
         <f>"### "&amp;Regels!B121&amp;" ("&amp;Regels!A121&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E121&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F121&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C121&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A121&amp;" *("&amp;Regels!I121&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F121&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G121&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H121&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4993,7 +4939,7 @@
         <f>Regels!D122</f>
         <v>0</v>
       </c>
-      <c r="B122" s="10" t="str">
+      <c r="B122" s="6" t="str">
         <f>"### "&amp;Regels!B122&amp;" ("&amp;Regels!A122&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E122&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F122&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C122&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A122&amp;" *("&amp;Regels!I122&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F122&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G122&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H122&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5013,7 +4959,7 @@
         <f>Regels!D123</f>
         <v>0</v>
       </c>
-      <c r="B123" s="10" t="str">
+      <c r="B123" s="6" t="str">
         <f>"### "&amp;Regels!B123&amp;" ("&amp;Regels!A123&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E123&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F123&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C123&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A123&amp;" *("&amp;Regels!I123&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F123&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G123&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H123&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5033,7 +4979,7 @@
         <f>Regels!D124</f>
         <v>0</v>
       </c>
-      <c r="B124" s="10" t="str">
+      <c r="B124" s="6" t="str">
         <f>"### "&amp;Regels!B124&amp;" ("&amp;Regels!A124&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E124&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F124&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C124&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A124&amp;" *("&amp;Regels!I124&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F124&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G124&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H124&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5053,7 +4999,7 @@
         <f>Regels!D125</f>
         <v>0</v>
       </c>
-      <c r="B125" s="10" t="str">
+      <c r="B125" s="6" t="str">
         <f>"### "&amp;Regels!B125&amp;" ("&amp;Regels!A125&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E125&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F125&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C125&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A125&amp;" *("&amp;Regels!I125&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F125&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G125&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H125&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5073,7 +5019,7 @@
         <f>Regels!D126</f>
         <v>0</v>
       </c>
-      <c r="B126" s="10" t="str">
+      <c r="B126" s="6" t="str">
         <f>"### "&amp;Regels!B126&amp;" ("&amp;Regels!A126&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E126&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F126&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C126&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A126&amp;" *("&amp;Regels!I126&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F126&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G126&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H126&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5093,7 +5039,7 @@
         <f>Regels!D127</f>
         <v>0</v>
       </c>
-      <c r="B127" s="10" t="str">
+      <c r="B127" s="6" t="str">
         <f>"### "&amp;Regels!B127&amp;" ("&amp;Regels!A127&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E127&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F127&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C127&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A127&amp;" *("&amp;Regels!I127&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F127&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G127&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H127&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5113,7 +5059,7 @@
         <f>Regels!D128</f>
         <v>0</v>
       </c>
-      <c r="B128" s="10" t="str">
+      <c r="B128" s="6" t="str">
         <f>"### "&amp;Regels!B128&amp;" ("&amp;Regels!A128&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E128&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F128&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C128&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A128&amp;" *("&amp;Regels!I128&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F128&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G128&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H128&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5133,7 +5079,7 @@
         <f>Regels!D129</f>
         <v>0</v>
       </c>
-      <c r="B129" s="10" t="str">
+      <c r="B129" s="6" t="str">
         <f>"### "&amp;Regels!B129&amp;" ("&amp;Regels!A129&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E129&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F129&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C129&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A129&amp;" *("&amp;Regels!I129&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F129&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G129&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H129&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5153,7 +5099,7 @@
         <f>Regels!D130</f>
         <v>0</v>
       </c>
-      <c r="B130" s="10" t="str">
+      <c r="B130" s="6" t="str">
         <f>"### "&amp;Regels!B130&amp;" ("&amp;Regels!A130&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E130&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F130&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C130&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A130&amp;" *("&amp;Regels!I130&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F130&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G130&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H130&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5173,7 +5119,7 @@
         <f>Regels!D131</f>
         <v>0</v>
       </c>
-      <c r="B131" s="10" t="str">
+      <c r="B131" s="6" t="str">
         <f>"### "&amp;Regels!B131&amp;" ("&amp;Regels!A131&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E131&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F131&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C131&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A131&amp;" *("&amp;Regels!I131&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F131&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G131&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H131&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5193,7 +5139,7 @@
         <f>Regels!D132</f>
         <v>0</v>
       </c>
-      <c r="B132" s="10" t="str">
+      <c r="B132" s="6" t="str">
         <f>"### "&amp;Regels!B132&amp;" ("&amp;Regels!A132&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E132&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F132&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C132&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A132&amp;" *("&amp;Regels!I132&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F132&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G132&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H132&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5213,7 +5159,7 @@
         <f>Regels!D133</f>
         <v>0</v>
       </c>
-      <c r="B133" s="10" t="str">
+      <c r="B133" s="6" t="str">
         <f>"### "&amp;Regels!B133&amp;" ("&amp;Regels!A133&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E133&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F133&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C133&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A133&amp;" *("&amp;Regels!I133&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F133&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G133&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H133&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5233,7 +5179,7 @@
         <f>Regels!D134</f>
         <v>0</v>
       </c>
-      <c r="B134" s="10" t="str">
+      <c r="B134" s="6" t="str">
         <f>"### "&amp;Regels!B134&amp;" ("&amp;Regels!A134&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E134&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F134&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C134&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A134&amp;" *("&amp;Regels!I134&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F134&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G134&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H134&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5253,7 +5199,7 @@
         <f>Regels!D135</f>
         <v>0</v>
       </c>
-      <c r="B135" s="10" t="str">
+      <c r="B135" s="6" t="str">
         <f>"### "&amp;Regels!B135&amp;" ("&amp;Regels!A135&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E135&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F135&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C135&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A135&amp;" *("&amp;Regels!I135&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F135&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G135&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H135&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5273,7 +5219,7 @@
         <f>Regels!D136</f>
         <v>0</v>
       </c>
-      <c r="B136" s="10" t="str">
+      <c r="B136" s="6" t="str">
         <f>"### "&amp;Regels!B136&amp;" ("&amp;Regels!A136&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E136&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F136&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C136&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A136&amp;" *("&amp;Regels!I136&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F136&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G136&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H136&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5293,7 +5239,7 @@
         <f>Regels!D137</f>
         <v>0</v>
       </c>
-      <c r="B137" s="10" t="str">
+      <c r="B137" s="6" t="str">
         <f>"### "&amp;Regels!B137&amp;" ("&amp;Regels!A137&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E137&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F137&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C137&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A137&amp;" *("&amp;Regels!I137&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F137&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G137&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H137&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5313,7 +5259,7 @@
         <f>Regels!D138</f>
         <v>0</v>
       </c>
-      <c r="B138" s="10" t="str">
+      <c r="B138" s="6" t="str">
         <f>"### "&amp;Regels!B138&amp;" ("&amp;Regels!A138&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E138&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F138&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C138&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A138&amp;" *("&amp;Regels!I138&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F138&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G138&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H138&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5333,7 +5279,7 @@
         <f>Regels!D139</f>
         <v>0</v>
       </c>
-      <c r="B139" s="10" t="str">
+      <c r="B139" s="6" t="str">
         <f>"### "&amp;Regels!B139&amp;" ("&amp;Regels!A139&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E139&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F139&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C139&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A139&amp;" *("&amp;Regels!I139&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F139&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G139&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H139&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5353,7 +5299,7 @@
         <f>Regels!D140</f>
         <v>0</v>
       </c>
-      <c r="B140" s="10" t="str">
+      <c r="B140" s="6" t="str">
         <f>"### "&amp;Regels!B140&amp;" ("&amp;Regels!A140&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E140&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F140&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C140&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A140&amp;" *("&amp;Regels!I140&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F140&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G140&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H140&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5373,7 +5319,7 @@
         <f>Regels!D141</f>
         <v>0</v>
       </c>
-      <c r="B141" s="10" t="str">
+      <c r="B141" s="6" t="str">
         <f>"### "&amp;Regels!B141&amp;" ("&amp;Regels!A141&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E141&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F141&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C141&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A141&amp;" *("&amp;Regels!I141&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F141&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G141&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H141&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5393,7 +5339,7 @@
         <f>Regels!D142</f>
         <v>0</v>
       </c>
-      <c r="B142" s="10" t="str">
+      <c r="B142" s="6" t="str">
         <f>"### "&amp;Regels!B142&amp;" ("&amp;Regels!A142&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E142&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F142&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C142&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A142&amp;" *("&amp;Regels!I142&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F142&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G142&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H142&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5413,7 +5359,7 @@
         <f>Regels!D143</f>
         <v>0</v>
       </c>
-      <c r="B143" s="10" t="str">
+      <c r="B143" s="6" t="str">
         <f>"### "&amp;Regels!B143&amp;" ("&amp;Regels!A143&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E143&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F143&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C143&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A143&amp;" *("&amp;Regels!I143&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F143&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G143&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H143&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5433,7 +5379,7 @@
         <f>Regels!D144</f>
         <v>0</v>
       </c>
-      <c r="B144" s="10" t="str">
+      <c r="B144" s="6" t="str">
         <f>"### "&amp;Regels!B144&amp;" ("&amp;Regels!A144&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E144&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F144&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C144&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A144&amp;" *("&amp;Regels!I144&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F144&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G144&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H144&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5453,7 +5399,7 @@
         <f>Regels!D145</f>
         <v>0</v>
       </c>
-      <c r="B145" s="10" t="str">
+      <c r="B145" s="6" t="str">
         <f>"### "&amp;Regels!B145&amp;" ("&amp;Regels!A145&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E145&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F145&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C145&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A145&amp;" *("&amp;Regels!I145&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F145&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G145&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H145&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5473,7 +5419,7 @@
         <f>Regels!D146</f>
         <v>0</v>
       </c>
-      <c r="B146" s="10" t="str">
+      <c r="B146" s="6" t="str">
         <f>"### "&amp;Regels!B146&amp;" ("&amp;Regels!A146&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E146&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F146&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C146&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A146&amp;" *("&amp;Regels!I146&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F146&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G146&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H146&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5493,7 +5439,7 @@
         <f>Regels!D147</f>
         <v>0</v>
       </c>
-      <c r="B147" s="10" t="str">
+      <c r="B147" s="6" t="str">
         <f>"### "&amp;Regels!B147&amp;" ("&amp;Regels!A147&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E147&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F147&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C147&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A147&amp;" *("&amp;Regels!I147&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F147&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G147&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H147&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5513,7 +5459,7 @@
         <f>Regels!D148</f>
         <v>0</v>
       </c>
-      <c r="B148" s="10" t="str">
+      <c r="B148" s="6" t="str">
         <f>"### "&amp;Regels!B148&amp;" ("&amp;Regels!A148&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E148&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F148&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C148&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A148&amp;" *("&amp;Regels!I148&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F148&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G148&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H148&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5533,7 +5479,7 @@
         <f>Regels!D149</f>
         <v>0</v>
       </c>
-      <c r="B149" s="10" t="str">
+      <c r="B149" s="6" t="str">
         <f>"### "&amp;Regels!B149&amp;" ("&amp;Regels!A149&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E149&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F149&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C149&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A149&amp;" *("&amp;Regels!I149&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F149&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G149&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H149&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5553,7 +5499,7 @@
         <f>Regels!D150</f>
         <v>0</v>
       </c>
-      <c r="B150" s="10" t="str">
+      <c r="B150" s="6" t="str">
         <f>"### "&amp;Regels!B150&amp;" ("&amp;Regels!A150&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E150&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F150&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C150&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A150&amp;" *("&amp;Regels!I150&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F150&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G150&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H150&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5573,7 +5519,7 @@
         <f>Regels!D151</f>
         <v>0</v>
       </c>
-      <c r="B151" s="10" t="str">
+      <c r="B151" s="6" t="str">
         <f>"### "&amp;Regels!B151&amp;" ("&amp;Regels!A151&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E151&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F151&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C151&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A151&amp;" *("&amp;Regels!I151&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F151&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G151&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H151&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5593,7 +5539,7 @@
         <f>Regels!D152</f>
         <v>0</v>
       </c>
-      <c r="B152" s="10" t="str">
+      <c r="B152" s="6" t="str">
         <f>"### "&amp;Regels!B152&amp;" ("&amp;Regels!A152&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E152&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F152&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C152&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A152&amp;" *("&amp;Regels!I152&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F152&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G152&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H152&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5613,7 +5559,7 @@
         <f>Regels!D153</f>
         <v>0</v>
       </c>
-      <c r="B153" s="10" t="str">
+      <c r="B153" s="6" t="str">
         <f>"### "&amp;Regels!B153&amp;" ("&amp;Regels!A153&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E153&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F153&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C153&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A153&amp;" *("&amp;Regels!I153&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F153&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G153&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H153&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5633,7 +5579,7 @@
         <f>Regels!D154</f>
         <v>0</v>
       </c>
-      <c r="B154" s="10" t="str">
+      <c r="B154" s="6" t="str">
         <f>"### "&amp;Regels!B154&amp;" ("&amp;Regels!A154&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E154&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F154&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C154&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A154&amp;" *("&amp;Regels!I154&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F154&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G154&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H154&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5653,7 +5599,7 @@
         <f>Regels!D155</f>
         <v>0</v>
       </c>
-      <c r="B155" s="10" t="str">
+      <c r="B155" s="6" t="str">
         <f>"### "&amp;Regels!B155&amp;" ("&amp;Regels!A155&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E155&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F155&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C155&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A155&amp;" *("&amp;Regels!I155&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F155&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G155&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H155&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5673,7 +5619,7 @@
         <f>Regels!D156</f>
         <v>0</v>
       </c>
-      <c r="B156" s="10" t="str">
+      <c r="B156" s="6" t="str">
         <f>"### "&amp;Regels!B156&amp;" ("&amp;Regels!A156&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E156&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F156&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C156&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A156&amp;" *("&amp;Regels!I156&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F156&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G156&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H156&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5693,7 +5639,7 @@
         <f>Regels!D157</f>
         <v>0</v>
       </c>
-      <c r="B157" s="10" t="str">
+      <c r="B157" s="6" t="str">
         <f>"### "&amp;Regels!B157&amp;" ("&amp;Regels!A157&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E157&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F157&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C157&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A157&amp;" *("&amp;Regels!I157&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F157&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G157&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H157&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5713,7 +5659,7 @@
         <f>Regels!D158</f>
         <v>0</v>
       </c>
-      <c r="B158" s="10" t="str">
+      <c r="B158" s="6" t="str">
         <f>"### "&amp;Regels!B158&amp;" ("&amp;Regels!A158&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E158&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F158&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C158&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A158&amp;" *("&amp;Regels!I158&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F158&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G158&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H158&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5733,7 +5679,7 @@
         <f>Regels!D159</f>
         <v>0</v>
       </c>
-      <c r="B159" s="10" t="str">
+      <c r="B159" s="6" t="str">
         <f>"### "&amp;Regels!B159&amp;" ("&amp;Regels!A159&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E159&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F159&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C159&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A159&amp;" *("&amp;Regels!I159&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F159&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G159&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H159&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5753,7 +5699,7 @@
         <f>Regels!D160</f>
         <v>0</v>
       </c>
-      <c r="B160" s="10" t="str">
+      <c r="B160" s="6" t="str">
         <f>"### "&amp;Regels!B160&amp;" ("&amp;Regels!A160&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E160&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F160&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C160&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A160&amp;" *("&amp;Regels!I160&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F160&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G160&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H160&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5773,7 +5719,7 @@
         <f>Regels!D161</f>
         <v>0</v>
       </c>
-      <c r="B161" s="10" t="str">
+      <c r="B161" s="6" t="str">
         <f>"### "&amp;Regels!B161&amp;" ("&amp;Regels!A161&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E161&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F161&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C161&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A161&amp;" *("&amp;Regels!I161&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F161&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G161&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H161&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5793,7 +5739,7 @@
         <f>Regels!D162</f>
         <v>0</v>
       </c>
-      <c r="B162" s="10" t="str">
+      <c r="B162" s="6" t="str">
         <f>"### "&amp;Regels!B162&amp;" ("&amp;Regels!A162&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E162&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F162&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C162&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A162&amp;" *("&amp;Regels!I162&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F162&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G162&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H162&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5813,7 +5759,7 @@
         <f>Regels!D163</f>
         <v>0</v>
       </c>
-      <c r="B163" s="10" t="str">
+      <c r="B163" s="6" t="str">
         <f>"### "&amp;Regels!B163&amp;" ("&amp;Regels!A163&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E163&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F163&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C163&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A163&amp;" *("&amp;Regels!I163&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F163&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G163&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H163&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5833,7 +5779,7 @@
         <f>Regels!D164</f>
         <v>0</v>
       </c>
-      <c r="B164" s="10" t="str">
+      <c r="B164" s="6" t="str">
         <f>"### "&amp;Regels!B164&amp;" ("&amp;Regels!A164&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E164&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F164&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C164&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A164&amp;" *("&amp;Regels!I164&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F164&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G164&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H164&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5853,7 +5799,7 @@
         <f>Regels!D165</f>
         <v>0</v>
       </c>
-      <c r="B165" s="10" t="str">
+      <c r="B165" s="6" t="str">
         <f>"### "&amp;Regels!B165&amp;" ("&amp;Regels!A165&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E165&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F165&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C165&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A165&amp;" *("&amp;Regels!I165&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F165&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G165&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H165&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5873,7 +5819,7 @@
         <f>Regels!D166</f>
         <v>0</v>
       </c>
-      <c r="B166" s="10" t="str">
+      <c r="B166" s="6" t="str">
         <f>"### "&amp;Regels!B166&amp;" ("&amp;Regels!A166&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E166&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F166&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C166&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A166&amp;" *("&amp;Regels!I166&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F166&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G166&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H166&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5893,7 +5839,7 @@
         <f>Regels!D167</f>
         <v>0</v>
       </c>
-      <c r="B167" s="10" t="str">
+      <c r="B167" s="6" t="str">
         <f>"### "&amp;Regels!B167&amp;" ("&amp;Regels!A167&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E167&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F167&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C167&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A167&amp;" *("&amp;Regels!I167&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F167&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G167&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H167&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5913,7 +5859,7 @@
         <f>Regels!D168</f>
         <v>0</v>
       </c>
-      <c r="B168" s="10" t="str">
+      <c r="B168" s="6" t="str">
         <f>"### "&amp;Regels!B168&amp;" ("&amp;Regels!A168&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E168&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F168&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C168&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A168&amp;" *("&amp;Regels!I168&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F168&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G168&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H168&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5933,7 +5879,7 @@
         <f>Regels!D169</f>
         <v>0</v>
       </c>
-      <c r="B169" s="10" t="str">
+      <c r="B169" s="6" t="str">
         <f>"### "&amp;Regels!B169&amp;" ("&amp;Regels!A169&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E169&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F169&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C169&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A169&amp;" *("&amp;Regels!I169&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F169&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G169&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H169&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5953,7 +5899,7 @@
         <f>Regels!D170</f>
         <v>0</v>
       </c>
-      <c r="B170" s="10" t="str">
+      <c r="B170" s="6" t="str">
         <f>"### "&amp;Regels!B170&amp;" ("&amp;Regels!A170&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E170&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F170&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C170&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A170&amp;" *("&amp;Regels!I170&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F170&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G170&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H170&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5973,7 +5919,7 @@
         <f>Regels!D171</f>
         <v>0</v>
       </c>
-      <c r="B171" s="10" t="str">
+      <c r="B171" s="6" t="str">
         <f>"### "&amp;Regels!B171&amp;" ("&amp;Regels!A171&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E171&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F171&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C171&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A171&amp;" *("&amp;Regels!I171&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F171&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G171&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H171&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5993,7 +5939,7 @@
         <f>Regels!D172</f>
         <v>0</v>
       </c>
-      <c r="B172" s="10" t="str">
+      <c r="B172" s="6" t="str">
         <f>"### "&amp;Regels!B172&amp;" ("&amp;Regels!A172&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E172&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F172&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C172&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A172&amp;" *("&amp;Regels!I172&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F172&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G172&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H172&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6013,7 +5959,7 @@
         <f>Regels!D173</f>
         <v>0</v>
       </c>
-      <c r="B173" s="10" t="str">
+      <c r="B173" s="6" t="str">
         <f>"### "&amp;Regels!B173&amp;" ("&amp;Regels!A173&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E173&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F173&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C173&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A173&amp;" *("&amp;Regels!I173&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F173&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G173&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H173&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6033,7 +5979,7 @@
         <f>Regels!D174</f>
         <v>0</v>
       </c>
-      <c r="B174" s="10" t="str">
+      <c r="B174" s="6" t="str">
         <f>"### "&amp;Regels!B174&amp;" ("&amp;Regels!A174&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E174&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F174&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C174&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A174&amp;" *("&amp;Regels!I174&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F174&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G174&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H174&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6053,7 +5999,7 @@
         <f>Regels!D175</f>
         <v>0</v>
       </c>
-      <c r="B175" s="10" t="str">
+      <c r="B175" s="6" t="str">
         <f>"### "&amp;Regels!B175&amp;" ("&amp;Regels!A175&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E175&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F175&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C175&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A175&amp;" *("&amp;Regels!I175&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F175&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G175&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H175&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6073,7 +6019,7 @@
         <f>Regels!D176</f>
         <v>0</v>
       </c>
-      <c r="B176" s="10" t="str">
+      <c r="B176" s="6" t="str">
         <f>"### "&amp;Regels!B176&amp;" ("&amp;Regels!A176&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E176&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F176&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C176&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A176&amp;" *("&amp;Regels!I176&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F176&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G176&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H176&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6093,7 +6039,7 @@
         <f>Regels!D177</f>
         <v>0</v>
       </c>
-      <c r="B177" s="10" t="str">
+      <c r="B177" s="6" t="str">
         <f>"### "&amp;Regels!B177&amp;" ("&amp;Regels!A177&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E177&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F177&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C177&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A177&amp;" *("&amp;Regels!I177&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F177&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G177&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H177&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6113,7 +6059,7 @@
         <f>Regels!D178</f>
         <v>0</v>
       </c>
-      <c r="B178" s="10" t="str">
+      <c r="B178" s="6" t="str">
         <f>"### "&amp;Regels!B178&amp;" ("&amp;Regels!A178&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E178&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F178&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C178&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A178&amp;" *("&amp;Regels!I178&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F178&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G178&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H178&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6133,7 +6079,7 @@
         <f>Regels!D179</f>
         <v>0</v>
       </c>
-      <c r="B179" s="10" t="str">
+      <c r="B179" s="6" t="str">
         <f>"### "&amp;Regels!B179&amp;" ("&amp;Regels!A179&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E179&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F179&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C179&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A179&amp;" *("&amp;Regels!I179&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F179&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G179&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H179&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6153,7 +6099,7 @@
         <f>Regels!D180</f>
         <v>0</v>
       </c>
-      <c r="B180" s="10" t="str">
+      <c r="B180" s="6" t="str">
         <f>"### "&amp;Regels!B180&amp;" ("&amp;Regels!A180&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E180&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F180&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C180&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A180&amp;" *("&amp;Regels!I180&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F180&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G180&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H180&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6173,7 +6119,7 @@
         <f>Regels!D181</f>
         <v>0</v>
       </c>
-      <c r="B181" s="10" t="str">
+      <c r="B181" s="6" t="str">
         <f>"### "&amp;Regels!B181&amp;" ("&amp;Regels!A181&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E181&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F181&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C181&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A181&amp;" *("&amp;Regels!I181&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F181&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G181&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H181&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6193,7 +6139,7 @@
         <f>Regels!D182</f>
         <v>0</v>
       </c>
-      <c r="B182" s="10" t="str">
+      <c r="B182" s="6" t="str">
         <f>"### "&amp;Regels!B182&amp;" ("&amp;Regels!A182&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E182&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F182&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C182&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A182&amp;" *("&amp;Regels!I182&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F182&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G182&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H182&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6213,7 +6159,7 @@
         <f>Regels!D183</f>
         <v>0</v>
       </c>
-      <c r="B183" s="10" t="str">
+      <c r="B183" s="6" t="str">
         <f>"### "&amp;Regels!B183&amp;" ("&amp;Regels!A183&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E183&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F183&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C183&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A183&amp;" *("&amp;Regels!I183&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F183&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G183&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H183&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6233,7 +6179,7 @@
         <f>Regels!D184</f>
         <v>0</v>
       </c>
-      <c r="B184" s="10" t="str">
+      <c r="B184" s="6" t="str">
         <f>"### "&amp;Regels!B184&amp;" ("&amp;Regels!A184&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E184&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F184&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C184&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A184&amp;" *("&amp;Regels!I184&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F184&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G184&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H184&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6253,7 +6199,7 @@
         <f>Regels!D185</f>
         <v>0</v>
       </c>
-      <c r="B185" s="10" t="str">
+      <c r="B185" s="6" t="str">
         <f>"### "&amp;Regels!B185&amp;" ("&amp;Regels!A185&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E185&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F185&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C185&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A185&amp;" *("&amp;Regels!I185&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F185&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G185&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H185&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6273,7 +6219,7 @@
         <f>Regels!D186</f>
         <v>0</v>
       </c>
-      <c r="B186" s="10" t="str">
+      <c r="B186" s="6" t="str">
         <f>"### "&amp;Regels!B186&amp;" ("&amp;Regels!A186&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E186&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F186&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C186&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A186&amp;" *("&amp;Regels!I186&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F186&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G186&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H186&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6293,7 +6239,7 @@
         <f>Regels!D187</f>
         <v>0</v>
       </c>
-      <c r="B187" s="10" t="str">
+      <c r="B187" s="6" t="str">
         <f>"### "&amp;Regels!B187&amp;" ("&amp;Regels!A187&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E187&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F187&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C187&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A187&amp;" *("&amp;Regels!I187&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F187&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G187&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H187&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6313,7 +6259,7 @@
         <f>Regels!D188</f>
         <v>0</v>
       </c>
-      <c r="B188" s="10" t="str">
+      <c r="B188" s="6" t="str">
         <f>"### "&amp;Regels!B188&amp;" ("&amp;Regels!A188&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E188&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F188&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C188&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A188&amp;" *("&amp;Regels!I188&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F188&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G188&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H188&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6333,7 +6279,7 @@
         <f>Regels!D189</f>
         <v>0</v>
       </c>
-      <c r="B189" s="10" t="str">
+      <c r="B189" s="6" t="str">
         <f>"### "&amp;Regels!B189&amp;" ("&amp;Regels!A189&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E189&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F189&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C189&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A189&amp;" *("&amp;Regels!I189&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F189&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G189&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H189&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6353,7 +6299,7 @@
         <f>Regels!D190</f>
         <v>0</v>
       </c>
-      <c r="B190" s="10" t="str">
+      <c r="B190" s="6" t="str">
         <f>"### "&amp;Regels!B190&amp;" ("&amp;Regels!A190&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E190&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F190&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C190&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A190&amp;" *("&amp;Regels!I190&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F190&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G190&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H190&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6373,7 +6319,7 @@
         <f>Regels!D191</f>
         <v>0</v>
       </c>
-      <c r="B191" s="10" t="str">
+      <c r="B191" s="6" t="str">
         <f>"### "&amp;Regels!B191&amp;" ("&amp;Regels!A191&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E191&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F191&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C191&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A191&amp;" *("&amp;Regels!I191&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F191&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G191&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H191&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6393,7 +6339,7 @@
         <f>Regels!D192</f>
         <v>0</v>
       </c>
-      <c r="B192" s="10" t="str">
+      <c r="B192" s="6" t="str">
         <f>"### "&amp;Regels!B192&amp;" ("&amp;Regels!A192&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E192&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F192&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C192&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A192&amp;" *("&amp;Regels!I192&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F192&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G192&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H192&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6413,7 +6359,7 @@
         <f>Regels!D193</f>
         <v>0</v>
       </c>
-      <c r="B193" s="10" t="str">
+      <c r="B193" s="6" t="str">
         <f>"### "&amp;Regels!B193&amp;" ("&amp;Regels!A193&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E193&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F193&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C193&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A193&amp;" *("&amp;Regels!I193&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F193&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G193&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H193&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6433,7 +6379,7 @@
         <f>Regels!D194</f>
         <v>0</v>
       </c>
-      <c r="B194" s="10" t="str">
+      <c r="B194" s="6" t="str">
         <f>"### "&amp;Regels!B194&amp;" ("&amp;Regels!A194&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E194&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F194&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C194&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A194&amp;" *("&amp;Regels!I194&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F194&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G194&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H194&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6453,7 +6399,7 @@
         <f>Regels!D195</f>
         <v>0</v>
       </c>
-      <c r="B195" s="10" t="str">
+      <c r="B195" s="6" t="str">
         <f>"### "&amp;Regels!B195&amp;" ("&amp;Regels!A195&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E195&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F195&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C195&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A195&amp;" *("&amp;Regels!I195&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F195&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G195&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H195&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6473,7 +6419,7 @@
         <f>Regels!D196</f>
         <v>0</v>
       </c>
-      <c r="B196" s="10" t="str">
+      <c r="B196" s="6" t="str">
         <f>"### "&amp;Regels!B196&amp;" ("&amp;Regels!A196&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E196&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F196&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C196&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A196&amp;" *("&amp;Regels!I196&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F196&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G196&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H196&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6493,7 +6439,7 @@
         <f>Regels!D197</f>
         <v>0</v>
       </c>
-      <c r="B197" s="10" t="str">
+      <c r="B197" s="6" t="str">
         <f>"### "&amp;Regels!B197&amp;" ("&amp;Regels!A197&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E197&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F197&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C197&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A197&amp;" *("&amp;Regels!I197&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F197&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G197&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H197&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6513,7 +6459,7 @@
         <f>Regels!D198</f>
         <v>0</v>
       </c>
-      <c r="B198" s="10" t="str">
+      <c r="B198" s="6" t="str">
         <f>"### "&amp;Regels!B198&amp;" ("&amp;Regels!A198&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E198&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F198&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C198&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A198&amp;" *("&amp;Regels!I198&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F198&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G198&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H198&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6533,7 +6479,7 @@
         <f>Regels!D199</f>
         <v>0</v>
       </c>
-      <c r="B199" s="10" t="str">
+      <c r="B199" s="6" t="str">
         <f>"### "&amp;Regels!B199&amp;" ("&amp;Regels!A199&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E199&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F199&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C199&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A199&amp;" *("&amp;Regels!I199&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F199&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G199&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H199&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6553,7 +6499,7 @@
         <f>Regels!D200</f>
         <v>0</v>
       </c>
-      <c r="B200" s="10" t="str">
+      <c r="B200" s="6" t="str">
         <f>"### "&amp;Regels!B200&amp;" ("&amp;Regels!A200&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E200&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F200&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C200&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A200&amp;" *("&amp;Regels!I200&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F200&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G200&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H200&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6573,7 +6519,7 @@
         <f>Regels!D201</f>
         <v>0</v>
       </c>
-      <c r="B201" s="10" t="str">
+      <c r="B201" s="6" t="str">
         <f>"### "&amp;Regels!B201&amp;" ("&amp;Regels!A201&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E201&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F201&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C201&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A201&amp;" *("&amp;Regels!I201&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F201&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G201&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H201&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6593,7 +6539,7 @@
         <f>Regels!D202</f>
         <v>0</v>
       </c>
-      <c r="B202" s="10" t="str">
+      <c r="B202" s="6" t="str">
         <f>"### "&amp;Regels!B202&amp;" ("&amp;Regels!A202&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E202&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F202&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C202&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A202&amp;" *("&amp;Regels!I202&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F202&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G202&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H202&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6613,7 +6559,7 @@
         <f>Regels!D203</f>
         <v>0</v>
       </c>
-      <c r="B203" s="10" t="str">
+      <c r="B203" s="6" t="str">
         <f>"### "&amp;Regels!B203&amp;" ("&amp;Regels!A203&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E203&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F203&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C203&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A203&amp;" *("&amp;Regels!I203&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F203&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G203&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H203&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6633,7 +6579,7 @@
         <f>Regels!D204</f>
         <v>0</v>
       </c>
-      <c r="B204" s="10" t="str">
+      <c r="B204" s="6" t="str">
         <f>"### "&amp;Regels!B204&amp;" ("&amp;Regels!A204&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E204&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F204&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C204&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A204&amp;" *("&amp;Regels!I204&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F204&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G204&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H204&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6653,7 +6599,7 @@
         <f>Regels!D205</f>
         <v>0</v>
       </c>
-      <c r="B205" s="10" t="str">
+      <c r="B205" s="6" t="str">
         <f>"### "&amp;Regels!B205&amp;" ("&amp;Regels!A205&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E205&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F205&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C205&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A205&amp;" *("&amp;Regels!I205&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F205&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G205&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H205&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6673,7 +6619,7 @@
         <f>Regels!D206</f>
         <v>0</v>
       </c>
-      <c r="B206" s="10" t="str">
+      <c r="B206" s="6" t="str">
         <f>"### "&amp;Regels!B206&amp;" ("&amp;Regels!A206&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E206&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F206&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C206&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A206&amp;" *("&amp;Regels!I206&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F206&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G206&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H206&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6693,7 +6639,7 @@
         <f>Regels!D207</f>
         <v>0</v>
       </c>
-      <c r="B207" s="10" t="str">
+      <c r="B207" s="6" t="str">
         <f>"### "&amp;Regels!B207&amp;" ("&amp;Regels!A207&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E207&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F207&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C207&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A207&amp;" *("&amp;Regels!I207&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F207&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G207&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H207&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6713,7 +6659,7 @@
         <f>Regels!D208</f>
         <v>0</v>
       </c>
-      <c r="B208" s="10" t="str">
+      <c r="B208" s="6" t="str">
         <f>"### "&amp;Regels!B208&amp;" ("&amp;Regels!A208&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E208&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F208&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C208&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A208&amp;" *("&amp;Regels!I208&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F208&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G208&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H208&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6733,7 +6679,7 @@
         <f>Regels!D209</f>
         <v>0</v>
       </c>
-      <c r="B209" s="10" t="str">
+      <c r="B209" s="6" t="str">
         <f>"### "&amp;Regels!B209&amp;" ("&amp;Regels!A209&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E209&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F209&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C209&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A209&amp;" *("&amp;Regels!I209&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F209&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G209&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H209&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6753,7 +6699,7 @@
         <f>Regels!D210</f>
         <v>0</v>
       </c>
-      <c r="B210" s="10" t="str">
+      <c r="B210" s="6" t="str">
         <f>"### "&amp;Regels!B210&amp;" ("&amp;Regels!A210&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E210&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F210&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C210&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A210&amp;" *("&amp;Regels!I210&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F210&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G210&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H210&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6773,7 +6719,7 @@
         <f>Regels!D211</f>
         <v>0</v>
       </c>
-      <c r="B211" s="10" t="str">
+      <c r="B211" s="6" t="str">
         <f>"### "&amp;Regels!B211&amp;" ("&amp;Regels!A211&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E211&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F211&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C211&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A211&amp;" *("&amp;Regels!I211&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F211&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G211&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H211&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6793,7 +6739,7 @@
         <f>Regels!D212</f>
         <v>0</v>
       </c>
-      <c r="B212" s="10" t="str">
+      <c r="B212" s="6" t="str">
         <f>"### "&amp;Regels!B212&amp;" ("&amp;Regels!A212&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E212&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F212&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C212&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A212&amp;" *("&amp;Regels!I212&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F212&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G212&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H212&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6813,7 +6759,7 @@
         <f>Regels!D213</f>
         <v>0</v>
       </c>
-      <c r="B213" s="10" t="str">
+      <c r="B213" s="6" t="str">
         <f>"### "&amp;Regels!B213&amp;" ("&amp;Regels!A213&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E213&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F213&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C213&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A213&amp;" *("&amp;Regels!I213&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F213&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G213&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H213&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6833,7 +6779,7 @@
         <f>Regels!D214</f>
         <v>0</v>
       </c>
-      <c r="B214" s="10" t="str">
+      <c r="B214" s="6" t="str">
         <f>"### "&amp;Regels!B214&amp;" ("&amp;Regels!A214&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E214&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F214&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C214&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A214&amp;" *("&amp;Regels!I214&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F214&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G214&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H214&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6853,7 +6799,7 @@
         <f>Regels!D215</f>
         <v>0</v>
       </c>
-      <c r="B215" s="10" t="str">
+      <c r="B215" s="6" t="str">
         <f>"### "&amp;Regels!B215&amp;" ("&amp;Regels!A215&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E215&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F215&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C215&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A215&amp;" *("&amp;Regels!I215&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F215&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G215&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H215&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6873,7 +6819,7 @@
         <f>Regels!D216</f>
         <v>0</v>
       </c>
-      <c r="B216" s="10" t="str">
+      <c r="B216" s="6" t="str">
         <f>"### "&amp;Regels!B216&amp;" ("&amp;Regels!A216&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E216&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F216&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C216&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A216&amp;" *("&amp;Regels!I216&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F216&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G216&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H216&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6893,7 +6839,7 @@
         <f>Regels!D217</f>
         <v>0</v>
       </c>
-      <c r="B217" s="10" t="str">
+      <c r="B217" s="6" t="str">
         <f>"### "&amp;Regels!B217&amp;" ("&amp;Regels!A217&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E217&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F217&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C217&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A217&amp;" *("&amp;Regels!I217&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F217&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G217&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H217&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6913,7 +6859,7 @@
         <f>Regels!D218</f>
         <v>0</v>
       </c>
-      <c r="B218" s="10" t="str">
+      <c r="B218" s="6" t="str">
         <f>"### "&amp;Regels!B218&amp;" ("&amp;Regels!A218&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E218&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F218&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C218&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A218&amp;" *("&amp;Regels!I218&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F218&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G218&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H218&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6933,7 +6879,7 @@
         <f>Regels!D219</f>
         <v>0</v>
       </c>
-      <c r="B219" s="10" t="str">
+      <c r="B219" s="6" t="str">
         <f>"### "&amp;Regels!B219&amp;" ("&amp;Regels!A219&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E219&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F219&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C219&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A219&amp;" *("&amp;Regels!I219&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F219&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G219&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H219&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6953,7 +6899,7 @@
         <f>Regels!D220</f>
         <v>0</v>
       </c>
-      <c r="B220" s="10" t="str">
+      <c r="B220" s="6" t="str">
         <f>"### "&amp;Regels!B220&amp;" ("&amp;Regels!A220&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E220&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F220&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C220&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A220&amp;" *("&amp;Regels!I220&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F220&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G220&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H220&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6973,7 +6919,7 @@
         <f>Regels!D221</f>
         <v>0</v>
       </c>
-      <c r="B221" s="10" t="str">
+      <c r="B221" s="6" t="str">
         <f>"### "&amp;Regels!B221&amp;" ("&amp;Regels!A221&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E221&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F221&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C221&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A221&amp;" *("&amp;Regels!I221&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F221&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G221&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H221&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6993,7 +6939,7 @@
         <f>Regels!D222</f>
         <v>0</v>
       </c>
-      <c r="B222" s="10" t="str">
+      <c r="B222" s="6" t="str">
         <f>"### "&amp;Regels!B222&amp;" ("&amp;Regels!A222&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E222&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F222&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C222&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A222&amp;" *("&amp;Regels!I222&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F222&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G222&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H222&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7013,7 +6959,7 @@
         <f>Regels!D223</f>
         <v>0</v>
       </c>
-      <c r="B223" s="10" t="str">
+      <c r="B223" s="6" t="str">
         <f>"### "&amp;Regels!B223&amp;" ("&amp;Regels!A223&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E223&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F223&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C223&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A223&amp;" *("&amp;Regels!I223&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F223&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G223&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H223&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7033,7 +6979,7 @@
         <f>Regels!D224</f>
         <v>0</v>
       </c>
-      <c r="B224" s="10" t="str">
+      <c r="B224" s="6" t="str">
         <f>"### "&amp;Regels!B224&amp;" ("&amp;Regels!A224&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E224&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F224&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C224&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A224&amp;" *("&amp;Regels!I224&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F224&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G224&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H224&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7053,7 +6999,7 @@
         <f>Regels!D225</f>
         <v>0</v>
       </c>
-      <c r="B225" s="10" t="str">
+      <c r="B225" s="6" t="str">
         <f>"### "&amp;Regels!B225&amp;" ("&amp;Regels!A225&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E225&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F225&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C225&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A225&amp;" *("&amp;Regels!I225&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F225&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G225&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H225&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7073,7 +7019,7 @@
         <f>Regels!D226</f>
         <v>0</v>
       </c>
-      <c r="B226" s="10" t="str">
+      <c r="B226" s="6" t="str">
         <f>"### "&amp;Regels!B226&amp;" ("&amp;Regels!A226&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E226&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F226&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C226&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A226&amp;" *("&amp;Regels!I226&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F226&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G226&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H226&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7093,7 +7039,7 @@
         <f>Regels!D227</f>
         <v>0</v>
       </c>
-      <c r="B227" s="10" t="str">
+      <c r="B227" s="6" t="str">
         <f>"### "&amp;Regels!B227&amp;" ("&amp;Regels!A227&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E227&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F227&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C227&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A227&amp;" *("&amp;Regels!I227&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F227&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G227&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H227&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7113,7 +7059,7 @@
         <f>Regels!D228</f>
         <v>0</v>
       </c>
-      <c r="B228" s="10" t="str">
+      <c r="B228" s="6" t="str">
         <f>"### "&amp;Regels!B228&amp;" ("&amp;Regels!A228&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E228&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F228&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C228&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A228&amp;" *("&amp;Regels!I228&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F228&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G228&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H228&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7133,7 +7079,7 @@
         <f>Regels!D229</f>
         <v>0</v>
       </c>
-      <c r="B229" s="10" t="str">
+      <c r="B229" s="6" t="str">
         <f>"### "&amp;Regels!B229&amp;" ("&amp;Regels!A229&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E229&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F229&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C229&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A229&amp;" *("&amp;Regels!I229&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F229&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G229&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H229&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7153,7 +7099,7 @@
         <f>Regels!D230</f>
         <v>0</v>
       </c>
-      <c r="B230" s="10" t="str">
+      <c r="B230" s="6" t="str">
         <f>"### "&amp;Regels!B230&amp;" ("&amp;Regels!A230&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E230&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F230&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C230&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A230&amp;" *("&amp;Regels!I230&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F230&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G230&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H230&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7173,7 +7119,7 @@
         <f>Regels!D231</f>
         <v>0</v>
       </c>
-      <c r="B231" s="10" t="str">
+      <c r="B231" s="6" t="str">
         <f>"### "&amp;Regels!B231&amp;" ("&amp;Regels!A231&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E231&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F231&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C231&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A231&amp;" *("&amp;Regels!I231&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F231&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G231&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H231&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7193,7 +7139,7 @@
         <f>Regels!D232</f>
         <v>0</v>
       </c>
-      <c r="B232" s="10" t="str">
+      <c r="B232" s="6" t="str">
         <f>"### "&amp;Regels!B232&amp;" ("&amp;Regels!A232&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E232&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F232&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C232&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A232&amp;" *("&amp;Regels!I232&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F232&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G232&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H232&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7213,7 +7159,7 @@
         <f>Regels!D233</f>
         <v>0</v>
       </c>
-      <c r="B233" s="10" t="str">
+      <c r="B233" s="6" t="str">
         <f>"### "&amp;Regels!B233&amp;" ("&amp;Regels!A233&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E233&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F233&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C233&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A233&amp;" *("&amp;Regels!I233&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F233&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G233&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H233&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7233,7 +7179,7 @@
         <f>Regels!D234</f>
         <v>0</v>
       </c>
-      <c r="B234" s="10" t="str">
+      <c r="B234" s="6" t="str">
         <f>"### "&amp;Regels!B234&amp;" ("&amp;Regels!A234&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E234&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F234&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C234&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A234&amp;" *("&amp;Regels!I234&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F234&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G234&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H234&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7253,7 +7199,7 @@
         <f>Regels!D235</f>
         <v>0</v>
       </c>
-      <c r="B235" s="10" t="str">
+      <c r="B235" s="6" t="str">
         <f>"### "&amp;Regels!B235&amp;" ("&amp;Regels!A235&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E235&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F235&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C235&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A235&amp;" *("&amp;Regels!I235&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F235&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G235&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H235&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7273,7 +7219,7 @@
         <f>Regels!D236</f>
         <v>0</v>
       </c>
-      <c r="B236" s="10" t="str">
+      <c r="B236" s="6" t="str">
         <f>"### "&amp;Regels!B236&amp;" ("&amp;Regels!A236&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E236&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F236&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C236&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A236&amp;" *("&amp;Regels!I236&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F236&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G236&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H236&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7293,7 +7239,7 @@
         <f>Regels!D237</f>
         <v>0</v>
       </c>
-      <c r="B237" s="10" t="str">
+      <c r="B237" s="6" t="str">
         <f>"### "&amp;Regels!B237&amp;" ("&amp;Regels!A237&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E237&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F237&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C237&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A237&amp;" *("&amp;Regels!I237&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F237&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G237&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H237&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7313,7 +7259,7 @@
         <f>Regels!D238</f>
         <v>0</v>
       </c>
-      <c r="B238" s="10" t="str">
+      <c r="B238" s="6" t="str">
         <f>"### "&amp;Regels!B238&amp;" ("&amp;Regels!A238&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E238&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F238&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C238&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A238&amp;" *("&amp;Regels!I238&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F238&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G238&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H238&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7333,7 +7279,7 @@
         <f>Regels!D239</f>
         <v>0</v>
       </c>
-      <c r="B239" s="10" t="str">
+      <c r="B239" s="6" t="str">
         <f>"### "&amp;Regels!B239&amp;" ("&amp;Regels!A239&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E239&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F239&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C239&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A239&amp;" *("&amp;Regels!I239&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F239&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G239&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H239&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7353,7 +7299,7 @@
         <f>Regels!D240</f>
         <v>0</v>
       </c>
-      <c r="B240" s="10" t="str">
+      <c r="B240" s="6" t="str">
         <f>"### "&amp;Regels!B240&amp;" ("&amp;Regels!A240&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E240&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F240&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C240&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A240&amp;" *("&amp;Regels!I240&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F240&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G240&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H240&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7373,7 +7319,7 @@
         <f>Regels!D241</f>
         <v>0</v>
       </c>
-      <c r="B241" s="10" t="str">
+      <c r="B241" s="6" t="str">
         <f>"### "&amp;Regels!B241&amp;" ("&amp;Regels!A241&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E241&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F241&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C241&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A241&amp;" *("&amp;Regels!I241&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F241&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G241&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H241&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7393,7 +7339,7 @@
         <f>Regels!D242</f>
         <v>0</v>
       </c>
-      <c r="B242" s="10" t="str">
+      <c r="B242" s="6" t="str">
         <f>"### "&amp;Regels!B242&amp;" ("&amp;Regels!A242&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E242&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F242&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C242&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A242&amp;" *("&amp;Regels!I242&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F242&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G242&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H242&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7413,7 +7359,7 @@
         <f>Regels!D243</f>
         <v>0</v>
       </c>
-      <c r="B243" s="10" t="str">
+      <c r="B243" s="6" t="str">
         <f>"### "&amp;Regels!B243&amp;" ("&amp;Regels!A243&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E243&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F243&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C243&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A243&amp;" *("&amp;Regels!I243&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F243&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G243&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H243&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7433,7 +7379,7 @@
         <f>Regels!D244</f>
         <v>0</v>
       </c>
-      <c r="B244" s="10" t="str">
+      <c r="B244" s="6" t="str">
         <f>"### "&amp;Regels!B244&amp;" ("&amp;Regels!A244&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E244&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F244&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C244&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A244&amp;" *("&amp;Regels!I244&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F244&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G244&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H244&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7453,7 +7399,7 @@
         <f>Regels!D245</f>
         <v>0</v>
       </c>
-      <c r="B245" s="10" t="str">
+      <c r="B245" s="6" t="str">
         <f>"### "&amp;Regels!B245&amp;" ("&amp;Regels!A245&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E245&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F245&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C245&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A245&amp;" *("&amp;Regels!I245&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F245&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G245&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H245&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7473,7 +7419,7 @@
         <f>Regels!D246</f>
         <v>0</v>
       </c>
-      <c r="B246" s="10" t="str">
+      <c r="B246" s="6" t="str">
         <f>"### "&amp;Regels!B246&amp;" ("&amp;Regels!A246&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E246&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F246&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C246&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A246&amp;" *("&amp;Regels!I246&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F246&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G246&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H246&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7493,7 +7439,7 @@
         <f>Regels!D247</f>
         <v>0</v>
       </c>
-      <c r="B247" s="10" t="str">
+      <c r="B247" s="6" t="str">
         <f>"### "&amp;Regels!B247&amp;" ("&amp;Regels!A247&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E247&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F247&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C247&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A247&amp;" *("&amp;Regels!I247&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F247&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G247&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H247&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7513,7 +7459,7 @@
         <f>Regels!D248</f>
         <v>0</v>
       </c>
-      <c r="B248" s="10" t="str">
+      <c r="B248" s="6" t="str">
         <f>"### "&amp;Regels!B248&amp;" ("&amp;Regels!A248&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E248&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F248&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C248&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A248&amp;" *("&amp;Regels!I248&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F248&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G248&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H248&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7533,7 +7479,7 @@
         <f>Regels!D249</f>
         <v>0</v>
       </c>
-      <c r="B249" s="10" t="str">
+      <c r="B249" s="6" t="str">
         <f>"### "&amp;Regels!B249&amp;" ("&amp;Regels!A249&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E249&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F249&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C249&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A249&amp;" *("&amp;Regels!I249&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F249&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G249&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H249&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7553,7 +7499,7 @@
         <f>Regels!D250</f>
         <v>0</v>
       </c>
-      <c r="B250" s="10" t="str">
+      <c r="B250" s="6" t="str">
         <f>"### "&amp;Regels!B250&amp;" ("&amp;Regels!A250&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E250&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F250&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C250&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A250&amp;" *("&amp;Regels!I250&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F250&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G250&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H250&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7573,7 +7519,7 @@
         <f>Regels!D251</f>
         <v>0</v>
       </c>
-      <c r="B251" s="10" t="str">
+      <c r="B251" s="6" t="str">
         <f>"### "&amp;Regels!B251&amp;" ("&amp;Regels!A251&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E251&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F251&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C251&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A251&amp;" *("&amp;Regels!I251&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F251&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G251&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H251&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7593,7 +7539,7 @@
         <f>Regels!D252</f>
         <v>0</v>
       </c>
-      <c r="B252" s="10" t="str">
+      <c r="B252" s="6" t="str">
         <f>"### "&amp;Regels!B252&amp;" ("&amp;Regels!A252&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E252&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F252&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C252&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A252&amp;" *("&amp;Regels!I252&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F252&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G252&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H252&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7613,7 +7559,7 @@
         <f>Regels!D253</f>
         <v>0</v>
       </c>
-      <c r="B253" s="10" t="str">
+      <c r="B253" s="6" t="str">
         <f>"### "&amp;Regels!B253&amp;" ("&amp;Regels!A253&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E253&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F253&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C253&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A253&amp;" *("&amp;Regels!I253&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F253&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G253&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H253&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7633,7 +7579,7 @@
         <f>Regels!D254</f>
         <v>0</v>
       </c>
-      <c r="B254" s="10" t="str">
+      <c r="B254" s="6" t="str">
         <f>"### "&amp;Regels!B254&amp;" ("&amp;Regels!A254&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E254&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F254&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C254&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A254&amp;" *("&amp;Regels!I254&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F254&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G254&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H254&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7653,7 +7599,7 @@
         <f>Regels!D255</f>
         <v>0</v>
       </c>
-      <c r="B255" s="10" t="str">
+      <c r="B255" s="6" t="str">
         <f>"### "&amp;Regels!B255&amp;" ("&amp;Regels!A255&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E255&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F255&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C255&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A255&amp;" *("&amp;Regels!I255&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F255&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G255&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H255&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7673,7 +7619,7 @@
         <f>Regels!D256</f>
         <v>0</v>
       </c>
-      <c r="B256" s="10" t="str">
+      <c r="B256" s="6" t="str">
         <f>"### "&amp;Regels!B256&amp;" ("&amp;Regels!A256&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E256&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F256&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C256&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A256&amp;" *("&amp;Regels!I256&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F256&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G256&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H256&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7693,7 +7639,7 @@
         <f>Regels!D257</f>
         <v>0</v>
       </c>
-      <c r="B257" s="10" t="str">
+      <c r="B257" s="6" t="str">
         <f>"### "&amp;Regels!B257&amp;" ("&amp;Regels!A257&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E257&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F257&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C257&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A257&amp;" *("&amp;Regels!I257&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F257&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G257&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H257&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7713,7 +7659,7 @@
         <f>Regels!D258</f>
         <v>0</v>
       </c>
-      <c r="B258" s="10" t="str">
+      <c r="B258" s="6" t="str">
         <f>"### "&amp;Regels!B258&amp;" ("&amp;Regels!A258&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E258&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F258&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C258&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A258&amp;" *("&amp;Regels!I258&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F258&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G258&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H258&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7733,7 +7679,7 @@
         <f>Regels!D259</f>
         <v>0</v>
       </c>
-      <c r="B259" s="10" t="str">
+      <c r="B259" s="6" t="str">
         <f>"### "&amp;Regels!B259&amp;" ("&amp;Regels!A259&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E259&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F259&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C259&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A259&amp;" *("&amp;Regels!I259&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F259&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G259&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H259&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7753,7 +7699,7 @@
         <f>Regels!D260</f>
         <v>0</v>
       </c>
-      <c r="B260" s="10" t="str">
+      <c r="B260" s="6" t="str">
         <f>"### "&amp;Regels!B260&amp;" ("&amp;Regels!A260&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E260&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F260&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C260&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A260&amp;" *("&amp;Regels!I260&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F260&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G260&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H260&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7773,7 +7719,7 @@
         <f>Regels!D261</f>
         <v>0</v>
       </c>
-      <c r="B261" s="10" t="str">
+      <c r="B261" s="6" t="str">
         <f>"### "&amp;Regels!B261&amp;" ("&amp;Regels!A261&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E261&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F261&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C261&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A261&amp;" *("&amp;Regels!I261&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F261&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G261&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H261&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7793,7 +7739,7 @@
         <f>Regels!D262</f>
         <v>0</v>
       </c>
-      <c r="B262" s="10" t="str">
+      <c r="B262" s="6" t="str">
         <f>"### "&amp;Regels!B262&amp;" ("&amp;Regels!A262&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E262&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F262&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C262&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A262&amp;" *("&amp;Regels!I262&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F262&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G262&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H262&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7813,7 +7759,7 @@
         <f>Regels!D263</f>
         <v>0</v>
       </c>
-      <c r="B263" s="10" t="str">
+      <c r="B263" s="6" t="str">
         <f>"### "&amp;Regels!B263&amp;" ("&amp;Regels!A263&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E263&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F263&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C263&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A263&amp;" *("&amp;Regels!I263&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F263&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G263&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H263&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7833,7 +7779,7 @@
         <f>Regels!D264</f>
         <v>0</v>
       </c>
-      <c r="B264" s="10" t="str">
+      <c r="B264" s="6" t="str">
         <f>"### "&amp;Regels!B264&amp;" ("&amp;Regels!A264&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E264&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F264&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C264&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A264&amp;" *("&amp;Regels!I264&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F264&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G264&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H264&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7853,7 +7799,7 @@
         <f>Regels!D265</f>
         <v>0</v>
       </c>
-      <c r="B265" s="10" t="str">
+      <c r="B265" s="6" t="str">
         <f>"### "&amp;Regels!B265&amp;" ("&amp;Regels!A265&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E265&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F265&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C265&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A265&amp;" *("&amp;Regels!I265&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F265&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G265&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H265&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7873,7 +7819,7 @@
         <f>Regels!D266</f>
         <v>0</v>
       </c>
-      <c r="B266" s="10" t="str">
+      <c r="B266" s="6" t="str">
         <f>"### "&amp;Regels!B266&amp;" ("&amp;Regels!A266&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E266&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F266&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C266&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A266&amp;" *("&amp;Regels!I266&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F266&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G266&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H266&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7893,7 +7839,7 @@
         <f>Regels!D267</f>
         <v>0</v>
       </c>
-      <c r="B267" s="10" t="str">
+      <c r="B267" s="6" t="str">
         <f>"### "&amp;Regels!B267&amp;" ("&amp;Regels!A267&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E267&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F267&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C267&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A267&amp;" *("&amp;Regels!I267&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F267&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G267&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H267&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7913,7 +7859,7 @@
         <f>Regels!D268</f>
         <v>0</v>
       </c>
-      <c r="B268" s="10" t="str">
+      <c r="B268" s="6" t="str">
         <f>"### "&amp;Regels!B268&amp;" ("&amp;Regels!A268&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E268&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F268&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C268&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A268&amp;" *("&amp;Regels!I268&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F268&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G268&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H268&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7933,7 +7879,7 @@
         <f>Regels!D269</f>
         <v>0</v>
       </c>
-      <c r="B269" s="10" t="str">
+      <c r="B269" s="6" t="str">
         <f>"### "&amp;Regels!B269&amp;" ("&amp;Regels!A269&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E269&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F269&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C269&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A269&amp;" *("&amp;Regels!I269&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F269&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G269&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H269&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7953,7 +7899,7 @@
         <f>Regels!D270</f>
         <v>0</v>
       </c>
-      <c r="B270" s="10" t="str">
+      <c r="B270" s="6" t="str">
         <f>"### "&amp;Regels!B270&amp;" ("&amp;Regels!A270&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E270&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F270&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C270&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A270&amp;" *("&amp;Regels!I270&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F270&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G270&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H270&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7973,7 +7919,7 @@
         <f>Regels!D271</f>
         <v>0</v>
       </c>
-      <c r="B271" s="10" t="str">
+      <c r="B271" s="6" t="str">
         <f>"### "&amp;Regels!B271&amp;" ("&amp;Regels!A271&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E271&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F271&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C271&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A271&amp;" *("&amp;Regels!I271&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F271&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G271&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H271&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7993,7 +7939,7 @@
         <f>Regels!D272</f>
         <v>0</v>
       </c>
-      <c r="B272" s="10" t="str">
+      <c r="B272" s="6" t="str">
         <f>"### "&amp;Regels!B272&amp;" ("&amp;Regels!A272&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E272&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F272&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C272&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A272&amp;" *("&amp;Regels!I272&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F272&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G272&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H272&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8013,7 +7959,7 @@
         <f>Regels!D273</f>
         <v>0</v>
       </c>
-      <c r="B273" s="10" t="str">
+      <c r="B273" s="6" t="str">
         <f>"### "&amp;Regels!B273&amp;" ("&amp;Regels!A273&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E273&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F273&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C273&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A273&amp;" *("&amp;Regels!I273&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F273&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G273&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H273&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8033,7 +7979,7 @@
         <f>Regels!D274</f>
         <v>0</v>
       </c>
-      <c r="B274" s="10" t="str">
+      <c r="B274" s="6" t="str">
         <f>"### "&amp;Regels!B274&amp;" ("&amp;Regels!A274&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E274&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F274&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C274&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A274&amp;" *("&amp;Regels!I274&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F274&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G274&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H274&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8053,7 +7999,7 @@
         <f>Regels!D275</f>
         <v>0</v>
       </c>
-      <c r="B275" s="10" t="str">
+      <c r="B275" s="6" t="str">
         <f>"### "&amp;Regels!B275&amp;" ("&amp;Regels!A275&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E275&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F275&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C275&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A275&amp;" *("&amp;Regels!I275&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F275&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G275&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H275&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8073,7 +8019,7 @@
         <f>Regels!D276</f>
         <v>0</v>
       </c>
-      <c r="B276" s="10" t="str">
+      <c r="B276" s="6" t="str">
         <f>"### "&amp;Regels!B276&amp;" ("&amp;Regels!A276&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E276&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F276&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C276&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A276&amp;" *("&amp;Regels!I276&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F276&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G276&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H276&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8093,7 +8039,7 @@
         <f>Regels!D277</f>
         <v>0</v>
       </c>
-      <c r="B277" s="10" t="str">
+      <c r="B277" s="6" t="str">
         <f>"### "&amp;Regels!B277&amp;" ("&amp;Regels!A277&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E277&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F277&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C277&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A277&amp;" *("&amp;Regels!I277&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F277&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G277&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H277&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8113,7 +8059,7 @@
         <f>Regels!D278</f>
         <v>0</v>
       </c>
-      <c r="B278" s="10" t="str">
+      <c r="B278" s="6" t="str">
         <f>"### "&amp;Regels!B278&amp;" ("&amp;Regels!A278&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E278&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F278&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C278&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A278&amp;" *("&amp;Regels!I278&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F278&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G278&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H278&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8133,7 +8079,7 @@
         <f>Regels!D279</f>
         <v>0</v>
       </c>
-      <c r="B279" s="10" t="str">
+      <c r="B279" s="6" t="str">
         <f>"### "&amp;Regels!B279&amp;" ("&amp;Regels!A279&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E279&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F279&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C279&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A279&amp;" *("&amp;Regels!I279&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F279&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G279&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H279&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8153,7 +8099,7 @@
         <f>Regels!D280</f>
         <v>0</v>
       </c>
-      <c r="B280" s="10" t="str">
+      <c r="B280" s="6" t="str">
         <f>"### "&amp;Regels!B280&amp;" ("&amp;Regels!A280&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E280&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F280&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C280&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A280&amp;" *("&amp;Regels!I280&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F280&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G280&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H280&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8173,7 +8119,7 @@
         <f>Regels!D281</f>
         <v>0</v>
       </c>
-      <c r="B281" s="10" t="str">
+      <c r="B281" s="6" t="str">
         <f>"### "&amp;Regels!B281&amp;" ("&amp;Regels!A281&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E281&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F281&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C281&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A281&amp;" *("&amp;Regels!I281&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F281&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G281&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H281&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8193,7 +8139,7 @@
         <f>Regels!D282</f>
         <v>0</v>
       </c>
-      <c r="B282" s="10" t="str">
+      <c r="B282" s="6" t="str">
         <f>"### "&amp;Regels!B282&amp;" ("&amp;Regels!A282&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E282&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F282&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C282&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A282&amp;" *("&amp;Regels!I282&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F282&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G282&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H282&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8213,7 +8159,7 @@
         <f>Regels!D283</f>
         <v>0</v>
       </c>
-      <c r="B283" s="10" t="str">
+      <c r="B283" s="6" t="str">
         <f>"### "&amp;Regels!B283&amp;" ("&amp;Regels!A283&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E283&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F283&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C283&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A283&amp;" *("&amp;Regels!I283&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F283&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G283&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H283&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8233,7 +8179,7 @@
         <f>Regels!D284</f>
         <v>0</v>
       </c>
-      <c r="B284" s="10" t="str">
+      <c r="B284" s="6" t="str">
         <f>"### "&amp;Regels!B284&amp;" ("&amp;Regels!A284&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E284&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F284&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C284&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A284&amp;" *("&amp;Regels!I284&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F284&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G284&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H284&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8253,7 +8199,7 @@
         <f>Regels!D285</f>
         <v>0</v>
       </c>
-      <c r="B285" s="10" t="str">
+      <c r="B285" s="6" t="str">
         <f>"### "&amp;Regels!B285&amp;" ("&amp;Regels!A285&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E285&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F285&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C285&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A285&amp;" *("&amp;Regels!I285&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F285&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G285&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H285&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8273,7 +8219,7 @@
         <f>Regels!D286</f>
         <v>0</v>
       </c>
-      <c r="B286" s="10" t="str">
+      <c r="B286" s="6" t="str">
         <f>"### "&amp;Regels!B286&amp;" ("&amp;Regels!A286&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E286&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F286&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C286&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A286&amp;" *("&amp;Regels!I286&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F286&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G286&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H286&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8293,7 +8239,7 @@
         <f>Regels!D287</f>
         <v>0</v>
       </c>
-      <c r="B287" s="10" t="str">
+      <c r="B287" s="6" t="str">
         <f>"### "&amp;Regels!B287&amp;" ("&amp;Regels!A287&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E287&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F287&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C287&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A287&amp;" *("&amp;Regels!I287&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F287&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G287&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H287&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8313,7 +8259,7 @@
         <f>Regels!D288</f>
         <v>0</v>
       </c>
-      <c r="B288" s="10" t="str">
+      <c r="B288" s="6" t="str">
         <f>"### "&amp;Regels!B288&amp;" ("&amp;Regels!A288&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E288&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F288&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C288&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A288&amp;" *("&amp;Regels!I288&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F288&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G288&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H288&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8333,7 +8279,7 @@
         <f>Regels!D289</f>
         <v>0</v>
       </c>
-      <c r="B289" s="10" t="str">
+      <c r="B289" s="6" t="str">
         <f>"### "&amp;Regels!B289&amp;" ("&amp;Regels!A289&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E289&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F289&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C289&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A289&amp;" *("&amp;Regels!I289&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F289&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G289&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H289&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8353,7 +8299,7 @@
         <f>Regels!D290</f>
         <v>0</v>
       </c>
-      <c r="B290" s="10" t="str">
+      <c r="B290" s="6" t="str">
         <f>"### "&amp;Regels!B290&amp;" ("&amp;Regels!A290&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E290&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F290&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C290&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A290&amp;" *("&amp;Regels!I290&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F290&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G290&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H290&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8373,7 +8319,7 @@
         <f>Regels!D291</f>
         <v>0</v>
       </c>
-      <c r="B291" s="10" t="str">
+      <c r="B291" s="6" t="str">
         <f>"### "&amp;Regels!B291&amp;" ("&amp;Regels!A291&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E291&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F291&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C291&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A291&amp;" *("&amp;Regels!I291&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F291&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G291&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H291&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8393,7 +8339,7 @@
         <f>Regels!D292</f>
         <v>0</v>
       </c>
-      <c r="B292" s="10" t="str">
+      <c r="B292" s="6" t="str">
         <f>"### "&amp;Regels!B292&amp;" ("&amp;Regels!A292&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E292&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F292&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C292&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A292&amp;" *("&amp;Regels!I292&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F292&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G292&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H292&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8413,7 +8359,7 @@
         <f>Regels!D293</f>
         <v>0</v>
       </c>
-      <c r="B293" s="10" t="str">
+      <c r="B293" s="6" t="str">
         <f>"### "&amp;Regels!B293&amp;" ("&amp;Regels!A293&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E293&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F293&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C293&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A293&amp;" *("&amp;Regels!I293&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F293&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G293&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H293&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8433,7 +8379,7 @@
         <f>Regels!D294</f>
         <v>0</v>
       </c>
-      <c r="B294" s="10" t="str">
+      <c r="B294" s="6" t="str">
         <f>"### "&amp;Regels!B294&amp;" ("&amp;Regels!A294&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E294&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F294&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C294&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A294&amp;" *("&amp;Regels!I294&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F294&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G294&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H294&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8453,7 +8399,7 @@
         <f>Regels!D295</f>
         <v>0</v>
       </c>
-      <c r="B295" s="10" t="str">
+      <c r="B295" s="6" t="str">
         <f>"### "&amp;Regels!B295&amp;" ("&amp;Regels!A295&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E295&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F295&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C295&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A295&amp;" *("&amp;Regels!I295&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F295&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G295&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H295&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8473,7 +8419,7 @@
         <f>Regels!D296</f>
         <v>0</v>
       </c>
-      <c r="B296" s="10" t="str">
+      <c r="B296" s="6" t="str">
         <f>"### "&amp;Regels!B296&amp;" ("&amp;Regels!A296&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E296&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F296&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C296&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A296&amp;" *("&amp;Regels!I296&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F296&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G296&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H296&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8493,7 +8439,7 @@
         <f>Regels!D297</f>
         <v>0</v>
       </c>
-      <c r="B297" s="10" t="str">
+      <c r="B297" s="6" t="str">
         <f>"### "&amp;Regels!B297&amp;" ("&amp;Regels!A297&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E297&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F297&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C297&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A297&amp;" *("&amp;Regels!I297&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F297&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G297&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H297&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8513,7 +8459,7 @@
         <f>Regels!D298</f>
         <v>0</v>
       </c>
-      <c r="B298" s="10" t="str">
+      <c r="B298" s="6" t="str">
         <f>"### "&amp;Regels!B298&amp;" ("&amp;Regels!A298&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E298&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F298&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C298&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A298&amp;" *("&amp;Regels!I298&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F298&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G298&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H298&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8533,7 +8479,7 @@
         <f>Regels!D299</f>
         <v>0</v>
       </c>
-      <c r="B299" s="10" t="str">
+      <c r="B299" s="6" t="str">
         <f>"### "&amp;Regels!B299&amp;" ("&amp;Regels!A299&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E299&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F299&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C299&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A299&amp;" *("&amp;Regels!I299&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F299&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G299&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H299&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8553,7 +8499,7 @@
         <f>Regels!D300</f>
         <v>0</v>
       </c>
-      <c r="B300" s="10" t="str">
+      <c r="B300" s="6" t="str">
         <f>"### "&amp;Regels!B300&amp;" ("&amp;Regels!A300&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E300&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F300&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C300&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A300&amp;" *("&amp;Regels!I300&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F300&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G300&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H300&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8573,7 +8519,7 @@
         <f>Regels!D301</f>
         <v>0</v>
       </c>
-      <c r="B301" s="10" t="str">
+      <c r="B301" s="6" t="str">
         <f>"### "&amp;Regels!B301&amp;" ("&amp;Regels!A301&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E301&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F301&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C301&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A301&amp;" *("&amp;Regels!I301&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F301&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G301&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H301&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8593,7 +8539,7 @@
         <f>Regels!D302</f>
         <v>0</v>
       </c>
-      <c r="B302" s="10" t="str">
+      <c r="B302" s="6" t="str">
         <f>"### "&amp;Regels!B302&amp;" ("&amp;Regels!A302&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E302&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F302&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C302&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A302&amp;" *("&amp;Regels!I302&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F302&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G302&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H302&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8613,7 +8559,7 @@
         <f>Regels!D303</f>
         <v>0</v>
       </c>
-      <c r="B303" s="10" t="str">
+      <c r="B303" s="6" t="str">
         <f>"### "&amp;Regels!B303&amp;" ("&amp;Regels!A303&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E303&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F303&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C303&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A303&amp;" *("&amp;Regels!I303&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F303&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G303&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H303&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8633,7 +8579,7 @@
         <f>Regels!D304</f>
         <v>0</v>
       </c>
-      <c r="B304" s="10" t="str">
+      <c r="B304" s="6" t="str">
         <f>"### "&amp;Regels!B304&amp;" ("&amp;Regels!A304&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E304&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F304&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C304&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A304&amp;" *("&amp;Regels!I304&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F304&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G304&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H304&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8653,7 +8599,7 @@
         <f>Regels!D305</f>
         <v>0</v>
       </c>
-      <c r="B305" s="10" t="str">
+      <c r="B305" s="6" t="str">
         <f>"### "&amp;Regels!B305&amp;" ("&amp;Regels!A305&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E305&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F305&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C305&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A305&amp;" *("&amp;Regels!I305&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F305&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G305&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H305&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8673,7 +8619,7 @@
         <f>Regels!D306</f>
         <v>0</v>
       </c>
-      <c r="B306" s="10" t="str">
+      <c r="B306" s="6" t="str">
         <f>"### "&amp;Regels!B306&amp;" ("&amp;Regels!A306&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E306&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F306&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C306&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A306&amp;" *("&amp;Regels!I306&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F306&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G306&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H306&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8693,7 +8639,7 @@
         <f>Regels!D307</f>
         <v>0</v>
       </c>
-      <c r="B307" s="10" t="str">
+      <c r="B307" s="6" t="str">
         <f>"### "&amp;Regels!B307&amp;" ("&amp;Regels!A307&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E307&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F307&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C307&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A307&amp;" *("&amp;Regels!I307&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F307&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G307&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H307&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8713,7 +8659,7 @@
         <f>Regels!D308</f>
         <v>0</v>
       </c>
-      <c r="B308" s="10" t="str">
+      <c r="B308" s="6" t="str">
         <f>"### "&amp;Regels!B308&amp;" ("&amp;Regels!A308&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E308&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F308&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C308&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A308&amp;" *("&amp;Regels!I308&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F308&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G308&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H308&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8733,7 +8679,7 @@
         <f>Regels!D309</f>
         <v>0</v>
       </c>
-      <c r="B309" s="10" t="str">
+      <c r="B309" s="6" t="str">
         <f>"### "&amp;Regels!B309&amp;" ("&amp;Regels!A309&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E309&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F309&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C309&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A309&amp;" *("&amp;Regels!I309&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F309&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G309&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H309&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8753,7 +8699,7 @@
         <f>Regels!D310</f>
         <v>0</v>
       </c>
-      <c r="B310" s="10" t="str">
+      <c r="B310" s="6" t="str">
         <f>"### "&amp;Regels!B310&amp;" ("&amp;Regels!A310&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E310&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F310&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C310&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A310&amp;" *("&amp;Regels!I310&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F310&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G310&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H310&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8773,7 +8719,7 @@
         <f>Regels!D311</f>
         <v>0</v>
       </c>
-      <c r="B311" s="10" t="str">
+      <c r="B311" s="6" t="str">
         <f>"### "&amp;Regels!B311&amp;" ("&amp;Regels!A311&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E311&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F311&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C311&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A311&amp;" *("&amp;Regels!I311&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F311&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G311&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H311&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8793,7 +8739,7 @@
         <f>Regels!D312</f>
         <v>0</v>
       </c>
-      <c r="B312" s="10" t="str">
+      <c r="B312" s="6" t="str">
         <f>"### "&amp;Regels!B312&amp;" ("&amp;Regels!A312&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E312&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F312&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C312&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A312&amp;" *("&amp;Regels!I312&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F312&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G312&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H312&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8813,7 +8759,7 @@
         <f>Regels!D313</f>
         <v>0</v>
       </c>
-      <c r="B313" s="10" t="str">
+      <c r="B313" s="6" t="str">
         <f>"### "&amp;Regels!B313&amp;" ("&amp;Regels!A313&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E313&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F313&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C313&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A313&amp;" *("&amp;Regels!I313&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F313&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G313&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H313&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8833,7 +8779,7 @@
         <f>Regels!D314</f>
         <v>0</v>
       </c>
-      <c r="B314" s="10" t="str">
+      <c r="B314" s="6" t="str">
         <f>"### "&amp;Regels!B314&amp;" ("&amp;Regels!A314&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E314&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F314&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C314&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A314&amp;" *("&amp;Regels!I314&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F314&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G314&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H314&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8853,7 +8799,7 @@
         <f>Regels!D315</f>
         <v>0</v>
       </c>
-      <c r="B315" s="10" t="str">
+      <c r="B315" s="6" t="str">
         <f>"### "&amp;Regels!B315&amp;" ("&amp;Regels!A315&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E315&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F315&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C315&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A315&amp;" *("&amp;Regels!I315&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F315&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G315&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H315&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8873,7 +8819,7 @@
         <f>Regels!D316</f>
         <v>0</v>
       </c>
-      <c r="B316" s="10" t="str">
+      <c r="B316" s="6" t="str">
         <f>"### "&amp;Regels!B316&amp;" ("&amp;Regels!A316&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E316&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F316&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C316&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A316&amp;" *("&amp;Regels!I316&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F316&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G316&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H316&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8893,7 +8839,7 @@
         <f>Regels!D317</f>
         <v>0</v>
       </c>
-      <c r="B317" s="10" t="str">
+      <c r="B317" s="6" t="str">
         <f>"### "&amp;Regels!B317&amp;" ("&amp;Regels!A317&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E317&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F317&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C317&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A317&amp;" *("&amp;Regels!I317&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F317&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G317&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H317&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8913,7 +8859,7 @@
         <f>Regels!D318</f>
         <v>0</v>
       </c>
-      <c r="B318" s="10" t="str">
+      <c r="B318" s="6" t="str">
         <f>"### "&amp;Regels!B318&amp;" ("&amp;Regels!A318&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E318&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F318&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C318&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A318&amp;" *("&amp;Regels!I318&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F318&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G318&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H318&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8933,7 +8879,7 @@
         <f>Regels!D319</f>
         <v>0</v>
       </c>
-      <c r="B319" s="10" t="str">
+      <c r="B319" s="6" t="str">
         <f>"### "&amp;Regels!B319&amp;" ("&amp;Regels!A319&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E319&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F319&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C319&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A319&amp;" *("&amp;Regels!I319&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F319&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G319&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H319&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8953,7 +8899,7 @@
         <f>Regels!D320</f>
         <v>0</v>
       </c>
-      <c r="B320" s="10" t="str">
+      <c r="B320" s="6" t="str">
         <f>"### "&amp;Regels!B320&amp;" ("&amp;Regels!A320&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E320&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F320&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C320&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A320&amp;" *("&amp;Regels!I320&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F320&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G320&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H320&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8973,7 +8919,7 @@
         <f>Regels!D321</f>
         <v>0</v>
       </c>
-      <c r="B321" s="10" t="str">
+      <c r="B321" s="6" t="str">
         <f>"### "&amp;Regels!B321&amp;" ("&amp;Regels!A321&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E321&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F321&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C321&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A321&amp;" *("&amp;Regels!I321&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F321&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G321&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H321&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8993,7 +8939,7 @@
         <f>Regels!D322</f>
         <v>0</v>
       </c>
-      <c r="B322" s="10" t="str">
+      <c r="B322" s="6" t="str">
         <f>"### "&amp;Regels!B322&amp;" ("&amp;Regels!A322&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E322&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F322&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C322&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A322&amp;" *("&amp;Regels!I322&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F322&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G322&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H322&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9013,7 +8959,7 @@
         <f>Regels!D323</f>
         <v>0</v>
       </c>
-      <c r="B323" s="10" t="str">
+      <c r="B323" s="6" t="str">
         <f>"### "&amp;Regels!B323&amp;" ("&amp;Regels!A323&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E323&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F323&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C323&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A323&amp;" *("&amp;Regels!I323&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F323&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G323&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H323&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9033,7 +8979,7 @@
         <f>Regels!D324</f>
         <v>0</v>
       </c>
-      <c r="B324" s="10" t="str">
+      <c r="B324" s="6" t="str">
         <f>"### "&amp;Regels!B324&amp;" ("&amp;Regels!A324&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E324&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F324&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C324&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A324&amp;" *("&amp;Regels!I324&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F324&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G324&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H324&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9053,7 +8999,7 @@
         <f>Regels!D325</f>
         <v>0</v>
       </c>
-      <c r="B325" s="10" t="str">
+      <c r="B325" s="6" t="str">
         <f>"### "&amp;Regels!B325&amp;" ("&amp;Regels!A325&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E325&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F325&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C325&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A325&amp;" *("&amp;Regels!I325&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F325&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G325&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H325&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9073,7 +9019,7 @@
         <f>Regels!D326</f>
         <v>0</v>
       </c>
-      <c r="B326" s="10" t="str">
+      <c r="B326" s="6" t="str">
         <f>"### "&amp;Regels!B326&amp;" ("&amp;Regels!A326&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E326&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F326&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C326&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A326&amp;" *("&amp;Regels!I326&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F326&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G326&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H326&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9093,7 +9039,7 @@
         <f>Regels!D327</f>
         <v>0</v>
       </c>
-      <c r="B327" s="10" t="str">
+      <c r="B327" s="6" t="str">
         <f>"### "&amp;Regels!B327&amp;" ("&amp;Regels!A327&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E327&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F327&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C327&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A327&amp;" *("&amp;Regels!I327&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F327&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G327&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H327&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9113,7 +9059,7 @@
         <f>Regels!D328</f>
         <v>0</v>
       </c>
-      <c r="B328" s="10" t="str">
+      <c r="B328" s="6" t="str">
         <f>"### "&amp;Regels!B328&amp;" ("&amp;Regels!A328&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E328&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F328&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C328&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A328&amp;" *("&amp;Regels!I328&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F328&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G328&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H328&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9133,7 +9079,7 @@
         <f>Regels!D329</f>
         <v>0</v>
       </c>
-      <c r="B329" s="10" t="str">
+      <c r="B329" s="6" t="str">
         <f>"### "&amp;Regels!B329&amp;" ("&amp;Regels!A329&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E329&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F329&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C329&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A329&amp;" *("&amp;Regels!I329&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F329&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G329&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H329&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9153,7 +9099,7 @@
         <f>Regels!D330</f>
         <v>0</v>
       </c>
-      <c r="B330" s="10" t="str">
+      <c r="B330" s="6" t="str">
         <f>"### "&amp;Regels!B330&amp;" ("&amp;Regels!A330&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E330&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F330&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C330&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A330&amp;" *("&amp;Regels!I330&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F330&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G330&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H330&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9173,7 +9119,7 @@
         <f>Regels!D331</f>
         <v>0</v>
       </c>
-      <c r="B331" s="10" t="str">
+      <c r="B331" s="6" t="str">
         <f>"### "&amp;Regels!B331&amp;" ("&amp;Regels!A331&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E331&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F331&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C331&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A331&amp;" *("&amp;Regels!I331&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F331&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G331&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H331&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9193,7 +9139,7 @@
         <f>Regels!D332</f>
         <v>0</v>
       </c>
-      <c r="B332" s="10" t="str">
+      <c r="B332" s="6" t="str">
         <f>"### "&amp;Regels!B332&amp;" ("&amp;Regels!A332&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E332&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F332&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C332&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A332&amp;" *("&amp;Regels!I332&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F332&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G332&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H332&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9213,7 +9159,7 @@
         <f>Regels!D333</f>
         <v>0</v>
       </c>
-      <c r="B333" s="10" t="str">
+      <c r="B333" s="6" t="str">
         <f>"### "&amp;Regels!B333&amp;" ("&amp;Regels!A333&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E333&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F333&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C333&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A333&amp;" *("&amp;Regels!I333&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F333&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G333&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H333&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9233,7 +9179,7 @@
         <f>Regels!D334</f>
         <v>0</v>
       </c>
-      <c r="B334" s="10" t="str">
+      <c r="B334" s="6" t="str">
         <f>"### "&amp;Regels!B334&amp;" ("&amp;Regels!A334&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E334&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F334&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C334&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A334&amp;" *("&amp;Regels!I334&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F334&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G334&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H334&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9253,7 +9199,7 @@
         <f>Regels!D335</f>
         <v>0</v>
       </c>
-      <c r="B335" s="10" t="str">
+      <c r="B335" s="6" t="str">
         <f>"### "&amp;Regels!B335&amp;" ("&amp;Regels!A335&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E335&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F335&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C335&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A335&amp;" *("&amp;Regels!I335&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F335&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G335&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H335&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9273,7 +9219,7 @@
         <f>Regels!D336</f>
         <v>0</v>
       </c>
-      <c r="B336" s="10" t="str">
+      <c r="B336" s="6" t="str">
         <f>"### "&amp;Regels!B336&amp;" ("&amp;Regels!A336&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E336&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F336&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C336&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A336&amp;" *("&amp;Regels!I336&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F336&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G336&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H336&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9293,7 +9239,7 @@
         <f>Regels!D337</f>
         <v>0</v>
       </c>
-      <c r="B337" s="10" t="str">
+      <c r="B337" s="6" t="str">
         <f>"### "&amp;Regels!B337&amp;" ("&amp;Regels!A337&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E337&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F337&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C337&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A337&amp;" *("&amp;Regels!I337&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F337&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G337&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H337&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9313,7 +9259,7 @@
         <f>Regels!D338</f>
         <v>0</v>
       </c>
-      <c r="B338" s="10" t="str">
+      <c r="B338" s="6" t="str">
         <f>"### "&amp;Regels!B338&amp;" ("&amp;Regels!A338&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E338&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F338&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C338&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A338&amp;" *("&amp;Regels!I338&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F338&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G338&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H338&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9333,7 +9279,7 @@
         <f>Regels!D339</f>
         <v>0</v>
       </c>
-      <c r="B339" s="10" t="str">
+      <c r="B339" s="6" t="str">
         <f>"### "&amp;Regels!B339&amp;" ("&amp;Regels!A339&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E339&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F339&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C339&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A339&amp;" *("&amp;Regels!I339&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F339&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G339&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H339&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9353,7 +9299,7 @@
         <f>Regels!D340</f>
         <v>0</v>
       </c>
-      <c r="B340" s="10" t="str">
+      <c r="B340" s="6" t="str">
         <f>"### "&amp;Regels!B340&amp;" ("&amp;Regels!A340&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E340&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F340&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C340&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A340&amp;" *("&amp;Regels!I340&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F340&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G340&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H340&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9373,7 +9319,7 @@
         <f>Regels!D341</f>
         <v>0</v>
       </c>
-      <c r="B341" s="10" t="str">
+      <c r="B341" s="6" t="str">
         <f>"### "&amp;Regels!B341&amp;" ("&amp;Regels!A341&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E341&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F341&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C341&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A341&amp;" *("&amp;Regels!I341&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F341&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G341&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H341&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9393,7 +9339,7 @@
         <f>Regels!D342</f>
         <v>0</v>
       </c>
-      <c r="B342" s="10" t="str">
+      <c r="B342" s="6" t="str">
         <f>"### "&amp;Regels!B342&amp;" ("&amp;Regels!A342&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E342&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F342&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C342&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A342&amp;" *("&amp;Regels!I342&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F342&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G342&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H342&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9413,7 +9359,7 @@
         <f>Regels!D343</f>
         <v>0</v>
       </c>
-      <c r="B343" s="10" t="str">
+      <c r="B343" s="6" t="str">
         <f>"### "&amp;Regels!B343&amp;" ("&amp;Regels!A343&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E343&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F343&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C343&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A343&amp;" *("&amp;Regels!I343&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F343&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G343&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H343&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9433,7 +9379,7 @@
         <f>Regels!D344</f>
         <v>0</v>
       </c>
-      <c r="B344" s="10" t="str">
+      <c r="B344" s="6" t="str">
         <f>"### "&amp;Regels!B344&amp;" ("&amp;Regels!A344&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E344&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F344&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C344&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A344&amp;" *("&amp;Regels!I344&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F344&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G344&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H344&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9453,7 +9399,7 @@
         <f>Regels!D345</f>
         <v>0</v>
       </c>
-      <c r="B345" s="10" t="str">
+      <c r="B345" s="6" t="str">
         <f>"### "&amp;Regels!B345&amp;" ("&amp;Regels!A345&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E345&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F345&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C345&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A345&amp;" *("&amp;Regels!I345&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F345&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G345&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H345&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9473,7 +9419,7 @@
         <f>Regels!D346</f>
         <v>0</v>
       </c>
-      <c r="B346" s="10" t="str">
+      <c r="B346" s="6" t="str">
         <f>"### "&amp;Regels!B346&amp;" ("&amp;Regels!A346&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E346&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F346&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C346&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A346&amp;" *("&amp;Regels!I346&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F346&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G346&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H346&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9493,7 +9439,7 @@
         <f>Regels!D347</f>
         <v>0</v>
       </c>
-      <c r="B347" s="10" t="str">
+      <c r="B347" s="6" t="str">
         <f>"### "&amp;Regels!B347&amp;" ("&amp;Regels!A347&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E347&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F347&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C347&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A347&amp;" *("&amp;Regels!I347&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F347&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G347&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H347&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9513,7 +9459,7 @@
         <f>Regels!D348</f>
         <v>0</v>
       </c>
-      <c r="B348" s="10" t="str">
+      <c r="B348" s="6" t="str">
         <f>"### "&amp;Regels!B348&amp;" ("&amp;Regels!A348&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E348&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F348&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C348&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A348&amp;" *("&amp;Regels!I348&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F348&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G348&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H348&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9533,7 +9479,7 @@
         <f>Regels!D349</f>
         <v>0</v>
       </c>
-      <c r="B349" s="10" t="str">
+      <c r="B349" s="6" t="str">
         <f>"### "&amp;Regels!B349&amp;" ("&amp;Regels!A349&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E349&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F349&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C349&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A349&amp;" *("&amp;Regels!I349&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F349&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G349&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H349&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9553,7 +9499,7 @@
         <f>Regels!D350</f>
         <v>0</v>
       </c>
-      <c r="B350" s="10" t="str">
+      <c r="B350" s="6" t="str">
         <f>"### "&amp;Regels!B350&amp;" ("&amp;Regels!A350&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E350&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F350&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C350&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A350&amp;" *("&amp;Regels!I350&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F350&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G350&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H350&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9573,7 +9519,7 @@
         <f>Regels!D351</f>
         <v>0</v>
       </c>
-      <c r="B351" s="10" t="str">
+      <c r="B351" s="6" t="str">
         <f>"### "&amp;Regels!B351&amp;" ("&amp;Regels!A351&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E351&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F351&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C351&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A351&amp;" *("&amp;Regels!I351&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F351&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G351&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H351&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9593,7 +9539,7 @@
         <f>Regels!D352</f>
         <v>0</v>
       </c>
-      <c r="B352" s="10" t="str">
+      <c r="B352" s="6" t="str">
         <f>"### "&amp;Regels!B352&amp;" ("&amp;Regels!A352&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E352&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F352&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C352&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A352&amp;" *("&amp;Regels!I352&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F352&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G352&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H352&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9613,7 +9559,7 @@
         <f>Regels!D353</f>
         <v>0</v>
       </c>
-      <c r="B353" s="10" t="str">
+      <c r="B353" s="6" t="str">
         <f>"### "&amp;Regels!B353&amp;" ("&amp;Regels!A353&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E353&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F353&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C353&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A353&amp;" *("&amp;Regels!I353&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F353&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G353&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H353&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9633,7 +9579,7 @@
         <f>Regels!D354</f>
         <v>0</v>
       </c>
-      <c r="B354" s="10" t="str">
+      <c r="B354" s="6" t="str">
         <f>"### "&amp;Regels!B354&amp;" ("&amp;Regels!A354&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E354&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F354&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C354&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A354&amp;" *("&amp;Regels!I354&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F354&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G354&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H354&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9653,7 +9599,7 @@
         <f>Regels!D355</f>
         <v>0</v>
       </c>
-      <c r="B355" s="10" t="str">
+      <c r="B355" s="6" t="str">
         <f>"### "&amp;Regels!B355&amp;" ("&amp;Regels!A355&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E355&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F355&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C355&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A355&amp;" *("&amp;Regels!I355&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F355&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G355&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H355&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9673,7 +9619,7 @@
         <f>Regels!D356</f>
         <v>0</v>
       </c>
-      <c r="B356" s="10" t="str">
+      <c r="B356" s="6" t="str">
         <f>"### "&amp;Regels!B356&amp;" ("&amp;Regels!A356&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E356&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F356&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C356&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A356&amp;" *("&amp;Regels!I356&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F356&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G356&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H356&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9693,7 +9639,7 @@
         <f>Regels!D357</f>
         <v>0</v>
       </c>
-      <c r="B357" s="10" t="str">
+      <c r="B357" s="6" t="str">
         <f>"### "&amp;Regels!B357&amp;" ("&amp;Regels!A357&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E357&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F357&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C357&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A357&amp;" *("&amp;Regels!I357&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F357&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G357&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H357&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9713,7 +9659,7 @@
         <f>Regels!D358</f>
         <v>0</v>
       </c>
-      <c r="B358" s="10" t="str">
+      <c r="B358" s="6" t="str">
         <f>"### "&amp;Regels!B358&amp;" ("&amp;Regels!A358&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E358&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F358&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C358&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A358&amp;" *("&amp;Regels!I358&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F358&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G358&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H358&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9733,7 +9679,7 @@
         <f>Regels!D359</f>
         <v>0</v>
       </c>
-      <c r="B359" s="10" t="str">
+      <c r="B359" s="6" t="str">
         <f>"### "&amp;Regels!B359&amp;" ("&amp;Regels!A359&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E359&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F359&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C359&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A359&amp;" *("&amp;Regels!I359&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F359&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G359&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H359&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9753,7 +9699,7 @@
         <f>Regels!D360</f>
         <v>0</v>
       </c>
-      <c r="B360" s="10" t="str">
+      <c r="B360" s="6" t="str">
         <f>"### "&amp;Regels!B360&amp;" ("&amp;Regels!A360&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E360&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F360&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C360&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A360&amp;" *("&amp;Regels!I360&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F360&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G360&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H360&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9773,7 +9719,7 @@
         <f>Regels!D361</f>
         <v>0</v>
       </c>
-      <c r="B361" s="10" t="str">
+      <c r="B361" s="6" t="str">
         <f>"### "&amp;Regels!B361&amp;" ("&amp;Regels!A361&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E361&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F361&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C361&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A361&amp;" *("&amp;Regels!I361&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F361&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G361&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H361&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9793,7 +9739,7 @@
         <f>Regels!D362</f>
         <v>0</v>
       </c>
-      <c r="B362" s="10" t="str">
+      <c r="B362" s="6" t="str">
         <f>"### "&amp;Regels!B362&amp;" ("&amp;Regels!A362&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E362&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F362&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C362&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A362&amp;" *("&amp;Regels!I362&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F362&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G362&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H362&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9813,7 +9759,7 @@
         <f>Regels!D363</f>
         <v>0</v>
       </c>
-      <c r="B363" s="10" t="str">
+      <c r="B363" s="6" t="str">
         <f>"### "&amp;Regels!B363&amp;" ("&amp;Regels!A363&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E363&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F363&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C363&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A363&amp;" *("&amp;Regels!I363&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F363&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G363&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H363&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9833,7 +9779,7 @@
         <f>Regels!D364</f>
         <v>0</v>
       </c>
-      <c r="B364" s="10" t="str">
+      <c r="B364" s="6" t="str">
         <f>"### "&amp;Regels!B364&amp;" ("&amp;Regels!A364&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E364&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F364&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C364&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A364&amp;" *("&amp;Regels!I364&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F364&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G364&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H364&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9853,7 +9799,7 @@
         <f>Regels!D365</f>
         <v>0</v>
       </c>
-      <c r="B365" s="10" t="str">
+      <c r="B365" s="6" t="str">
         <f>"### "&amp;Regels!B365&amp;" ("&amp;Regels!A365&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E365&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F365&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C365&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A365&amp;" *("&amp;Regels!I365&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F365&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G365&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H365&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9873,7 +9819,7 @@
         <f>Regels!D366</f>
         <v>0</v>
       </c>
-      <c r="B366" s="10" t="str">
+      <c r="B366" s="6" t="str">
         <f>"### "&amp;Regels!B366&amp;" ("&amp;Regels!A366&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E366&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F366&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C366&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A366&amp;" *("&amp;Regels!I366&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F366&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G366&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H366&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9893,7 +9839,7 @@
         <f>Regels!D367</f>
         <v>0</v>
       </c>
-      <c r="B367" s="10" t="str">
+      <c r="B367" s="6" t="str">
         <f>"### "&amp;Regels!B367&amp;" ("&amp;Regels!A367&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E367&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F367&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C367&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A367&amp;" *("&amp;Regels!I367&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F367&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G367&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H367&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9913,7 +9859,7 @@
         <f>Regels!D368</f>
         <v>0</v>
       </c>
-      <c r="B368" s="10" t="str">
+      <c r="B368" s="6" t="str">
         <f>"### "&amp;Regels!B368&amp;" ("&amp;Regels!A368&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E368&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F368&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C368&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A368&amp;" *("&amp;Regels!I368&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F368&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G368&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H368&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9933,7 +9879,7 @@
         <f>Regels!D369</f>
         <v>0</v>
       </c>
-      <c r="B369" s="10" t="str">
+      <c r="B369" s="6" t="str">
         <f>"### "&amp;Regels!B369&amp;" ("&amp;Regels!A369&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E369&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F369&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C369&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A369&amp;" *("&amp;Regels!I369&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F369&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G369&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H369&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9953,7 +9899,7 @@
         <f>Regels!D370</f>
         <v>0</v>
       </c>
-      <c r="B370" s="10" t="str">
+      <c r="B370" s="6" t="str">
         <f>"### "&amp;Regels!B370&amp;" ("&amp;Regels!A370&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E370&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F370&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C370&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A370&amp;" *("&amp;Regels!I370&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F370&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G370&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H370&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9973,7 +9919,7 @@
         <f>Regels!D371</f>
         <v>0</v>
       </c>
-      <c r="B371" s="10" t="str">
+      <c r="B371" s="6" t="str">
         <f>"### "&amp;Regels!B371&amp;" ("&amp;Regels!A371&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E371&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F371&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C371&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A371&amp;" *("&amp;Regels!I371&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F371&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G371&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H371&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9993,7 +9939,7 @@
         <f>Regels!D372</f>
         <v>0</v>
       </c>
-      <c r="B372" s="10" t="str">
+      <c r="B372" s="6" t="str">
         <f>"### "&amp;Regels!B372&amp;" ("&amp;Regels!A372&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E372&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F372&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C372&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A372&amp;" *("&amp;Regels!I372&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F372&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G372&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H372&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -10014,104 +9960,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BBEFE4-EE00-403A-8F6A-965770A2841A}">
-  <dimension ref="A1:A15"/>
-  <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="157.6328125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A72FCD-F931-4152-8494-638959377CAA}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10119,7 +9975,7 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>2357b08c-87c1-3e2d-489d-98699bc76fce</v>
+        <v>1a70bd87-83c1-8355-2f1b-09a11ff11177</v>
       </c>
     </row>
   </sheetData>

--- a/docs/modelleerregels/data/Modelleerregels.xlsx
+++ b/docs/modelleerregels/data/Modelleerregels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\imbor\docs\modelleerregels\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Stichting-CROW\imbor\docs\modelleerregels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D2180F-2F98-463B-B176-1EE41D571536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B1F69C-C7EE-4C14-9D14-01E884780EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3A8095FC-6EC2-448F-A544-71A49C170C1D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{3A8095FC-6EC2-448F-A544-71A49C170C1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Regels" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="247">
   <si>
     <t>ID</t>
   </si>
@@ -280,9 +280,6 @@
     <t xml:space="preserve">https://github.com/Stichting-CROW/imbor/issues/971 </t>
   </si>
   <si>
-    <t>Semantische relaties genieten de voorkeur boven Attributen</t>
-  </si>
-  <si>
     <t>Een object in de openbare ruimte wordt wanneer mogelijk als ObjectType gemodelleerd; attributen die een decompositie verbergen moeten worden vermeden. Synoniemen mogen niet als separate ObjectTypen bestaan.</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
     <t>IMBOR neemt in principe geen aspecten over uit andere standaarden, maar gaat uit van mappingen. Maar IMBOR neemt alleen aspecten van andere standaarden over als hier (i) voldoende reden voor is; of (ii) de standaard geen informatiemodel is waar IMBOR aan gerelateerd kan worden.</t>
   </si>
   <si>
-    <t>https://github.com/Stichting-CROW/imbor/issues/306</t>
-  </si>
-  <si>
     <t>Consistent toepassen van topmodellen</t>
   </si>
   <si>
@@ -770,6 +764,24 @@
   </si>
   <si>
     <t>Relatie tussen datatype en eenheid moet consistent zijn</t>
+  </si>
+  <si>
+    <t>f944afcf-5783-3ff5-9da2-3d9a89de0bd2</t>
+  </si>
+  <si>
+    <t>https://github.com/Stichting-CROW/imbor/issues/1101</t>
+  </si>
+  <si>
+    <t>Wanneer gegevens afgeleidt kunnen worden van de geometrie (bv. Gemeente, Gebiedsindeling e.d.) wordt dit niet in een Attribuut gedaan, maar middels een semantische relatie.</t>
+  </si>
+  <si>
+    <t>Semantische relaties genieten de voorkeur boven Attributen 1</t>
+  </si>
+  <si>
+    <t>Semantische relaties genieten de voorkeur boven Attributen 2</t>
+  </si>
+  <si>
+    <t>https://github.com/Stichting-CROW/imbor/issues/306; https://github.com/Stichting-CROW/imbor/issues/914</t>
   </si>
 </sst>
 </file>
@@ -861,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -872,18 +884,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -899,7 +906,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1187,7 +1194,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1197,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188C7535-DE94-40B4-B3C6-1EA29470252A}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1207,7 +1214,7 @@
     <col min="2" max="2" width="54.1796875" style="3" customWidth="1"/>
     <col min="3" max="3" width="95.453125" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.81640625" style="2"/>
     <col min="8" max="8" width="56.36328125" style="2" customWidth="1"/>
@@ -1228,8 +1235,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>212</v>
+      <c r="E1" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1241,39 +1248,39 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="8" t="str">
+        <f t="shared" ref="E2:E48" si="0">MID(D2,3,99)</f>
+        <v>Decompositie</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E2" s="10" t="str">
-        <f>MID(D2,3,99)</f>
-        <v>Decompositie</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>52</v>
@@ -1282,25 +1289,25 @@
         <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" s="10" t="str">
-        <f>MID(D3,3,99)</f>
+        <v>212</v>
+      </c>
+      <c r="E3" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Instanties</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>48</v>
@@ -1309,25 +1316,25 @@
         <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="10" t="str">
-        <f>MID(D4,3,99)</f>
+        <v>208</v>
+      </c>
+      <c r="E4" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Klassenstructuur</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>49</v>
@@ -1336,52 +1343,52 @@
         <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E5" s="10" t="str">
-        <f>MID(D5,3,99)</f>
+        <v>208</v>
+      </c>
+      <c r="E5" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Klassenstructuur</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" s="10" t="str">
-        <f>MID(D6,3,99)</f>
+        <v>208</v>
+      </c>
+      <c r="E6" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Klassenstructuur</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -1390,49 +1397,49 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="10" t="str">
-        <f>MID(D7,3,99)</f>
+        <v>208</v>
+      </c>
+      <c r="E7" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Klassenstructuur</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="48" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E8" s="10" t="str">
-        <f>MID(D8,3,99)</f>
+        <v>208</v>
+      </c>
+      <c r="E8" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Klassenstructuur</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>70</v>
@@ -1441,52 +1448,52 @@
         <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="10" t="str">
-        <f>MID(D9,3,99)</f>
+        <v>211</v>
+      </c>
+      <c r="E9" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Mapping</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="10" t="str">
-        <f>MID(D10,3,99)</f>
+        <v>211</v>
+      </c>
+      <c r="E10" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Mapping</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>72</v>
@@ -1495,79 +1502,79 @@
         <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="10" t="str">
-        <f>MID(D11,3,99)</f>
+        <v>211</v>
+      </c>
+      <c r="E11" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Mapping</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" s="10" t="str">
-        <f>MID(D12,3,99)</f>
+        <v>211</v>
+      </c>
+      <c r="E12" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Mapping</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" s="10" t="str">
-        <f>MID(D13,3,99)</f>
+        <v>211</v>
+      </c>
+      <c r="E13" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Mapping</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>77</v>
@@ -1576,50 +1583,50 @@
         <v>75</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" s="10" t="str">
-        <f>MID(D14,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E14" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>76</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="10" t="str">
-        <f>MID(D15,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E15" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G15" s="4"/>
       <c r="I15" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
@@ -1628,77 +1635,77 @@
         <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E16" s="10" t="str">
-        <f>MID(D16,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E16" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" s="10" t="str">
-        <f>MID(D17,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E17" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G17" s="4"/>
       <c r="I17" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>242</v>
+        <v>145</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E18" s="10" t="str">
-        <f>MID(D18,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E18" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>22</v>
@@ -1707,25 +1714,25 @@
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="10" t="str">
-        <f>MID(D19,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E19" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>24</v>
@@ -1734,25 +1741,25 @@
         <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="10" t="str">
-        <f>MID(D20,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E20" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>25</v>
@@ -1761,25 +1768,25 @@
         <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" s="10" t="str">
-        <f>MID(D21,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E21" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>26</v>
@@ -1788,25 +1795,25 @@
         <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="10" t="str">
-        <f>MID(D22,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E22" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>27</v>
@@ -1815,25 +1822,25 @@
         <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E23" s="10" t="str">
-        <f>MID(D23,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E23" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>23</v>
@@ -1842,25 +1849,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="10" t="str">
-        <f>MID(D24,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E24" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -1869,25 +1876,25 @@
         <v>38</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E25" s="10" t="str">
-        <f>MID(D25,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E25" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>28</v>
@@ -1896,25 +1903,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E26" s="10" t="str">
-        <f>MID(D26,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E26" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>32</v>
@@ -1923,25 +1930,25 @@
         <v>33</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E27" s="10" t="str">
-        <f>MID(D27,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E27" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>34</v>
@@ -1950,77 +1957,77 @@
         <v>35</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" s="10" t="str">
-        <f>MID(D28,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E28" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E29" s="10" t="str">
-        <f>MID(D29,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E29" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>67</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>239</v>
+        <v>228</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E30" s="10" t="str">
-        <f>MID(D30,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E30" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G30" s="4"/>
       <c r="I30" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>62</v>
@@ -2029,25 +2036,25 @@
         <v>54</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E31" s="10" t="str">
-        <f>MID(D31,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E31" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>55</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>61</v>
@@ -2056,25 +2063,25 @@
         <v>57</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E32" s="10" t="str">
-        <f>MID(D32,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E32" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>60</v>
@@ -2083,133 +2090,133 @@
         <v>58</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E33" s="10" t="str">
-        <f>MID(D33,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E33" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E34" s="10" t="str">
-        <f>MID(D34,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E34" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ontologie</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E35" s="10" t="str">
-        <f>MID(D35,3,99)</f>
-        <v>Ontologie</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I35" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ontologie</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" s="10" t="str">
-        <f>MID(D36,3,99)</f>
-        <v>Ontologie</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="G36" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E37" s="10" t="str">
-        <f>MID(D37,3,99)</f>
+        <v>207</v>
+      </c>
+      <c r="E37" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>42</v>
@@ -2218,264 +2225,288 @@
         <v>43</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E38" s="10" t="str">
-        <f>MID(D38,3,99)</f>
+        <v>206</v>
+      </c>
+      <c r="E38" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Vocabulaire</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E39" s="10" t="str">
-        <f>MID(D39,3,99)</f>
+        <v>206</v>
+      </c>
+      <c r="E39" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Vocabulaire</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E40" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Vocabulaire</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E40" s="10" t="str">
-        <f>MID(D40,3,99)</f>
-        <v>Vocabulaire</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="I40" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E41" s="10" t="str">
-        <f>MID(D41,3,99)</f>
+        <v>206</v>
+      </c>
+      <c r="E41" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Vocabulaire</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E42" s="10" t="str">
-        <f>MID(D42,3,99)</f>
+        <v>206</v>
+      </c>
+      <c r="E42" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Vocabulaire</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E43" s="10" t="str">
-        <f>MID(D43,3,99)</f>
+        <v>206</v>
+      </c>
+      <c r="E43" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Vocabulaire</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G43" s="4"/>
       <c r="I43" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D44" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E44" s="10" t="str">
-        <f>MID(D44,3,99)</f>
+        <v>206</v>
+      </c>
+      <c r="E44" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Vocabulaire</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G44" s="4"/>
       <c r="I44" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E45" s="10" t="str">
-        <f>MID(D45,3,99)</f>
+        <v>206</v>
+      </c>
+      <c r="E45" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Vocabulaire</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G45" s="4"/>
       <c r="I45" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="48" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E46" s="10" t="str">
-        <f>MID(D46,3,99)</f>
+        <v>206</v>
+      </c>
+      <c r="E46" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Vocabulaire</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E47" s="10" t="str">
-        <f>MID(D47,3,99)</f>
+        <v>206</v>
+      </c>
+      <c r="E47" s="8" t="str">
+        <f t="shared" si="0"/>
         <v>Vocabulaire</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I47" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G48" s="4"/>
+      <c r="E48" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ontologie</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>241</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1" xr:uid="{188C7535-DE94-40B4-B3C6-1EA29470252A}">
@@ -2494,7 +2525,7 @@
     <hyperlink ref="G38" r:id="rId2" xr:uid="{03AAA5B6-6186-496A-9461-906AFEF9A6AD}"/>
     <hyperlink ref="G35" r:id="rId3" xr:uid="{B89CB078-C184-4B42-AD55-20A04C61F84A}"/>
     <hyperlink ref="G46" r:id="rId4" display="https://github.com/Stichting-CROW/imbor/issues/332" xr:uid="{D79637A1-33AE-420C-B4CA-34C749851141}"/>
-    <hyperlink ref="G13" r:id="rId5" xr:uid="{149CADC3-DEC6-4692-B849-97B3403D8759}"/>
+    <hyperlink ref="G13" r:id="rId5" display="https://github.com/Stichting-CROW/imbor/issues/306" xr:uid="{149CADC3-DEC6-4692-B849-97B3403D8759}"/>
     <hyperlink ref="G34" r:id="rId6" xr:uid="{D5BA18AC-00A7-4851-B4A0-33F7344DDE33}"/>
     <hyperlink ref="G41" r:id="rId7" xr:uid="{BF4AB91E-A612-4F12-866E-1F7F7309C1BB}"/>
     <hyperlink ref="G47" r:id="rId8" xr:uid="{1D19924F-F878-4D73-B3CB-E149E488A9E0}"/>
@@ -2503,9 +2534,10 @@
     <hyperlink ref="G39" r:id="rId11" xr:uid="{F2C1818C-A710-4A3D-9480-952E22C0436A}"/>
     <hyperlink ref="G6" r:id="rId12" xr:uid="{F213BAF6-DEB6-461E-AD00-942606921BCB}"/>
     <hyperlink ref="G37" r:id="rId13" xr:uid="{94BBF135-EB11-4405-8320-D169EAB224E1}"/>
+    <hyperlink ref="G48" r:id="rId14" xr:uid="{0D08B465-1F21-4DB3-BA89-A31003C7D409}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -2516,22 +2548,22 @@
   </sheetPr>
   <dimension ref="A1:B372"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.7265625" customWidth="1"/>
-    <col min="2" max="2" width="127" style="6" customWidth="1"/>
+    <col min="2" max="2" width="127" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>218</v>
+      <c r="A1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2539,7 +2571,7 @@
         <f>Regels!D2</f>
         <v>4-Decompositie</v>
       </c>
-      <c r="B2" s="6" t="str">
+      <c r="B2" t="str">
         <f>"### "&amp;Regels!B2&amp;" ("&amp;Regels!A2&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E2&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F2&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C2&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A2&amp;" *("&amp;Regels!I2&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F2&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G2&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H2&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Decompositie (partonomie) vermijden in IMBOR (R0001)
 Van toepassing op de `Decompositie`, en valt binnen de categorie: `Semantiek`
@@ -2559,7 +2591,7 @@
         <f>Regels!D3</f>
         <v>6-Instanties</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" t="str">
         <f>"### "&amp;Regels!B3&amp;" ("&amp;Regels!A3&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E3&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F3&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C3&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A3&amp;" *("&amp;Regels!I3&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F3&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G3&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H3&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Luukstelregel (R0002)
 Van toepassing op de `Instanties`, en valt binnen de categorie: `Semantiek`
@@ -2579,7 +2611,7 @@
         <f>Regels!D4</f>
         <v>3-Klassenstructuur</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" t="str">
         <f>"### "&amp;Regels!B4&amp;" ("&amp;Regels!A4&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E4&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F4&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C4&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A4&amp;" *("&amp;Regels!I4&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F4&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G4&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H4&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Consistentie in overerving klasse structuur 1 (R0003)
 Van toepassing op de `Klassenstructuur`, en valt binnen de categorie: `Model consistentie`
@@ -2599,7 +2631,7 @@
         <f>Regels!D5</f>
         <v>3-Klassenstructuur</v>
       </c>
-      <c r="B5" s="6" t="str">
+      <c r="B5" t="str">
         <f>"### "&amp;Regels!B5&amp;" ("&amp;Regels!A5&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E5&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F5&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C5&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A5&amp;" *("&amp;Regels!I5&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F5&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G5&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H5&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Consistentie in overerving klasse structuur 2 (R0004)
 Van toepassing op de `Klassenstructuur`, en valt binnen de categorie: `Model consistentie`
@@ -2619,7 +2651,7 @@
         <f>Regels!D6</f>
         <v>3-Klassenstructuur</v>
       </c>
-      <c r="B6" s="6" t="str">
+      <c r="B6" t="str">
         <f>"### "&amp;Regels!B6&amp;" ("&amp;Regels!A6&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E6&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F6&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C6&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A6&amp;" *("&amp;Regels!I6&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F6&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G6&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H6&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Attributen zo hoog mogelijk in de hiërarchie (R0005)
 Van toepassing op de `Klassenstructuur`, en valt binnen de categorie: `Semantiek`
@@ -2639,7 +2671,7 @@
         <f>Regels!D7</f>
         <v>3-Klassenstructuur</v>
       </c>
-      <c r="B7" s="6" t="str">
+      <c r="B7" t="str">
         <f>"### "&amp;Regels!B7&amp;" ("&amp;Regels!A7&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E7&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F7&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C7&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A7&amp;" *("&amp;Regels!I7&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F7&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G7&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H7&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Indeling in TopConcepten (R0006)
 Van toepassing op de `Klassenstructuur`, en valt binnen de categorie: `Semantiek`
@@ -2659,7 +2691,7 @@
         <f>Regels!D8</f>
         <v>3-Klassenstructuur</v>
       </c>
-      <c r="B8" s="6" t="str">
+      <c r="B8" t="str">
         <f>"### "&amp;Regels!B8&amp;" ("&amp;Regels!A8&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E8&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F8&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C8&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A8&amp;" *("&amp;Regels!I8&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F8&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G8&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H8&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Semantische expansieregel (R0007)
 Van toepassing op de `Klassenstructuur`, en valt binnen de categorie: `Semantiek`
@@ -2679,7 +2711,7 @@
         <f>Regels!D9</f>
         <v>5-Mapping</v>
       </c>
-      <c r="B9" s="6" t="str">
+      <c r="B9" t="str">
         <f>"### "&amp;Regels!B9&amp;" ("&amp;Regels!A9&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E9&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F9&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C9&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A9&amp;" *("&amp;Regels!I9&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F9&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G9&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H9&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Consistentie in uniciteit mappingen 1 (R0008)
 Van toepassing op de `Mapping`, en valt binnen de categorie: `Model consistentie`
@@ -2699,7 +2731,7 @@
         <f>Regels!D10</f>
         <v>5-Mapping</v>
       </c>
-      <c r="B10" s="6" t="str">
+      <c r="B10" t="str">
         <f>"### "&amp;Regels!B10&amp;" ("&amp;Regels!A10&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E10&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F10&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C10&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A10&amp;" *("&amp;Regels!I10&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F10&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G10&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H10&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Consistentie in uniciteit mappingen 2 (R0009)
 Van toepassing op de `Mapping`, en valt binnen de categorie: `Model consistentie`
@@ -2719,7 +2751,7 @@
         <f>Regels!D11</f>
         <v>5-Mapping</v>
       </c>
-      <c r="B11" s="6" t="str">
+      <c r="B11" t="str">
         <f>"### "&amp;Regels!B11&amp;" ("&amp;Regels!A11&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E11&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F11&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C11&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A11&amp;" *("&amp;Regels!I11&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F11&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G11&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H11&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Consistentie in uniciteit mappingen 3 (R0010)
 Van toepassing op de `Mapping`, en valt binnen de categorie: `Model consistentie`
@@ -2739,7 +2771,7 @@
         <f>Regels!D12</f>
         <v>5-Mapping</v>
       </c>
-      <c r="B12" s="6" t="str">
+      <c r="B12" t="str">
         <f>"### "&amp;Regels!B12&amp;" ("&amp;Regels!A12&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E12&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F12&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C12&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A12&amp;" *("&amp;Regels!I12&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F12&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G12&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H12&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Elk ObjectType moet een relatie hebben met IMGeo (R0011)
 Van toepassing op de `Mapping`, en valt binnen de categorie: `Model consistentie`
@@ -2759,7 +2791,7 @@
         <f>Regels!D13</f>
         <v>5-Mapping</v>
       </c>
-      <c r="B13" s="6" t="str">
+      <c r="B13" t="str">
         <f>"### "&amp;Regels!B13&amp;" ("&amp;Regels!A13&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E13&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F13&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C13&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A13&amp;" *("&amp;Regels!I13&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F13&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G13&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H13&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Relateren andere standaarden geniet de voorkeur boven includeren (R0012)
 Van toepassing op de `Mapping`, en valt binnen de categorie: `Semantiek`
@@ -2768,7 +2800,7 @@
 | *Regel* | IMBOR neemt in principe geen aspecten over uit andere standaarden, maar gaat uit van mappingen. Maar IMBOR neemt alleen aspecten van andere standaarden over als hier (i) voldoende reden voor is; of (ii) de standaard geen informatiemodel is waar IMBOR aan gerelateerd kan worden. | 
 | *ID* | R0012 *(244dddc6-3bb0-a77b-7bee-414f32245c14)* |
 | *Categorie* | Semantiek
- |*Gerelateerd issue* | https://github.com/Stichting-CROW/imbor/issues/306 |
+ |*Gerelateerd issue* | https://github.com/Stichting-CROW/imbor/issues/306; https://github.com/Stichting-CROW/imbor/issues/914 |
  |*Controle query* |  |
 | {.index} | | 
 </v>
@@ -2779,7 +2811,7 @@
         <f>Regels!D14</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B14" s="6" t="str">
+      <c r="B14" t="str">
         <f>"### "&amp;Regels!B14&amp;" ("&amp;Regels!A14&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E14&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F14&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C14&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A14&amp;" *("&amp;Regels!I14&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F14&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G14&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H14&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Consistentie in gebruik van 'Bovenliggende waarde' (R0013)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -2799,7 +2831,7 @@
         <f>Regels!D15</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B15" s="6" t="str">
+      <c r="B15" t="str">
         <f>"### "&amp;Regels!B15&amp;" ("&amp;Regels!A15&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E15&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F15&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C15&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A15&amp;" *("&amp;Regels!I15&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F15&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G15&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H15&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Discriminator semantiek gaat voor attributen indeling (R0043)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -2819,7 +2851,7 @@
         <f>Regels!D16</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B16" s="6" t="str">
+      <c r="B16" t="str">
         <f>"### "&amp;Regels!B16&amp;" ("&amp;Regels!A16&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E16&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F16&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C16&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A16&amp;" *("&amp;Regels!I16&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F16&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G16&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H16&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Elke GUID is uniek (R0014)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -2839,7 +2871,7 @@
         <f>Regels!D17</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B17" s="6" t="str">
+      <c r="B17" t="str">
         <f>"### "&amp;Regels!B17&amp;" ("&amp;Regels!A17&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E17&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F17&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C17&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A17&amp;" *("&amp;Regels!I17&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F17&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G17&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H17&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Enumeratietypen moeten hergebruik faciliteren (R0046)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -2859,7 +2891,7 @@
         <f>Regels!D18</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B18" s="6" t="str">
+      <c r="B18" t="str">
         <f>"### "&amp;Regels!B18&amp;" ("&amp;Regels!A18&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E18&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F18&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C18&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A18&amp;" *("&amp;Regels!I18&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F18&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G18&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H18&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Relatie tussen datatype en eenheid moet consistent zijn (R0029)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -2879,7 +2911,7 @@
         <f>Regels!D19</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B19" s="6" t="str">
+      <c r="B19" t="str">
         <f>"### "&amp;Regels!B19&amp;" ("&amp;Regels!A19&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E19&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F19&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C19&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A19&amp;" *("&amp;Regels!I19&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F19&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G19&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H19&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Relatie tussen een Attribuut en een Klasse is 1:n (R0015)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -2899,7 +2931,7 @@
         <f>Regels!D20</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B20" s="6" t="str">
+      <c r="B20" t="str">
         <f>"### "&amp;Regels!B20&amp;" ("&amp;Regels!A20&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E20&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F20&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C20&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A20&amp;" *("&amp;Regels!I20&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F20&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G20&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H20&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Relatie tussen een Attribuut en een TypeAttribuut is 1:1 (R0016)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -2919,7 +2951,7 @@
         <f>Regels!D21</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B21" s="6" t="str">
+      <c r="B21" t="str">
         <f>"### "&amp;Regels!B21&amp;" ("&amp;Regels!A21&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E21&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F21&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C21&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A21&amp;" *("&amp;Regels!I21&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F21&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G21&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H21&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Relatie tussen een Domeinwaarde en een Enumeratietype is 1:n (R0017)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -2939,7 +2971,7 @@
         <f>Regels!D22</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B22" s="6" t="str">
+      <c r="B22" t="str">
         <f>"### "&amp;Regels!B22&amp;" ("&amp;Regels!A22&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E22&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F22&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C22&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A22&amp;" *("&amp;Regels!I22&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F22&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G22&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H22&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Relatie tussen een Enumeratietype en een Domeinwaarde is 1:1 (R0018)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -2959,7 +2991,7 @@
         <f>Regels!D23</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B23" s="6" t="str">
+      <c r="B23" t="str">
         <f>"### "&amp;Regels!B23&amp;" ("&amp;Regels!A23&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E23&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F23&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C23&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A23&amp;" *("&amp;Regels!I23&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F23&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G23&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H23&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Relatie tussen een Enumeratietype en een Klasse is 1:1 (R0019)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -2979,7 +3011,7 @@
         <f>Regels!D24</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B24" s="6" t="str">
+      <c r="B24" t="str">
         <f>"### "&amp;Regels!B24&amp;" ("&amp;Regels!A24&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E24&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F24&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C24&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A24&amp;" *("&amp;Regels!I24&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F24&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G24&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H24&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Relatie tussen een Klasse en een Attribuut is 1:1 (R0020)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -2999,7 +3031,7 @@
         <f>Regels!D25</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B25" s="6" t="str">
+      <c r="B25" t="str">
         <f>"### "&amp;Regels!B25&amp;" ("&amp;Regels!A25&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E25&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F25&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C25&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A25&amp;" *("&amp;Regels!I25&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F25&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G25&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H25&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Relatie tussen een ObjectType en een Vakdiscipline is 1:n (R0021)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -3019,7 +3051,7 @@
         <f>Regels!D26</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B26" s="6" t="str">
+      <c r="B26" t="str">
         <f>"### "&amp;Regels!B26&amp;" ("&amp;Regels!A26&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E26&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F26&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C26&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A26&amp;" *("&amp;Regels!I26&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F26&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G26&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H26&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Relatie tussen een Vakdiscipline en een ObjectType is 1:1 (R0022)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -3039,7 +3071,7 @@
         <f>Regels!D27</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B27" s="6" t="str">
+      <c r="B27" t="str">
         <f>"### "&amp;Regels!B27&amp;" ("&amp;Regels!A27&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E27&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F27&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C27&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A27&amp;" *("&amp;Regels!I27&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F27&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G27&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H27&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Relatie tussen IMBOR Concept en IMBOR Term is 1:n (R0023)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -3059,7 +3091,7 @@
         <f>Regels!D28</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B28" s="6" t="str">
+      <c r="B28" t="str">
         <f>"### "&amp;Regels!B28&amp;" ("&amp;Regels!A28&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E28&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F28&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C28&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A28&amp;" *("&amp;Regels!I28&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F28&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G28&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H28&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Relatie tussen ObjectType een GM Klassen is 1:n (R0024)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -3079,7 +3111,7 @@
         <f>Regels!D29</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B29" s="6" t="str">
+      <c r="B29" t="str">
         <f>"### "&amp;Regels!B29&amp;" ("&amp;Regels!A29&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E29&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F29&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C29&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A29&amp;" *("&amp;Regels!I29&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F29&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G29&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H29&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Semantische relaties worden alleen in dominante richting opgenomen (R0025)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -3099,7 +3131,7 @@
         <f>Regels!D30</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B30" s="6" t="str">
+      <c r="B30" t="str">
         <f>"### "&amp;Regels!B30&amp;" ("&amp;Regels!A30&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E30&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F30&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C30&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A30&amp;" *("&amp;Regels!I30&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F30&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G30&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H30&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Temporele aspecten worden gemodelleerd volgens de NEN3610 (R0045)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -3119,7 +3151,7 @@
         <f>Regels!D31</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B31" s="6" t="str">
+      <c r="B31" t="str">
         <f>"### "&amp;Regels!B31&amp;" ("&amp;Regels!A31&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E31&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F31&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C31&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A31&amp;" *("&amp;Regels!I31&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F31&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G31&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H31&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### TypeExtraGedetailleerd mag alleen gebruikt worden als TypeGedetailleerd wordt gebruikt, en er moet een corresponderend Enumeratietype zijn (R0026)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -3139,7 +3171,7 @@
         <f>Regels!D32</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B32" s="6" t="str">
+      <c r="B32" t="str">
         <f>"### "&amp;Regels!B32&amp;" ("&amp;Regels!A32&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E32&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F32&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C32&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A32&amp;" *("&amp;Regels!I32&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F32&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G32&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H32&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### TypeGedetailleerd mag alleen gebruikt worden als TypeGedetailleerd gebruikt is en er moet een corresponderend Enumeratietype zijn (R0027)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -3159,7 +3191,7 @@
         <f>Regels!D33</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B33" s="6" t="str">
+      <c r="B33" t="str">
         <f>"### "&amp;Regels!B33&amp;" ("&amp;Regels!A33&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E33&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F33&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C33&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A33&amp;" *("&amp;Regels!I33&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F33&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G33&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H33&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Wanneer het Attribuut 'Type' gebruikt wordt, moet er een 1;1 zijn naar een corresponderend Enumeratietype (R0028)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
@@ -3179,7 +3211,7 @@
         <f>Regels!D34</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B34" s="6" t="str">
+      <c r="B34" t="str">
         <f>"### "&amp;Regels!B34&amp;" ("&amp;Regels!A34&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E34&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F34&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C34&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A34&amp;" *("&amp;Regels!I34&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F34&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G34&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H34&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Consistent toepassen van topmodellen (R0030)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Semantiek`
@@ -3199,9 +3231,9 @@
         <f>Regels!D35</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B35" s="6" t="str">
+      <c r="B35" t="str">
         <f>"### "&amp;Regels!B35&amp;" ("&amp;Regels!A35&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E35&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F35&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C35&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A35&amp;" *("&amp;Regels!I35&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F35&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G35&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H35&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Semantische relaties genieten de voorkeur boven Attributen (R0031)
+        <v xml:space="preserve">### Semantische relaties genieten de voorkeur boven Attributen 1 (R0031)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Semantiek`
 | | |
 | ----- | ---- | 
@@ -3219,7 +3251,7 @@
         <f>Regels!D36</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B36" s="6" t="str">
+      <c r="B36" t="str">
         <f>"### "&amp;Regels!B36&amp;" ("&amp;Regels!A36&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E36&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F36&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C36&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A36&amp;" *("&amp;Regels!I36&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F36&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G36&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H36&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Toevoegen van nieuwe Klassen (en Objecttypen) 1 (R0032)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Semantiek`
@@ -3239,7 +3271,7 @@
         <f>Regels!D37</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B37" s="6" t="str">
+      <c r="B37" t="str">
         <f>"### "&amp;Regels!B37&amp;" ("&amp;Regels!A37&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E37&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F37&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C37&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A37&amp;" *("&amp;Regels!I37&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F37&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G37&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H37&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Toevoegen van nieuwe Klassen (en Objecttypen) 2 (R0033)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Semantiek`
@@ -3259,7 +3291,7 @@
         <f>Regels!D38</f>
         <v>1-Vocabulaire</v>
       </c>
-      <c r="B38" s="6" t="str">
+      <c r="B38" t="str">
         <f>"### "&amp;Regels!B38&amp;" ("&amp;Regels!A38&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E38&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F38&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C38&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A38&amp;" *("&amp;Regels!I38&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F38&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G38&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H38&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Elke term heeft een unieke definitie binnen een collectie (R0034)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
@@ -3279,7 +3311,7 @@
         <f>Regels!D39</f>
         <v>1-Vocabulaire</v>
       </c>
-      <c r="B39" s="6" t="str">
+      <c r="B39" t="str">
         <f>"### "&amp;Regels!B39&amp;" ("&amp;Regels!A39&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E39&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F39&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C39&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A39&amp;" *("&amp;Regels!I39&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F39&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G39&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H39&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Grammaticale correctheid van woorden en teksten (R0035)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
@@ -3299,7 +3331,7 @@
         <f>Regels!D40</f>
         <v>1-Vocabulaire</v>
       </c>
-      <c r="B40" s="6" t="str">
+      <c r="B40" t="str">
         <f>"### "&amp;Regels!B40&amp;" ("&amp;Regels!A40&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E40&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F40&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C40&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A40&amp;" *("&amp;Regels!I40&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F40&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G40&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H40&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Hergebruik van termen en definities uit andere modellen (R0036)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
@@ -3319,7 +3351,7 @@
         <f>Regels!D41</f>
         <v>1-Vocabulaire</v>
       </c>
-      <c r="B41" s="6" t="str">
+      <c r="B41" t="str">
         <f>"### "&amp;Regels!B41&amp;" ("&amp;Regels!A41&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E41&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F41&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C41&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A41&amp;" *("&amp;Regels!I41&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F41&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G41&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H41&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Naamgeving Attributen 1 (R0037)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
@@ -3339,7 +3371,7 @@
         <f>Regels!D42</f>
         <v>1-Vocabulaire</v>
       </c>
-      <c r="B42" s="6" t="str">
+      <c r="B42" t="str">
         <f>"### "&amp;Regels!B42&amp;" ("&amp;Regels!A42&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E42&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F42&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C42&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A42&amp;" *("&amp;Regels!I42&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F42&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G42&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H42&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Naamgeving Attributen 2 (R0044)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
@@ -3359,7 +3391,7 @@
         <f>Regels!D43</f>
         <v>1-Vocabulaire</v>
       </c>
-      <c r="B43" s="6" t="str">
+      <c r="B43" t="str">
         <f>"### "&amp;Regels!B43&amp;" ("&amp;Regels!A43&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E43&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F43&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C43&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A43&amp;" *("&amp;Regels!I43&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F43&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G43&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H43&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Naamgeving Domeinwaarden (R0038)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
@@ -3379,7 +3411,7 @@
         <f>Regels!D44</f>
         <v>1-Vocabulaire</v>
       </c>
-      <c r="B44" s="6" t="str">
+      <c r="B44" t="str">
         <f>"### "&amp;Regels!B44&amp;" ("&amp;Regels!A44&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E44&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F44&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C44&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A44&amp;" *("&amp;Regels!I44&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F44&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G44&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H44&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Naamgeving Klassen (R0039)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
@@ -3399,7 +3431,7 @@
         <f>Regels!D45</f>
         <v>1-Vocabulaire</v>
       </c>
-      <c r="B45" s="6" t="str">
+      <c r="B45" t="str">
         <f>"### "&amp;Regels!B45&amp;" ("&amp;Regels!A45&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E45&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F45&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C45&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A45&amp;" *("&amp;Regels!I45&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F45&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G45&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H45&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Naamgeving Relaties (R0040)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
@@ -3419,7 +3451,7 @@
         <f>Regels!D46</f>
         <v>1-Vocabulaire</v>
       </c>
-      <c r="B46" s="6" t="str">
+      <c r="B46" t="str">
         <f>"### "&amp;Regels!B46&amp;" ("&amp;Regels!A46&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E46&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F46&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C46&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A46&amp;" *("&amp;Regels!I46&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F46&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G46&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H46&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Overlap in semantiek moet vermeden worden 1 (R0041)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
@@ -3439,7 +3471,7 @@
         <f>Regels!D47</f>
         <v>1-Vocabulaire</v>
       </c>
-      <c r="B47" s="6" t="str">
+      <c r="B47" t="str">
         <f>"### "&amp;Regels!B47&amp;" ("&amp;Regels!A47&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E47&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F47&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C47&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A47&amp;" *("&amp;Regels!I47&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F47&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G47&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H47&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Overlap in semantiek moet vermeden worden 2 (R0042)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
@@ -3455,20 +3487,20 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48">
+      <c r="A48" t="str">
         <f>Regels!D48</f>
-        <v>0</v>
-      </c>
-      <c r="B48" s="6" t="str">
+        <v>2-Ontologie</v>
+      </c>
+      <c r="B48" t="str">
         <f>"### "&amp;Regels!B48&amp;" ("&amp;Regels!A48&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E48&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F48&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C48&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A48&amp;" *("&amp;Regels!I48&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F48&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G48&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H48&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">###  ()
-Van toepassing op de ``, en valt binnen de categorie: ``
-| | |
-| ----- | ---- | 
-| *Regel* |  | 
-| *ID* |  *()* |
-| *Categorie* | 
- |*Gerelateerd issue* |  |
+        <v xml:space="preserve">### Semantische relaties genieten de voorkeur boven Attributen 2 (R0043)
+Van toepassing op de `Ontologie`, en valt binnen de categorie: `Semantiek`
+| | |
+| ----- | ---- | 
+| *Regel* | Wanneer gegevens afgeleidt kunnen worden van de geometrie (bv. Gemeente, Gebiedsindeling e.d.) wordt dit niet in een Attribuut gedaan, maar middels een semantische relatie. | 
+| *ID* | R0043 *(f944afcf-5783-3ff5-9da2-3d9a89de0bd2)* |
+| *Categorie* | Semantiek
+ |*Gerelateerd issue* | https://github.com/Stichting-CROW/imbor/issues/1101 |
  |*Controle query* |  |
 | {.index} | | 
 </v>
@@ -3479,7 +3511,7 @@
         <f>Regels!D49</f>
         <v>0</v>
       </c>
-      <c r="B49" s="6" t="str">
+      <c r="B49" t="str">
         <f>"### "&amp;Regels!B49&amp;" ("&amp;Regels!A49&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E49&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F49&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C49&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A49&amp;" *("&amp;Regels!I49&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F49&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G49&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H49&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3499,7 +3531,7 @@
         <f>Regels!D50</f>
         <v>0</v>
       </c>
-      <c r="B50" s="6" t="str">
+      <c r="B50" t="str">
         <f>"### "&amp;Regels!B50&amp;" ("&amp;Regels!A50&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E50&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F50&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C50&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A50&amp;" *("&amp;Regels!I50&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F50&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G50&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H50&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3519,7 +3551,7 @@
         <f>Regels!D51</f>
         <v>0</v>
       </c>
-      <c r="B51" s="6" t="str">
+      <c r="B51" t="str">
         <f>"### "&amp;Regels!B51&amp;" ("&amp;Regels!A51&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E51&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F51&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C51&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A51&amp;" *("&amp;Regels!I51&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F51&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G51&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H51&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3539,7 +3571,7 @@
         <f>Regels!D52</f>
         <v>0</v>
       </c>
-      <c r="B52" s="6" t="str">
+      <c r="B52" t="str">
         <f>"### "&amp;Regels!B52&amp;" ("&amp;Regels!A52&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E52&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F52&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C52&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A52&amp;" *("&amp;Regels!I52&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F52&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G52&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H52&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3559,7 +3591,7 @@
         <f>Regels!D53</f>
         <v>0</v>
       </c>
-      <c r="B53" s="6" t="str">
+      <c r="B53" t="str">
         <f>"### "&amp;Regels!B53&amp;" ("&amp;Regels!A53&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E53&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F53&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C53&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A53&amp;" *("&amp;Regels!I53&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F53&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G53&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H53&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3579,7 +3611,7 @@
         <f>Regels!D54</f>
         <v>0</v>
       </c>
-      <c r="B54" s="6" t="str">
+      <c r="B54" t="str">
         <f>"### "&amp;Regels!B54&amp;" ("&amp;Regels!A54&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E54&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F54&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C54&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A54&amp;" *("&amp;Regels!I54&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F54&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G54&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H54&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3599,7 +3631,7 @@
         <f>Regels!D55</f>
         <v>0</v>
       </c>
-      <c r="B55" s="6" t="str">
+      <c r="B55" t="str">
         <f>"### "&amp;Regels!B55&amp;" ("&amp;Regels!A55&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E55&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F55&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C55&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A55&amp;" *("&amp;Regels!I55&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F55&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G55&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H55&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3619,7 +3651,7 @@
         <f>Regels!D56</f>
         <v>0</v>
       </c>
-      <c r="B56" s="6" t="str">
+      <c r="B56" t="str">
         <f>"### "&amp;Regels!B56&amp;" ("&amp;Regels!A56&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E56&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F56&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C56&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A56&amp;" *("&amp;Regels!I56&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F56&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G56&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H56&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3639,7 +3671,7 @@
         <f>Regels!D57</f>
         <v>0</v>
       </c>
-      <c r="B57" s="6" t="str">
+      <c r="B57" t="str">
         <f>"### "&amp;Regels!B57&amp;" ("&amp;Regels!A57&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E57&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F57&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C57&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A57&amp;" *("&amp;Regels!I57&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F57&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G57&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H57&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3659,7 +3691,7 @@
         <f>Regels!D58</f>
         <v>0</v>
       </c>
-      <c r="B58" s="6" t="str">
+      <c r="B58" t="str">
         <f>"### "&amp;Regels!B58&amp;" ("&amp;Regels!A58&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E58&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F58&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C58&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A58&amp;" *("&amp;Regels!I58&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F58&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G58&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H58&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3679,7 +3711,7 @@
         <f>Regels!D59</f>
         <v>0</v>
       </c>
-      <c r="B59" s="6" t="str">
+      <c r="B59" t="str">
         <f>"### "&amp;Regels!B59&amp;" ("&amp;Regels!A59&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E59&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F59&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C59&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A59&amp;" *("&amp;Regels!I59&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F59&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G59&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H59&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3699,7 +3731,7 @@
         <f>Regels!D60</f>
         <v>0</v>
       </c>
-      <c r="B60" s="6" t="str">
+      <c r="B60" t="str">
         <f>"### "&amp;Regels!B60&amp;" ("&amp;Regels!A60&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E60&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F60&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C60&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A60&amp;" *("&amp;Regels!I60&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F60&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G60&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H60&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3719,7 +3751,7 @@
         <f>Regels!D61</f>
         <v>0</v>
       </c>
-      <c r="B61" s="6" t="str">
+      <c r="B61" t="str">
         <f>"### "&amp;Regels!B61&amp;" ("&amp;Regels!A61&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E61&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F61&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C61&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A61&amp;" *("&amp;Regels!I61&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F61&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G61&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H61&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3739,7 +3771,7 @@
         <f>Regels!D62</f>
         <v>0</v>
       </c>
-      <c r="B62" s="6" t="str">
+      <c r="B62" t="str">
         <f>"### "&amp;Regels!B62&amp;" ("&amp;Regels!A62&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E62&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F62&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C62&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A62&amp;" *("&amp;Regels!I62&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F62&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G62&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H62&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3759,7 +3791,7 @@
         <f>Regels!D63</f>
         <v>0</v>
       </c>
-      <c r="B63" s="6" t="str">
+      <c r="B63" t="str">
         <f>"### "&amp;Regels!B63&amp;" ("&amp;Regels!A63&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E63&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F63&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C63&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A63&amp;" *("&amp;Regels!I63&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F63&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G63&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H63&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3779,7 +3811,7 @@
         <f>Regels!D64</f>
         <v>0</v>
       </c>
-      <c r="B64" s="6" t="str">
+      <c r="B64" t="str">
         <f>"### "&amp;Regels!B64&amp;" ("&amp;Regels!A64&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E64&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F64&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C64&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A64&amp;" *("&amp;Regels!I64&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F64&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G64&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H64&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3799,7 +3831,7 @@
         <f>Regels!D65</f>
         <v>0</v>
       </c>
-      <c r="B65" s="6" t="str">
+      <c r="B65" t="str">
         <f>"### "&amp;Regels!B65&amp;" ("&amp;Regels!A65&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E65&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F65&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C65&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A65&amp;" *("&amp;Regels!I65&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F65&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G65&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H65&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3819,7 +3851,7 @@
         <f>Regels!D66</f>
         <v>0</v>
       </c>
-      <c r="B66" s="6" t="str">
+      <c r="B66" t="str">
         <f>"### "&amp;Regels!B66&amp;" ("&amp;Regels!A66&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E66&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F66&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C66&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A66&amp;" *("&amp;Regels!I66&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F66&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G66&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H66&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3839,7 +3871,7 @@
         <f>Regels!D67</f>
         <v>0</v>
       </c>
-      <c r="B67" s="6" t="str">
+      <c r="B67" t="str">
         <f>"### "&amp;Regels!B67&amp;" ("&amp;Regels!A67&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E67&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F67&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C67&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A67&amp;" *("&amp;Regels!I67&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F67&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G67&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H67&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3859,7 +3891,7 @@
         <f>Regels!D68</f>
         <v>0</v>
       </c>
-      <c r="B68" s="6" t="str">
+      <c r="B68" t="str">
         <f>"### "&amp;Regels!B68&amp;" ("&amp;Regels!A68&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E68&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F68&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C68&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A68&amp;" *("&amp;Regels!I68&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F68&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G68&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H68&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3879,7 +3911,7 @@
         <f>Regels!D69</f>
         <v>0</v>
       </c>
-      <c r="B69" s="6" t="str">
+      <c r="B69" t="str">
         <f>"### "&amp;Regels!B69&amp;" ("&amp;Regels!A69&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E69&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F69&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C69&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A69&amp;" *("&amp;Regels!I69&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F69&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G69&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H69&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3899,7 +3931,7 @@
         <f>Regels!D70</f>
         <v>0</v>
       </c>
-      <c r="B70" s="6" t="str">
+      <c r="B70" t="str">
         <f>"### "&amp;Regels!B70&amp;" ("&amp;Regels!A70&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E70&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F70&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C70&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A70&amp;" *("&amp;Regels!I70&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F70&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G70&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H70&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3919,7 +3951,7 @@
         <f>Regels!D71</f>
         <v>0</v>
       </c>
-      <c r="B71" s="6" t="str">
+      <c r="B71" t="str">
         <f>"### "&amp;Regels!B71&amp;" ("&amp;Regels!A71&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E71&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F71&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C71&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A71&amp;" *("&amp;Regels!I71&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F71&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G71&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H71&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3939,7 +3971,7 @@
         <f>Regels!D72</f>
         <v>0</v>
       </c>
-      <c r="B72" s="6" t="str">
+      <c r="B72" t="str">
         <f>"### "&amp;Regels!B72&amp;" ("&amp;Regels!A72&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E72&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F72&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C72&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A72&amp;" *("&amp;Regels!I72&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F72&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G72&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H72&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3959,7 +3991,7 @@
         <f>Regels!D73</f>
         <v>0</v>
       </c>
-      <c r="B73" s="6" t="str">
+      <c r="B73" t="str">
         <f>"### "&amp;Regels!B73&amp;" ("&amp;Regels!A73&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E73&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F73&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C73&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A73&amp;" *("&amp;Regels!I73&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F73&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G73&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H73&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3979,7 +4011,7 @@
         <f>Regels!D74</f>
         <v>0</v>
       </c>
-      <c r="B74" s="6" t="str">
+      <c r="B74" t="str">
         <f>"### "&amp;Regels!B74&amp;" ("&amp;Regels!A74&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E74&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F74&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C74&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A74&amp;" *("&amp;Regels!I74&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F74&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G74&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H74&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -3999,7 +4031,7 @@
         <f>Regels!D75</f>
         <v>0</v>
       </c>
-      <c r="B75" s="6" t="str">
+      <c r="B75" t="str">
         <f>"### "&amp;Regels!B75&amp;" ("&amp;Regels!A75&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E75&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F75&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C75&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A75&amp;" *("&amp;Regels!I75&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F75&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G75&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H75&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4019,7 +4051,7 @@
         <f>Regels!D76</f>
         <v>0</v>
       </c>
-      <c r="B76" s="6" t="str">
+      <c r="B76" t="str">
         <f>"### "&amp;Regels!B76&amp;" ("&amp;Regels!A76&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E76&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F76&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C76&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A76&amp;" *("&amp;Regels!I76&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F76&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G76&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H76&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4039,7 +4071,7 @@
         <f>Regels!D77</f>
         <v>0</v>
       </c>
-      <c r="B77" s="6" t="str">
+      <c r="B77" t="str">
         <f>"### "&amp;Regels!B77&amp;" ("&amp;Regels!A77&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E77&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F77&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C77&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A77&amp;" *("&amp;Regels!I77&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F77&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G77&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H77&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4059,7 +4091,7 @@
         <f>Regels!D78</f>
         <v>0</v>
       </c>
-      <c r="B78" s="6" t="str">
+      <c r="B78" t="str">
         <f>"### "&amp;Regels!B78&amp;" ("&amp;Regels!A78&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E78&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F78&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C78&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A78&amp;" *("&amp;Regels!I78&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F78&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G78&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H78&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4079,7 +4111,7 @@
         <f>Regels!D79</f>
         <v>0</v>
       </c>
-      <c r="B79" s="6" t="str">
+      <c r="B79" t="str">
         <f>"### "&amp;Regels!B79&amp;" ("&amp;Regels!A79&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E79&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F79&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C79&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A79&amp;" *("&amp;Regels!I79&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F79&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G79&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H79&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4099,7 +4131,7 @@
         <f>Regels!D80</f>
         <v>0</v>
       </c>
-      <c r="B80" s="6" t="str">
+      <c r="B80" t="str">
         <f>"### "&amp;Regels!B80&amp;" ("&amp;Regels!A80&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E80&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F80&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C80&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A80&amp;" *("&amp;Regels!I80&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F80&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G80&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H80&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4119,7 +4151,7 @@
         <f>Regels!D81</f>
         <v>0</v>
       </c>
-      <c r="B81" s="6" t="str">
+      <c r="B81" t="str">
         <f>"### "&amp;Regels!B81&amp;" ("&amp;Regels!A81&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E81&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F81&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C81&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A81&amp;" *("&amp;Regels!I81&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F81&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G81&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H81&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4139,7 +4171,7 @@
         <f>Regels!D82</f>
         <v>0</v>
       </c>
-      <c r="B82" s="6" t="str">
+      <c r="B82" t="str">
         <f>"### "&amp;Regels!B82&amp;" ("&amp;Regels!A82&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E82&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F82&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C82&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A82&amp;" *("&amp;Regels!I82&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F82&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G82&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H82&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4159,7 +4191,7 @@
         <f>Regels!D83</f>
         <v>0</v>
       </c>
-      <c r="B83" s="6" t="str">
+      <c r="B83" t="str">
         <f>"### "&amp;Regels!B83&amp;" ("&amp;Regels!A83&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E83&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F83&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C83&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A83&amp;" *("&amp;Regels!I83&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F83&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G83&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H83&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4179,7 +4211,7 @@
         <f>Regels!D84</f>
         <v>0</v>
       </c>
-      <c r="B84" s="6" t="str">
+      <c r="B84" t="str">
         <f>"### "&amp;Regels!B84&amp;" ("&amp;Regels!A84&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E84&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F84&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C84&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A84&amp;" *("&amp;Regels!I84&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F84&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G84&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H84&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4199,7 +4231,7 @@
         <f>Regels!D85</f>
         <v>0</v>
       </c>
-      <c r="B85" s="6" t="str">
+      <c r="B85" t="str">
         <f>"### "&amp;Regels!B85&amp;" ("&amp;Regels!A85&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E85&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F85&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C85&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A85&amp;" *("&amp;Regels!I85&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F85&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G85&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H85&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4219,7 +4251,7 @@
         <f>Regels!D86</f>
         <v>0</v>
       </c>
-      <c r="B86" s="6" t="str">
+      <c r="B86" t="str">
         <f>"### "&amp;Regels!B86&amp;" ("&amp;Regels!A86&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E86&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F86&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C86&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A86&amp;" *("&amp;Regels!I86&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F86&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G86&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H86&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4239,7 +4271,7 @@
         <f>Regels!D87</f>
         <v>0</v>
       </c>
-      <c r="B87" s="6" t="str">
+      <c r="B87" t="str">
         <f>"### "&amp;Regels!B87&amp;" ("&amp;Regels!A87&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E87&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F87&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C87&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A87&amp;" *("&amp;Regels!I87&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F87&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G87&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H87&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4259,7 +4291,7 @@
         <f>Regels!D88</f>
         <v>0</v>
       </c>
-      <c r="B88" s="6" t="str">
+      <c r="B88" t="str">
         <f>"### "&amp;Regels!B88&amp;" ("&amp;Regels!A88&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E88&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F88&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C88&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A88&amp;" *("&amp;Regels!I88&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F88&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G88&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H88&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4279,7 +4311,7 @@
         <f>Regels!D89</f>
         <v>0</v>
       </c>
-      <c r="B89" s="6" t="str">
+      <c r="B89" t="str">
         <f>"### "&amp;Regels!B89&amp;" ("&amp;Regels!A89&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E89&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F89&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C89&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A89&amp;" *("&amp;Regels!I89&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F89&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G89&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H89&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4299,7 +4331,7 @@
         <f>Regels!D90</f>
         <v>0</v>
       </c>
-      <c r="B90" s="6" t="str">
+      <c r="B90" t="str">
         <f>"### "&amp;Regels!B90&amp;" ("&amp;Regels!A90&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E90&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F90&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C90&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A90&amp;" *("&amp;Regels!I90&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F90&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G90&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H90&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4319,7 +4351,7 @@
         <f>Regels!D91</f>
         <v>0</v>
       </c>
-      <c r="B91" s="6" t="str">
+      <c r="B91" t="str">
         <f>"### "&amp;Regels!B91&amp;" ("&amp;Regels!A91&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E91&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F91&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C91&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A91&amp;" *("&amp;Regels!I91&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F91&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G91&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H91&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4339,7 +4371,7 @@
         <f>Regels!D92</f>
         <v>0</v>
       </c>
-      <c r="B92" s="6" t="str">
+      <c r="B92" t="str">
         <f>"### "&amp;Regels!B92&amp;" ("&amp;Regels!A92&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E92&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F92&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C92&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A92&amp;" *("&amp;Regels!I92&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F92&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G92&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H92&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4359,7 +4391,7 @@
         <f>Regels!D93</f>
         <v>0</v>
       </c>
-      <c r="B93" s="6" t="str">
+      <c r="B93" t="str">
         <f>"### "&amp;Regels!B93&amp;" ("&amp;Regels!A93&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E93&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F93&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C93&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A93&amp;" *("&amp;Regels!I93&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F93&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G93&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H93&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4379,7 +4411,7 @@
         <f>Regels!D94</f>
         <v>0</v>
       </c>
-      <c r="B94" s="6" t="str">
+      <c r="B94" t="str">
         <f>"### "&amp;Regels!B94&amp;" ("&amp;Regels!A94&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E94&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F94&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C94&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A94&amp;" *("&amp;Regels!I94&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F94&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G94&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H94&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4399,7 +4431,7 @@
         <f>Regels!D95</f>
         <v>0</v>
       </c>
-      <c r="B95" s="6" t="str">
+      <c r="B95" t="str">
         <f>"### "&amp;Regels!B95&amp;" ("&amp;Regels!A95&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E95&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F95&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C95&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A95&amp;" *("&amp;Regels!I95&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F95&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G95&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H95&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4419,7 +4451,7 @@
         <f>Regels!D96</f>
         <v>0</v>
       </c>
-      <c r="B96" s="6" t="str">
+      <c r="B96" t="str">
         <f>"### "&amp;Regels!B96&amp;" ("&amp;Regels!A96&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E96&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F96&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C96&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A96&amp;" *("&amp;Regels!I96&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F96&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G96&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H96&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4439,7 +4471,7 @@
         <f>Regels!D97</f>
         <v>0</v>
       </c>
-      <c r="B97" s="6" t="str">
+      <c r="B97" t="str">
         <f>"### "&amp;Regels!B97&amp;" ("&amp;Regels!A97&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E97&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F97&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C97&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A97&amp;" *("&amp;Regels!I97&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F97&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G97&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H97&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4459,7 +4491,7 @@
         <f>Regels!D98</f>
         <v>0</v>
       </c>
-      <c r="B98" s="6" t="str">
+      <c r="B98" t="str">
         <f>"### "&amp;Regels!B98&amp;" ("&amp;Regels!A98&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E98&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F98&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C98&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A98&amp;" *("&amp;Regels!I98&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F98&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G98&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H98&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4479,7 +4511,7 @@
         <f>Regels!D99</f>
         <v>0</v>
       </c>
-      <c r="B99" s="6" t="str">
+      <c r="B99" t="str">
         <f>"### "&amp;Regels!B99&amp;" ("&amp;Regels!A99&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E99&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F99&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C99&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A99&amp;" *("&amp;Regels!I99&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F99&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G99&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H99&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4499,7 +4531,7 @@
         <f>Regels!D100</f>
         <v>0</v>
       </c>
-      <c r="B100" s="6" t="str">
+      <c r="B100" t="str">
         <f>"### "&amp;Regels!B100&amp;" ("&amp;Regels!A100&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E100&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F100&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C100&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A100&amp;" *("&amp;Regels!I100&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F100&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G100&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H100&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4519,7 +4551,7 @@
         <f>Regels!D101</f>
         <v>0</v>
       </c>
-      <c r="B101" s="6" t="str">
+      <c r="B101" t="str">
         <f>"### "&amp;Regels!B101&amp;" ("&amp;Regels!A101&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E101&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F101&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C101&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A101&amp;" *("&amp;Regels!I101&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F101&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G101&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H101&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4539,7 +4571,7 @@
         <f>Regels!D102</f>
         <v>0</v>
       </c>
-      <c r="B102" s="6" t="str">
+      <c r="B102" t="str">
         <f>"### "&amp;Regels!B102&amp;" ("&amp;Regels!A102&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E102&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F102&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C102&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A102&amp;" *("&amp;Regels!I102&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F102&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G102&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H102&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4559,7 +4591,7 @@
         <f>Regels!D103</f>
         <v>0</v>
       </c>
-      <c r="B103" s="6" t="str">
+      <c r="B103" t="str">
         <f>"### "&amp;Regels!B103&amp;" ("&amp;Regels!A103&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E103&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F103&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C103&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A103&amp;" *("&amp;Regels!I103&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F103&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G103&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H103&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4579,7 +4611,7 @@
         <f>Regels!D104</f>
         <v>0</v>
       </c>
-      <c r="B104" s="6" t="str">
+      <c r="B104" t="str">
         <f>"### "&amp;Regels!B104&amp;" ("&amp;Regels!A104&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E104&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F104&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C104&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A104&amp;" *("&amp;Regels!I104&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F104&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G104&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H104&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4599,7 +4631,7 @@
         <f>Regels!D105</f>
         <v>0</v>
       </c>
-      <c r="B105" s="6" t="str">
+      <c r="B105" t="str">
         <f>"### "&amp;Regels!B105&amp;" ("&amp;Regels!A105&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E105&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F105&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C105&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A105&amp;" *("&amp;Regels!I105&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F105&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G105&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H105&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4619,7 +4651,7 @@
         <f>Regels!D106</f>
         <v>0</v>
       </c>
-      <c r="B106" s="6" t="str">
+      <c r="B106" t="str">
         <f>"### "&amp;Regels!B106&amp;" ("&amp;Regels!A106&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E106&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F106&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C106&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A106&amp;" *("&amp;Regels!I106&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F106&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G106&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H106&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4639,7 +4671,7 @@
         <f>Regels!D107</f>
         <v>0</v>
       </c>
-      <c r="B107" s="6" t="str">
+      <c r="B107" t="str">
         <f>"### "&amp;Regels!B107&amp;" ("&amp;Regels!A107&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E107&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F107&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C107&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A107&amp;" *("&amp;Regels!I107&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F107&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G107&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H107&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4659,7 +4691,7 @@
         <f>Regels!D108</f>
         <v>0</v>
       </c>
-      <c r="B108" s="6" t="str">
+      <c r="B108" t="str">
         <f>"### "&amp;Regels!B108&amp;" ("&amp;Regels!A108&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E108&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F108&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C108&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A108&amp;" *("&amp;Regels!I108&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F108&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G108&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H108&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4679,7 +4711,7 @@
         <f>Regels!D109</f>
         <v>0</v>
       </c>
-      <c r="B109" s="6" t="str">
+      <c r="B109" t="str">
         <f>"### "&amp;Regels!B109&amp;" ("&amp;Regels!A109&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E109&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F109&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C109&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A109&amp;" *("&amp;Regels!I109&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F109&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G109&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H109&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4699,7 +4731,7 @@
         <f>Regels!D110</f>
         <v>0</v>
       </c>
-      <c r="B110" s="6" t="str">
+      <c r="B110" t="str">
         <f>"### "&amp;Regels!B110&amp;" ("&amp;Regels!A110&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E110&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F110&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C110&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A110&amp;" *("&amp;Regels!I110&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F110&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G110&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H110&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4719,7 +4751,7 @@
         <f>Regels!D111</f>
         <v>0</v>
       </c>
-      <c r="B111" s="6" t="str">
+      <c r="B111" t="str">
         <f>"### "&amp;Regels!B111&amp;" ("&amp;Regels!A111&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E111&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F111&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C111&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A111&amp;" *("&amp;Regels!I111&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F111&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G111&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H111&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4739,7 +4771,7 @@
         <f>Regels!D112</f>
         <v>0</v>
       </c>
-      <c r="B112" s="6" t="str">
+      <c r="B112" t="str">
         <f>"### "&amp;Regels!B112&amp;" ("&amp;Regels!A112&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E112&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F112&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C112&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A112&amp;" *("&amp;Regels!I112&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F112&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G112&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H112&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4759,7 +4791,7 @@
         <f>Regels!D113</f>
         <v>0</v>
       </c>
-      <c r="B113" s="6" t="str">
+      <c r="B113" t="str">
         <f>"### "&amp;Regels!B113&amp;" ("&amp;Regels!A113&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E113&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F113&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C113&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A113&amp;" *("&amp;Regels!I113&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F113&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G113&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H113&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4779,7 +4811,7 @@
         <f>Regels!D114</f>
         <v>0</v>
       </c>
-      <c r="B114" s="6" t="str">
+      <c r="B114" t="str">
         <f>"### "&amp;Regels!B114&amp;" ("&amp;Regels!A114&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E114&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F114&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C114&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A114&amp;" *("&amp;Regels!I114&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F114&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G114&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H114&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4799,7 +4831,7 @@
         <f>Regels!D115</f>
         <v>0</v>
       </c>
-      <c r="B115" s="6" t="str">
+      <c r="B115" t="str">
         <f>"### "&amp;Regels!B115&amp;" ("&amp;Regels!A115&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E115&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F115&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C115&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A115&amp;" *("&amp;Regels!I115&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F115&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G115&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H115&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4819,7 +4851,7 @@
         <f>Regels!D116</f>
         <v>0</v>
       </c>
-      <c r="B116" s="6" t="str">
+      <c r="B116" t="str">
         <f>"### "&amp;Regels!B116&amp;" ("&amp;Regels!A116&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E116&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F116&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C116&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A116&amp;" *("&amp;Regels!I116&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F116&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G116&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H116&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4839,7 +4871,7 @@
         <f>Regels!D117</f>
         <v>0</v>
       </c>
-      <c r="B117" s="6" t="str">
+      <c r="B117" t="str">
         <f>"### "&amp;Regels!B117&amp;" ("&amp;Regels!A117&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E117&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F117&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C117&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A117&amp;" *("&amp;Regels!I117&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F117&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G117&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H117&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4859,7 +4891,7 @@
         <f>Regels!D118</f>
         <v>0</v>
       </c>
-      <c r="B118" s="6" t="str">
+      <c r="B118" t="str">
         <f>"### "&amp;Regels!B118&amp;" ("&amp;Regels!A118&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E118&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F118&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C118&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A118&amp;" *("&amp;Regels!I118&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F118&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G118&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H118&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4879,7 +4911,7 @@
         <f>Regels!D119</f>
         <v>0</v>
       </c>
-      <c r="B119" s="6" t="str">
+      <c r="B119" t="str">
         <f>"### "&amp;Regels!B119&amp;" ("&amp;Regels!A119&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E119&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F119&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C119&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A119&amp;" *("&amp;Regels!I119&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F119&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G119&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H119&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4899,7 +4931,7 @@
         <f>Regels!D120</f>
         <v>0</v>
       </c>
-      <c r="B120" s="6" t="str">
+      <c r="B120" t="str">
         <f>"### "&amp;Regels!B120&amp;" ("&amp;Regels!A120&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E120&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F120&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C120&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A120&amp;" *("&amp;Regels!I120&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F120&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G120&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H120&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4919,7 +4951,7 @@
         <f>Regels!D121</f>
         <v>0</v>
       </c>
-      <c r="B121" s="6" t="str">
+      <c r="B121" t="str">
         <f>"### "&amp;Regels!B121&amp;" ("&amp;Regels!A121&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E121&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F121&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C121&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A121&amp;" *("&amp;Regels!I121&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F121&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G121&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H121&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4939,7 +4971,7 @@
         <f>Regels!D122</f>
         <v>0</v>
       </c>
-      <c r="B122" s="6" t="str">
+      <c r="B122" t="str">
         <f>"### "&amp;Regels!B122&amp;" ("&amp;Regels!A122&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E122&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F122&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C122&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A122&amp;" *("&amp;Regels!I122&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F122&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G122&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H122&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4959,7 +4991,7 @@
         <f>Regels!D123</f>
         <v>0</v>
       </c>
-      <c r="B123" s="6" t="str">
+      <c r="B123" t="str">
         <f>"### "&amp;Regels!B123&amp;" ("&amp;Regels!A123&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E123&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F123&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C123&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A123&amp;" *("&amp;Regels!I123&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F123&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G123&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H123&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4979,7 +5011,7 @@
         <f>Regels!D124</f>
         <v>0</v>
       </c>
-      <c r="B124" s="6" t="str">
+      <c r="B124" t="str">
         <f>"### "&amp;Regels!B124&amp;" ("&amp;Regels!A124&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E124&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F124&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C124&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A124&amp;" *("&amp;Regels!I124&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F124&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G124&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H124&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -4999,7 +5031,7 @@
         <f>Regels!D125</f>
         <v>0</v>
       </c>
-      <c r="B125" s="6" t="str">
+      <c r="B125" t="str">
         <f>"### "&amp;Regels!B125&amp;" ("&amp;Regels!A125&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E125&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F125&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C125&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A125&amp;" *("&amp;Regels!I125&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F125&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G125&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H125&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5019,7 +5051,7 @@
         <f>Regels!D126</f>
         <v>0</v>
       </c>
-      <c r="B126" s="6" t="str">
+      <c r="B126" t="str">
         <f>"### "&amp;Regels!B126&amp;" ("&amp;Regels!A126&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E126&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F126&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C126&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A126&amp;" *("&amp;Regels!I126&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F126&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G126&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H126&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5039,7 +5071,7 @@
         <f>Regels!D127</f>
         <v>0</v>
       </c>
-      <c r="B127" s="6" t="str">
+      <c r="B127" t="str">
         <f>"### "&amp;Regels!B127&amp;" ("&amp;Regels!A127&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E127&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F127&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C127&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A127&amp;" *("&amp;Regels!I127&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F127&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G127&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H127&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5059,7 +5091,7 @@
         <f>Regels!D128</f>
         <v>0</v>
       </c>
-      <c r="B128" s="6" t="str">
+      <c r="B128" t="str">
         <f>"### "&amp;Regels!B128&amp;" ("&amp;Regels!A128&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E128&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F128&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C128&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A128&amp;" *("&amp;Regels!I128&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F128&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G128&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H128&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5079,7 +5111,7 @@
         <f>Regels!D129</f>
         <v>0</v>
       </c>
-      <c r="B129" s="6" t="str">
+      <c r="B129" t="str">
         <f>"### "&amp;Regels!B129&amp;" ("&amp;Regels!A129&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E129&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F129&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C129&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A129&amp;" *("&amp;Regels!I129&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F129&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G129&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H129&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5099,7 +5131,7 @@
         <f>Regels!D130</f>
         <v>0</v>
       </c>
-      <c r="B130" s="6" t="str">
+      <c r="B130" t="str">
         <f>"### "&amp;Regels!B130&amp;" ("&amp;Regels!A130&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E130&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F130&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C130&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A130&amp;" *("&amp;Regels!I130&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F130&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G130&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H130&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5119,7 +5151,7 @@
         <f>Regels!D131</f>
         <v>0</v>
       </c>
-      <c r="B131" s="6" t="str">
+      <c r="B131" t="str">
         <f>"### "&amp;Regels!B131&amp;" ("&amp;Regels!A131&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E131&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F131&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C131&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A131&amp;" *("&amp;Regels!I131&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F131&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G131&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H131&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5139,7 +5171,7 @@
         <f>Regels!D132</f>
         <v>0</v>
       </c>
-      <c r="B132" s="6" t="str">
+      <c r="B132" t="str">
         <f>"### "&amp;Regels!B132&amp;" ("&amp;Regels!A132&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E132&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F132&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C132&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A132&amp;" *("&amp;Regels!I132&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F132&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G132&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H132&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5159,7 +5191,7 @@
         <f>Regels!D133</f>
         <v>0</v>
       </c>
-      <c r="B133" s="6" t="str">
+      <c r="B133" t="str">
         <f>"### "&amp;Regels!B133&amp;" ("&amp;Regels!A133&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E133&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F133&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C133&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A133&amp;" *("&amp;Regels!I133&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F133&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G133&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H133&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5179,7 +5211,7 @@
         <f>Regels!D134</f>
         <v>0</v>
       </c>
-      <c r="B134" s="6" t="str">
+      <c r="B134" t="str">
         <f>"### "&amp;Regels!B134&amp;" ("&amp;Regels!A134&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E134&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F134&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C134&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A134&amp;" *("&amp;Regels!I134&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F134&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G134&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H134&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5199,7 +5231,7 @@
         <f>Regels!D135</f>
         <v>0</v>
       </c>
-      <c r="B135" s="6" t="str">
+      <c r="B135" t="str">
         <f>"### "&amp;Regels!B135&amp;" ("&amp;Regels!A135&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E135&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F135&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C135&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A135&amp;" *("&amp;Regels!I135&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F135&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G135&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H135&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5219,7 +5251,7 @@
         <f>Regels!D136</f>
         <v>0</v>
       </c>
-      <c r="B136" s="6" t="str">
+      <c r="B136" t="str">
         <f>"### "&amp;Regels!B136&amp;" ("&amp;Regels!A136&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E136&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F136&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C136&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A136&amp;" *("&amp;Regels!I136&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F136&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G136&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H136&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5239,7 +5271,7 @@
         <f>Regels!D137</f>
         <v>0</v>
       </c>
-      <c r="B137" s="6" t="str">
+      <c r="B137" t="str">
         <f>"### "&amp;Regels!B137&amp;" ("&amp;Regels!A137&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E137&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F137&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C137&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A137&amp;" *("&amp;Regels!I137&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F137&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G137&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H137&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5259,7 +5291,7 @@
         <f>Regels!D138</f>
         <v>0</v>
       </c>
-      <c r="B138" s="6" t="str">
+      <c r="B138" t="str">
         <f>"### "&amp;Regels!B138&amp;" ("&amp;Regels!A138&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E138&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F138&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C138&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A138&amp;" *("&amp;Regels!I138&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F138&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G138&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H138&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5279,7 +5311,7 @@
         <f>Regels!D139</f>
         <v>0</v>
       </c>
-      <c r="B139" s="6" t="str">
+      <c r="B139" t="str">
         <f>"### "&amp;Regels!B139&amp;" ("&amp;Regels!A139&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E139&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F139&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C139&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A139&amp;" *("&amp;Regels!I139&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F139&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G139&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H139&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5299,7 +5331,7 @@
         <f>Regels!D140</f>
         <v>0</v>
       </c>
-      <c r="B140" s="6" t="str">
+      <c r="B140" t="str">
         <f>"### "&amp;Regels!B140&amp;" ("&amp;Regels!A140&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E140&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F140&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C140&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A140&amp;" *("&amp;Regels!I140&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F140&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G140&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H140&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5319,7 +5351,7 @@
         <f>Regels!D141</f>
         <v>0</v>
       </c>
-      <c r="B141" s="6" t="str">
+      <c r="B141" t="str">
         <f>"### "&amp;Regels!B141&amp;" ("&amp;Regels!A141&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E141&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F141&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C141&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A141&amp;" *("&amp;Regels!I141&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F141&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G141&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H141&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5339,7 +5371,7 @@
         <f>Regels!D142</f>
         <v>0</v>
       </c>
-      <c r="B142" s="6" t="str">
+      <c r="B142" t="str">
         <f>"### "&amp;Regels!B142&amp;" ("&amp;Regels!A142&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E142&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F142&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C142&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A142&amp;" *("&amp;Regels!I142&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F142&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G142&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H142&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5359,7 +5391,7 @@
         <f>Regels!D143</f>
         <v>0</v>
       </c>
-      <c r="B143" s="6" t="str">
+      <c r="B143" t="str">
         <f>"### "&amp;Regels!B143&amp;" ("&amp;Regels!A143&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E143&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F143&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C143&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A143&amp;" *("&amp;Regels!I143&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F143&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G143&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H143&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5379,7 +5411,7 @@
         <f>Regels!D144</f>
         <v>0</v>
       </c>
-      <c r="B144" s="6" t="str">
+      <c r="B144" t="str">
         <f>"### "&amp;Regels!B144&amp;" ("&amp;Regels!A144&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E144&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F144&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C144&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A144&amp;" *("&amp;Regels!I144&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F144&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G144&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H144&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5399,7 +5431,7 @@
         <f>Regels!D145</f>
         <v>0</v>
       </c>
-      <c r="B145" s="6" t="str">
+      <c r="B145" t="str">
         <f>"### "&amp;Regels!B145&amp;" ("&amp;Regels!A145&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E145&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F145&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C145&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A145&amp;" *("&amp;Regels!I145&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F145&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G145&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H145&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5419,7 +5451,7 @@
         <f>Regels!D146</f>
         <v>0</v>
       </c>
-      <c r="B146" s="6" t="str">
+      <c r="B146" t="str">
         <f>"### "&amp;Regels!B146&amp;" ("&amp;Regels!A146&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E146&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F146&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C146&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A146&amp;" *("&amp;Regels!I146&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F146&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G146&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H146&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5439,7 +5471,7 @@
         <f>Regels!D147</f>
         <v>0</v>
       </c>
-      <c r="B147" s="6" t="str">
+      <c r="B147" t="str">
         <f>"### "&amp;Regels!B147&amp;" ("&amp;Regels!A147&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E147&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F147&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C147&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A147&amp;" *("&amp;Regels!I147&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F147&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G147&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H147&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5459,7 +5491,7 @@
         <f>Regels!D148</f>
         <v>0</v>
       </c>
-      <c r="B148" s="6" t="str">
+      <c r="B148" t="str">
         <f>"### "&amp;Regels!B148&amp;" ("&amp;Regels!A148&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E148&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F148&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C148&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A148&amp;" *("&amp;Regels!I148&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F148&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G148&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H148&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5479,7 +5511,7 @@
         <f>Regels!D149</f>
         <v>0</v>
       </c>
-      <c r="B149" s="6" t="str">
+      <c r="B149" t="str">
         <f>"### "&amp;Regels!B149&amp;" ("&amp;Regels!A149&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E149&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F149&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C149&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A149&amp;" *("&amp;Regels!I149&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F149&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G149&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H149&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5499,7 +5531,7 @@
         <f>Regels!D150</f>
         <v>0</v>
       </c>
-      <c r="B150" s="6" t="str">
+      <c r="B150" t="str">
         <f>"### "&amp;Regels!B150&amp;" ("&amp;Regels!A150&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E150&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F150&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C150&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A150&amp;" *("&amp;Regels!I150&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F150&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G150&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H150&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5519,7 +5551,7 @@
         <f>Regels!D151</f>
         <v>0</v>
       </c>
-      <c r="B151" s="6" t="str">
+      <c r="B151" t="str">
         <f>"### "&amp;Regels!B151&amp;" ("&amp;Regels!A151&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E151&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F151&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C151&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A151&amp;" *("&amp;Regels!I151&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F151&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G151&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H151&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5539,7 +5571,7 @@
         <f>Regels!D152</f>
         <v>0</v>
       </c>
-      <c r="B152" s="6" t="str">
+      <c r="B152" t="str">
         <f>"### "&amp;Regels!B152&amp;" ("&amp;Regels!A152&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E152&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F152&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C152&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A152&amp;" *("&amp;Regels!I152&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F152&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G152&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H152&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5559,7 +5591,7 @@
         <f>Regels!D153</f>
         <v>0</v>
       </c>
-      <c r="B153" s="6" t="str">
+      <c r="B153" t="str">
         <f>"### "&amp;Regels!B153&amp;" ("&amp;Regels!A153&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E153&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F153&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C153&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A153&amp;" *("&amp;Regels!I153&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F153&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G153&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H153&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5579,7 +5611,7 @@
         <f>Regels!D154</f>
         <v>0</v>
       </c>
-      <c r="B154" s="6" t="str">
+      <c r="B154" t="str">
         <f>"### "&amp;Regels!B154&amp;" ("&amp;Regels!A154&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E154&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F154&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C154&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A154&amp;" *("&amp;Regels!I154&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F154&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G154&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H154&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5599,7 +5631,7 @@
         <f>Regels!D155</f>
         <v>0</v>
       </c>
-      <c r="B155" s="6" t="str">
+      <c r="B155" t="str">
         <f>"### "&amp;Regels!B155&amp;" ("&amp;Regels!A155&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E155&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F155&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C155&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A155&amp;" *("&amp;Regels!I155&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F155&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G155&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H155&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5619,7 +5651,7 @@
         <f>Regels!D156</f>
         <v>0</v>
       </c>
-      <c r="B156" s="6" t="str">
+      <c r="B156" t="str">
         <f>"### "&amp;Regels!B156&amp;" ("&amp;Regels!A156&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E156&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F156&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C156&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A156&amp;" *("&amp;Regels!I156&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F156&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G156&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H156&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5639,7 +5671,7 @@
         <f>Regels!D157</f>
         <v>0</v>
       </c>
-      <c r="B157" s="6" t="str">
+      <c r="B157" t="str">
         <f>"### "&amp;Regels!B157&amp;" ("&amp;Regels!A157&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E157&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F157&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C157&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A157&amp;" *("&amp;Regels!I157&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F157&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G157&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H157&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5659,7 +5691,7 @@
         <f>Regels!D158</f>
         <v>0</v>
       </c>
-      <c r="B158" s="6" t="str">
+      <c r="B158" t="str">
         <f>"### "&amp;Regels!B158&amp;" ("&amp;Regels!A158&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E158&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F158&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C158&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A158&amp;" *("&amp;Regels!I158&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F158&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G158&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H158&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5679,7 +5711,7 @@
         <f>Regels!D159</f>
         <v>0</v>
       </c>
-      <c r="B159" s="6" t="str">
+      <c r="B159" t="str">
         <f>"### "&amp;Regels!B159&amp;" ("&amp;Regels!A159&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E159&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F159&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C159&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A159&amp;" *("&amp;Regels!I159&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F159&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G159&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H159&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5699,7 +5731,7 @@
         <f>Regels!D160</f>
         <v>0</v>
       </c>
-      <c r="B160" s="6" t="str">
+      <c r="B160" t="str">
         <f>"### "&amp;Regels!B160&amp;" ("&amp;Regels!A160&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E160&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F160&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C160&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A160&amp;" *("&amp;Regels!I160&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F160&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G160&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H160&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5719,7 +5751,7 @@
         <f>Regels!D161</f>
         <v>0</v>
       </c>
-      <c r="B161" s="6" t="str">
+      <c r="B161" t="str">
         <f>"### "&amp;Regels!B161&amp;" ("&amp;Regels!A161&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E161&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F161&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C161&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A161&amp;" *("&amp;Regels!I161&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F161&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G161&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H161&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5739,7 +5771,7 @@
         <f>Regels!D162</f>
         <v>0</v>
       </c>
-      <c r="B162" s="6" t="str">
+      <c r="B162" t="str">
         <f>"### "&amp;Regels!B162&amp;" ("&amp;Regels!A162&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E162&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F162&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C162&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A162&amp;" *("&amp;Regels!I162&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F162&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G162&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H162&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5759,7 +5791,7 @@
         <f>Regels!D163</f>
         <v>0</v>
       </c>
-      <c r="B163" s="6" t="str">
+      <c r="B163" t="str">
         <f>"### "&amp;Regels!B163&amp;" ("&amp;Regels!A163&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E163&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F163&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C163&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A163&amp;" *("&amp;Regels!I163&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F163&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G163&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H163&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5779,7 +5811,7 @@
         <f>Regels!D164</f>
         <v>0</v>
       </c>
-      <c r="B164" s="6" t="str">
+      <c r="B164" t="str">
         <f>"### "&amp;Regels!B164&amp;" ("&amp;Regels!A164&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E164&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F164&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C164&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A164&amp;" *("&amp;Regels!I164&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F164&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G164&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H164&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5799,7 +5831,7 @@
         <f>Regels!D165</f>
         <v>0</v>
       </c>
-      <c r="B165" s="6" t="str">
+      <c r="B165" t="str">
         <f>"### "&amp;Regels!B165&amp;" ("&amp;Regels!A165&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E165&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F165&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C165&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A165&amp;" *("&amp;Regels!I165&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F165&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G165&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H165&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5819,7 +5851,7 @@
         <f>Regels!D166</f>
         <v>0</v>
       </c>
-      <c r="B166" s="6" t="str">
+      <c r="B166" t="str">
         <f>"### "&amp;Regels!B166&amp;" ("&amp;Regels!A166&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E166&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F166&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C166&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A166&amp;" *("&amp;Regels!I166&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F166&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G166&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H166&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5839,7 +5871,7 @@
         <f>Regels!D167</f>
         <v>0</v>
       </c>
-      <c r="B167" s="6" t="str">
+      <c r="B167" t="str">
         <f>"### "&amp;Regels!B167&amp;" ("&amp;Regels!A167&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E167&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F167&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C167&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A167&amp;" *("&amp;Regels!I167&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F167&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G167&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H167&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5859,7 +5891,7 @@
         <f>Regels!D168</f>
         <v>0</v>
       </c>
-      <c r="B168" s="6" t="str">
+      <c r="B168" t="str">
         <f>"### "&amp;Regels!B168&amp;" ("&amp;Regels!A168&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E168&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F168&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C168&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A168&amp;" *("&amp;Regels!I168&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F168&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G168&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H168&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5879,7 +5911,7 @@
         <f>Regels!D169</f>
         <v>0</v>
       </c>
-      <c r="B169" s="6" t="str">
+      <c r="B169" t="str">
         <f>"### "&amp;Regels!B169&amp;" ("&amp;Regels!A169&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E169&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F169&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C169&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A169&amp;" *("&amp;Regels!I169&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F169&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G169&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H169&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5899,7 +5931,7 @@
         <f>Regels!D170</f>
         <v>0</v>
       </c>
-      <c r="B170" s="6" t="str">
+      <c r="B170" t="str">
         <f>"### "&amp;Regels!B170&amp;" ("&amp;Regels!A170&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E170&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F170&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C170&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A170&amp;" *("&amp;Regels!I170&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F170&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G170&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H170&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5919,7 +5951,7 @@
         <f>Regels!D171</f>
         <v>0</v>
       </c>
-      <c r="B171" s="6" t="str">
+      <c r="B171" t="str">
         <f>"### "&amp;Regels!B171&amp;" ("&amp;Regels!A171&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E171&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F171&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C171&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A171&amp;" *("&amp;Regels!I171&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F171&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G171&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H171&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5939,7 +5971,7 @@
         <f>Regels!D172</f>
         <v>0</v>
       </c>
-      <c r="B172" s="6" t="str">
+      <c r="B172" t="str">
         <f>"### "&amp;Regels!B172&amp;" ("&amp;Regels!A172&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E172&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F172&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C172&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A172&amp;" *("&amp;Regels!I172&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F172&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G172&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H172&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5959,7 +5991,7 @@
         <f>Regels!D173</f>
         <v>0</v>
       </c>
-      <c r="B173" s="6" t="str">
+      <c r="B173" t="str">
         <f>"### "&amp;Regels!B173&amp;" ("&amp;Regels!A173&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E173&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F173&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C173&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A173&amp;" *("&amp;Regels!I173&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F173&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G173&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H173&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5979,7 +6011,7 @@
         <f>Regels!D174</f>
         <v>0</v>
       </c>
-      <c r="B174" s="6" t="str">
+      <c r="B174" t="str">
         <f>"### "&amp;Regels!B174&amp;" ("&amp;Regels!A174&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E174&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F174&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C174&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A174&amp;" *("&amp;Regels!I174&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F174&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G174&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H174&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -5999,7 +6031,7 @@
         <f>Regels!D175</f>
         <v>0</v>
       </c>
-      <c r="B175" s="6" t="str">
+      <c r="B175" t="str">
         <f>"### "&amp;Regels!B175&amp;" ("&amp;Regels!A175&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E175&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F175&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C175&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A175&amp;" *("&amp;Regels!I175&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F175&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G175&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H175&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6019,7 +6051,7 @@
         <f>Regels!D176</f>
         <v>0</v>
       </c>
-      <c r="B176" s="6" t="str">
+      <c r="B176" t="str">
         <f>"### "&amp;Regels!B176&amp;" ("&amp;Regels!A176&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E176&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F176&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C176&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A176&amp;" *("&amp;Regels!I176&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F176&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G176&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H176&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6039,7 +6071,7 @@
         <f>Regels!D177</f>
         <v>0</v>
       </c>
-      <c r="B177" s="6" t="str">
+      <c r="B177" t="str">
         <f>"### "&amp;Regels!B177&amp;" ("&amp;Regels!A177&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E177&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F177&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C177&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A177&amp;" *("&amp;Regels!I177&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F177&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G177&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H177&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6059,7 +6091,7 @@
         <f>Regels!D178</f>
         <v>0</v>
       </c>
-      <c r="B178" s="6" t="str">
+      <c r="B178" t="str">
         <f>"### "&amp;Regels!B178&amp;" ("&amp;Regels!A178&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E178&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F178&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C178&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A178&amp;" *("&amp;Regels!I178&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F178&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G178&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H178&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6079,7 +6111,7 @@
         <f>Regels!D179</f>
         <v>0</v>
       </c>
-      <c r="B179" s="6" t="str">
+      <c r="B179" t="str">
         <f>"### "&amp;Regels!B179&amp;" ("&amp;Regels!A179&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E179&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F179&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C179&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A179&amp;" *("&amp;Regels!I179&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F179&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G179&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H179&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6099,7 +6131,7 @@
         <f>Regels!D180</f>
         <v>0</v>
       </c>
-      <c r="B180" s="6" t="str">
+      <c r="B180" t="str">
         <f>"### "&amp;Regels!B180&amp;" ("&amp;Regels!A180&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E180&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F180&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C180&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A180&amp;" *("&amp;Regels!I180&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F180&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G180&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H180&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6119,7 +6151,7 @@
         <f>Regels!D181</f>
         <v>0</v>
       </c>
-      <c r="B181" s="6" t="str">
+      <c r="B181" t="str">
         <f>"### "&amp;Regels!B181&amp;" ("&amp;Regels!A181&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E181&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F181&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C181&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A181&amp;" *("&amp;Regels!I181&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F181&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G181&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H181&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6139,7 +6171,7 @@
         <f>Regels!D182</f>
         <v>0</v>
       </c>
-      <c r="B182" s="6" t="str">
+      <c r="B182" t="str">
         <f>"### "&amp;Regels!B182&amp;" ("&amp;Regels!A182&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E182&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F182&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C182&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A182&amp;" *("&amp;Regels!I182&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F182&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G182&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H182&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6159,7 +6191,7 @@
         <f>Regels!D183</f>
         <v>0</v>
       </c>
-      <c r="B183" s="6" t="str">
+      <c r="B183" t="str">
         <f>"### "&amp;Regels!B183&amp;" ("&amp;Regels!A183&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E183&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F183&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C183&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A183&amp;" *("&amp;Regels!I183&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F183&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G183&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H183&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6179,7 +6211,7 @@
         <f>Regels!D184</f>
         <v>0</v>
       </c>
-      <c r="B184" s="6" t="str">
+      <c r="B184" t="str">
         <f>"### "&amp;Regels!B184&amp;" ("&amp;Regels!A184&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E184&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F184&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C184&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A184&amp;" *("&amp;Regels!I184&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F184&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G184&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H184&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6199,7 +6231,7 @@
         <f>Regels!D185</f>
         <v>0</v>
       </c>
-      <c r="B185" s="6" t="str">
+      <c r="B185" t="str">
         <f>"### "&amp;Regels!B185&amp;" ("&amp;Regels!A185&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E185&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F185&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C185&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A185&amp;" *("&amp;Regels!I185&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F185&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G185&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H185&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6219,7 +6251,7 @@
         <f>Regels!D186</f>
         <v>0</v>
       </c>
-      <c r="B186" s="6" t="str">
+      <c r="B186" t="str">
         <f>"### "&amp;Regels!B186&amp;" ("&amp;Regels!A186&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E186&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F186&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C186&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A186&amp;" *("&amp;Regels!I186&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F186&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G186&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H186&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6239,7 +6271,7 @@
         <f>Regels!D187</f>
         <v>0</v>
       </c>
-      <c r="B187" s="6" t="str">
+      <c r="B187" t="str">
         <f>"### "&amp;Regels!B187&amp;" ("&amp;Regels!A187&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E187&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F187&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C187&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A187&amp;" *("&amp;Regels!I187&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F187&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G187&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H187&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6259,7 +6291,7 @@
         <f>Regels!D188</f>
         <v>0</v>
       </c>
-      <c r="B188" s="6" t="str">
+      <c r="B188" t="str">
         <f>"### "&amp;Regels!B188&amp;" ("&amp;Regels!A188&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E188&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F188&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C188&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A188&amp;" *("&amp;Regels!I188&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F188&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G188&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H188&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6279,7 +6311,7 @@
         <f>Regels!D189</f>
         <v>0</v>
       </c>
-      <c r="B189" s="6" t="str">
+      <c r="B189" t="str">
         <f>"### "&amp;Regels!B189&amp;" ("&amp;Regels!A189&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E189&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F189&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C189&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A189&amp;" *("&amp;Regels!I189&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F189&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G189&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H189&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6299,7 +6331,7 @@
         <f>Regels!D190</f>
         <v>0</v>
       </c>
-      <c r="B190" s="6" t="str">
+      <c r="B190" t="str">
         <f>"### "&amp;Regels!B190&amp;" ("&amp;Regels!A190&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E190&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F190&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C190&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A190&amp;" *("&amp;Regels!I190&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F190&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G190&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H190&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6319,7 +6351,7 @@
         <f>Regels!D191</f>
         <v>0</v>
       </c>
-      <c r="B191" s="6" t="str">
+      <c r="B191" t="str">
         <f>"### "&amp;Regels!B191&amp;" ("&amp;Regels!A191&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E191&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F191&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C191&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A191&amp;" *("&amp;Regels!I191&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F191&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G191&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H191&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6339,7 +6371,7 @@
         <f>Regels!D192</f>
         <v>0</v>
       </c>
-      <c r="B192" s="6" t="str">
+      <c r="B192" t="str">
         <f>"### "&amp;Regels!B192&amp;" ("&amp;Regels!A192&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E192&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F192&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C192&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A192&amp;" *("&amp;Regels!I192&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F192&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G192&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H192&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6359,7 +6391,7 @@
         <f>Regels!D193</f>
         <v>0</v>
       </c>
-      <c r="B193" s="6" t="str">
+      <c r="B193" t="str">
         <f>"### "&amp;Regels!B193&amp;" ("&amp;Regels!A193&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E193&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F193&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C193&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A193&amp;" *("&amp;Regels!I193&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F193&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G193&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H193&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6379,7 +6411,7 @@
         <f>Regels!D194</f>
         <v>0</v>
       </c>
-      <c r="B194" s="6" t="str">
+      <c r="B194" t="str">
         <f>"### "&amp;Regels!B194&amp;" ("&amp;Regels!A194&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E194&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F194&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C194&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A194&amp;" *("&amp;Regels!I194&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F194&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G194&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H194&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6399,7 +6431,7 @@
         <f>Regels!D195</f>
         <v>0</v>
       </c>
-      <c r="B195" s="6" t="str">
+      <c r="B195" t="str">
         <f>"### "&amp;Regels!B195&amp;" ("&amp;Regels!A195&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E195&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F195&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C195&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A195&amp;" *("&amp;Regels!I195&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F195&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G195&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H195&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6419,7 +6451,7 @@
         <f>Regels!D196</f>
         <v>0</v>
       </c>
-      <c r="B196" s="6" t="str">
+      <c r="B196" t="str">
         <f>"### "&amp;Regels!B196&amp;" ("&amp;Regels!A196&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E196&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F196&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C196&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A196&amp;" *("&amp;Regels!I196&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F196&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G196&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H196&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6439,7 +6471,7 @@
         <f>Regels!D197</f>
         <v>0</v>
       </c>
-      <c r="B197" s="6" t="str">
+      <c r="B197" t="str">
         <f>"### "&amp;Regels!B197&amp;" ("&amp;Regels!A197&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E197&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F197&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C197&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A197&amp;" *("&amp;Regels!I197&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F197&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G197&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H197&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6459,7 +6491,7 @@
         <f>Regels!D198</f>
         <v>0</v>
       </c>
-      <c r="B198" s="6" t="str">
+      <c r="B198" t="str">
         <f>"### "&amp;Regels!B198&amp;" ("&amp;Regels!A198&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E198&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F198&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C198&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A198&amp;" *("&amp;Regels!I198&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F198&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G198&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H198&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6479,7 +6511,7 @@
         <f>Regels!D199</f>
         <v>0</v>
       </c>
-      <c r="B199" s="6" t="str">
+      <c r="B199" t="str">
         <f>"### "&amp;Regels!B199&amp;" ("&amp;Regels!A199&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E199&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F199&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C199&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A199&amp;" *("&amp;Regels!I199&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F199&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G199&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H199&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6499,7 +6531,7 @@
         <f>Regels!D200</f>
         <v>0</v>
       </c>
-      <c r="B200" s="6" t="str">
+      <c r="B200" t="str">
         <f>"### "&amp;Regels!B200&amp;" ("&amp;Regels!A200&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E200&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F200&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C200&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A200&amp;" *("&amp;Regels!I200&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F200&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G200&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H200&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6519,7 +6551,7 @@
         <f>Regels!D201</f>
         <v>0</v>
       </c>
-      <c r="B201" s="6" t="str">
+      <c r="B201" t="str">
         <f>"### "&amp;Regels!B201&amp;" ("&amp;Regels!A201&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E201&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F201&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C201&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A201&amp;" *("&amp;Regels!I201&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F201&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G201&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H201&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6539,7 +6571,7 @@
         <f>Regels!D202</f>
         <v>0</v>
       </c>
-      <c r="B202" s="6" t="str">
+      <c r="B202" t="str">
         <f>"### "&amp;Regels!B202&amp;" ("&amp;Regels!A202&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E202&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F202&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C202&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A202&amp;" *("&amp;Regels!I202&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F202&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G202&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H202&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6559,7 +6591,7 @@
         <f>Regels!D203</f>
         <v>0</v>
       </c>
-      <c r="B203" s="6" t="str">
+      <c r="B203" t="str">
         <f>"### "&amp;Regels!B203&amp;" ("&amp;Regels!A203&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E203&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F203&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C203&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A203&amp;" *("&amp;Regels!I203&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F203&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G203&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H203&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6579,7 +6611,7 @@
         <f>Regels!D204</f>
         <v>0</v>
       </c>
-      <c r="B204" s="6" t="str">
+      <c r="B204" t="str">
         <f>"### "&amp;Regels!B204&amp;" ("&amp;Regels!A204&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E204&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F204&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C204&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A204&amp;" *("&amp;Regels!I204&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F204&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G204&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H204&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6599,7 +6631,7 @@
         <f>Regels!D205</f>
         <v>0</v>
       </c>
-      <c r="B205" s="6" t="str">
+      <c r="B205" t="str">
         <f>"### "&amp;Regels!B205&amp;" ("&amp;Regels!A205&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E205&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F205&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C205&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A205&amp;" *("&amp;Regels!I205&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F205&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G205&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H205&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6619,7 +6651,7 @@
         <f>Regels!D206</f>
         <v>0</v>
       </c>
-      <c r="B206" s="6" t="str">
+      <c r="B206" t="str">
         <f>"### "&amp;Regels!B206&amp;" ("&amp;Regels!A206&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E206&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F206&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C206&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A206&amp;" *("&amp;Regels!I206&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F206&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G206&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H206&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6639,7 +6671,7 @@
         <f>Regels!D207</f>
         <v>0</v>
       </c>
-      <c r="B207" s="6" t="str">
+      <c r="B207" t="str">
         <f>"### "&amp;Regels!B207&amp;" ("&amp;Regels!A207&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E207&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F207&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C207&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A207&amp;" *("&amp;Regels!I207&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F207&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G207&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H207&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6659,7 +6691,7 @@
         <f>Regels!D208</f>
         <v>0</v>
       </c>
-      <c r="B208" s="6" t="str">
+      <c r="B208" t="str">
         <f>"### "&amp;Regels!B208&amp;" ("&amp;Regels!A208&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E208&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F208&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C208&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A208&amp;" *("&amp;Regels!I208&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F208&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G208&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H208&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6679,7 +6711,7 @@
         <f>Regels!D209</f>
         <v>0</v>
       </c>
-      <c r="B209" s="6" t="str">
+      <c r="B209" t="str">
         <f>"### "&amp;Regels!B209&amp;" ("&amp;Regels!A209&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E209&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F209&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C209&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A209&amp;" *("&amp;Regels!I209&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F209&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G209&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H209&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6699,7 +6731,7 @@
         <f>Regels!D210</f>
         <v>0</v>
       </c>
-      <c r="B210" s="6" t="str">
+      <c r="B210" t="str">
         <f>"### "&amp;Regels!B210&amp;" ("&amp;Regels!A210&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E210&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F210&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C210&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A210&amp;" *("&amp;Regels!I210&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F210&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G210&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H210&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6719,7 +6751,7 @@
         <f>Regels!D211</f>
         <v>0</v>
       </c>
-      <c r="B211" s="6" t="str">
+      <c r="B211" t="str">
         <f>"### "&amp;Regels!B211&amp;" ("&amp;Regels!A211&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E211&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F211&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C211&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A211&amp;" *("&amp;Regels!I211&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F211&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G211&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H211&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6739,7 +6771,7 @@
         <f>Regels!D212</f>
         <v>0</v>
       </c>
-      <c r="B212" s="6" t="str">
+      <c r="B212" t="str">
         <f>"### "&amp;Regels!B212&amp;" ("&amp;Regels!A212&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E212&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F212&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C212&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A212&amp;" *("&amp;Regels!I212&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F212&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G212&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H212&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6759,7 +6791,7 @@
         <f>Regels!D213</f>
         <v>0</v>
       </c>
-      <c r="B213" s="6" t="str">
+      <c r="B213" t="str">
         <f>"### "&amp;Regels!B213&amp;" ("&amp;Regels!A213&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E213&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F213&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C213&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A213&amp;" *("&amp;Regels!I213&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F213&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G213&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H213&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6779,7 +6811,7 @@
         <f>Regels!D214</f>
         <v>0</v>
       </c>
-      <c r="B214" s="6" t="str">
+      <c r="B214" t="str">
         <f>"### "&amp;Regels!B214&amp;" ("&amp;Regels!A214&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E214&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F214&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C214&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A214&amp;" *("&amp;Regels!I214&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F214&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G214&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H214&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6799,7 +6831,7 @@
         <f>Regels!D215</f>
         <v>0</v>
       </c>
-      <c r="B215" s="6" t="str">
+      <c r="B215" t="str">
         <f>"### "&amp;Regels!B215&amp;" ("&amp;Regels!A215&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E215&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F215&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C215&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A215&amp;" *("&amp;Regels!I215&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F215&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G215&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H215&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6819,7 +6851,7 @@
         <f>Regels!D216</f>
         <v>0</v>
       </c>
-      <c r="B216" s="6" t="str">
+      <c r="B216" t="str">
         <f>"### "&amp;Regels!B216&amp;" ("&amp;Regels!A216&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E216&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F216&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C216&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A216&amp;" *("&amp;Regels!I216&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F216&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G216&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H216&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6839,7 +6871,7 @@
         <f>Regels!D217</f>
         <v>0</v>
       </c>
-      <c r="B217" s="6" t="str">
+      <c r="B217" t="str">
         <f>"### "&amp;Regels!B217&amp;" ("&amp;Regels!A217&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E217&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F217&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C217&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A217&amp;" *("&amp;Regels!I217&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F217&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G217&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H217&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6859,7 +6891,7 @@
         <f>Regels!D218</f>
         <v>0</v>
       </c>
-      <c r="B218" s="6" t="str">
+      <c r="B218" t="str">
         <f>"### "&amp;Regels!B218&amp;" ("&amp;Regels!A218&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E218&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F218&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C218&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A218&amp;" *("&amp;Regels!I218&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F218&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G218&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H218&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6879,7 +6911,7 @@
         <f>Regels!D219</f>
         <v>0</v>
       </c>
-      <c r="B219" s="6" t="str">
+      <c r="B219" t="str">
         <f>"### "&amp;Regels!B219&amp;" ("&amp;Regels!A219&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E219&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F219&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C219&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A219&amp;" *("&amp;Regels!I219&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F219&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G219&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H219&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6899,7 +6931,7 @@
         <f>Regels!D220</f>
         <v>0</v>
       </c>
-      <c r="B220" s="6" t="str">
+      <c r="B220" t="str">
         <f>"### "&amp;Regels!B220&amp;" ("&amp;Regels!A220&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E220&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F220&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C220&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A220&amp;" *("&amp;Regels!I220&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F220&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G220&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H220&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6919,7 +6951,7 @@
         <f>Regels!D221</f>
         <v>0</v>
       </c>
-      <c r="B221" s="6" t="str">
+      <c r="B221" t="str">
         <f>"### "&amp;Regels!B221&amp;" ("&amp;Regels!A221&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E221&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F221&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C221&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A221&amp;" *("&amp;Regels!I221&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F221&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G221&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H221&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6939,7 +6971,7 @@
         <f>Regels!D222</f>
         <v>0</v>
       </c>
-      <c r="B222" s="6" t="str">
+      <c r="B222" t="str">
         <f>"### "&amp;Regels!B222&amp;" ("&amp;Regels!A222&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E222&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F222&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C222&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A222&amp;" *("&amp;Regels!I222&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F222&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G222&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H222&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6959,7 +6991,7 @@
         <f>Regels!D223</f>
         <v>0</v>
       </c>
-      <c r="B223" s="6" t="str">
+      <c r="B223" t="str">
         <f>"### "&amp;Regels!B223&amp;" ("&amp;Regels!A223&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E223&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F223&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C223&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A223&amp;" *("&amp;Regels!I223&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F223&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G223&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H223&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6979,7 +7011,7 @@
         <f>Regels!D224</f>
         <v>0</v>
       </c>
-      <c r="B224" s="6" t="str">
+      <c r="B224" t="str">
         <f>"### "&amp;Regels!B224&amp;" ("&amp;Regels!A224&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E224&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F224&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C224&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A224&amp;" *("&amp;Regels!I224&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F224&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G224&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H224&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -6999,7 +7031,7 @@
         <f>Regels!D225</f>
         <v>0</v>
       </c>
-      <c r="B225" s="6" t="str">
+      <c r="B225" t="str">
         <f>"### "&amp;Regels!B225&amp;" ("&amp;Regels!A225&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E225&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F225&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C225&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A225&amp;" *("&amp;Regels!I225&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F225&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G225&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H225&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7019,7 +7051,7 @@
         <f>Regels!D226</f>
         <v>0</v>
       </c>
-      <c r="B226" s="6" t="str">
+      <c r="B226" t="str">
         <f>"### "&amp;Regels!B226&amp;" ("&amp;Regels!A226&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E226&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F226&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C226&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A226&amp;" *("&amp;Regels!I226&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F226&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G226&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H226&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7039,7 +7071,7 @@
         <f>Regels!D227</f>
         <v>0</v>
       </c>
-      <c r="B227" s="6" t="str">
+      <c r="B227" t="str">
         <f>"### "&amp;Regels!B227&amp;" ("&amp;Regels!A227&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E227&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F227&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C227&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A227&amp;" *("&amp;Regels!I227&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F227&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G227&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H227&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7059,7 +7091,7 @@
         <f>Regels!D228</f>
         <v>0</v>
       </c>
-      <c r="B228" s="6" t="str">
+      <c r="B228" t="str">
         <f>"### "&amp;Regels!B228&amp;" ("&amp;Regels!A228&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E228&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F228&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C228&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A228&amp;" *("&amp;Regels!I228&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F228&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G228&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H228&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7079,7 +7111,7 @@
         <f>Regels!D229</f>
         <v>0</v>
       </c>
-      <c r="B229" s="6" t="str">
+      <c r="B229" t="str">
         <f>"### "&amp;Regels!B229&amp;" ("&amp;Regels!A229&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E229&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F229&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C229&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A229&amp;" *("&amp;Regels!I229&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F229&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G229&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H229&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7099,7 +7131,7 @@
         <f>Regels!D230</f>
         <v>0</v>
       </c>
-      <c r="B230" s="6" t="str">
+      <c r="B230" t="str">
         <f>"### "&amp;Regels!B230&amp;" ("&amp;Regels!A230&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E230&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F230&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C230&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A230&amp;" *("&amp;Regels!I230&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F230&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G230&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H230&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7119,7 +7151,7 @@
         <f>Regels!D231</f>
         <v>0</v>
       </c>
-      <c r="B231" s="6" t="str">
+      <c r="B231" t="str">
         <f>"### "&amp;Regels!B231&amp;" ("&amp;Regels!A231&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E231&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F231&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C231&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A231&amp;" *("&amp;Regels!I231&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F231&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G231&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H231&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7139,7 +7171,7 @@
         <f>Regels!D232</f>
         <v>0</v>
       </c>
-      <c r="B232" s="6" t="str">
+      <c r="B232" t="str">
         <f>"### "&amp;Regels!B232&amp;" ("&amp;Regels!A232&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E232&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F232&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C232&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A232&amp;" *("&amp;Regels!I232&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F232&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G232&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H232&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7159,7 +7191,7 @@
         <f>Regels!D233</f>
         <v>0</v>
       </c>
-      <c r="B233" s="6" t="str">
+      <c r="B233" t="str">
         <f>"### "&amp;Regels!B233&amp;" ("&amp;Regels!A233&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E233&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F233&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C233&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A233&amp;" *("&amp;Regels!I233&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F233&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G233&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H233&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7179,7 +7211,7 @@
         <f>Regels!D234</f>
         <v>0</v>
       </c>
-      <c r="B234" s="6" t="str">
+      <c r="B234" t="str">
         <f>"### "&amp;Regels!B234&amp;" ("&amp;Regels!A234&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E234&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F234&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C234&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A234&amp;" *("&amp;Regels!I234&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F234&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G234&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H234&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7199,7 +7231,7 @@
         <f>Regels!D235</f>
         <v>0</v>
       </c>
-      <c r="B235" s="6" t="str">
+      <c r="B235" t="str">
         <f>"### "&amp;Regels!B235&amp;" ("&amp;Regels!A235&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E235&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F235&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C235&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A235&amp;" *("&amp;Regels!I235&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F235&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G235&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H235&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7219,7 +7251,7 @@
         <f>Regels!D236</f>
         <v>0</v>
       </c>
-      <c r="B236" s="6" t="str">
+      <c r="B236" t="str">
         <f>"### "&amp;Regels!B236&amp;" ("&amp;Regels!A236&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E236&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F236&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C236&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A236&amp;" *("&amp;Regels!I236&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F236&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G236&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H236&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7239,7 +7271,7 @@
         <f>Regels!D237</f>
         <v>0</v>
       </c>
-      <c r="B237" s="6" t="str">
+      <c r="B237" t="str">
         <f>"### "&amp;Regels!B237&amp;" ("&amp;Regels!A237&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E237&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F237&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C237&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A237&amp;" *("&amp;Regels!I237&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F237&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G237&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H237&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7259,7 +7291,7 @@
         <f>Regels!D238</f>
         <v>0</v>
       </c>
-      <c r="B238" s="6" t="str">
+      <c r="B238" t="str">
         <f>"### "&amp;Regels!B238&amp;" ("&amp;Regels!A238&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E238&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F238&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C238&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A238&amp;" *("&amp;Regels!I238&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F238&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G238&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H238&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7279,7 +7311,7 @@
         <f>Regels!D239</f>
         <v>0</v>
       </c>
-      <c r="B239" s="6" t="str">
+      <c r="B239" t="str">
         <f>"### "&amp;Regels!B239&amp;" ("&amp;Regels!A239&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E239&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F239&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C239&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A239&amp;" *("&amp;Regels!I239&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F239&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G239&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H239&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7299,7 +7331,7 @@
         <f>Regels!D240</f>
         <v>0</v>
       </c>
-      <c r="B240" s="6" t="str">
+      <c r="B240" t="str">
         <f>"### "&amp;Regels!B240&amp;" ("&amp;Regels!A240&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E240&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F240&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C240&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A240&amp;" *("&amp;Regels!I240&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F240&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G240&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H240&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7319,7 +7351,7 @@
         <f>Regels!D241</f>
         <v>0</v>
       </c>
-      <c r="B241" s="6" t="str">
+      <c r="B241" t="str">
         <f>"### "&amp;Regels!B241&amp;" ("&amp;Regels!A241&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E241&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F241&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C241&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A241&amp;" *("&amp;Regels!I241&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F241&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G241&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H241&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7339,7 +7371,7 @@
         <f>Regels!D242</f>
         <v>0</v>
       </c>
-      <c r="B242" s="6" t="str">
+      <c r="B242" t="str">
         <f>"### "&amp;Regels!B242&amp;" ("&amp;Regels!A242&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E242&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F242&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C242&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A242&amp;" *("&amp;Regels!I242&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F242&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G242&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H242&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7359,7 +7391,7 @@
         <f>Regels!D243</f>
         <v>0</v>
       </c>
-      <c r="B243" s="6" t="str">
+      <c r="B243" t="str">
         <f>"### "&amp;Regels!B243&amp;" ("&amp;Regels!A243&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E243&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F243&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C243&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A243&amp;" *("&amp;Regels!I243&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F243&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G243&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H243&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7379,7 +7411,7 @@
         <f>Regels!D244</f>
         <v>0</v>
       </c>
-      <c r="B244" s="6" t="str">
+      <c r="B244" t="str">
         <f>"### "&amp;Regels!B244&amp;" ("&amp;Regels!A244&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E244&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F244&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C244&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A244&amp;" *("&amp;Regels!I244&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F244&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G244&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H244&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7399,7 +7431,7 @@
         <f>Regels!D245</f>
         <v>0</v>
       </c>
-      <c r="B245" s="6" t="str">
+      <c r="B245" t="str">
         <f>"### "&amp;Regels!B245&amp;" ("&amp;Regels!A245&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E245&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F245&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C245&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A245&amp;" *("&amp;Regels!I245&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F245&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G245&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H245&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7419,7 +7451,7 @@
         <f>Regels!D246</f>
         <v>0</v>
       </c>
-      <c r="B246" s="6" t="str">
+      <c r="B246" t="str">
         <f>"### "&amp;Regels!B246&amp;" ("&amp;Regels!A246&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E246&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F246&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C246&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A246&amp;" *("&amp;Regels!I246&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F246&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G246&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H246&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7439,7 +7471,7 @@
         <f>Regels!D247</f>
         <v>0</v>
       </c>
-      <c r="B247" s="6" t="str">
+      <c r="B247" t="str">
         <f>"### "&amp;Regels!B247&amp;" ("&amp;Regels!A247&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E247&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F247&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C247&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A247&amp;" *("&amp;Regels!I247&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F247&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G247&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H247&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7459,7 +7491,7 @@
         <f>Regels!D248</f>
         <v>0</v>
       </c>
-      <c r="B248" s="6" t="str">
+      <c r="B248" t="str">
         <f>"### "&amp;Regels!B248&amp;" ("&amp;Regels!A248&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E248&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F248&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C248&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A248&amp;" *("&amp;Regels!I248&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F248&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G248&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H248&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7479,7 +7511,7 @@
         <f>Regels!D249</f>
         <v>0</v>
       </c>
-      <c r="B249" s="6" t="str">
+      <c r="B249" t="str">
         <f>"### "&amp;Regels!B249&amp;" ("&amp;Regels!A249&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E249&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F249&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C249&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A249&amp;" *("&amp;Regels!I249&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F249&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G249&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H249&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7499,7 +7531,7 @@
         <f>Regels!D250</f>
         <v>0</v>
       </c>
-      <c r="B250" s="6" t="str">
+      <c r="B250" t="str">
         <f>"### "&amp;Regels!B250&amp;" ("&amp;Regels!A250&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E250&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F250&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C250&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A250&amp;" *("&amp;Regels!I250&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F250&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G250&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H250&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7519,7 +7551,7 @@
         <f>Regels!D251</f>
         <v>0</v>
       </c>
-      <c r="B251" s="6" t="str">
+      <c r="B251" t="str">
         <f>"### "&amp;Regels!B251&amp;" ("&amp;Regels!A251&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E251&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F251&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C251&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A251&amp;" *("&amp;Regels!I251&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F251&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G251&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H251&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7539,7 +7571,7 @@
         <f>Regels!D252</f>
         <v>0</v>
       </c>
-      <c r="B252" s="6" t="str">
+      <c r="B252" t="str">
         <f>"### "&amp;Regels!B252&amp;" ("&amp;Regels!A252&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E252&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F252&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C252&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A252&amp;" *("&amp;Regels!I252&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F252&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G252&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H252&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7559,7 +7591,7 @@
         <f>Regels!D253</f>
         <v>0</v>
       </c>
-      <c r="B253" s="6" t="str">
+      <c r="B253" t="str">
         <f>"### "&amp;Regels!B253&amp;" ("&amp;Regels!A253&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E253&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F253&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C253&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A253&amp;" *("&amp;Regels!I253&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F253&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G253&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H253&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7579,7 +7611,7 @@
         <f>Regels!D254</f>
         <v>0</v>
       </c>
-      <c r="B254" s="6" t="str">
+      <c r="B254" t="str">
         <f>"### "&amp;Regels!B254&amp;" ("&amp;Regels!A254&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E254&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F254&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C254&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A254&amp;" *("&amp;Regels!I254&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F254&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G254&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H254&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7599,7 +7631,7 @@
         <f>Regels!D255</f>
         <v>0</v>
       </c>
-      <c r="B255" s="6" t="str">
+      <c r="B255" t="str">
         <f>"### "&amp;Regels!B255&amp;" ("&amp;Regels!A255&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E255&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F255&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C255&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A255&amp;" *("&amp;Regels!I255&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F255&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G255&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H255&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7619,7 +7651,7 @@
         <f>Regels!D256</f>
         <v>0</v>
       </c>
-      <c r="B256" s="6" t="str">
+      <c r="B256" t="str">
         <f>"### "&amp;Regels!B256&amp;" ("&amp;Regels!A256&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E256&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F256&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C256&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A256&amp;" *("&amp;Regels!I256&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F256&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G256&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H256&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7639,7 +7671,7 @@
         <f>Regels!D257</f>
         <v>0</v>
       </c>
-      <c r="B257" s="6" t="str">
+      <c r="B257" t="str">
         <f>"### "&amp;Regels!B257&amp;" ("&amp;Regels!A257&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E257&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F257&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C257&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A257&amp;" *("&amp;Regels!I257&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F257&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G257&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H257&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7659,7 +7691,7 @@
         <f>Regels!D258</f>
         <v>0</v>
       </c>
-      <c r="B258" s="6" t="str">
+      <c r="B258" t="str">
         <f>"### "&amp;Regels!B258&amp;" ("&amp;Regels!A258&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E258&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F258&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C258&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A258&amp;" *("&amp;Regels!I258&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F258&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G258&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H258&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7679,7 +7711,7 @@
         <f>Regels!D259</f>
         <v>0</v>
       </c>
-      <c r="B259" s="6" t="str">
+      <c r="B259" t="str">
         <f>"### "&amp;Regels!B259&amp;" ("&amp;Regels!A259&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E259&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F259&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C259&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A259&amp;" *("&amp;Regels!I259&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F259&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G259&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H259&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7699,7 +7731,7 @@
         <f>Regels!D260</f>
         <v>0</v>
       </c>
-      <c r="B260" s="6" t="str">
+      <c r="B260" t="str">
         <f>"### "&amp;Regels!B260&amp;" ("&amp;Regels!A260&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E260&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F260&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C260&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A260&amp;" *("&amp;Regels!I260&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F260&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G260&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H260&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7719,7 +7751,7 @@
         <f>Regels!D261</f>
         <v>0</v>
       </c>
-      <c r="B261" s="6" t="str">
+      <c r="B261" t="str">
         <f>"### "&amp;Regels!B261&amp;" ("&amp;Regels!A261&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E261&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F261&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C261&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A261&amp;" *("&amp;Regels!I261&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F261&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G261&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H261&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7739,7 +7771,7 @@
         <f>Regels!D262</f>
         <v>0</v>
       </c>
-      <c r="B262" s="6" t="str">
+      <c r="B262" t="str">
         <f>"### "&amp;Regels!B262&amp;" ("&amp;Regels!A262&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E262&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F262&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C262&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A262&amp;" *("&amp;Regels!I262&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F262&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G262&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H262&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7759,7 +7791,7 @@
         <f>Regels!D263</f>
         <v>0</v>
       </c>
-      <c r="B263" s="6" t="str">
+      <c r="B263" t="str">
         <f>"### "&amp;Regels!B263&amp;" ("&amp;Regels!A263&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E263&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F263&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C263&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A263&amp;" *("&amp;Regels!I263&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F263&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G263&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H263&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7779,7 +7811,7 @@
         <f>Regels!D264</f>
         <v>0</v>
       </c>
-      <c r="B264" s="6" t="str">
+      <c r="B264" t="str">
         <f>"### "&amp;Regels!B264&amp;" ("&amp;Regels!A264&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E264&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F264&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C264&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A264&amp;" *("&amp;Regels!I264&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F264&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G264&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H264&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7799,7 +7831,7 @@
         <f>Regels!D265</f>
         <v>0</v>
       </c>
-      <c r="B265" s="6" t="str">
+      <c r="B265" t="str">
         <f>"### "&amp;Regels!B265&amp;" ("&amp;Regels!A265&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E265&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F265&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C265&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A265&amp;" *("&amp;Regels!I265&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F265&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G265&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H265&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7819,7 +7851,7 @@
         <f>Regels!D266</f>
         <v>0</v>
       </c>
-      <c r="B266" s="6" t="str">
+      <c r="B266" t="str">
         <f>"### "&amp;Regels!B266&amp;" ("&amp;Regels!A266&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E266&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F266&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C266&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A266&amp;" *("&amp;Regels!I266&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F266&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G266&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H266&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7839,7 +7871,7 @@
         <f>Regels!D267</f>
         <v>0</v>
       </c>
-      <c r="B267" s="6" t="str">
+      <c r="B267" t="str">
         <f>"### "&amp;Regels!B267&amp;" ("&amp;Regels!A267&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E267&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F267&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C267&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A267&amp;" *("&amp;Regels!I267&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F267&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G267&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H267&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7859,7 +7891,7 @@
         <f>Regels!D268</f>
         <v>0</v>
       </c>
-      <c r="B268" s="6" t="str">
+      <c r="B268" t="str">
         <f>"### "&amp;Regels!B268&amp;" ("&amp;Regels!A268&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E268&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F268&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C268&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A268&amp;" *("&amp;Regels!I268&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F268&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G268&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H268&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7879,7 +7911,7 @@
         <f>Regels!D269</f>
         <v>0</v>
       </c>
-      <c r="B269" s="6" t="str">
+      <c r="B269" t="str">
         <f>"### "&amp;Regels!B269&amp;" ("&amp;Regels!A269&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E269&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F269&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C269&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A269&amp;" *("&amp;Regels!I269&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F269&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G269&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H269&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7899,7 +7931,7 @@
         <f>Regels!D270</f>
         <v>0</v>
       </c>
-      <c r="B270" s="6" t="str">
+      <c r="B270" t="str">
         <f>"### "&amp;Regels!B270&amp;" ("&amp;Regels!A270&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E270&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F270&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C270&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A270&amp;" *("&amp;Regels!I270&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F270&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G270&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H270&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7919,7 +7951,7 @@
         <f>Regels!D271</f>
         <v>0</v>
       </c>
-      <c r="B271" s="6" t="str">
+      <c r="B271" t="str">
         <f>"### "&amp;Regels!B271&amp;" ("&amp;Regels!A271&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E271&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F271&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C271&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A271&amp;" *("&amp;Regels!I271&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F271&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G271&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H271&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7939,7 +7971,7 @@
         <f>Regels!D272</f>
         <v>0</v>
       </c>
-      <c r="B272" s="6" t="str">
+      <c r="B272" t="str">
         <f>"### "&amp;Regels!B272&amp;" ("&amp;Regels!A272&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E272&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F272&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C272&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A272&amp;" *("&amp;Regels!I272&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F272&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G272&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H272&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7959,7 +7991,7 @@
         <f>Regels!D273</f>
         <v>0</v>
       </c>
-      <c r="B273" s="6" t="str">
+      <c r="B273" t="str">
         <f>"### "&amp;Regels!B273&amp;" ("&amp;Regels!A273&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E273&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F273&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C273&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A273&amp;" *("&amp;Regels!I273&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F273&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G273&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H273&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7979,7 +8011,7 @@
         <f>Regels!D274</f>
         <v>0</v>
       </c>
-      <c r="B274" s="6" t="str">
+      <c r="B274" t="str">
         <f>"### "&amp;Regels!B274&amp;" ("&amp;Regels!A274&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E274&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F274&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C274&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A274&amp;" *("&amp;Regels!I274&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F274&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G274&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H274&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -7999,7 +8031,7 @@
         <f>Regels!D275</f>
         <v>0</v>
       </c>
-      <c r="B275" s="6" t="str">
+      <c r="B275" t="str">
         <f>"### "&amp;Regels!B275&amp;" ("&amp;Regels!A275&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E275&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F275&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C275&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A275&amp;" *("&amp;Regels!I275&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F275&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G275&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H275&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8019,7 +8051,7 @@
         <f>Regels!D276</f>
         <v>0</v>
       </c>
-      <c r="B276" s="6" t="str">
+      <c r="B276" t="str">
         <f>"### "&amp;Regels!B276&amp;" ("&amp;Regels!A276&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E276&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F276&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C276&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A276&amp;" *("&amp;Regels!I276&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F276&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G276&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H276&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8039,7 +8071,7 @@
         <f>Regels!D277</f>
         <v>0</v>
       </c>
-      <c r="B277" s="6" t="str">
+      <c r="B277" t="str">
         <f>"### "&amp;Regels!B277&amp;" ("&amp;Regels!A277&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E277&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F277&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C277&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A277&amp;" *("&amp;Regels!I277&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F277&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G277&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H277&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8059,7 +8091,7 @@
         <f>Regels!D278</f>
         <v>0</v>
       </c>
-      <c r="B278" s="6" t="str">
+      <c r="B278" t="str">
         <f>"### "&amp;Regels!B278&amp;" ("&amp;Regels!A278&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E278&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F278&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C278&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A278&amp;" *("&amp;Regels!I278&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F278&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G278&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H278&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8079,7 +8111,7 @@
         <f>Regels!D279</f>
         <v>0</v>
       </c>
-      <c r="B279" s="6" t="str">
+      <c r="B279" t="str">
         <f>"### "&amp;Regels!B279&amp;" ("&amp;Regels!A279&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E279&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F279&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C279&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A279&amp;" *("&amp;Regels!I279&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F279&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G279&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H279&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8099,7 +8131,7 @@
         <f>Regels!D280</f>
         <v>0</v>
       </c>
-      <c r="B280" s="6" t="str">
+      <c r="B280" t="str">
         <f>"### "&amp;Regels!B280&amp;" ("&amp;Regels!A280&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E280&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F280&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C280&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A280&amp;" *("&amp;Regels!I280&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F280&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G280&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H280&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8119,7 +8151,7 @@
         <f>Regels!D281</f>
         <v>0</v>
       </c>
-      <c r="B281" s="6" t="str">
+      <c r="B281" t="str">
         <f>"### "&amp;Regels!B281&amp;" ("&amp;Regels!A281&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E281&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F281&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C281&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A281&amp;" *("&amp;Regels!I281&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F281&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G281&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H281&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8139,7 +8171,7 @@
         <f>Regels!D282</f>
         <v>0</v>
       </c>
-      <c r="B282" s="6" t="str">
+      <c r="B282" t="str">
         <f>"### "&amp;Regels!B282&amp;" ("&amp;Regels!A282&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E282&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F282&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C282&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A282&amp;" *("&amp;Regels!I282&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F282&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G282&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H282&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8159,7 +8191,7 @@
         <f>Regels!D283</f>
         <v>0</v>
       </c>
-      <c r="B283" s="6" t="str">
+      <c r="B283" t="str">
         <f>"### "&amp;Regels!B283&amp;" ("&amp;Regels!A283&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E283&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F283&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C283&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A283&amp;" *("&amp;Regels!I283&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F283&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G283&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H283&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8179,7 +8211,7 @@
         <f>Regels!D284</f>
         <v>0</v>
       </c>
-      <c r="B284" s="6" t="str">
+      <c r="B284" t="str">
         <f>"### "&amp;Regels!B284&amp;" ("&amp;Regels!A284&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E284&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F284&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C284&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A284&amp;" *("&amp;Regels!I284&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F284&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G284&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H284&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8199,7 +8231,7 @@
         <f>Regels!D285</f>
         <v>0</v>
       </c>
-      <c r="B285" s="6" t="str">
+      <c r="B285" t="str">
         <f>"### "&amp;Regels!B285&amp;" ("&amp;Regels!A285&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E285&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F285&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C285&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A285&amp;" *("&amp;Regels!I285&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F285&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G285&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H285&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8219,7 +8251,7 @@
         <f>Regels!D286</f>
         <v>0</v>
       </c>
-      <c r="B286" s="6" t="str">
+      <c r="B286" t="str">
         <f>"### "&amp;Regels!B286&amp;" ("&amp;Regels!A286&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E286&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F286&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C286&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A286&amp;" *("&amp;Regels!I286&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F286&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G286&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H286&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8239,7 +8271,7 @@
         <f>Regels!D287</f>
         <v>0</v>
       </c>
-      <c r="B287" s="6" t="str">
+      <c r="B287" t="str">
         <f>"### "&amp;Regels!B287&amp;" ("&amp;Regels!A287&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E287&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F287&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C287&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A287&amp;" *("&amp;Regels!I287&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F287&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G287&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H287&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8259,7 +8291,7 @@
         <f>Regels!D288</f>
         <v>0</v>
       </c>
-      <c r="B288" s="6" t="str">
+      <c r="B288" t="str">
         <f>"### "&amp;Regels!B288&amp;" ("&amp;Regels!A288&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E288&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F288&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C288&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A288&amp;" *("&amp;Regels!I288&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F288&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G288&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H288&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8279,7 +8311,7 @@
         <f>Regels!D289</f>
         <v>0</v>
       </c>
-      <c r="B289" s="6" t="str">
+      <c r="B289" t="str">
         <f>"### "&amp;Regels!B289&amp;" ("&amp;Regels!A289&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E289&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F289&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C289&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A289&amp;" *("&amp;Regels!I289&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F289&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G289&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H289&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8299,7 +8331,7 @@
         <f>Regels!D290</f>
         <v>0</v>
       </c>
-      <c r="B290" s="6" t="str">
+      <c r="B290" t="str">
         <f>"### "&amp;Regels!B290&amp;" ("&amp;Regels!A290&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E290&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F290&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C290&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A290&amp;" *("&amp;Regels!I290&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F290&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G290&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H290&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8319,7 +8351,7 @@
         <f>Regels!D291</f>
         <v>0</v>
       </c>
-      <c r="B291" s="6" t="str">
+      <c r="B291" t="str">
         <f>"### "&amp;Regels!B291&amp;" ("&amp;Regels!A291&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E291&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F291&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C291&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A291&amp;" *("&amp;Regels!I291&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F291&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G291&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H291&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8339,7 +8371,7 @@
         <f>Regels!D292</f>
         <v>0</v>
       </c>
-      <c r="B292" s="6" t="str">
+      <c r="B292" t="str">
         <f>"### "&amp;Regels!B292&amp;" ("&amp;Regels!A292&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E292&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F292&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C292&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A292&amp;" *("&amp;Regels!I292&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F292&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G292&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H292&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8359,7 +8391,7 @@
         <f>Regels!D293</f>
         <v>0</v>
       </c>
-      <c r="B293" s="6" t="str">
+      <c r="B293" t="str">
         <f>"### "&amp;Regels!B293&amp;" ("&amp;Regels!A293&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E293&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F293&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C293&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A293&amp;" *("&amp;Regels!I293&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F293&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G293&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H293&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8379,7 +8411,7 @@
         <f>Regels!D294</f>
         <v>0</v>
       </c>
-      <c r="B294" s="6" t="str">
+      <c r="B294" t="str">
         <f>"### "&amp;Regels!B294&amp;" ("&amp;Regels!A294&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E294&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F294&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C294&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A294&amp;" *("&amp;Regels!I294&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F294&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G294&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H294&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8399,7 +8431,7 @@
         <f>Regels!D295</f>
         <v>0</v>
       </c>
-      <c r="B295" s="6" t="str">
+      <c r="B295" t="str">
         <f>"### "&amp;Regels!B295&amp;" ("&amp;Regels!A295&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E295&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F295&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C295&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A295&amp;" *("&amp;Regels!I295&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F295&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G295&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H295&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8419,7 +8451,7 @@
         <f>Regels!D296</f>
         <v>0</v>
       </c>
-      <c r="B296" s="6" t="str">
+      <c r="B296" t="str">
         <f>"### "&amp;Regels!B296&amp;" ("&amp;Regels!A296&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E296&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F296&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C296&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A296&amp;" *("&amp;Regels!I296&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F296&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G296&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H296&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8439,7 +8471,7 @@
         <f>Regels!D297</f>
         <v>0</v>
       </c>
-      <c r="B297" s="6" t="str">
+      <c r="B297" t="str">
         <f>"### "&amp;Regels!B297&amp;" ("&amp;Regels!A297&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E297&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F297&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C297&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A297&amp;" *("&amp;Regels!I297&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F297&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G297&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H297&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8459,7 +8491,7 @@
         <f>Regels!D298</f>
         <v>0</v>
       </c>
-      <c r="B298" s="6" t="str">
+      <c r="B298" t="str">
         <f>"### "&amp;Regels!B298&amp;" ("&amp;Regels!A298&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E298&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F298&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C298&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A298&amp;" *("&amp;Regels!I298&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F298&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G298&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H298&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8479,7 +8511,7 @@
         <f>Regels!D299</f>
         <v>0</v>
       </c>
-      <c r="B299" s="6" t="str">
+      <c r="B299" t="str">
         <f>"### "&amp;Regels!B299&amp;" ("&amp;Regels!A299&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E299&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F299&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C299&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A299&amp;" *("&amp;Regels!I299&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F299&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G299&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H299&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8499,7 +8531,7 @@
         <f>Regels!D300</f>
         <v>0</v>
       </c>
-      <c r="B300" s="6" t="str">
+      <c r="B300" t="str">
         <f>"### "&amp;Regels!B300&amp;" ("&amp;Regels!A300&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E300&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F300&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C300&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A300&amp;" *("&amp;Regels!I300&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F300&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G300&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H300&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8519,7 +8551,7 @@
         <f>Regels!D301</f>
         <v>0</v>
       </c>
-      <c r="B301" s="6" t="str">
+      <c r="B301" t="str">
         <f>"### "&amp;Regels!B301&amp;" ("&amp;Regels!A301&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E301&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F301&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C301&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A301&amp;" *("&amp;Regels!I301&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F301&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G301&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H301&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8539,7 +8571,7 @@
         <f>Regels!D302</f>
         <v>0</v>
       </c>
-      <c r="B302" s="6" t="str">
+      <c r="B302" t="str">
         <f>"### "&amp;Regels!B302&amp;" ("&amp;Regels!A302&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E302&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F302&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C302&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A302&amp;" *("&amp;Regels!I302&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F302&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G302&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H302&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8559,7 +8591,7 @@
         <f>Regels!D303</f>
         <v>0</v>
       </c>
-      <c r="B303" s="6" t="str">
+      <c r="B303" t="str">
         <f>"### "&amp;Regels!B303&amp;" ("&amp;Regels!A303&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E303&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F303&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C303&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A303&amp;" *("&amp;Regels!I303&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F303&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G303&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H303&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8579,7 +8611,7 @@
         <f>Regels!D304</f>
         <v>0</v>
       </c>
-      <c r="B304" s="6" t="str">
+      <c r="B304" t="str">
         <f>"### "&amp;Regels!B304&amp;" ("&amp;Regels!A304&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E304&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F304&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C304&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A304&amp;" *("&amp;Regels!I304&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F304&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G304&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H304&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8599,7 +8631,7 @@
         <f>Regels!D305</f>
         <v>0</v>
       </c>
-      <c r="B305" s="6" t="str">
+      <c r="B305" t="str">
         <f>"### "&amp;Regels!B305&amp;" ("&amp;Regels!A305&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E305&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F305&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C305&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A305&amp;" *("&amp;Regels!I305&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F305&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G305&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H305&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8619,7 +8651,7 @@
         <f>Regels!D306</f>
         <v>0</v>
       </c>
-      <c r="B306" s="6" t="str">
+      <c r="B306" t="str">
         <f>"### "&amp;Regels!B306&amp;" ("&amp;Regels!A306&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E306&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F306&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C306&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A306&amp;" *("&amp;Regels!I306&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F306&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G306&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H306&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8639,7 +8671,7 @@
         <f>Regels!D307</f>
         <v>0</v>
       </c>
-      <c r="B307" s="6" t="str">
+      <c r="B307" t="str">
         <f>"### "&amp;Regels!B307&amp;" ("&amp;Regels!A307&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E307&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F307&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C307&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A307&amp;" *("&amp;Regels!I307&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F307&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G307&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H307&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8659,7 +8691,7 @@
         <f>Regels!D308</f>
         <v>0</v>
       </c>
-      <c r="B308" s="6" t="str">
+      <c r="B308" t="str">
         <f>"### "&amp;Regels!B308&amp;" ("&amp;Regels!A308&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E308&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F308&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C308&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A308&amp;" *("&amp;Regels!I308&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F308&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G308&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H308&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8679,7 +8711,7 @@
         <f>Regels!D309</f>
         <v>0</v>
       </c>
-      <c r="B309" s="6" t="str">
+      <c r="B309" t="str">
         <f>"### "&amp;Regels!B309&amp;" ("&amp;Regels!A309&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E309&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F309&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C309&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A309&amp;" *("&amp;Regels!I309&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F309&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G309&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H309&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8699,7 +8731,7 @@
         <f>Regels!D310</f>
         <v>0</v>
       </c>
-      <c r="B310" s="6" t="str">
+      <c r="B310" t="str">
         <f>"### "&amp;Regels!B310&amp;" ("&amp;Regels!A310&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E310&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F310&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C310&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A310&amp;" *("&amp;Regels!I310&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F310&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G310&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H310&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8719,7 +8751,7 @@
         <f>Regels!D311</f>
         <v>0</v>
       </c>
-      <c r="B311" s="6" t="str">
+      <c r="B311" t="str">
         <f>"### "&amp;Regels!B311&amp;" ("&amp;Regels!A311&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E311&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F311&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C311&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A311&amp;" *("&amp;Regels!I311&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F311&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G311&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H311&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8739,7 +8771,7 @@
         <f>Regels!D312</f>
         <v>0</v>
       </c>
-      <c r="B312" s="6" t="str">
+      <c r="B312" t="str">
         <f>"### "&amp;Regels!B312&amp;" ("&amp;Regels!A312&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E312&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F312&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C312&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A312&amp;" *("&amp;Regels!I312&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F312&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G312&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H312&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8759,7 +8791,7 @@
         <f>Regels!D313</f>
         <v>0</v>
       </c>
-      <c r="B313" s="6" t="str">
+      <c r="B313" t="str">
         <f>"### "&amp;Regels!B313&amp;" ("&amp;Regels!A313&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E313&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F313&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C313&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A313&amp;" *("&amp;Regels!I313&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F313&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G313&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H313&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8779,7 +8811,7 @@
         <f>Regels!D314</f>
         <v>0</v>
       </c>
-      <c r="B314" s="6" t="str">
+      <c r="B314" t="str">
         <f>"### "&amp;Regels!B314&amp;" ("&amp;Regels!A314&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E314&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F314&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C314&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A314&amp;" *("&amp;Regels!I314&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F314&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G314&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H314&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8799,7 +8831,7 @@
         <f>Regels!D315</f>
         <v>0</v>
       </c>
-      <c r="B315" s="6" t="str">
+      <c r="B315" t="str">
         <f>"### "&amp;Regels!B315&amp;" ("&amp;Regels!A315&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E315&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F315&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C315&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A315&amp;" *("&amp;Regels!I315&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F315&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G315&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H315&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8819,7 +8851,7 @@
         <f>Regels!D316</f>
         <v>0</v>
       </c>
-      <c r="B316" s="6" t="str">
+      <c r="B316" t="str">
         <f>"### "&amp;Regels!B316&amp;" ("&amp;Regels!A316&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E316&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F316&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C316&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A316&amp;" *("&amp;Regels!I316&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F316&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G316&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H316&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8839,7 +8871,7 @@
         <f>Regels!D317</f>
         <v>0</v>
       </c>
-      <c r="B317" s="6" t="str">
+      <c r="B317" t="str">
         <f>"### "&amp;Regels!B317&amp;" ("&amp;Regels!A317&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E317&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F317&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C317&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A317&amp;" *("&amp;Regels!I317&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F317&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G317&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H317&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8859,7 +8891,7 @@
         <f>Regels!D318</f>
         <v>0</v>
       </c>
-      <c r="B318" s="6" t="str">
+      <c r="B318" t="str">
         <f>"### "&amp;Regels!B318&amp;" ("&amp;Regels!A318&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E318&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F318&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C318&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A318&amp;" *("&amp;Regels!I318&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F318&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G318&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H318&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8879,7 +8911,7 @@
         <f>Regels!D319</f>
         <v>0</v>
       </c>
-      <c r="B319" s="6" t="str">
+      <c r="B319" t="str">
         <f>"### "&amp;Regels!B319&amp;" ("&amp;Regels!A319&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E319&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F319&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C319&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A319&amp;" *("&amp;Regels!I319&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F319&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G319&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H319&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8899,7 +8931,7 @@
         <f>Regels!D320</f>
         <v>0</v>
       </c>
-      <c r="B320" s="6" t="str">
+      <c r="B320" t="str">
         <f>"### "&amp;Regels!B320&amp;" ("&amp;Regels!A320&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E320&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F320&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C320&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A320&amp;" *("&amp;Regels!I320&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F320&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G320&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H320&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8919,7 +8951,7 @@
         <f>Regels!D321</f>
         <v>0</v>
       </c>
-      <c r="B321" s="6" t="str">
+      <c r="B321" t="str">
         <f>"### "&amp;Regels!B321&amp;" ("&amp;Regels!A321&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E321&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F321&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C321&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A321&amp;" *("&amp;Regels!I321&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F321&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G321&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H321&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8939,7 +8971,7 @@
         <f>Regels!D322</f>
         <v>0</v>
       </c>
-      <c r="B322" s="6" t="str">
+      <c r="B322" t="str">
         <f>"### "&amp;Regels!B322&amp;" ("&amp;Regels!A322&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E322&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F322&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C322&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A322&amp;" *("&amp;Regels!I322&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F322&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G322&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H322&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8959,7 +8991,7 @@
         <f>Regels!D323</f>
         <v>0</v>
       </c>
-      <c r="B323" s="6" t="str">
+      <c r="B323" t="str">
         <f>"### "&amp;Regels!B323&amp;" ("&amp;Regels!A323&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E323&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F323&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C323&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A323&amp;" *("&amp;Regels!I323&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F323&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G323&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H323&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8979,7 +9011,7 @@
         <f>Regels!D324</f>
         <v>0</v>
       </c>
-      <c r="B324" s="6" t="str">
+      <c r="B324" t="str">
         <f>"### "&amp;Regels!B324&amp;" ("&amp;Regels!A324&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E324&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F324&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C324&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A324&amp;" *("&amp;Regels!I324&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F324&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G324&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H324&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -8999,7 +9031,7 @@
         <f>Regels!D325</f>
         <v>0</v>
       </c>
-      <c r="B325" s="6" t="str">
+      <c r="B325" t="str">
         <f>"### "&amp;Regels!B325&amp;" ("&amp;Regels!A325&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E325&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F325&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C325&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A325&amp;" *("&amp;Regels!I325&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F325&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G325&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H325&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9019,7 +9051,7 @@
         <f>Regels!D326</f>
         <v>0</v>
       </c>
-      <c r="B326" s="6" t="str">
+      <c r="B326" t="str">
         <f>"### "&amp;Regels!B326&amp;" ("&amp;Regels!A326&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E326&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F326&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C326&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A326&amp;" *("&amp;Regels!I326&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F326&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G326&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H326&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9039,7 +9071,7 @@
         <f>Regels!D327</f>
         <v>0</v>
       </c>
-      <c r="B327" s="6" t="str">
+      <c r="B327" t="str">
         <f>"### "&amp;Regels!B327&amp;" ("&amp;Regels!A327&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E327&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F327&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C327&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A327&amp;" *("&amp;Regels!I327&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F327&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G327&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H327&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9059,7 +9091,7 @@
         <f>Regels!D328</f>
         <v>0</v>
       </c>
-      <c r="B328" s="6" t="str">
+      <c r="B328" t="str">
         <f>"### "&amp;Regels!B328&amp;" ("&amp;Regels!A328&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E328&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F328&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C328&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A328&amp;" *("&amp;Regels!I328&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F328&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G328&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H328&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9079,7 +9111,7 @@
         <f>Regels!D329</f>
         <v>0</v>
       </c>
-      <c r="B329" s="6" t="str">
+      <c r="B329" t="str">
         <f>"### "&amp;Regels!B329&amp;" ("&amp;Regels!A329&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E329&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F329&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C329&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A329&amp;" *("&amp;Regels!I329&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F329&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G329&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H329&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9099,7 +9131,7 @@
         <f>Regels!D330</f>
         <v>0</v>
       </c>
-      <c r="B330" s="6" t="str">
+      <c r="B330" t="str">
         <f>"### "&amp;Regels!B330&amp;" ("&amp;Regels!A330&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E330&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F330&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C330&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A330&amp;" *("&amp;Regels!I330&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F330&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G330&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H330&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9119,7 +9151,7 @@
         <f>Regels!D331</f>
         <v>0</v>
       </c>
-      <c r="B331" s="6" t="str">
+      <c r="B331" t="str">
         <f>"### "&amp;Regels!B331&amp;" ("&amp;Regels!A331&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E331&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F331&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C331&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A331&amp;" *("&amp;Regels!I331&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F331&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G331&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H331&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9139,7 +9171,7 @@
         <f>Regels!D332</f>
         <v>0</v>
       </c>
-      <c r="B332" s="6" t="str">
+      <c r="B332" t="str">
         <f>"### "&amp;Regels!B332&amp;" ("&amp;Regels!A332&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E332&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F332&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C332&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A332&amp;" *("&amp;Regels!I332&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F332&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G332&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H332&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9159,7 +9191,7 @@
         <f>Regels!D333</f>
         <v>0</v>
       </c>
-      <c r="B333" s="6" t="str">
+      <c r="B333" t="str">
         <f>"### "&amp;Regels!B333&amp;" ("&amp;Regels!A333&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E333&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F333&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C333&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A333&amp;" *("&amp;Regels!I333&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F333&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G333&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H333&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9179,7 +9211,7 @@
         <f>Regels!D334</f>
         <v>0</v>
       </c>
-      <c r="B334" s="6" t="str">
+      <c r="B334" t="str">
         <f>"### "&amp;Regels!B334&amp;" ("&amp;Regels!A334&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E334&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F334&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C334&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A334&amp;" *("&amp;Regels!I334&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F334&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G334&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H334&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9199,7 +9231,7 @@
         <f>Regels!D335</f>
         <v>0</v>
       </c>
-      <c r="B335" s="6" t="str">
+      <c r="B335" t="str">
         <f>"### "&amp;Regels!B335&amp;" ("&amp;Regels!A335&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E335&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F335&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C335&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A335&amp;" *("&amp;Regels!I335&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F335&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G335&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H335&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9219,7 +9251,7 @@
         <f>Regels!D336</f>
         <v>0</v>
       </c>
-      <c r="B336" s="6" t="str">
+      <c r="B336" t="str">
         <f>"### "&amp;Regels!B336&amp;" ("&amp;Regels!A336&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E336&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F336&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C336&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A336&amp;" *("&amp;Regels!I336&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F336&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G336&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H336&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9239,7 +9271,7 @@
         <f>Regels!D337</f>
         <v>0</v>
       </c>
-      <c r="B337" s="6" t="str">
+      <c r="B337" t="str">
         <f>"### "&amp;Regels!B337&amp;" ("&amp;Regels!A337&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E337&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F337&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C337&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A337&amp;" *("&amp;Regels!I337&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F337&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G337&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H337&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9259,7 +9291,7 @@
         <f>Regels!D338</f>
         <v>0</v>
       </c>
-      <c r="B338" s="6" t="str">
+      <c r="B338" t="str">
         <f>"### "&amp;Regels!B338&amp;" ("&amp;Regels!A338&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E338&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F338&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C338&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A338&amp;" *("&amp;Regels!I338&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F338&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G338&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H338&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9279,7 +9311,7 @@
         <f>Regels!D339</f>
         <v>0</v>
       </c>
-      <c r="B339" s="6" t="str">
+      <c r="B339" t="str">
         <f>"### "&amp;Regels!B339&amp;" ("&amp;Regels!A339&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E339&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F339&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C339&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A339&amp;" *("&amp;Regels!I339&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F339&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G339&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H339&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9299,7 +9331,7 @@
         <f>Regels!D340</f>
         <v>0</v>
       </c>
-      <c r="B340" s="6" t="str">
+      <c r="B340" t="str">
         <f>"### "&amp;Regels!B340&amp;" ("&amp;Regels!A340&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E340&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F340&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C340&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A340&amp;" *("&amp;Regels!I340&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F340&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G340&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H340&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9319,7 +9351,7 @@
         <f>Regels!D341</f>
         <v>0</v>
       </c>
-      <c r="B341" s="6" t="str">
+      <c r="B341" t="str">
         <f>"### "&amp;Regels!B341&amp;" ("&amp;Regels!A341&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E341&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F341&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C341&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A341&amp;" *("&amp;Regels!I341&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F341&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G341&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H341&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9339,7 +9371,7 @@
         <f>Regels!D342</f>
         <v>0</v>
       </c>
-      <c r="B342" s="6" t="str">
+      <c r="B342" t="str">
         <f>"### "&amp;Regels!B342&amp;" ("&amp;Regels!A342&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E342&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F342&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C342&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A342&amp;" *("&amp;Regels!I342&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F342&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G342&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H342&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9359,7 +9391,7 @@
         <f>Regels!D343</f>
         <v>0</v>
       </c>
-      <c r="B343" s="6" t="str">
+      <c r="B343" t="str">
         <f>"### "&amp;Regels!B343&amp;" ("&amp;Regels!A343&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E343&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F343&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C343&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A343&amp;" *("&amp;Regels!I343&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F343&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G343&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H343&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9379,7 +9411,7 @@
         <f>Regels!D344</f>
         <v>0</v>
       </c>
-      <c r="B344" s="6" t="str">
+      <c r="B344" t="str">
         <f>"### "&amp;Regels!B344&amp;" ("&amp;Regels!A344&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E344&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F344&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C344&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A344&amp;" *("&amp;Regels!I344&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F344&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G344&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H344&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9399,7 +9431,7 @@
         <f>Regels!D345</f>
         <v>0</v>
       </c>
-      <c r="B345" s="6" t="str">
+      <c r="B345" t="str">
         <f>"### "&amp;Regels!B345&amp;" ("&amp;Regels!A345&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E345&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F345&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C345&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A345&amp;" *("&amp;Regels!I345&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F345&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G345&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H345&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9419,7 +9451,7 @@
         <f>Regels!D346</f>
         <v>0</v>
       </c>
-      <c r="B346" s="6" t="str">
+      <c r="B346" t="str">
         <f>"### "&amp;Regels!B346&amp;" ("&amp;Regels!A346&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E346&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F346&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C346&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A346&amp;" *("&amp;Regels!I346&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F346&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G346&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H346&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9439,7 +9471,7 @@
         <f>Regels!D347</f>
         <v>0</v>
       </c>
-      <c r="B347" s="6" t="str">
+      <c r="B347" t="str">
         <f>"### "&amp;Regels!B347&amp;" ("&amp;Regels!A347&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E347&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F347&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C347&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A347&amp;" *("&amp;Regels!I347&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F347&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G347&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H347&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9459,7 +9491,7 @@
         <f>Regels!D348</f>
         <v>0</v>
       </c>
-      <c r="B348" s="6" t="str">
+      <c r="B348" t="str">
         <f>"### "&amp;Regels!B348&amp;" ("&amp;Regels!A348&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E348&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F348&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C348&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A348&amp;" *("&amp;Regels!I348&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F348&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G348&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H348&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9479,7 +9511,7 @@
         <f>Regels!D349</f>
         <v>0</v>
       </c>
-      <c r="B349" s="6" t="str">
+      <c r="B349" t="str">
         <f>"### "&amp;Regels!B349&amp;" ("&amp;Regels!A349&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E349&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F349&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C349&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A349&amp;" *("&amp;Regels!I349&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F349&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G349&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H349&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9499,7 +9531,7 @@
         <f>Regels!D350</f>
         <v>0</v>
       </c>
-      <c r="B350" s="6" t="str">
+      <c r="B350" t="str">
         <f>"### "&amp;Regels!B350&amp;" ("&amp;Regels!A350&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E350&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F350&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C350&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A350&amp;" *("&amp;Regels!I350&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F350&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G350&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H350&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9519,7 +9551,7 @@
         <f>Regels!D351</f>
         <v>0</v>
       </c>
-      <c r="B351" s="6" t="str">
+      <c r="B351" t="str">
         <f>"### "&amp;Regels!B351&amp;" ("&amp;Regels!A351&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E351&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F351&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C351&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A351&amp;" *("&amp;Regels!I351&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F351&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G351&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H351&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9539,7 +9571,7 @@
         <f>Regels!D352</f>
         <v>0</v>
       </c>
-      <c r="B352" s="6" t="str">
+      <c r="B352" t="str">
         <f>"### "&amp;Regels!B352&amp;" ("&amp;Regels!A352&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E352&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F352&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C352&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A352&amp;" *("&amp;Regels!I352&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F352&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G352&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H352&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9559,7 +9591,7 @@
         <f>Regels!D353</f>
         <v>0</v>
       </c>
-      <c r="B353" s="6" t="str">
+      <c r="B353" t="str">
         <f>"### "&amp;Regels!B353&amp;" ("&amp;Regels!A353&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E353&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F353&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C353&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A353&amp;" *("&amp;Regels!I353&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F353&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G353&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H353&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9579,7 +9611,7 @@
         <f>Regels!D354</f>
         <v>0</v>
       </c>
-      <c r="B354" s="6" t="str">
+      <c r="B354" t="str">
         <f>"### "&amp;Regels!B354&amp;" ("&amp;Regels!A354&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E354&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F354&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C354&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A354&amp;" *("&amp;Regels!I354&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F354&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G354&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H354&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9599,7 +9631,7 @@
         <f>Regels!D355</f>
         <v>0</v>
       </c>
-      <c r="B355" s="6" t="str">
+      <c r="B355" t="str">
         <f>"### "&amp;Regels!B355&amp;" ("&amp;Regels!A355&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E355&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F355&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C355&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A355&amp;" *("&amp;Regels!I355&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F355&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G355&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H355&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9619,7 +9651,7 @@
         <f>Regels!D356</f>
         <v>0</v>
       </c>
-      <c r="B356" s="6" t="str">
+      <c r="B356" t="str">
         <f>"### "&amp;Regels!B356&amp;" ("&amp;Regels!A356&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E356&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F356&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C356&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A356&amp;" *("&amp;Regels!I356&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F356&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G356&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H356&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9639,7 +9671,7 @@
         <f>Regels!D357</f>
         <v>0</v>
       </c>
-      <c r="B357" s="6" t="str">
+      <c r="B357" t="str">
         <f>"### "&amp;Regels!B357&amp;" ("&amp;Regels!A357&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E357&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F357&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C357&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A357&amp;" *("&amp;Regels!I357&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F357&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G357&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H357&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9659,7 +9691,7 @@
         <f>Regels!D358</f>
         <v>0</v>
       </c>
-      <c r="B358" s="6" t="str">
+      <c r="B358" t="str">
         <f>"### "&amp;Regels!B358&amp;" ("&amp;Regels!A358&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E358&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F358&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C358&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A358&amp;" *("&amp;Regels!I358&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F358&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G358&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H358&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9679,7 +9711,7 @@
         <f>Regels!D359</f>
         <v>0</v>
       </c>
-      <c r="B359" s="6" t="str">
+      <c r="B359" t="str">
         <f>"### "&amp;Regels!B359&amp;" ("&amp;Regels!A359&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E359&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F359&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C359&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A359&amp;" *("&amp;Regels!I359&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F359&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G359&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H359&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9699,7 +9731,7 @@
         <f>Regels!D360</f>
         <v>0</v>
       </c>
-      <c r="B360" s="6" t="str">
+      <c r="B360" t="str">
         <f>"### "&amp;Regels!B360&amp;" ("&amp;Regels!A360&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E360&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F360&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C360&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A360&amp;" *("&amp;Regels!I360&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F360&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G360&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H360&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9719,7 +9751,7 @@
         <f>Regels!D361</f>
         <v>0</v>
       </c>
-      <c r="B361" s="6" t="str">
+      <c r="B361" t="str">
         <f>"### "&amp;Regels!B361&amp;" ("&amp;Regels!A361&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E361&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F361&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C361&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A361&amp;" *("&amp;Regels!I361&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F361&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G361&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H361&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9739,7 +9771,7 @@
         <f>Regels!D362</f>
         <v>0</v>
       </c>
-      <c r="B362" s="6" t="str">
+      <c r="B362" t="str">
         <f>"### "&amp;Regels!B362&amp;" ("&amp;Regels!A362&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E362&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F362&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C362&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A362&amp;" *("&amp;Regels!I362&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F362&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G362&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H362&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9759,7 +9791,7 @@
         <f>Regels!D363</f>
         <v>0</v>
       </c>
-      <c r="B363" s="6" t="str">
+      <c r="B363" t="str">
         <f>"### "&amp;Regels!B363&amp;" ("&amp;Regels!A363&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E363&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F363&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C363&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A363&amp;" *("&amp;Regels!I363&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F363&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G363&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H363&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9779,7 +9811,7 @@
         <f>Regels!D364</f>
         <v>0</v>
       </c>
-      <c r="B364" s="6" t="str">
+      <c r="B364" t="str">
         <f>"### "&amp;Regels!B364&amp;" ("&amp;Regels!A364&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E364&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F364&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C364&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A364&amp;" *("&amp;Regels!I364&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F364&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G364&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H364&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9799,7 +9831,7 @@
         <f>Regels!D365</f>
         <v>0</v>
       </c>
-      <c r="B365" s="6" t="str">
+      <c r="B365" t="str">
         <f>"### "&amp;Regels!B365&amp;" ("&amp;Regels!A365&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E365&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F365&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C365&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A365&amp;" *("&amp;Regels!I365&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F365&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G365&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H365&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9819,7 +9851,7 @@
         <f>Regels!D366</f>
         <v>0</v>
       </c>
-      <c r="B366" s="6" t="str">
+      <c r="B366" t="str">
         <f>"### "&amp;Regels!B366&amp;" ("&amp;Regels!A366&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E366&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F366&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C366&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A366&amp;" *("&amp;Regels!I366&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F366&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G366&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H366&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9839,7 +9871,7 @@
         <f>Regels!D367</f>
         <v>0</v>
       </c>
-      <c r="B367" s="6" t="str">
+      <c r="B367" t="str">
         <f>"### "&amp;Regels!B367&amp;" ("&amp;Regels!A367&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E367&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F367&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C367&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A367&amp;" *("&amp;Regels!I367&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F367&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G367&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H367&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9859,7 +9891,7 @@
         <f>Regels!D368</f>
         <v>0</v>
       </c>
-      <c r="B368" s="6" t="str">
+      <c r="B368" t="str">
         <f>"### "&amp;Regels!B368&amp;" ("&amp;Regels!A368&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E368&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F368&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C368&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A368&amp;" *("&amp;Regels!I368&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F368&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G368&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H368&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9879,7 +9911,7 @@
         <f>Regels!D369</f>
         <v>0</v>
       </c>
-      <c r="B369" s="6" t="str">
+      <c r="B369" t="str">
         <f>"### "&amp;Regels!B369&amp;" ("&amp;Regels!A369&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E369&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F369&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C369&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A369&amp;" *("&amp;Regels!I369&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F369&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G369&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H369&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9899,7 +9931,7 @@
         <f>Regels!D370</f>
         <v>0</v>
       </c>
-      <c r="B370" s="6" t="str">
+      <c r="B370" t="str">
         <f>"### "&amp;Regels!B370&amp;" ("&amp;Regels!A370&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E370&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F370&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C370&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A370&amp;" *("&amp;Regels!I370&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F370&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G370&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H370&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9919,7 +9951,7 @@
         <f>Regels!D371</f>
         <v>0</v>
       </c>
-      <c r="B371" s="6" t="str">
+      <c r="B371" t="str">
         <f>"### "&amp;Regels!B371&amp;" ("&amp;Regels!A371&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E371&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F371&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C371&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A371&amp;" *("&amp;Regels!I371&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F371&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G371&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H371&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9939,7 +9971,7 @@
         <f>Regels!D372</f>
         <v>0</v>
       </c>
-      <c r="B372" s="6" t="str">
+      <c r="B372" t="str">
         <f>"### "&amp;Regels!B372&amp;" ("&amp;Regels!A372&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E372&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F372&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C372&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A372&amp;" *("&amp;Regels!I372&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F372&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G372&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H372&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
@@ -9964,10 +9996,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9975,7 +10007,13 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>1a70bd87-83c1-8355-2f1b-09a11ff11177</v>
+        <v>b0c68e4b-9ec7-383d-39fa-9ae5610b9d1b</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
+        <v>95dc019b-6870-4d68-794a-4614ce2c27a1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/modelleerregels/data/Modelleerregels.xlsx
+++ b/docs/modelleerregels/data/Modelleerregels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Stichting-CROW\imbor\docs\modelleerregels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B1F69C-C7EE-4C14-9D14-01E884780EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D546C0-C4D9-4107-A50C-F3177414A4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{3A8095FC-6EC2-448F-A544-71A49C170C1D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3A8095FC-6EC2-448F-A544-71A49C170C1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Regels" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="237">
   <si>
     <t>ID</t>
   </si>
@@ -205,33 +205,9 @@
     <t>Meerdere Typen van hetzelfde ObjectType mogen niet tegelijkertijd op één object van toepassing zijn. Hieruit volgt dat het ook niet zo mag zijn dat een concreet object bij meerdere ObjectTypen ondergebracht kan worden. En hieruit volgt dat het niet zo mag zijn dat een object bij zowel een Type van het ene ObjectType als bij een ander ObjectType ondergebracht kan worden (bijv. Overweg).</t>
   </si>
   <si>
-    <t>Voor alle ObjectTypen met het attribuut type extra gedetailleerd geldt dat er een Enumeratietype van de vorm [Objecttype]TypeExtraGedetailleerd moet bestaan en aan de combinatie van KlasseAttribuut is gekoppeld waarvoor geldt dat: Klasse = [Objecttype] en Attribuut = TypeExtraGedetailleerd.</t>
-  </si>
-  <si>
-    <t>checkObjecttypenMetTypeExtraGedetailleerd</t>
-  </si>
-  <si>
-    <t>checkObjecttypenMetTypeGedetailleerd</t>
-  </si>
-  <si>
-    <t>Voor alle ObjectTypen met het attribuut type gedetailleerd geldt dat er een Enumeratietype van de vorm [Objecttype]TypeGedetailleerd moet bestaan en aan de combinatie van KlasseAttribuut is gekoppeld waarvoor geldt dat: Klasse = [Objecttype] en Attribuut = TypeGedetailleerd.</t>
-  </si>
-  <si>
-    <t>Voor alle ObjectTypen met het attribuut type geldt dat er een Enumeratietype van de vorm [Objecttype]Type moet bestaan en aan de combinatie van KlasseAttribuut is gekoppeld waarvoor geldt dat: Klasse = [Objecttype] en Attribuut = Type.</t>
-  </si>
-  <si>
     <t>checkObjecttypenMetType</t>
   </si>
   <si>
-    <t>Wanneer het Attribuut 'Type' gebruikt wordt, moet er een 1;1 zijn naar een corresponderend Enumeratietype</t>
-  </si>
-  <si>
-    <t>TypeGedetailleerd mag alleen gebruikt worden als TypeGedetailleerd gebruikt is en er moet een corresponderend Enumeratietype zijn</t>
-  </si>
-  <si>
-    <t>TypeExtraGedetailleerd mag alleen gebruikt worden als TypeGedetailleerd wordt gebruikt, en er moet een corresponderend Enumeratietype zijn</t>
-  </si>
-  <si>
     <t>Elk ObjectType moet een relatie hebben met IMGeo</t>
   </si>
   <si>
@@ -469,12 +445,6 @@
     <t>R0025</t>
   </si>
   <si>
-    <t>R0026</t>
-  </si>
-  <si>
-    <t>R0027</t>
-  </si>
-  <si>
     <t>R0028</t>
   </si>
   <si>
@@ -610,12 +580,6 @@
     <t>e976d9a8-2f8c-60ea-2463-764cc4587ecd</t>
   </si>
   <si>
-    <t>70d83af8-2d4c-2e0e-5bfc-ed4dbc990ef7</t>
-  </si>
-  <si>
-    <t>9cca4941-7530-8d4d-2862-e2ed93003500</t>
-  </si>
-  <si>
     <t>74296337-106b-2d1e-61a2-2fe747b03f6a</t>
   </si>
   <si>
@@ -703,9 +667,6 @@
     <t>Attributen met een brede toepassing moeten op een zo abstract mogelijk niveau als zinnig is in de Klassenhiërarchie worden geïntroduceerd (dan wel als semantische relatie mogelijk zijn). Daarbij moet wel rekening worden gehouden dat ObjectTypen geen onzinnige attributen toegeschreven krijgen.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bij het indelen van (nieuwe) Objecttypen wordt eerst gekeken naar de semantiek (waar in de klassestructuur deze ingedeeld zouden moeten worden. Pas daarna moet gekeken worden of de juiste attributen erbij horen. </t>
-  </si>
-  <si>
     <t>f5a17556-2d50-432d-a091-d7c7c80d8fc0</t>
   </si>
   <si>
@@ -782,6 +743,15 @@
   </si>
   <si>
     <t>https://github.com/Stichting-CROW/imbor/issues/306; https://github.com/Stichting-CROW/imbor/issues/914</t>
+  </si>
+  <si>
+    <t>Wanneer het Attribuut 'Verschijningsvorm' gebruikt wordt, moet er een 1;1 zijn naar een corresponderend Enumeratietype</t>
+  </si>
+  <si>
+    <t>Voor alle ObjectTypen met het attribuut Verschijningsvorm geldt dat er een Enumeratietype van de vorm [Objecttype]Type moet bestaan en aan de combinatie van KlasseAttribuut is gekoppeld waarvoor geldt dat: Klasse = [Objecttype] en Attribuut = Type.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bij het indelen van (nieuwe) Objecttypen wordt eerst gekeken naar de semantiek (waar in de klassestructuur deze ingedeeld zouden moeten worden. Pas daarna moet gekeken worden of de juiste attributen/relaties erbij horen. </t>
   </si>
 </sst>
 </file>
@@ -890,7 +860,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -906,9 +876,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -946,7 +916,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1052,7 +1022,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1194,7 +1164,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1202,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188C7535-DE94-40B4-B3C6-1EA29470252A}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1236,7 +1206,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1248,39 +1218,39 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E2" s="8" t="str">
-        <f t="shared" ref="E2:E48" si="0">MID(D2,3,99)</f>
+        <f t="shared" ref="E2:E46" si="0">MID(D2,3,99)</f>
         <v>Decompositie</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>52</v>
@@ -1289,25 +1259,25 @@
         <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Instanties</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>48</v>
@@ -1316,25 +1286,25 @@
         <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Klassenstructuur</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>49</v>
@@ -1343,52 +1313,52 @@
         <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Klassenstructuur</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Klassenstructuur</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -1397,236 +1367,236 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Klassenstructuur</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="48" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Klassenstructuur</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Mapping</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Mapping</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Mapping</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Mapping</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Mapping</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G15" s="4"/>
       <c r="I15" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
@@ -1635,77 +1605,77 @@
         <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G17" s="4"/>
       <c r="I17" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>22</v>
@@ -1714,25 +1684,25 @@
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>24</v>
@@ -1741,25 +1711,25 @@
         <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>25</v>
@@ -1768,25 +1738,25 @@
         <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>26</v>
@@ -1795,25 +1765,25 @@
         <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>27</v>
@@ -1822,25 +1792,25 @@
         <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>23</v>
@@ -1849,25 +1819,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -1876,25 +1846,25 @@
         <v>38</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>28</v>
@@ -1903,25 +1873,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>32</v>
@@ -1930,25 +1900,25 @@
         <v>33</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>34</v>
@@ -1957,555 +1927,501 @@
         <v>35</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G30" s="4"/>
       <c r="I30" s="2" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>56</v>
+        <v>105</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>60</v>
+        <v>231</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E34" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Ontologie</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="E36" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Ontologie</v>
+        <v>Vocabulaire</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>96</v>
+        <v>70</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="E37" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Ontologie</v>
+        <v>Vocabulaire</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E38" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Vocabulaire</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Vocabulaire</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E40" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Vocabulaire</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Vocabulaire</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G41" s="4"/>
       <c r="I41" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Vocabulaire</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>222</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G42" s="4"/>
       <c r="I42" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E43" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Vocabulaire</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G43" s="4"/>
       <c r="I43" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="48" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Vocabulaire</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="I44" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E45" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Vocabulaire</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G45" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="I45" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>93</v>
+        <v>232</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E46" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Vocabulaire</v>
+        <v>Ontologie</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E47" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Vocabulaire</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E48" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Ontologie</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2514,27 +2430,27 @@
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I47">
-    <sortCondition ref="E2:E47"/>
-    <sortCondition ref="F2:F47"/>
-    <sortCondition ref="B2:B47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I45">
+    <sortCondition ref="E2:E45"/>
+    <sortCondition ref="F2:F45"/>
+    <sortCondition ref="B2:B45"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{EFD552ED-5F35-48E8-81D4-403784151D82}"/>
-    <hyperlink ref="G38" r:id="rId2" xr:uid="{03AAA5B6-6186-496A-9461-906AFEF9A6AD}"/>
-    <hyperlink ref="G35" r:id="rId3" xr:uid="{B89CB078-C184-4B42-AD55-20A04C61F84A}"/>
-    <hyperlink ref="G46" r:id="rId4" display="https://github.com/Stichting-CROW/imbor/issues/332" xr:uid="{D79637A1-33AE-420C-B4CA-34C749851141}"/>
+    <hyperlink ref="G36" r:id="rId2" xr:uid="{03AAA5B6-6186-496A-9461-906AFEF9A6AD}"/>
+    <hyperlink ref="G33" r:id="rId3" xr:uid="{B89CB078-C184-4B42-AD55-20A04C61F84A}"/>
+    <hyperlink ref="G44" r:id="rId4" display="https://github.com/Stichting-CROW/imbor/issues/332" xr:uid="{D79637A1-33AE-420C-B4CA-34C749851141}"/>
     <hyperlink ref="G13" r:id="rId5" display="https://github.com/Stichting-CROW/imbor/issues/306" xr:uid="{149CADC3-DEC6-4692-B849-97B3403D8759}"/>
-    <hyperlink ref="G34" r:id="rId6" xr:uid="{D5BA18AC-00A7-4851-B4A0-33F7344DDE33}"/>
-    <hyperlink ref="G41" r:id="rId7" xr:uid="{BF4AB91E-A612-4F12-866E-1F7F7309C1BB}"/>
-    <hyperlink ref="G47" r:id="rId8" xr:uid="{1D19924F-F878-4D73-B3CB-E149E488A9E0}"/>
-    <hyperlink ref="G36" r:id="rId9" xr:uid="{62D7072B-57B4-4D98-8EFC-4A6951AABD6E}"/>
+    <hyperlink ref="G32" r:id="rId6" xr:uid="{D5BA18AC-00A7-4851-B4A0-33F7344DDE33}"/>
+    <hyperlink ref="G39" r:id="rId7" xr:uid="{BF4AB91E-A612-4F12-866E-1F7F7309C1BB}"/>
+    <hyperlink ref="G45" r:id="rId8" xr:uid="{1D19924F-F878-4D73-B3CB-E149E488A9E0}"/>
+    <hyperlink ref="G34" r:id="rId9" xr:uid="{62D7072B-57B4-4D98-8EFC-4A6951AABD6E}"/>
     <hyperlink ref="G2" r:id="rId10" xr:uid="{1ED6557A-3E70-4A1F-8CF4-DB4DFAA5BE49}"/>
-    <hyperlink ref="G39" r:id="rId11" xr:uid="{F2C1818C-A710-4A3D-9480-952E22C0436A}"/>
+    <hyperlink ref="G37" r:id="rId11" xr:uid="{F2C1818C-A710-4A3D-9480-952E22C0436A}"/>
     <hyperlink ref="G6" r:id="rId12" xr:uid="{F213BAF6-DEB6-461E-AD00-942606921BCB}"/>
-    <hyperlink ref="G37" r:id="rId13" xr:uid="{94BBF135-EB11-4405-8320-D169EAB224E1}"/>
-    <hyperlink ref="G48" r:id="rId14" xr:uid="{0D08B465-1F21-4DB3-BA89-A31003C7D409}"/>
+    <hyperlink ref="G35" r:id="rId13" xr:uid="{94BBF135-EB11-4405-8320-D169EAB224E1}"/>
+    <hyperlink ref="G46" r:id="rId14" xr:uid="{0D08B465-1F21-4DB3-BA89-A31003C7D409}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
@@ -2560,10 +2476,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2837,7 +2753,7 @@
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Bij het indelen van (nieuwe) Objecttypen wordt eerst gekeken naar de semantiek (waar in de klassestructuur deze ingedeeld zouden moeten worden. Pas daarna moet gekeken worden of de juiste attributen erbij horen.  | 
+| *Regel* | Bij het indelen van (nieuwe) Objecttypen wordt eerst gekeken naar de semantiek (waar in de klassestructuur deze ingedeeld zouden moeten worden. Pas daarna moet gekeken worden of de juiste attributen/relaties erbij horen.  | 
 | *ID* | R0043 *(f5a17556-2d50-432d-a091-d7c7c80d8fc0)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
@@ -3147,72 +3063,52 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="str">
+      <c r="A31" t="e">
+        <f>Regels!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B31" t="e">
+        <f>"### "&amp;Regels!#REF!&amp;" ("&amp;Regels!#REF!&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!#REF!&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!#REF!&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!#REF!&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!#REF!&amp;" *("&amp;Regels!#REF!&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!#REF!&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!#REF!&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!#REF!&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="e">
+        <f>Regels!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B32" t="e">
+        <f>"### "&amp;Regels!#REF!&amp;" ("&amp;Regels!#REF!&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!#REF!&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!#REF!&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!#REF!&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!#REF!&amp;" *("&amp;Regels!#REF!&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!#REF!&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!#REF!&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!#REF!&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
         <f>Regels!D31</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B33" t="str">
         <f>"### "&amp;Regels!B31&amp;" ("&amp;Regels!A31&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E31&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F31&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C31&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A31&amp;" *("&amp;Regels!I31&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F31&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G31&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H31&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### TypeExtraGedetailleerd mag alleen gebruikt worden als TypeGedetailleerd wordt gebruikt, en er moet een corresponderend Enumeratietype zijn (R0026)
+        <v xml:space="preserve">### Wanneer het Attribuut 'Verschijningsvorm' gebruikt wordt, moet er een 1;1 zijn naar een corresponderend Enumeratietype (R0028)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
 | | |
 | ----- | ---- | 
-| *Regel* | Voor alle ObjectTypen met het attribuut type extra gedetailleerd geldt dat er een Enumeratietype van de vorm [Objecttype]TypeExtraGedetailleerd moet bestaan en aan de combinatie van KlasseAttribuut is gekoppeld waarvoor geldt dat: Klasse = [Objecttype] en Attribuut = TypeExtraGedetailleerd. | 
-| *ID* | R0026 *(70d83af8-2d4c-2e0e-5bfc-ed4dbc990ef7)* |
+| *Regel* | Voor alle ObjectTypen met het attribuut Verschijningsvorm geldt dat er een Enumeratietype van de vorm [Objecttype]Type moet bestaan en aan de combinatie van KlasseAttribuut is gekoppeld waarvoor geldt dat: Klasse = [Objecttype] en Attribuut = Type. | 
+| *ID* | R0028 *(74296337-106b-2d1e-61a2-2fe747b03f6a)* |
 | *Categorie* | Model consistentie
  |*Gerelateerd issue* |  |
- |*Controle query* | checkObjecttypenMetTypeExtraGedetailleerd |
-| {.index} | | 
-</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="str">
+ |*Controle query* | checkObjecttypenMetType |
+| {.index} | | 
+</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="str">
         <f>Regels!D32</f>
         <v>2-Ontologie</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B34" t="str">
         <f>"### "&amp;Regels!B32&amp;" ("&amp;Regels!A32&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E32&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F32&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C32&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A32&amp;" *("&amp;Regels!I32&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F32&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G32&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H32&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### TypeGedetailleerd mag alleen gebruikt worden als TypeGedetailleerd gebruikt is en er moet een corresponderend Enumeratietype zijn (R0027)
-Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
-| | |
-| ----- | ---- | 
-| *Regel* | Voor alle ObjectTypen met het attribuut type gedetailleerd geldt dat er een Enumeratietype van de vorm [Objecttype]TypeGedetailleerd moet bestaan en aan de combinatie van KlasseAttribuut is gekoppeld waarvoor geldt dat: Klasse = [Objecttype] en Attribuut = TypeGedetailleerd. | 
-| *ID* | R0027 *(9cca4941-7530-8d4d-2862-e2ed93003500)* |
-| *Categorie* | Model consistentie
- |*Gerelateerd issue* |  |
- |*Controle query* | checkObjecttypenMetTypeGedetailleerd |
-| {.index} | | 
-</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="str">
-        <f>Regels!D33</f>
-        <v>2-Ontologie</v>
-      </c>
-      <c r="B33" t="str">
-        <f>"### "&amp;Regels!B33&amp;" ("&amp;Regels!A33&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E33&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F33&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C33&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A33&amp;" *("&amp;Regels!I33&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F33&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G33&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H33&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
-        <v xml:space="preserve">### Wanneer het Attribuut 'Type' gebruikt wordt, moet er een 1;1 zijn naar een corresponderend Enumeratietype (R0028)
-Van toepassing op de `Ontologie`, en valt binnen de categorie: `Model consistentie`
-| | |
-| ----- | ---- | 
-| *Regel* | Voor alle ObjectTypen met het attribuut type geldt dat er een Enumeratietype van de vorm [Objecttype]Type moet bestaan en aan de combinatie van KlasseAttribuut is gekoppeld waarvoor geldt dat: Klasse = [Objecttype] en Attribuut = Type. | 
-| *ID* | R0028 *(74296337-106b-2d1e-61a2-2fe747b03f6a)* |
-| *Categorie* | Model consistentie
- |*Gerelateerd issue* |  |
- |*Controle query* | checkObjecttypenMetType |
-| {.index} | | 
-</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="str">
-        <f>Regels!D34</f>
-        <v>2-Ontologie</v>
-      </c>
-      <c r="B34" t="str">
-        <f>"### "&amp;Regels!B34&amp;" ("&amp;Regels!A34&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E34&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F34&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C34&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A34&amp;" *("&amp;Regels!I34&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F34&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G34&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H34&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Consistent toepassen van topmodellen (R0030)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3228,11 +3124,11 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
-        <f>Regels!D35</f>
+        <f>Regels!D33</f>
         <v>2-Ontologie</v>
       </c>
       <c r="B35" t="str">
-        <f>"### "&amp;Regels!B35&amp;" ("&amp;Regels!A35&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E35&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F35&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C35&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A35&amp;" *("&amp;Regels!I35&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F35&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G35&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H35&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B33&amp;" ("&amp;Regels!A33&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E33&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F33&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C33&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A33&amp;" *("&amp;Regels!I33&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F33&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G33&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H33&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Semantische relaties genieten de voorkeur boven Attributen 1 (R0031)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3248,11 +3144,11 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
-        <f>Regels!D36</f>
+        <f>Regels!D34</f>
         <v>2-Ontologie</v>
       </c>
       <c r="B36" t="str">
-        <f>"### "&amp;Regels!B36&amp;" ("&amp;Regels!A36&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E36&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F36&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C36&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A36&amp;" *("&amp;Regels!I36&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F36&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G36&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H36&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B34&amp;" ("&amp;Regels!A34&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E34&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F34&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C34&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A34&amp;" *("&amp;Regels!I34&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F34&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G34&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H34&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Toevoegen van nieuwe Klassen (en Objecttypen) 1 (R0032)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3268,11 +3164,11 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
-        <f>Regels!D37</f>
+        <f>Regels!D35</f>
         <v>2-Ontologie</v>
       </c>
       <c r="B37" t="str">
-        <f>"### "&amp;Regels!B37&amp;" ("&amp;Regels!A37&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E37&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F37&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C37&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A37&amp;" *("&amp;Regels!I37&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F37&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G37&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H37&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B35&amp;" ("&amp;Regels!A35&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E35&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F35&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C35&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A35&amp;" *("&amp;Regels!I35&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F35&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G35&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H35&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Toevoegen van nieuwe Klassen (en Objecttypen) 2 (R0033)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3288,11 +3184,11 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
-        <f>Regels!D38</f>
+        <f>Regels!D36</f>
         <v>1-Vocabulaire</v>
       </c>
       <c r="B38" t="str">
-        <f>"### "&amp;Regels!B38&amp;" ("&amp;Regels!A38&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E38&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F38&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C38&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A38&amp;" *("&amp;Regels!I38&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F38&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G38&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H38&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B36&amp;" ("&amp;Regels!A36&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E36&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F36&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C36&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A36&amp;" *("&amp;Regels!I36&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F36&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G36&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H36&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Elke term heeft een unieke definitie binnen een collectie (R0034)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3308,11 +3204,11 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
-        <f>Regels!D39</f>
+        <f>Regels!D37</f>
         <v>1-Vocabulaire</v>
       </c>
       <c r="B39" t="str">
-        <f>"### "&amp;Regels!B39&amp;" ("&amp;Regels!A39&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E39&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F39&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C39&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A39&amp;" *("&amp;Regels!I39&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F39&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G39&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H39&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B37&amp;" ("&amp;Regels!A37&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E37&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F37&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C37&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A37&amp;" *("&amp;Regels!I37&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F37&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G37&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H37&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Grammaticale correctheid van woorden en teksten (R0035)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3328,11 +3224,11 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
-        <f>Regels!D40</f>
+        <f>Regels!D38</f>
         <v>1-Vocabulaire</v>
       </c>
       <c r="B40" t="str">
-        <f>"### "&amp;Regels!B40&amp;" ("&amp;Regels!A40&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E40&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F40&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C40&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A40&amp;" *("&amp;Regels!I40&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F40&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G40&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H40&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B38&amp;" ("&amp;Regels!A38&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E38&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F38&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C38&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A38&amp;" *("&amp;Regels!I38&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F38&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G38&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H38&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Hergebruik van termen en definities uit andere modellen (R0036)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3348,11 +3244,11 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
-        <f>Regels!D41</f>
+        <f>Regels!D39</f>
         <v>1-Vocabulaire</v>
       </c>
       <c r="B41" t="str">
-        <f>"### "&amp;Regels!B41&amp;" ("&amp;Regels!A41&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E41&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F41&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C41&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A41&amp;" *("&amp;Regels!I41&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F41&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G41&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H41&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B39&amp;" ("&amp;Regels!A39&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E39&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F39&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C39&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A39&amp;" *("&amp;Regels!I39&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F39&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G39&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H39&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Naamgeving Attributen 1 (R0037)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3368,11 +3264,11 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
-        <f>Regels!D42</f>
+        <f>Regels!D40</f>
         <v>1-Vocabulaire</v>
       </c>
       <c r="B42" t="str">
-        <f>"### "&amp;Regels!B42&amp;" ("&amp;Regels!A42&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E42&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F42&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C42&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A42&amp;" *("&amp;Regels!I42&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F42&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G42&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H42&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B40&amp;" ("&amp;Regels!A40&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E40&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F40&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C40&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A40&amp;" *("&amp;Regels!I40&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F40&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G40&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H40&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Naamgeving Attributen 2 (R0044)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3388,11 +3284,11 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
-        <f>Regels!D43</f>
+        <f>Regels!D41</f>
         <v>1-Vocabulaire</v>
       </c>
       <c r="B43" t="str">
-        <f>"### "&amp;Regels!B43&amp;" ("&amp;Regels!A43&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E43&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F43&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C43&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A43&amp;" *("&amp;Regels!I43&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F43&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G43&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H43&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B41&amp;" ("&amp;Regels!A41&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E41&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F41&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C41&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A41&amp;" *("&amp;Regels!I41&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F41&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G41&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H41&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Naamgeving Domeinwaarden (R0038)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3408,11 +3304,11 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
-        <f>Regels!D44</f>
+        <f>Regels!D42</f>
         <v>1-Vocabulaire</v>
       </c>
       <c r="B44" t="str">
-        <f>"### "&amp;Regels!B44&amp;" ("&amp;Regels!A44&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E44&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F44&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C44&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A44&amp;" *("&amp;Regels!I44&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F44&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G44&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H44&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B42&amp;" ("&amp;Regels!A42&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E42&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F42&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C42&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A42&amp;" *("&amp;Regels!I42&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F42&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G42&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H42&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Naamgeving Klassen (R0039)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3428,11 +3324,11 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
-        <f>Regels!D45</f>
+        <f>Regels!D43</f>
         <v>1-Vocabulaire</v>
       </c>
       <c r="B45" t="str">
-        <f>"### "&amp;Regels!B45&amp;" ("&amp;Regels!A45&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E45&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F45&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C45&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A45&amp;" *("&amp;Regels!I45&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F45&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G45&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H45&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B43&amp;" ("&amp;Regels!A43&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E43&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F43&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C43&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A43&amp;" *("&amp;Regels!I43&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F43&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G43&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H43&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Naamgeving Relaties (R0040)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3448,11 +3344,11 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
-        <f>Regels!D46</f>
+        <f>Regels!D44</f>
         <v>1-Vocabulaire</v>
       </c>
       <c r="B46" t="str">
-        <f>"### "&amp;Regels!B46&amp;" ("&amp;Regels!A46&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E46&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F46&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C46&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A46&amp;" *("&amp;Regels!I46&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F46&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G46&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H46&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B44&amp;" ("&amp;Regels!A44&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E44&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F44&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C44&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A44&amp;" *("&amp;Regels!I44&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F44&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G44&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H44&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Overlap in semantiek moet vermeden worden 1 (R0041)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3468,11 +3364,11 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
-        <f>Regels!D47</f>
+        <f>Regels!D45</f>
         <v>1-Vocabulaire</v>
       </c>
       <c r="B47" t="str">
-        <f>"### "&amp;Regels!B47&amp;" ("&amp;Regels!A47&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E47&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F47&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C47&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A47&amp;" *("&amp;Regels!I47&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F47&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G47&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H47&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B45&amp;" ("&amp;Regels!A45&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E45&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F45&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C45&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A45&amp;" *("&amp;Regels!I45&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F45&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G45&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H45&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Overlap in semantiek moet vermeden worden 2 (R0042)
 Van toepassing op de `Vocabulaire`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3488,11 +3384,11 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
-        <f>Regels!D48</f>
+        <f>Regels!D46</f>
         <v>2-Ontologie</v>
       </c>
       <c r="B48" t="str">
-        <f>"### "&amp;Regels!B48&amp;" ("&amp;Regels!A48&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E48&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F48&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C48&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A48&amp;" *("&amp;Regels!I48&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F48&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G48&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H48&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B46&amp;" ("&amp;Regels!A46&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E46&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F46&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C46&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A46&amp;" *("&amp;Regels!I46&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F46&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G46&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H46&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">### Semantische relaties genieten de voorkeur boven Attributen 2 (R0043)
 Van toepassing op de `Ontologie`, en valt binnen de categorie: `Semantiek`
 | | |
@@ -3508,11 +3404,11 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
-        <f>Regels!D49</f>
+        <f>Regels!D47</f>
         <v>0</v>
       </c>
       <c r="B49" t="str">
-        <f>"### "&amp;Regels!B49&amp;" ("&amp;Regels!A49&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E49&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F49&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C49&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A49&amp;" *("&amp;Regels!I49&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F49&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G49&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H49&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B47&amp;" ("&amp;Regels!A47&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E47&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F47&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C47&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A47&amp;" *("&amp;Regels!I47&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F47&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G47&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H47&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3528,11 +3424,11 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
-        <f>Regels!D50</f>
+        <f>Regels!D48</f>
         <v>0</v>
       </c>
       <c r="B50" t="str">
-        <f>"### "&amp;Regels!B50&amp;" ("&amp;Regels!A50&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E50&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F50&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C50&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A50&amp;" *("&amp;Regels!I50&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F50&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G50&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H50&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B48&amp;" ("&amp;Regels!A48&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E48&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F48&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C48&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A48&amp;" *("&amp;Regels!I48&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F48&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G48&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H48&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3548,11 +3444,11 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
-        <f>Regels!D51</f>
+        <f>Regels!D49</f>
         <v>0</v>
       </c>
       <c r="B51" t="str">
-        <f>"### "&amp;Regels!B51&amp;" ("&amp;Regels!A51&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E51&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F51&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C51&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A51&amp;" *("&amp;Regels!I51&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F51&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G51&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H51&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B49&amp;" ("&amp;Regels!A49&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E49&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F49&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C49&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A49&amp;" *("&amp;Regels!I49&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F49&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G49&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H49&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3568,11 +3464,11 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
-        <f>Regels!D52</f>
+        <f>Regels!D50</f>
         <v>0</v>
       </c>
       <c r="B52" t="str">
-        <f>"### "&amp;Regels!B52&amp;" ("&amp;Regels!A52&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E52&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F52&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C52&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A52&amp;" *("&amp;Regels!I52&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F52&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G52&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H52&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B50&amp;" ("&amp;Regels!A50&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E50&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F50&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C50&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A50&amp;" *("&amp;Regels!I50&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F50&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G50&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H50&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3588,11 +3484,11 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
-        <f>Regels!D53</f>
+        <f>Regels!D51</f>
         <v>0</v>
       </c>
       <c r="B53" t="str">
-        <f>"### "&amp;Regels!B53&amp;" ("&amp;Regels!A53&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E53&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F53&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C53&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A53&amp;" *("&amp;Regels!I53&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F53&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G53&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H53&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B51&amp;" ("&amp;Regels!A51&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E51&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F51&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C51&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A51&amp;" *("&amp;Regels!I51&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F51&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G51&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H51&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3608,11 +3504,11 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
-        <f>Regels!D54</f>
+        <f>Regels!D52</f>
         <v>0</v>
       </c>
       <c r="B54" t="str">
-        <f>"### "&amp;Regels!B54&amp;" ("&amp;Regels!A54&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E54&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F54&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C54&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A54&amp;" *("&amp;Regels!I54&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F54&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G54&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H54&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B52&amp;" ("&amp;Regels!A52&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E52&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F52&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C52&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A52&amp;" *("&amp;Regels!I52&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F52&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G52&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H52&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3628,11 +3524,11 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
-        <f>Regels!D55</f>
+        <f>Regels!D53</f>
         <v>0</v>
       </c>
       <c r="B55" t="str">
-        <f>"### "&amp;Regels!B55&amp;" ("&amp;Regels!A55&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E55&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F55&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C55&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A55&amp;" *("&amp;Regels!I55&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F55&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G55&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H55&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B53&amp;" ("&amp;Regels!A53&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E53&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F53&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C53&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A53&amp;" *("&amp;Regels!I53&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F53&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G53&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H53&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3648,11 +3544,11 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
-        <f>Regels!D56</f>
+        <f>Regels!D54</f>
         <v>0</v>
       </c>
       <c r="B56" t="str">
-        <f>"### "&amp;Regels!B56&amp;" ("&amp;Regels!A56&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E56&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F56&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C56&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A56&amp;" *("&amp;Regels!I56&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F56&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G56&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H56&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B54&amp;" ("&amp;Regels!A54&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E54&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F54&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C54&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A54&amp;" *("&amp;Regels!I54&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F54&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G54&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H54&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3668,11 +3564,11 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
-        <f>Regels!D57</f>
+        <f>Regels!D55</f>
         <v>0</v>
       </c>
       <c r="B57" t="str">
-        <f>"### "&amp;Regels!B57&amp;" ("&amp;Regels!A57&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E57&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F57&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C57&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A57&amp;" *("&amp;Regels!I57&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F57&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G57&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H57&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B55&amp;" ("&amp;Regels!A55&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E55&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F55&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C55&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A55&amp;" *("&amp;Regels!I55&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F55&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G55&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H55&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3688,11 +3584,11 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
-        <f>Regels!D58</f>
+        <f>Regels!D56</f>
         <v>0</v>
       </c>
       <c r="B58" t="str">
-        <f>"### "&amp;Regels!B58&amp;" ("&amp;Regels!A58&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E58&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F58&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C58&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A58&amp;" *("&amp;Regels!I58&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F58&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G58&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H58&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B56&amp;" ("&amp;Regels!A56&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E56&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F56&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C56&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A56&amp;" *("&amp;Regels!I56&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F56&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G56&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H56&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3708,11 +3604,11 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
-        <f>Regels!D59</f>
+        <f>Regels!D57</f>
         <v>0</v>
       </c>
       <c r="B59" t="str">
-        <f>"### "&amp;Regels!B59&amp;" ("&amp;Regels!A59&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E59&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F59&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C59&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A59&amp;" *("&amp;Regels!I59&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F59&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G59&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H59&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B57&amp;" ("&amp;Regels!A57&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E57&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F57&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C57&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A57&amp;" *("&amp;Regels!I57&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F57&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G57&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H57&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3728,11 +3624,11 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
-        <f>Regels!D60</f>
+        <f>Regels!D58</f>
         <v>0</v>
       </c>
       <c r="B60" t="str">
-        <f>"### "&amp;Regels!B60&amp;" ("&amp;Regels!A60&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E60&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F60&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C60&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A60&amp;" *("&amp;Regels!I60&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F60&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G60&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H60&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B58&amp;" ("&amp;Regels!A58&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E58&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F58&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C58&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A58&amp;" *("&amp;Regels!I58&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F58&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G58&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H58&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3748,11 +3644,11 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
-        <f>Regels!D61</f>
+        <f>Regels!D59</f>
         <v>0</v>
       </c>
       <c r="B61" t="str">
-        <f>"### "&amp;Regels!B61&amp;" ("&amp;Regels!A61&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E61&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F61&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C61&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A61&amp;" *("&amp;Regels!I61&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F61&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G61&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H61&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B59&amp;" ("&amp;Regels!A59&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E59&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F59&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C59&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A59&amp;" *("&amp;Regels!I59&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F59&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G59&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H59&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3768,11 +3664,11 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
-        <f>Regels!D62</f>
+        <f>Regels!D60</f>
         <v>0</v>
       </c>
       <c r="B62" t="str">
-        <f>"### "&amp;Regels!B62&amp;" ("&amp;Regels!A62&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E62&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F62&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C62&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A62&amp;" *("&amp;Regels!I62&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F62&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G62&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H62&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B60&amp;" ("&amp;Regels!A60&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E60&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F60&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C60&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A60&amp;" *("&amp;Regels!I60&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F60&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G60&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H60&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3788,11 +3684,11 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
-        <f>Regels!D63</f>
+        <f>Regels!D61</f>
         <v>0</v>
       </c>
       <c r="B63" t="str">
-        <f>"### "&amp;Regels!B63&amp;" ("&amp;Regels!A63&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E63&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F63&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C63&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A63&amp;" *("&amp;Regels!I63&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F63&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G63&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H63&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B61&amp;" ("&amp;Regels!A61&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E61&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F61&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C61&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A61&amp;" *("&amp;Regels!I61&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F61&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G61&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H61&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3808,11 +3704,11 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
-        <f>Regels!D64</f>
+        <f>Regels!D62</f>
         <v>0</v>
       </c>
       <c r="B64" t="str">
-        <f>"### "&amp;Regels!B64&amp;" ("&amp;Regels!A64&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E64&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F64&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C64&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A64&amp;" *("&amp;Regels!I64&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F64&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G64&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H64&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B62&amp;" ("&amp;Regels!A62&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E62&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F62&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C62&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A62&amp;" *("&amp;Regels!I62&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F62&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G62&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H62&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3828,11 +3724,11 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
-        <f>Regels!D65</f>
+        <f>Regels!D63</f>
         <v>0</v>
       </c>
       <c r="B65" t="str">
-        <f>"### "&amp;Regels!B65&amp;" ("&amp;Regels!A65&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E65&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F65&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C65&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A65&amp;" *("&amp;Regels!I65&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F65&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G65&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H65&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B63&amp;" ("&amp;Regels!A63&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E63&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F63&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C63&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A63&amp;" *("&amp;Regels!I63&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F63&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G63&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H63&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3848,11 +3744,11 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
-        <f>Regels!D66</f>
+        <f>Regels!D64</f>
         <v>0</v>
       </c>
       <c r="B66" t="str">
-        <f>"### "&amp;Regels!B66&amp;" ("&amp;Regels!A66&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E66&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F66&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C66&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A66&amp;" *("&amp;Regels!I66&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F66&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G66&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H66&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B64&amp;" ("&amp;Regels!A64&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E64&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F64&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C64&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A64&amp;" *("&amp;Regels!I64&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F64&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G64&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H64&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3868,11 +3764,11 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
-        <f>Regels!D67</f>
+        <f>Regels!D65</f>
         <v>0</v>
       </c>
       <c r="B67" t="str">
-        <f>"### "&amp;Regels!B67&amp;" ("&amp;Regels!A67&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E67&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F67&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C67&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A67&amp;" *("&amp;Regels!I67&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F67&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G67&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H67&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B65&amp;" ("&amp;Regels!A65&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E65&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F65&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C65&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A65&amp;" *("&amp;Regels!I65&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F65&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G65&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H65&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3888,11 +3784,11 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
-        <f>Regels!D68</f>
+        <f>Regels!D66</f>
         <v>0</v>
       </c>
       <c r="B68" t="str">
-        <f>"### "&amp;Regels!B68&amp;" ("&amp;Regels!A68&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E68&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F68&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C68&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A68&amp;" *("&amp;Regels!I68&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F68&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G68&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H68&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B66&amp;" ("&amp;Regels!A66&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E66&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F66&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C66&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A66&amp;" *("&amp;Regels!I66&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F66&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G66&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H66&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3908,11 +3804,11 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
-        <f>Regels!D69</f>
+        <f>Regels!D67</f>
         <v>0</v>
       </c>
       <c r="B69" t="str">
-        <f>"### "&amp;Regels!B69&amp;" ("&amp;Regels!A69&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E69&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F69&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C69&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A69&amp;" *("&amp;Regels!I69&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F69&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G69&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H69&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B67&amp;" ("&amp;Regels!A67&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E67&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F67&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C67&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A67&amp;" *("&amp;Regels!I67&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F67&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G67&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H67&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3928,11 +3824,11 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
-        <f>Regels!D70</f>
+        <f>Regels!D68</f>
         <v>0</v>
       </c>
       <c r="B70" t="str">
-        <f>"### "&amp;Regels!B70&amp;" ("&amp;Regels!A70&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E70&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F70&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C70&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A70&amp;" *("&amp;Regels!I70&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F70&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G70&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H70&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B68&amp;" ("&amp;Regels!A68&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E68&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F68&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C68&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A68&amp;" *("&amp;Regels!I68&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F68&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G68&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H68&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3948,11 +3844,11 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
-        <f>Regels!D71</f>
+        <f>Regels!D69</f>
         <v>0</v>
       </c>
       <c r="B71" t="str">
-        <f>"### "&amp;Regels!B71&amp;" ("&amp;Regels!A71&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E71&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F71&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C71&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A71&amp;" *("&amp;Regels!I71&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F71&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G71&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H71&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B69&amp;" ("&amp;Regels!A69&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E69&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F69&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C69&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A69&amp;" *("&amp;Regels!I69&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F69&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G69&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H69&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3968,11 +3864,11 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
-        <f>Regels!D72</f>
+        <f>Regels!D70</f>
         <v>0</v>
       </c>
       <c r="B72" t="str">
-        <f>"### "&amp;Regels!B72&amp;" ("&amp;Regels!A72&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E72&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F72&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C72&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A72&amp;" *("&amp;Regels!I72&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F72&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G72&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H72&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B70&amp;" ("&amp;Regels!A70&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E70&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F70&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C70&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A70&amp;" *("&amp;Regels!I70&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F70&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G70&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H70&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -3988,11 +3884,11 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
-        <f>Regels!D73</f>
+        <f>Regels!D71</f>
         <v>0</v>
       </c>
       <c r="B73" t="str">
-        <f>"### "&amp;Regels!B73&amp;" ("&amp;Regels!A73&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E73&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F73&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C73&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A73&amp;" *("&amp;Regels!I73&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F73&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G73&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H73&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B71&amp;" ("&amp;Regels!A71&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E71&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F71&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C71&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A71&amp;" *("&amp;Regels!I71&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F71&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G71&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H71&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4008,11 +3904,11 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
-        <f>Regels!D74</f>
+        <f>Regels!D72</f>
         <v>0</v>
       </c>
       <c r="B74" t="str">
-        <f>"### "&amp;Regels!B74&amp;" ("&amp;Regels!A74&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E74&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F74&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C74&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A74&amp;" *("&amp;Regels!I74&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F74&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G74&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H74&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B72&amp;" ("&amp;Regels!A72&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E72&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F72&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C72&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A72&amp;" *("&amp;Regels!I72&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F72&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G72&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H72&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4028,11 +3924,11 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
-        <f>Regels!D75</f>
+        <f>Regels!D73</f>
         <v>0</v>
       </c>
       <c r="B75" t="str">
-        <f>"### "&amp;Regels!B75&amp;" ("&amp;Regels!A75&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E75&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F75&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C75&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A75&amp;" *("&amp;Regels!I75&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F75&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G75&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H75&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B73&amp;" ("&amp;Regels!A73&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E73&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F73&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C73&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A73&amp;" *("&amp;Regels!I73&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F73&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G73&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H73&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4048,11 +3944,11 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
-        <f>Regels!D76</f>
+        <f>Regels!D74</f>
         <v>0</v>
       </c>
       <c r="B76" t="str">
-        <f>"### "&amp;Regels!B76&amp;" ("&amp;Regels!A76&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E76&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F76&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C76&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A76&amp;" *("&amp;Regels!I76&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F76&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G76&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H76&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B74&amp;" ("&amp;Regels!A74&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E74&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F74&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C74&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A74&amp;" *("&amp;Regels!I74&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F74&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G74&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H74&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4068,11 +3964,11 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
-        <f>Regels!D77</f>
+        <f>Regels!D75</f>
         <v>0</v>
       </c>
       <c r="B77" t="str">
-        <f>"### "&amp;Regels!B77&amp;" ("&amp;Regels!A77&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E77&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F77&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C77&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A77&amp;" *("&amp;Regels!I77&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F77&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G77&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H77&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B75&amp;" ("&amp;Regels!A75&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E75&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F75&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C75&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A75&amp;" *("&amp;Regels!I75&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F75&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G75&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H75&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4088,11 +3984,11 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
-        <f>Regels!D78</f>
+        <f>Regels!D76</f>
         <v>0</v>
       </c>
       <c r="B78" t="str">
-        <f>"### "&amp;Regels!B78&amp;" ("&amp;Regels!A78&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E78&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F78&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C78&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A78&amp;" *("&amp;Regels!I78&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F78&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G78&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H78&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B76&amp;" ("&amp;Regels!A76&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E76&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F76&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C76&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A76&amp;" *("&amp;Regels!I76&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F76&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G76&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H76&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4108,11 +4004,11 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
-        <f>Regels!D79</f>
+        <f>Regels!D77</f>
         <v>0</v>
       </c>
       <c r="B79" t="str">
-        <f>"### "&amp;Regels!B79&amp;" ("&amp;Regels!A79&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E79&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F79&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C79&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A79&amp;" *("&amp;Regels!I79&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F79&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G79&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H79&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B77&amp;" ("&amp;Regels!A77&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E77&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F77&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C77&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A77&amp;" *("&amp;Regels!I77&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F77&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G77&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H77&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4128,11 +4024,11 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
-        <f>Regels!D80</f>
+        <f>Regels!D78</f>
         <v>0</v>
       </c>
       <c r="B80" t="str">
-        <f>"### "&amp;Regels!B80&amp;" ("&amp;Regels!A80&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E80&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F80&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C80&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A80&amp;" *("&amp;Regels!I80&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F80&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G80&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H80&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B78&amp;" ("&amp;Regels!A78&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E78&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F78&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C78&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A78&amp;" *("&amp;Regels!I78&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F78&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G78&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H78&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4148,11 +4044,11 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
-        <f>Regels!D81</f>
+        <f>Regels!D79</f>
         <v>0</v>
       </c>
       <c r="B81" t="str">
-        <f>"### "&amp;Regels!B81&amp;" ("&amp;Regels!A81&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E81&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F81&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C81&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A81&amp;" *("&amp;Regels!I81&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F81&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G81&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H81&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B79&amp;" ("&amp;Regels!A79&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E79&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F79&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C79&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A79&amp;" *("&amp;Regels!I79&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F79&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G79&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H79&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4168,11 +4064,11 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
-        <f>Regels!D82</f>
+        <f>Regels!D80</f>
         <v>0</v>
       </c>
       <c r="B82" t="str">
-        <f>"### "&amp;Regels!B82&amp;" ("&amp;Regels!A82&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E82&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F82&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C82&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A82&amp;" *("&amp;Regels!I82&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F82&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G82&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H82&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B80&amp;" ("&amp;Regels!A80&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E80&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F80&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C80&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A80&amp;" *("&amp;Regels!I80&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F80&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G80&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H80&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4188,11 +4084,11 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
-        <f>Regels!D83</f>
+        <f>Regels!D81</f>
         <v>0</v>
       </c>
       <c r="B83" t="str">
-        <f>"### "&amp;Regels!B83&amp;" ("&amp;Regels!A83&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E83&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F83&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C83&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A83&amp;" *("&amp;Regels!I83&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F83&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G83&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H83&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B81&amp;" ("&amp;Regels!A81&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E81&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F81&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C81&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A81&amp;" *("&amp;Regels!I81&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F81&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G81&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H81&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4208,11 +4104,11 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
-        <f>Regels!D84</f>
+        <f>Regels!D82</f>
         <v>0</v>
       </c>
       <c r="B84" t="str">
-        <f>"### "&amp;Regels!B84&amp;" ("&amp;Regels!A84&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E84&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F84&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C84&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A84&amp;" *("&amp;Regels!I84&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F84&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G84&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H84&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B82&amp;" ("&amp;Regels!A82&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E82&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F82&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C82&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A82&amp;" *("&amp;Regels!I82&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F82&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G82&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H82&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4228,11 +4124,11 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
-        <f>Regels!D85</f>
+        <f>Regels!D83</f>
         <v>0</v>
       </c>
       <c r="B85" t="str">
-        <f>"### "&amp;Regels!B85&amp;" ("&amp;Regels!A85&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E85&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F85&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C85&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A85&amp;" *("&amp;Regels!I85&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F85&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G85&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H85&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B83&amp;" ("&amp;Regels!A83&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E83&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F83&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C83&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A83&amp;" *("&amp;Regels!I83&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F83&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G83&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H83&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4248,11 +4144,11 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
-        <f>Regels!D86</f>
+        <f>Regels!D84</f>
         <v>0</v>
       </c>
       <c r="B86" t="str">
-        <f>"### "&amp;Regels!B86&amp;" ("&amp;Regels!A86&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E86&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F86&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C86&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A86&amp;" *("&amp;Regels!I86&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F86&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G86&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H86&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B84&amp;" ("&amp;Regels!A84&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E84&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F84&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C84&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A84&amp;" *("&amp;Regels!I84&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F84&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G84&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H84&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4268,11 +4164,11 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
-        <f>Regels!D87</f>
+        <f>Regels!D85</f>
         <v>0</v>
       </c>
       <c r="B87" t="str">
-        <f>"### "&amp;Regels!B87&amp;" ("&amp;Regels!A87&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E87&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F87&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C87&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A87&amp;" *("&amp;Regels!I87&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F87&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G87&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H87&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B85&amp;" ("&amp;Regels!A85&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E85&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F85&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C85&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A85&amp;" *("&amp;Regels!I85&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F85&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G85&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H85&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4288,11 +4184,11 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
-        <f>Regels!D88</f>
+        <f>Regels!D86</f>
         <v>0</v>
       </c>
       <c r="B88" t="str">
-        <f>"### "&amp;Regels!B88&amp;" ("&amp;Regels!A88&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E88&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F88&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C88&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A88&amp;" *("&amp;Regels!I88&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F88&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G88&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H88&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B86&amp;" ("&amp;Regels!A86&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E86&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F86&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C86&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A86&amp;" *("&amp;Regels!I86&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F86&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G86&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H86&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4308,11 +4204,11 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
-        <f>Regels!D89</f>
+        <f>Regels!D87</f>
         <v>0</v>
       </c>
       <c r="B89" t="str">
-        <f>"### "&amp;Regels!B89&amp;" ("&amp;Regels!A89&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E89&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F89&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C89&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A89&amp;" *("&amp;Regels!I89&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F89&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G89&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H89&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B87&amp;" ("&amp;Regels!A87&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E87&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F87&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C87&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A87&amp;" *("&amp;Regels!I87&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F87&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G87&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H87&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4328,11 +4224,11 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
-        <f>Regels!D90</f>
+        <f>Regels!D88</f>
         <v>0</v>
       </c>
       <c r="B90" t="str">
-        <f>"### "&amp;Regels!B90&amp;" ("&amp;Regels!A90&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E90&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F90&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C90&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A90&amp;" *("&amp;Regels!I90&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F90&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G90&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H90&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B88&amp;" ("&amp;Regels!A88&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E88&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F88&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C88&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A88&amp;" *("&amp;Regels!I88&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F88&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G88&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H88&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4348,11 +4244,11 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
-        <f>Regels!D91</f>
+        <f>Regels!D89</f>
         <v>0</v>
       </c>
       <c r="B91" t="str">
-        <f>"### "&amp;Regels!B91&amp;" ("&amp;Regels!A91&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E91&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F91&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C91&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A91&amp;" *("&amp;Regels!I91&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F91&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G91&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H91&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B89&amp;" ("&amp;Regels!A89&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E89&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F89&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C89&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A89&amp;" *("&amp;Regels!I89&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F89&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G89&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H89&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4368,11 +4264,11 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
-        <f>Regels!D92</f>
+        <f>Regels!D90</f>
         <v>0</v>
       </c>
       <c r="B92" t="str">
-        <f>"### "&amp;Regels!B92&amp;" ("&amp;Regels!A92&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E92&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F92&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C92&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A92&amp;" *("&amp;Regels!I92&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F92&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G92&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H92&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B90&amp;" ("&amp;Regels!A90&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E90&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F90&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C90&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A90&amp;" *("&amp;Regels!I90&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F90&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G90&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H90&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4388,11 +4284,11 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
-        <f>Regels!D93</f>
+        <f>Regels!D91</f>
         <v>0</v>
       </c>
       <c r="B93" t="str">
-        <f>"### "&amp;Regels!B93&amp;" ("&amp;Regels!A93&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E93&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F93&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C93&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A93&amp;" *("&amp;Regels!I93&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F93&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G93&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H93&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B91&amp;" ("&amp;Regels!A91&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E91&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F91&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C91&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A91&amp;" *("&amp;Regels!I91&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F91&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G91&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H91&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4408,11 +4304,11 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
-        <f>Regels!D94</f>
+        <f>Regels!D92</f>
         <v>0</v>
       </c>
       <c r="B94" t="str">
-        <f>"### "&amp;Regels!B94&amp;" ("&amp;Regels!A94&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E94&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F94&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C94&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A94&amp;" *("&amp;Regels!I94&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F94&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G94&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H94&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B92&amp;" ("&amp;Regels!A92&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E92&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F92&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C92&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A92&amp;" *("&amp;Regels!I92&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F92&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G92&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H92&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4428,11 +4324,11 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
-        <f>Regels!D95</f>
+        <f>Regels!D93</f>
         <v>0</v>
       </c>
       <c r="B95" t="str">
-        <f>"### "&amp;Regels!B95&amp;" ("&amp;Regels!A95&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E95&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F95&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C95&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A95&amp;" *("&amp;Regels!I95&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F95&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G95&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H95&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B93&amp;" ("&amp;Regels!A93&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E93&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F93&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C93&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A93&amp;" *("&amp;Regels!I93&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F93&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G93&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H93&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4448,11 +4344,11 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
-        <f>Regels!D96</f>
+        <f>Regels!D94</f>
         <v>0</v>
       </c>
       <c r="B96" t="str">
-        <f>"### "&amp;Regels!B96&amp;" ("&amp;Regels!A96&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E96&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F96&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C96&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A96&amp;" *("&amp;Regels!I96&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F96&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G96&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H96&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B94&amp;" ("&amp;Regels!A94&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E94&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F94&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C94&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A94&amp;" *("&amp;Regels!I94&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F94&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G94&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H94&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4468,11 +4364,11 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
-        <f>Regels!D97</f>
+        <f>Regels!D95</f>
         <v>0</v>
       </c>
       <c r="B97" t="str">
-        <f>"### "&amp;Regels!B97&amp;" ("&amp;Regels!A97&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E97&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F97&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C97&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A97&amp;" *("&amp;Regels!I97&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F97&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G97&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H97&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B95&amp;" ("&amp;Regels!A95&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E95&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F95&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C95&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A95&amp;" *("&amp;Regels!I95&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F95&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G95&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H95&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4488,11 +4384,11 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
-        <f>Regels!D98</f>
+        <f>Regels!D96</f>
         <v>0</v>
       </c>
       <c r="B98" t="str">
-        <f>"### "&amp;Regels!B98&amp;" ("&amp;Regels!A98&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E98&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F98&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C98&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A98&amp;" *("&amp;Regels!I98&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F98&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G98&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H98&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B96&amp;" ("&amp;Regels!A96&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E96&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F96&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C96&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A96&amp;" *("&amp;Regels!I96&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F96&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G96&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H96&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4508,11 +4404,11 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
-        <f>Regels!D99</f>
+        <f>Regels!D97</f>
         <v>0</v>
       </c>
       <c r="B99" t="str">
-        <f>"### "&amp;Regels!B99&amp;" ("&amp;Regels!A99&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E99&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F99&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C99&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A99&amp;" *("&amp;Regels!I99&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F99&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G99&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H99&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B97&amp;" ("&amp;Regels!A97&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E97&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F97&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C97&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A97&amp;" *("&amp;Regels!I97&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F97&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G97&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H97&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4528,11 +4424,11 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
-        <f>Regels!D100</f>
+        <f>Regels!D98</f>
         <v>0</v>
       </c>
       <c r="B100" t="str">
-        <f>"### "&amp;Regels!B100&amp;" ("&amp;Regels!A100&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E100&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F100&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C100&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A100&amp;" *("&amp;Regels!I100&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F100&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G100&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H100&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B98&amp;" ("&amp;Regels!A98&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E98&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F98&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C98&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A98&amp;" *("&amp;Regels!I98&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F98&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G98&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H98&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4548,11 +4444,11 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
-        <f>Regels!D101</f>
+        <f>Regels!D99</f>
         <v>0</v>
       </c>
       <c r="B101" t="str">
-        <f>"### "&amp;Regels!B101&amp;" ("&amp;Regels!A101&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E101&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F101&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C101&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A101&amp;" *("&amp;Regels!I101&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F101&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G101&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H101&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B99&amp;" ("&amp;Regels!A99&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E99&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F99&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C99&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A99&amp;" *("&amp;Regels!I99&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F99&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G99&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H99&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4568,11 +4464,11 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
-        <f>Regels!D102</f>
+        <f>Regels!D100</f>
         <v>0</v>
       </c>
       <c r="B102" t="str">
-        <f>"### "&amp;Regels!B102&amp;" ("&amp;Regels!A102&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E102&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F102&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C102&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A102&amp;" *("&amp;Regels!I102&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F102&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G102&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H102&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B100&amp;" ("&amp;Regels!A100&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E100&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F100&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C100&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A100&amp;" *("&amp;Regels!I100&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F100&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G100&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H100&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4588,11 +4484,11 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
-        <f>Regels!D103</f>
+        <f>Regels!D101</f>
         <v>0</v>
       </c>
       <c r="B103" t="str">
-        <f>"### "&amp;Regels!B103&amp;" ("&amp;Regels!A103&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E103&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F103&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C103&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A103&amp;" *("&amp;Regels!I103&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F103&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G103&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H103&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B101&amp;" ("&amp;Regels!A101&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E101&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F101&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C101&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A101&amp;" *("&amp;Regels!I101&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F101&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G101&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H101&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4608,11 +4504,11 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
-        <f>Regels!D104</f>
+        <f>Regels!D102</f>
         <v>0</v>
       </c>
       <c r="B104" t="str">
-        <f>"### "&amp;Regels!B104&amp;" ("&amp;Regels!A104&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E104&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F104&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C104&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A104&amp;" *("&amp;Regels!I104&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F104&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G104&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H104&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B102&amp;" ("&amp;Regels!A102&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E102&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F102&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C102&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A102&amp;" *("&amp;Regels!I102&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F102&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G102&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H102&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4628,11 +4524,11 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
-        <f>Regels!D105</f>
+        <f>Regels!D103</f>
         <v>0</v>
       </c>
       <c r="B105" t="str">
-        <f>"### "&amp;Regels!B105&amp;" ("&amp;Regels!A105&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E105&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F105&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C105&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A105&amp;" *("&amp;Regels!I105&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F105&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G105&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H105&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B103&amp;" ("&amp;Regels!A103&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E103&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F103&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C103&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A103&amp;" *("&amp;Regels!I103&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F103&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G103&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H103&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4648,11 +4544,11 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
-        <f>Regels!D106</f>
+        <f>Regels!D104</f>
         <v>0</v>
       </c>
       <c r="B106" t="str">
-        <f>"### "&amp;Regels!B106&amp;" ("&amp;Regels!A106&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E106&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F106&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C106&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A106&amp;" *("&amp;Regels!I106&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F106&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G106&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H106&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B104&amp;" ("&amp;Regels!A104&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E104&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F104&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C104&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A104&amp;" *("&amp;Regels!I104&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F104&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G104&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H104&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4668,11 +4564,11 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
-        <f>Regels!D107</f>
+        <f>Regels!D105</f>
         <v>0</v>
       </c>
       <c r="B107" t="str">
-        <f>"### "&amp;Regels!B107&amp;" ("&amp;Regels!A107&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E107&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F107&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C107&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A107&amp;" *("&amp;Regels!I107&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F107&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G107&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H107&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B105&amp;" ("&amp;Regels!A105&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E105&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F105&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C105&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A105&amp;" *("&amp;Regels!I105&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F105&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G105&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H105&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4688,11 +4584,11 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
-        <f>Regels!D108</f>
+        <f>Regels!D106</f>
         <v>0</v>
       </c>
       <c r="B108" t="str">
-        <f>"### "&amp;Regels!B108&amp;" ("&amp;Regels!A108&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E108&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F108&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C108&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A108&amp;" *("&amp;Regels!I108&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F108&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G108&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H108&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B106&amp;" ("&amp;Regels!A106&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E106&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F106&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C106&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A106&amp;" *("&amp;Regels!I106&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F106&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G106&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H106&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4708,11 +4604,11 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
-        <f>Regels!D109</f>
+        <f>Regels!D107</f>
         <v>0</v>
       </c>
       <c r="B109" t="str">
-        <f>"### "&amp;Regels!B109&amp;" ("&amp;Regels!A109&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E109&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F109&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C109&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A109&amp;" *("&amp;Regels!I109&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F109&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G109&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H109&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B107&amp;" ("&amp;Regels!A107&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E107&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F107&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C107&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A107&amp;" *("&amp;Regels!I107&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F107&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G107&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H107&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4728,11 +4624,11 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
-        <f>Regels!D110</f>
+        <f>Regels!D108</f>
         <v>0</v>
       </c>
       <c r="B110" t="str">
-        <f>"### "&amp;Regels!B110&amp;" ("&amp;Regels!A110&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E110&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F110&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C110&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A110&amp;" *("&amp;Regels!I110&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F110&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G110&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H110&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B108&amp;" ("&amp;Regels!A108&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E108&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F108&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C108&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A108&amp;" *("&amp;Regels!I108&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F108&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G108&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H108&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4748,11 +4644,11 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
-        <f>Regels!D111</f>
+        <f>Regels!D109</f>
         <v>0</v>
       </c>
       <c r="B111" t="str">
-        <f>"### "&amp;Regels!B111&amp;" ("&amp;Regels!A111&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E111&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F111&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C111&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A111&amp;" *("&amp;Regels!I111&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F111&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G111&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H111&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B109&amp;" ("&amp;Regels!A109&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E109&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F109&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C109&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A109&amp;" *("&amp;Regels!I109&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F109&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G109&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H109&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4768,11 +4664,11 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
-        <f>Regels!D112</f>
+        <f>Regels!D110</f>
         <v>0</v>
       </c>
       <c r="B112" t="str">
-        <f>"### "&amp;Regels!B112&amp;" ("&amp;Regels!A112&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E112&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F112&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C112&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A112&amp;" *("&amp;Regels!I112&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F112&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G112&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H112&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B110&amp;" ("&amp;Regels!A110&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E110&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F110&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C110&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A110&amp;" *("&amp;Regels!I110&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F110&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G110&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H110&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4788,11 +4684,11 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
-        <f>Regels!D113</f>
+        <f>Regels!D111</f>
         <v>0</v>
       </c>
       <c r="B113" t="str">
-        <f>"### "&amp;Regels!B113&amp;" ("&amp;Regels!A113&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E113&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F113&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C113&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A113&amp;" *("&amp;Regels!I113&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F113&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G113&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H113&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B111&amp;" ("&amp;Regels!A111&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E111&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F111&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C111&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A111&amp;" *("&amp;Regels!I111&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F111&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G111&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H111&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4808,11 +4704,11 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
-        <f>Regels!D114</f>
+        <f>Regels!D112</f>
         <v>0</v>
       </c>
       <c r="B114" t="str">
-        <f>"### "&amp;Regels!B114&amp;" ("&amp;Regels!A114&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E114&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F114&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C114&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A114&amp;" *("&amp;Regels!I114&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F114&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G114&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H114&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B112&amp;" ("&amp;Regels!A112&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E112&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F112&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C112&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A112&amp;" *("&amp;Regels!I112&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F112&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G112&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H112&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4828,11 +4724,11 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
-        <f>Regels!D115</f>
+        <f>Regels!D113</f>
         <v>0</v>
       </c>
       <c r="B115" t="str">
-        <f>"### "&amp;Regels!B115&amp;" ("&amp;Regels!A115&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E115&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F115&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C115&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A115&amp;" *("&amp;Regels!I115&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F115&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G115&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H115&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B113&amp;" ("&amp;Regels!A113&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E113&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F113&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C113&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A113&amp;" *("&amp;Regels!I113&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F113&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G113&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H113&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4848,11 +4744,11 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
-        <f>Regels!D116</f>
+        <f>Regels!D114</f>
         <v>0</v>
       </c>
       <c r="B116" t="str">
-        <f>"### "&amp;Regels!B116&amp;" ("&amp;Regels!A116&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E116&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F116&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C116&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A116&amp;" *("&amp;Regels!I116&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F116&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G116&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H116&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B114&amp;" ("&amp;Regels!A114&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E114&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F114&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C114&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A114&amp;" *("&amp;Regels!I114&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F114&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G114&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H114&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4868,11 +4764,11 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
-        <f>Regels!D117</f>
+        <f>Regels!D115</f>
         <v>0</v>
       </c>
       <c r="B117" t="str">
-        <f>"### "&amp;Regels!B117&amp;" ("&amp;Regels!A117&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E117&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F117&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C117&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A117&amp;" *("&amp;Regels!I117&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F117&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G117&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H117&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B115&amp;" ("&amp;Regels!A115&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E115&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F115&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C115&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A115&amp;" *("&amp;Regels!I115&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F115&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G115&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H115&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4888,11 +4784,11 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
-        <f>Regels!D118</f>
+        <f>Regels!D116</f>
         <v>0</v>
       </c>
       <c r="B118" t="str">
-        <f>"### "&amp;Regels!B118&amp;" ("&amp;Regels!A118&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E118&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F118&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C118&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A118&amp;" *("&amp;Regels!I118&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F118&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G118&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H118&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B116&amp;" ("&amp;Regels!A116&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E116&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F116&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C116&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A116&amp;" *("&amp;Regels!I116&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F116&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G116&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H116&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4908,11 +4804,11 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
-        <f>Regels!D119</f>
+        <f>Regels!D117</f>
         <v>0</v>
       </c>
       <c r="B119" t="str">
-        <f>"### "&amp;Regels!B119&amp;" ("&amp;Regels!A119&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E119&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F119&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C119&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A119&amp;" *("&amp;Regels!I119&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F119&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G119&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H119&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B117&amp;" ("&amp;Regels!A117&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E117&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F117&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C117&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A117&amp;" *("&amp;Regels!I117&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F117&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G117&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H117&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4928,11 +4824,11 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
-        <f>Regels!D120</f>
+        <f>Regels!D118</f>
         <v>0</v>
       </c>
       <c r="B120" t="str">
-        <f>"### "&amp;Regels!B120&amp;" ("&amp;Regels!A120&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E120&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F120&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C120&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A120&amp;" *("&amp;Regels!I120&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F120&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G120&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H120&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B118&amp;" ("&amp;Regels!A118&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E118&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F118&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C118&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A118&amp;" *("&amp;Regels!I118&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F118&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G118&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H118&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4948,11 +4844,11 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
-        <f>Regels!D121</f>
+        <f>Regels!D119</f>
         <v>0</v>
       </c>
       <c r="B121" t="str">
-        <f>"### "&amp;Regels!B121&amp;" ("&amp;Regels!A121&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E121&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F121&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C121&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A121&amp;" *("&amp;Regels!I121&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F121&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G121&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H121&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B119&amp;" ("&amp;Regels!A119&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E119&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F119&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C119&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A119&amp;" *("&amp;Regels!I119&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F119&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G119&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H119&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4968,11 +4864,11 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
-        <f>Regels!D122</f>
+        <f>Regels!D120</f>
         <v>0</v>
       </c>
       <c r="B122" t="str">
-        <f>"### "&amp;Regels!B122&amp;" ("&amp;Regels!A122&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E122&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F122&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C122&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A122&amp;" *("&amp;Regels!I122&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F122&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G122&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H122&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B120&amp;" ("&amp;Regels!A120&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E120&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F120&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C120&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A120&amp;" *("&amp;Regels!I120&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F120&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G120&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H120&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -4988,11 +4884,11 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
-        <f>Regels!D123</f>
+        <f>Regels!D121</f>
         <v>0</v>
       </c>
       <c r="B123" t="str">
-        <f>"### "&amp;Regels!B123&amp;" ("&amp;Regels!A123&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E123&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F123&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C123&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A123&amp;" *("&amp;Regels!I123&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F123&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G123&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H123&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B121&amp;" ("&amp;Regels!A121&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E121&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F121&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C121&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A121&amp;" *("&amp;Regels!I121&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F121&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G121&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H121&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5008,11 +4904,11 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
-        <f>Regels!D124</f>
+        <f>Regels!D122</f>
         <v>0</v>
       </c>
       <c r="B124" t="str">
-        <f>"### "&amp;Regels!B124&amp;" ("&amp;Regels!A124&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E124&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F124&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C124&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A124&amp;" *("&amp;Regels!I124&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F124&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G124&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H124&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B122&amp;" ("&amp;Regels!A122&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E122&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F122&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C122&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A122&amp;" *("&amp;Regels!I122&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F122&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G122&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H122&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5028,11 +4924,11 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
-        <f>Regels!D125</f>
+        <f>Regels!D123</f>
         <v>0</v>
       </c>
       <c r="B125" t="str">
-        <f>"### "&amp;Regels!B125&amp;" ("&amp;Regels!A125&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E125&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F125&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C125&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A125&amp;" *("&amp;Regels!I125&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F125&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G125&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H125&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B123&amp;" ("&amp;Regels!A123&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E123&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F123&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C123&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A123&amp;" *("&amp;Regels!I123&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F123&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G123&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H123&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5048,11 +4944,11 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
-        <f>Regels!D126</f>
+        <f>Regels!D124</f>
         <v>0</v>
       </c>
       <c r="B126" t="str">
-        <f>"### "&amp;Regels!B126&amp;" ("&amp;Regels!A126&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E126&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F126&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C126&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A126&amp;" *("&amp;Regels!I126&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F126&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G126&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H126&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B124&amp;" ("&amp;Regels!A124&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E124&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F124&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C124&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A124&amp;" *("&amp;Regels!I124&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F124&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G124&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H124&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5068,11 +4964,11 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
-        <f>Regels!D127</f>
+        <f>Regels!D125</f>
         <v>0</v>
       </c>
       <c r="B127" t="str">
-        <f>"### "&amp;Regels!B127&amp;" ("&amp;Regels!A127&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E127&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F127&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C127&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A127&amp;" *("&amp;Regels!I127&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F127&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G127&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H127&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B125&amp;" ("&amp;Regels!A125&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E125&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F125&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C125&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A125&amp;" *("&amp;Regels!I125&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F125&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G125&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H125&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5088,11 +4984,11 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
-        <f>Regels!D128</f>
+        <f>Regels!D126</f>
         <v>0</v>
       </c>
       <c r="B128" t="str">
-        <f>"### "&amp;Regels!B128&amp;" ("&amp;Regels!A128&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E128&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F128&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C128&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A128&amp;" *("&amp;Regels!I128&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F128&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G128&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H128&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B126&amp;" ("&amp;Regels!A126&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E126&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F126&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C126&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A126&amp;" *("&amp;Regels!I126&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F126&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G126&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H126&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5108,11 +5004,11 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
-        <f>Regels!D129</f>
+        <f>Regels!D127</f>
         <v>0</v>
       </c>
       <c r="B129" t="str">
-        <f>"### "&amp;Regels!B129&amp;" ("&amp;Regels!A129&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E129&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F129&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C129&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A129&amp;" *("&amp;Regels!I129&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F129&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G129&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H129&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B127&amp;" ("&amp;Regels!A127&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E127&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F127&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C127&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A127&amp;" *("&amp;Regels!I127&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F127&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G127&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H127&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5128,11 +5024,11 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
-        <f>Regels!D130</f>
+        <f>Regels!D128</f>
         <v>0</v>
       </c>
       <c r="B130" t="str">
-        <f>"### "&amp;Regels!B130&amp;" ("&amp;Regels!A130&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E130&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F130&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C130&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A130&amp;" *("&amp;Regels!I130&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F130&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G130&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H130&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B128&amp;" ("&amp;Regels!A128&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E128&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F128&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C128&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A128&amp;" *("&amp;Regels!I128&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F128&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G128&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H128&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5148,11 +5044,11 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
-        <f>Regels!D131</f>
+        <f>Regels!D129</f>
         <v>0</v>
       </c>
       <c r="B131" t="str">
-        <f>"### "&amp;Regels!B131&amp;" ("&amp;Regels!A131&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E131&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F131&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C131&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A131&amp;" *("&amp;Regels!I131&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F131&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G131&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H131&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B129&amp;" ("&amp;Regels!A129&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E129&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F129&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C129&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A129&amp;" *("&amp;Regels!I129&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F129&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G129&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H129&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5168,11 +5064,11 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
-        <f>Regels!D132</f>
+        <f>Regels!D130</f>
         <v>0</v>
       </c>
       <c r="B132" t="str">
-        <f>"### "&amp;Regels!B132&amp;" ("&amp;Regels!A132&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E132&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F132&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C132&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A132&amp;" *("&amp;Regels!I132&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F132&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G132&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H132&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B130&amp;" ("&amp;Regels!A130&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E130&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F130&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C130&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A130&amp;" *("&amp;Regels!I130&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F130&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G130&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H130&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5188,11 +5084,11 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
-        <f>Regels!D133</f>
+        <f>Regels!D131</f>
         <v>0</v>
       </c>
       <c r="B133" t="str">
-        <f>"### "&amp;Regels!B133&amp;" ("&amp;Regels!A133&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E133&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F133&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C133&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A133&amp;" *("&amp;Regels!I133&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F133&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G133&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H133&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B131&amp;" ("&amp;Regels!A131&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E131&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F131&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C131&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A131&amp;" *("&amp;Regels!I131&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F131&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G131&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H131&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5208,11 +5104,11 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
-        <f>Regels!D134</f>
+        <f>Regels!D132</f>
         <v>0</v>
       </c>
       <c r="B134" t="str">
-        <f>"### "&amp;Regels!B134&amp;" ("&amp;Regels!A134&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E134&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F134&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C134&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A134&amp;" *("&amp;Regels!I134&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F134&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G134&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H134&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B132&amp;" ("&amp;Regels!A132&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E132&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F132&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C132&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A132&amp;" *("&amp;Regels!I132&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F132&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G132&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H132&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5228,11 +5124,11 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
-        <f>Regels!D135</f>
+        <f>Regels!D133</f>
         <v>0</v>
       </c>
       <c r="B135" t="str">
-        <f>"### "&amp;Regels!B135&amp;" ("&amp;Regels!A135&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E135&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F135&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C135&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A135&amp;" *("&amp;Regels!I135&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F135&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G135&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H135&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B133&amp;" ("&amp;Regels!A133&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E133&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F133&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C133&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A133&amp;" *("&amp;Regels!I133&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F133&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G133&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H133&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5248,11 +5144,11 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
-        <f>Regels!D136</f>
+        <f>Regels!D134</f>
         <v>0</v>
       </c>
       <c r="B136" t="str">
-        <f>"### "&amp;Regels!B136&amp;" ("&amp;Regels!A136&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E136&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F136&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C136&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A136&amp;" *("&amp;Regels!I136&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F136&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G136&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H136&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B134&amp;" ("&amp;Regels!A134&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E134&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F134&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C134&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A134&amp;" *("&amp;Regels!I134&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F134&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G134&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H134&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5268,11 +5164,11 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
-        <f>Regels!D137</f>
+        <f>Regels!D135</f>
         <v>0</v>
       </c>
       <c r="B137" t="str">
-        <f>"### "&amp;Regels!B137&amp;" ("&amp;Regels!A137&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E137&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F137&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C137&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A137&amp;" *("&amp;Regels!I137&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F137&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G137&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H137&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B135&amp;" ("&amp;Regels!A135&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E135&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F135&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C135&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A135&amp;" *("&amp;Regels!I135&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F135&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G135&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H135&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5288,11 +5184,11 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
-        <f>Regels!D138</f>
+        <f>Regels!D136</f>
         <v>0</v>
       </c>
       <c r="B138" t="str">
-        <f>"### "&amp;Regels!B138&amp;" ("&amp;Regels!A138&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E138&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F138&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C138&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A138&amp;" *("&amp;Regels!I138&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F138&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G138&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H138&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B136&amp;" ("&amp;Regels!A136&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E136&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F136&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C136&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A136&amp;" *("&amp;Regels!I136&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F136&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G136&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H136&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5308,11 +5204,11 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
-        <f>Regels!D139</f>
+        <f>Regels!D137</f>
         <v>0</v>
       </c>
       <c r="B139" t="str">
-        <f>"### "&amp;Regels!B139&amp;" ("&amp;Regels!A139&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E139&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F139&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C139&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A139&amp;" *("&amp;Regels!I139&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F139&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G139&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H139&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B137&amp;" ("&amp;Regels!A137&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E137&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F137&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C137&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A137&amp;" *("&amp;Regels!I137&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F137&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G137&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H137&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5328,11 +5224,11 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
-        <f>Regels!D140</f>
+        <f>Regels!D138</f>
         <v>0</v>
       </c>
       <c r="B140" t="str">
-        <f>"### "&amp;Regels!B140&amp;" ("&amp;Regels!A140&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E140&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F140&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C140&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A140&amp;" *("&amp;Regels!I140&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F140&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G140&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H140&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B138&amp;" ("&amp;Regels!A138&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E138&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F138&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C138&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A138&amp;" *("&amp;Regels!I138&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F138&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G138&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H138&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5348,11 +5244,11 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
-        <f>Regels!D141</f>
+        <f>Regels!D139</f>
         <v>0</v>
       </c>
       <c r="B141" t="str">
-        <f>"### "&amp;Regels!B141&amp;" ("&amp;Regels!A141&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E141&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F141&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C141&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A141&amp;" *("&amp;Regels!I141&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F141&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G141&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H141&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B139&amp;" ("&amp;Regels!A139&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E139&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F139&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C139&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A139&amp;" *("&amp;Regels!I139&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F139&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G139&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H139&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5368,11 +5264,11 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
-        <f>Regels!D142</f>
+        <f>Regels!D140</f>
         <v>0</v>
       </c>
       <c r="B142" t="str">
-        <f>"### "&amp;Regels!B142&amp;" ("&amp;Regels!A142&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E142&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F142&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C142&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A142&amp;" *("&amp;Regels!I142&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F142&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G142&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H142&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B140&amp;" ("&amp;Regels!A140&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E140&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F140&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C140&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A140&amp;" *("&amp;Regels!I140&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F140&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G140&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H140&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5388,11 +5284,11 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
-        <f>Regels!D143</f>
+        <f>Regels!D141</f>
         <v>0</v>
       </c>
       <c r="B143" t="str">
-        <f>"### "&amp;Regels!B143&amp;" ("&amp;Regels!A143&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E143&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F143&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C143&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A143&amp;" *("&amp;Regels!I143&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F143&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G143&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H143&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B141&amp;" ("&amp;Regels!A141&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E141&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F141&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C141&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A141&amp;" *("&amp;Regels!I141&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F141&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G141&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H141&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5408,11 +5304,11 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
-        <f>Regels!D144</f>
+        <f>Regels!D142</f>
         <v>0</v>
       </c>
       <c r="B144" t="str">
-        <f>"### "&amp;Regels!B144&amp;" ("&amp;Regels!A144&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E144&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F144&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C144&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A144&amp;" *("&amp;Regels!I144&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F144&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G144&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H144&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B142&amp;" ("&amp;Regels!A142&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E142&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F142&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C142&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A142&amp;" *("&amp;Regels!I142&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F142&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G142&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H142&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5428,11 +5324,11 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
-        <f>Regels!D145</f>
+        <f>Regels!D143</f>
         <v>0</v>
       </c>
       <c r="B145" t="str">
-        <f>"### "&amp;Regels!B145&amp;" ("&amp;Regels!A145&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E145&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F145&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C145&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A145&amp;" *("&amp;Regels!I145&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F145&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G145&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H145&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B143&amp;" ("&amp;Regels!A143&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E143&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F143&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C143&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A143&amp;" *("&amp;Regels!I143&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F143&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G143&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H143&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5448,11 +5344,11 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
-        <f>Regels!D146</f>
+        <f>Regels!D144</f>
         <v>0</v>
       </c>
       <c r="B146" t="str">
-        <f>"### "&amp;Regels!B146&amp;" ("&amp;Regels!A146&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E146&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F146&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C146&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A146&amp;" *("&amp;Regels!I146&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F146&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G146&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H146&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B144&amp;" ("&amp;Regels!A144&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E144&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F144&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C144&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A144&amp;" *("&amp;Regels!I144&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F144&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G144&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H144&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5468,11 +5364,11 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
-        <f>Regels!D147</f>
+        <f>Regels!D145</f>
         <v>0</v>
       </c>
       <c r="B147" t="str">
-        <f>"### "&amp;Regels!B147&amp;" ("&amp;Regels!A147&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E147&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F147&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C147&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A147&amp;" *("&amp;Regels!I147&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F147&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G147&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H147&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B145&amp;" ("&amp;Regels!A145&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E145&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F145&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C145&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A145&amp;" *("&amp;Regels!I145&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F145&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G145&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H145&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5488,11 +5384,11 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
-        <f>Regels!D148</f>
+        <f>Regels!D146</f>
         <v>0</v>
       </c>
       <c r="B148" t="str">
-        <f>"### "&amp;Regels!B148&amp;" ("&amp;Regels!A148&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E148&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F148&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C148&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A148&amp;" *("&amp;Regels!I148&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F148&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G148&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H148&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B146&amp;" ("&amp;Regels!A146&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E146&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F146&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C146&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A146&amp;" *("&amp;Regels!I146&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F146&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G146&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H146&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5508,11 +5404,11 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
-        <f>Regels!D149</f>
+        <f>Regels!D147</f>
         <v>0</v>
       </c>
       <c r="B149" t="str">
-        <f>"### "&amp;Regels!B149&amp;" ("&amp;Regels!A149&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E149&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F149&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C149&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A149&amp;" *("&amp;Regels!I149&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F149&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G149&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H149&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B147&amp;" ("&amp;Regels!A147&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E147&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F147&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C147&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A147&amp;" *("&amp;Regels!I147&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F147&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G147&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H147&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5528,11 +5424,11 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
-        <f>Regels!D150</f>
+        <f>Regels!D148</f>
         <v>0</v>
       </c>
       <c r="B150" t="str">
-        <f>"### "&amp;Regels!B150&amp;" ("&amp;Regels!A150&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E150&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F150&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C150&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A150&amp;" *("&amp;Regels!I150&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F150&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G150&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H150&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B148&amp;" ("&amp;Regels!A148&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E148&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F148&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C148&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A148&amp;" *("&amp;Regels!I148&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F148&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G148&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H148&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5548,11 +5444,11 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
-        <f>Regels!D151</f>
+        <f>Regels!D149</f>
         <v>0</v>
       </c>
       <c r="B151" t="str">
-        <f>"### "&amp;Regels!B151&amp;" ("&amp;Regels!A151&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E151&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F151&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C151&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A151&amp;" *("&amp;Regels!I151&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F151&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G151&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H151&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B149&amp;" ("&amp;Regels!A149&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E149&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F149&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C149&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A149&amp;" *("&amp;Regels!I149&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F149&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G149&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H149&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5568,11 +5464,11 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
-        <f>Regels!D152</f>
+        <f>Regels!D150</f>
         <v>0</v>
       </c>
       <c r="B152" t="str">
-        <f>"### "&amp;Regels!B152&amp;" ("&amp;Regels!A152&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E152&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F152&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C152&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A152&amp;" *("&amp;Regels!I152&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F152&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G152&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H152&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B150&amp;" ("&amp;Regels!A150&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E150&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F150&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C150&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A150&amp;" *("&amp;Regels!I150&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F150&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G150&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H150&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5588,11 +5484,11 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
-        <f>Regels!D153</f>
+        <f>Regels!D151</f>
         <v>0</v>
       </c>
       <c r="B153" t="str">
-        <f>"### "&amp;Regels!B153&amp;" ("&amp;Regels!A153&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E153&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F153&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C153&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A153&amp;" *("&amp;Regels!I153&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F153&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G153&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H153&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B151&amp;" ("&amp;Regels!A151&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E151&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F151&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C151&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A151&amp;" *("&amp;Regels!I151&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F151&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G151&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H151&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5608,11 +5504,11 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
-        <f>Regels!D154</f>
+        <f>Regels!D152</f>
         <v>0</v>
       </c>
       <c r="B154" t="str">
-        <f>"### "&amp;Regels!B154&amp;" ("&amp;Regels!A154&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E154&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F154&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C154&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A154&amp;" *("&amp;Regels!I154&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F154&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G154&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H154&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B152&amp;" ("&amp;Regels!A152&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E152&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F152&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C152&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A152&amp;" *("&amp;Regels!I152&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F152&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G152&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H152&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5628,11 +5524,11 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
-        <f>Regels!D155</f>
+        <f>Regels!D153</f>
         <v>0</v>
       </c>
       <c r="B155" t="str">
-        <f>"### "&amp;Regels!B155&amp;" ("&amp;Regels!A155&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E155&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F155&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C155&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A155&amp;" *("&amp;Regels!I155&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F155&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G155&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H155&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B153&amp;" ("&amp;Regels!A153&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E153&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F153&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C153&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A153&amp;" *("&amp;Regels!I153&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F153&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G153&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H153&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5648,11 +5544,11 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
-        <f>Regels!D156</f>
+        <f>Regels!D154</f>
         <v>0</v>
       </c>
       <c r="B156" t="str">
-        <f>"### "&amp;Regels!B156&amp;" ("&amp;Regels!A156&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E156&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F156&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C156&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A156&amp;" *("&amp;Regels!I156&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F156&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G156&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H156&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B154&amp;" ("&amp;Regels!A154&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E154&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F154&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C154&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A154&amp;" *("&amp;Regels!I154&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F154&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G154&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H154&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5668,11 +5564,11 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
-        <f>Regels!D157</f>
+        <f>Regels!D155</f>
         <v>0</v>
       </c>
       <c r="B157" t="str">
-        <f>"### "&amp;Regels!B157&amp;" ("&amp;Regels!A157&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E157&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F157&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C157&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A157&amp;" *("&amp;Regels!I157&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F157&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G157&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H157&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B155&amp;" ("&amp;Regels!A155&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E155&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F155&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C155&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A155&amp;" *("&amp;Regels!I155&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F155&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G155&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H155&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5688,11 +5584,11 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
-        <f>Regels!D158</f>
+        <f>Regels!D156</f>
         <v>0</v>
       </c>
       <c r="B158" t="str">
-        <f>"### "&amp;Regels!B158&amp;" ("&amp;Regels!A158&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E158&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F158&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C158&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A158&amp;" *("&amp;Regels!I158&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F158&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G158&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H158&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B156&amp;" ("&amp;Regels!A156&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E156&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F156&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C156&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A156&amp;" *("&amp;Regels!I156&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F156&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G156&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H156&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5708,11 +5604,11 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
-        <f>Regels!D159</f>
+        <f>Regels!D157</f>
         <v>0</v>
       </c>
       <c r="B159" t="str">
-        <f>"### "&amp;Regels!B159&amp;" ("&amp;Regels!A159&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E159&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F159&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C159&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A159&amp;" *("&amp;Regels!I159&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F159&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G159&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H159&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B157&amp;" ("&amp;Regels!A157&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E157&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F157&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C157&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A157&amp;" *("&amp;Regels!I157&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F157&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G157&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H157&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5728,11 +5624,11 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
-        <f>Regels!D160</f>
+        <f>Regels!D158</f>
         <v>0</v>
       </c>
       <c r="B160" t="str">
-        <f>"### "&amp;Regels!B160&amp;" ("&amp;Regels!A160&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E160&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F160&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C160&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A160&amp;" *("&amp;Regels!I160&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F160&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G160&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H160&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B158&amp;" ("&amp;Regels!A158&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E158&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F158&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C158&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A158&amp;" *("&amp;Regels!I158&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F158&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G158&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H158&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5748,11 +5644,11 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
-        <f>Regels!D161</f>
+        <f>Regels!D159</f>
         <v>0</v>
       </c>
       <c r="B161" t="str">
-        <f>"### "&amp;Regels!B161&amp;" ("&amp;Regels!A161&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E161&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F161&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C161&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A161&amp;" *("&amp;Regels!I161&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F161&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G161&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H161&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B159&amp;" ("&amp;Regels!A159&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E159&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F159&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C159&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A159&amp;" *("&amp;Regels!I159&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F159&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G159&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H159&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5768,11 +5664,11 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
-        <f>Regels!D162</f>
+        <f>Regels!D160</f>
         <v>0</v>
       </c>
       <c r="B162" t="str">
-        <f>"### "&amp;Regels!B162&amp;" ("&amp;Regels!A162&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E162&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F162&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C162&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A162&amp;" *("&amp;Regels!I162&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F162&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G162&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H162&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B160&amp;" ("&amp;Regels!A160&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E160&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F160&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C160&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A160&amp;" *("&amp;Regels!I160&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F160&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G160&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H160&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5788,11 +5684,11 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
-        <f>Regels!D163</f>
+        <f>Regels!D161</f>
         <v>0</v>
       </c>
       <c r="B163" t="str">
-        <f>"### "&amp;Regels!B163&amp;" ("&amp;Regels!A163&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E163&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F163&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C163&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A163&amp;" *("&amp;Regels!I163&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F163&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G163&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H163&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B161&amp;" ("&amp;Regels!A161&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E161&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F161&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C161&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A161&amp;" *("&amp;Regels!I161&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F161&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G161&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H161&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5808,11 +5704,11 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
-        <f>Regels!D164</f>
+        <f>Regels!D162</f>
         <v>0</v>
       </c>
       <c r="B164" t="str">
-        <f>"### "&amp;Regels!B164&amp;" ("&amp;Regels!A164&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E164&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F164&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C164&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A164&amp;" *("&amp;Regels!I164&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F164&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G164&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H164&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B162&amp;" ("&amp;Regels!A162&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E162&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F162&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C162&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A162&amp;" *("&amp;Regels!I162&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F162&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G162&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H162&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5828,11 +5724,11 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
-        <f>Regels!D165</f>
+        <f>Regels!D163</f>
         <v>0</v>
       </c>
       <c r="B165" t="str">
-        <f>"### "&amp;Regels!B165&amp;" ("&amp;Regels!A165&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E165&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F165&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C165&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A165&amp;" *("&amp;Regels!I165&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F165&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G165&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H165&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B163&amp;" ("&amp;Regels!A163&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E163&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F163&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C163&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A163&amp;" *("&amp;Regels!I163&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F163&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G163&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H163&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5848,11 +5744,11 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
-        <f>Regels!D166</f>
+        <f>Regels!D164</f>
         <v>0</v>
       </c>
       <c r="B166" t="str">
-        <f>"### "&amp;Regels!B166&amp;" ("&amp;Regels!A166&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E166&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F166&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C166&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A166&amp;" *("&amp;Regels!I166&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F166&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G166&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H166&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B164&amp;" ("&amp;Regels!A164&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E164&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F164&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C164&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A164&amp;" *("&amp;Regels!I164&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F164&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G164&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H164&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5868,11 +5764,11 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
-        <f>Regels!D167</f>
+        <f>Regels!D165</f>
         <v>0</v>
       </c>
       <c r="B167" t="str">
-        <f>"### "&amp;Regels!B167&amp;" ("&amp;Regels!A167&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E167&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F167&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C167&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A167&amp;" *("&amp;Regels!I167&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F167&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G167&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H167&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B165&amp;" ("&amp;Regels!A165&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E165&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F165&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C165&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A165&amp;" *("&amp;Regels!I165&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F165&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G165&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H165&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5888,11 +5784,11 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
-        <f>Regels!D168</f>
+        <f>Regels!D166</f>
         <v>0</v>
       </c>
       <c r="B168" t="str">
-        <f>"### "&amp;Regels!B168&amp;" ("&amp;Regels!A168&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E168&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F168&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C168&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A168&amp;" *("&amp;Regels!I168&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F168&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G168&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H168&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B166&amp;" ("&amp;Regels!A166&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E166&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F166&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C166&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A166&amp;" *("&amp;Regels!I166&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F166&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G166&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H166&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5908,11 +5804,11 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
-        <f>Regels!D169</f>
+        <f>Regels!D167</f>
         <v>0</v>
       </c>
       <c r="B169" t="str">
-        <f>"### "&amp;Regels!B169&amp;" ("&amp;Regels!A169&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E169&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F169&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C169&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A169&amp;" *("&amp;Regels!I169&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F169&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G169&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H169&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B167&amp;" ("&amp;Regels!A167&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E167&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F167&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C167&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A167&amp;" *("&amp;Regels!I167&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F167&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G167&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H167&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5928,11 +5824,11 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
-        <f>Regels!D170</f>
+        <f>Regels!D168</f>
         <v>0</v>
       </c>
       <c r="B170" t="str">
-        <f>"### "&amp;Regels!B170&amp;" ("&amp;Regels!A170&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E170&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F170&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C170&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A170&amp;" *("&amp;Regels!I170&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F170&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G170&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H170&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B168&amp;" ("&amp;Regels!A168&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E168&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F168&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C168&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A168&amp;" *("&amp;Regels!I168&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F168&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G168&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H168&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5948,11 +5844,11 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
-        <f>Regels!D171</f>
+        <f>Regels!D169</f>
         <v>0</v>
       </c>
       <c r="B171" t="str">
-        <f>"### "&amp;Regels!B171&amp;" ("&amp;Regels!A171&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E171&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F171&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C171&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A171&amp;" *("&amp;Regels!I171&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F171&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G171&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H171&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B169&amp;" ("&amp;Regels!A169&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E169&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F169&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C169&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A169&amp;" *("&amp;Regels!I169&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F169&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G169&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H169&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5968,11 +5864,11 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
-        <f>Regels!D172</f>
+        <f>Regels!D170</f>
         <v>0</v>
       </c>
       <c r="B172" t="str">
-        <f>"### "&amp;Regels!B172&amp;" ("&amp;Regels!A172&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E172&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F172&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C172&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A172&amp;" *("&amp;Regels!I172&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F172&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G172&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H172&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B170&amp;" ("&amp;Regels!A170&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E170&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F170&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C170&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A170&amp;" *("&amp;Regels!I170&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F170&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G170&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H170&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -5988,11 +5884,11 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
-        <f>Regels!D173</f>
+        <f>Regels!D171</f>
         <v>0</v>
       </c>
       <c r="B173" t="str">
-        <f>"### "&amp;Regels!B173&amp;" ("&amp;Regels!A173&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E173&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F173&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C173&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A173&amp;" *("&amp;Regels!I173&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F173&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G173&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H173&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B171&amp;" ("&amp;Regels!A171&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E171&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F171&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C171&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A171&amp;" *("&amp;Regels!I171&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F171&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G171&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H171&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6008,11 +5904,11 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
-        <f>Regels!D174</f>
+        <f>Regels!D172</f>
         <v>0</v>
       </c>
       <c r="B174" t="str">
-        <f>"### "&amp;Regels!B174&amp;" ("&amp;Regels!A174&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E174&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F174&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C174&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A174&amp;" *("&amp;Regels!I174&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F174&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G174&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H174&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B172&amp;" ("&amp;Regels!A172&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E172&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F172&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C172&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A172&amp;" *("&amp;Regels!I172&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F172&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G172&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H172&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6028,11 +5924,11 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
-        <f>Regels!D175</f>
+        <f>Regels!D173</f>
         <v>0</v>
       </c>
       <c r="B175" t="str">
-        <f>"### "&amp;Regels!B175&amp;" ("&amp;Regels!A175&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E175&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F175&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C175&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A175&amp;" *("&amp;Regels!I175&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F175&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G175&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H175&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B173&amp;" ("&amp;Regels!A173&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E173&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F173&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C173&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A173&amp;" *("&amp;Regels!I173&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F173&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G173&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H173&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6048,11 +5944,11 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
-        <f>Regels!D176</f>
+        <f>Regels!D174</f>
         <v>0</v>
       </c>
       <c r="B176" t="str">
-        <f>"### "&amp;Regels!B176&amp;" ("&amp;Regels!A176&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E176&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F176&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C176&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A176&amp;" *("&amp;Regels!I176&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F176&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G176&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H176&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B174&amp;" ("&amp;Regels!A174&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E174&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F174&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C174&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A174&amp;" *("&amp;Regels!I174&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F174&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G174&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H174&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6068,11 +5964,11 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
-        <f>Regels!D177</f>
+        <f>Regels!D175</f>
         <v>0</v>
       </c>
       <c r="B177" t="str">
-        <f>"### "&amp;Regels!B177&amp;" ("&amp;Regels!A177&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E177&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F177&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C177&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A177&amp;" *("&amp;Regels!I177&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F177&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G177&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H177&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B175&amp;" ("&amp;Regels!A175&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E175&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F175&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C175&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A175&amp;" *("&amp;Regels!I175&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F175&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G175&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H175&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6088,11 +5984,11 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
-        <f>Regels!D178</f>
+        <f>Regels!D176</f>
         <v>0</v>
       </c>
       <c r="B178" t="str">
-        <f>"### "&amp;Regels!B178&amp;" ("&amp;Regels!A178&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E178&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F178&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C178&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A178&amp;" *("&amp;Regels!I178&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F178&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G178&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H178&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B176&amp;" ("&amp;Regels!A176&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E176&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F176&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C176&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A176&amp;" *("&amp;Regels!I176&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F176&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G176&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H176&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6108,11 +6004,11 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
-        <f>Regels!D179</f>
+        <f>Regels!D177</f>
         <v>0</v>
       </c>
       <c r="B179" t="str">
-        <f>"### "&amp;Regels!B179&amp;" ("&amp;Regels!A179&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E179&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F179&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C179&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A179&amp;" *("&amp;Regels!I179&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F179&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G179&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H179&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B177&amp;" ("&amp;Regels!A177&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E177&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F177&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C177&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A177&amp;" *("&amp;Regels!I177&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F177&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G177&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H177&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6128,11 +6024,11 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
-        <f>Regels!D180</f>
+        <f>Regels!D178</f>
         <v>0</v>
       </c>
       <c r="B180" t="str">
-        <f>"### "&amp;Regels!B180&amp;" ("&amp;Regels!A180&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E180&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F180&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C180&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A180&amp;" *("&amp;Regels!I180&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F180&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G180&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H180&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B178&amp;" ("&amp;Regels!A178&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E178&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F178&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C178&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A178&amp;" *("&amp;Regels!I178&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F178&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G178&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H178&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6148,11 +6044,11 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
-        <f>Regels!D181</f>
+        <f>Regels!D179</f>
         <v>0</v>
       </c>
       <c r="B181" t="str">
-        <f>"### "&amp;Regels!B181&amp;" ("&amp;Regels!A181&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E181&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F181&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C181&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A181&amp;" *("&amp;Regels!I181&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F181&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G181&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H181&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B179&amp;" ("&amp;Regels!A179&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E179&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F179&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C179&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A179&amp;" *("&amp;Regels!I179&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F179&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G179&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H179&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6168,11 +6064,11 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
-        <f>Regels!D182</f>
+        <f>Regels!D180</f>
         <v>0</v>
       </c>
       <c r="B182" t="str">
-        <f>"### "&amp;Regels!B182&amp;" ("&amp;Regels!A182&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E182&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F182&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C182&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A182&amp;" *("&amp;Regels!I182&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F182&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G182&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H182&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B180&amp;" ("&amp;Regels!A180&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E180&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F180&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C180&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A180&amp;" *("&amp;Regels!I180&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F180&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G180&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H180&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6188,11 +6084,11 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
-        <f>Regels!D183</f>
+        <f>Regels!D181</f>
         <v>0</v>
       </c>
       <c r="B183" t="str">
-        <f>"### "&amp;Regels!B183&amp;" ("&amp;Regels!A183&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E183&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F183&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C183&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A183&amp;" *("&amp;Regels!I183&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F183&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G183&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H183&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B181&amp;" ("&amp;Regels!A181&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E181&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F181&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C181&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A181&amp;" *("&amp;Regels!I181&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F181&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G181&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H181&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6208,11 +6104,11 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
-        <f>Regels!D184</f>
+        <f>Regels!D182</f>
         <v>0</v>
       </c>
       <c r="B184" t="str">
-        <f>"### "&amp;Regels!B184&amp;" ("&amp;Regels!A184&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E184&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F184&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C184&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A184&amp;" *("&amp;Regels!I184&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F184&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G184&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H184&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B182&amp;" ("&amp;Regels!A182&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E182&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F182&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C182&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A182&amp;" *("&amp;Regels!I182&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F182&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G182&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H182&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6228,11 +6124,11 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
-        <f>Regels!D185</f>
+        <f>Regels!D183</f>
         <v>0</v>
       </c>
       <c r="B185" t="str">
-        <f>"### "&amp;Regels!B185&amp;" ("&amp;Regels!A185&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E185&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F185&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C185&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A185&amp;" *("&amp;Regels!I185&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F185&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G185&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H185&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B183&amp;" ("&amp;Regels!A183&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E183&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F183&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C183&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A183&amp;" *("&amp;Regels!I183&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F183&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G183&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H183&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6248,11 +6144,11 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
-        <f>Regels!D186</f>
+        <f>Regels!D184</f>
         <v>0</v>
       </c>
       <c r="B186" t="str">
-        <f>"### "&amp;Regels!B186&amp;" ("&amp;Regels!A186&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E186&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F186&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C186&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A186&amp;" *("&amp;Regels!I186&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F186&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G186&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H186&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B184&amp;" ("&amp;Regels!A184&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E184&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F184&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C184&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A184&amp;" *("&amp;Regels!I184&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F184&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G184&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H184&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6268,11 +6164,11 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
-        <f>Regels!D187</f>
+        <f>Regels!D185</f>
         <v>0</v>
       </c>
       <c r="B187" t="str">
-        <f>"### "&amp;Regels!B187&amp;" ("&amp;Regels!A187&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E187&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F187&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C187&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A187&amp;" *("&amp;Regels!I187&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F187&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G187&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H187&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B185&amp;" ("&amp;Regels!A185&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E185&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F185&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C185&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A185&amp;" *("&amp;Regels!I185&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F185&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G185&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H185&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6288,11 +6184,11 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
-        <f>Regels!D188</f>
+        <f>Regels!D186</f>
         <v>0</v>
       </c>
       <c r="B188" t="str">
-        <f>"### "&amp;Regels!B188&amp;" ("&amp;Regels!A188&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E188&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F188&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C188&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A188&amp;" *("&amp;Regels!I188&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F188&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G188&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H188&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B186&amp;" ("&amp;Regels!A186&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E186&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F186&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C186&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A186&amp;" *("&amp;Regels!I186&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F186&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G186&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H186&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6308,11 +6204,11 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
-        <f>Regels!D189</f>
+        <f>Regels!D187</f>
         <v>0</v>
       </c>
       <c r="B189" t="str">
-        <f>"### "&amp;Regels!B189&amp;" ("&amp;Regels!A189&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E189&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F189&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C189&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A189&amp;" *("&amp;Regels!I189&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F189&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G189&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H189&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B187&amp;" ("&amp;Regels!A187&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E187&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F187&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C187&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A187&amp;" *("&amp;Regels!I187&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F187&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G187&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H187&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6328,11 +6224,11 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
-        <f>Regels!D190</f>
+        <f>Regels!D188</f>
         <v>0</v>
       </c>
       <c r="B190" t="str">
-        <f>"### "&amp;Regels!B190&amp;" ("&amp;Regels!A190&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E190&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F190&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C190&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A190&amp;" *("&amp;Regels!I190&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F190&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G190&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H190&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B188&amp;" ("&amp;Regels!A188&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E188&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F188&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C188&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A188&amp;" *("&amp;Regels!I188&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F188&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G188&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H188&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6348,11 +6244,11 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
-        <f>Regels!D191</f>
+        <f>Regels!D189</f>
         <v>0</v>
       </c>
       <c r="B191" t="str">
-        <f>"### "&amp;Regels!B191&amp;" ("&amp;Regels!A191&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E191&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F191&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C191&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A191&amp;" *("&amp;Regels!I191&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F191&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G191&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H191&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B189&amp;" ("&amp;Regels!A189&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E189&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F189&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C189&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A189&amp;" *("&amp;Regels!I189&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F189&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G189&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H189&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6368,11 +6264,11 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
-        <f>Regels!D192</f>
+        <f>Regels!D190</f>
         <v>0</v>
       </c>
       <c r="B192" t="str">
-        <f>"### "&amp;Regels!B192&amp;" ("&amp;Regels!A192&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E192&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F192&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C192&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A192&amp;" *("&amp;Regels!I192&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F192&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G192&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H192&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B190&amp;" ("&amp;Regels!A190&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E190&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F190&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C190&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A190&amp;" *("&amp;Regels!I190&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F190&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G190&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H190&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6388,11 +6284,11 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
-        <f>Regels!D193</f>
+        <f>Regels!D191</f>
         <v>0</v>
       </c>
       <c r="B193" t="str">
-        <f>"### "&amp;Regels!B193&amp;" ("&amp;Regels!A193&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E193&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F193&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C193&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A193&amp;" *("&amp;Regels!I193&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F193&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G193&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H193&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B191&amp;" ("&amp;Regels!A191&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E191&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F191&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C191&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A191&amp;" *("&amp;Regels!I191&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F191&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G191&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H191&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6408,11 +6304,11 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
-        <f>Regels!D194</f>
+        <f>Regels!D192</f>
         <v>0</v>
       </c>
       <c r="B194" t="str">
-        <f>"### "&amp;Regels!B194&amp;" ("&amp;Regels!A194&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E194&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F194&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C194&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A194&amp;" *("&amp;Regels!I194&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F194&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G194&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H194&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B192&amp;" ("&amp;Regels!A192&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E192&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F192&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C192&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A192&amp;" *("&amp;Regels!I192&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F192&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G192&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H192&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6428,11 +6324,11 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
-        <f>Regels!D195</f>
+        <f>Regels!D193</f>
         <v>0</v>
       </c>
       <c r="B195" t="str">
-        <f>"### "&amp;Regels!B195&amp;" ("&amp;Regels!A195&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E195&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F195&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C195&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A195&amp;" *("&amp;Regels!I195&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F195&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G195&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H195&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B193&amp;" ("&amp;Regels!A193&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E193&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F193&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C193&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A193&amp;" *("&amp;Regels!I193&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F193&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G193&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H193&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6448,11 +6344,11 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
-        <f>Regels!D196</f>
+        <f>Regels!D194</f>
         <v>0</v>
       </c>
       <c r="B196" t="str">
-        <f>"### "&amp;Regels!B196&amp;" ("&amp;Regels!A196&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E196&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F196&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C196&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A196&amp;" *("&amp;Regels!I196&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F196&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G196&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H196&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B194&amp;" ("&amp;Regels!A194&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E194&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F194&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C194&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A194&amp;" *("&amp;Regels!I194&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F194&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G194&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H194&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6468,11 +6364,11 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
-        <f>Regels!D197</f>
+        <f>Regels!D195</f>
         <v>0</v>
       </c>
       <c r="B197" t="str">
-        <f>"### "&amp;Regels!B197&amp;" ("&amp;Regels!A197&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E197&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F197&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C197&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A197&amp;" *("&amp;Regels!I197&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F197&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G197&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H197&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B195&amp;" ("&amp;Regels!A195&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E195&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F195&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C195&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A195&amp;" *("&amp;Regels!I195&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F195&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G195&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H195&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6488,11 +6384,11 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
-        <f>Regels!D198</f>
+        <f>Regels!D196</f>
         <v>0</v>
       </c>
       <c r="B198" t="str">
-        <f>"### "&amp;Regels!B198&amp;" ("&amp;Regels!A198&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E198&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F198&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C198&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A198&amp;" *("&amp;Regels!I198&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F198&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G198&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H198&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B196&amp;" ("&amp;Regels!A196&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E196&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F196&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C196&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A196&amp;" *("&amp;Regels!I196&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F196&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G196&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H196&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6508,11 +6404,11 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
-        <f>Regels!D199</f>
+        <f>Regels!D197</f>
         <v>0</v>
       </c>
       <c r="B199" t="str">
-        <f>"### "&amp;Regels!B199&amp;" ("&amp;Regels!A199&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E199&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F199&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C199&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A199&amp;" *("&amp;Regels!I199&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F199&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G199&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H199&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B197&amp;" ("&amp;Regels!A197&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E197&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F197&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C197&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A197&amp;" *("&amp;Regels!I197&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F197&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G197&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H197&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6528,11 +6424,11 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
-        <f>Regels!D200</f>
+        <f>Regels!D198</f>
         <v>0</v>
       </c>
       <c r="B200" t="str">
-        <f>"### "&amp;Regels!B200&amp;" ("&amp;Regels!A200&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E200&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F200&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C200&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A200&amp;" *("&amp;Regels!I200&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F200&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G200&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H200&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B198&amp;" ("&amp;Regels!A198&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E198&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F198&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C198&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A198&amp;" *("&amp;Regels!I198&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F198&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G198&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H198&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6548,11 +6444,11 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201">
-        <f>Regels!D201</f>
+        <f>Regels!D199</f>
         <v>0</v>
       </c>
       <c r="B201" t="str">
-        <f>"### "&amp;Regels!B201&amp;" ("&amp;Regels!A201&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E201&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F201&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C201&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A201&amp;" *("&amp;Regels!I201&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F201&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G201&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H201&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B199&amp;" ("&amp;Regels!A199&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E199&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F199&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C199&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A199&amp;" *("&amp;Regels!I199&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F199&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G199&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H199&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6568,11 +6464,11 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202">
-        <f>Regels!D202</f>
+        <f>Regels!D200</f>
         <v>0</v>
       </c>
       <c r="B202" t="str">
-        <f>"### "&amp;Regels!B202&amp;" ("&amp;Regels!A202&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E202&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F202&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C202&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A202&amp;" *("&amp;Regels!I202&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F202&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G202&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H202&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B200&amp;" ("&amp;Regels!A200&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E200&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F200&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C200&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A200&amp;" *("&amp;Regels!I200&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F200&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G200&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H200&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6588,11 +6484,11 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203">
-        <f>Regels!D203</f>
+        <f>Regels!D201</f>
         <v>0</v>
       </c>
       <c r="B203" t="str">
-        <f>"### "&amp;Regels!B203&amp;" ("&amp;Regels!A203&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E203&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F203&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C203&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A203&amp;" *("&amp;Regels!I203&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F203&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G203&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H203&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B201&amp;" ("&amp;Regels!A201&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E201&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F201&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C201&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A201&amp;" *("&amp;Regels!I201&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F201&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G201&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H201&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6608,11 +6504,11 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204">
-        <f>Regels!D204</f>
+        <f>Regels!D202</f>
         <v>0</v>
       </c>
       <c r="B204" t="str">
-        <f>"### "&amp;Regels!B204&amp;" ("&amp;Regels!A204&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E204&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F204&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C204&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A204&amp;" *("&amp;Regels!I204&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F204&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G204&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H204&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B202&amp;" ("&amp;Regels!A202&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E202&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F202&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C202&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A202&amp;" *("&amp;Regels!I202&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F202&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G202&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H202&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6628,11 +6524,11 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205">
-        <f>Regels!D205</f>
+        <f>Regels!D203</f>
         <v>0</v>
       </c>
       <c r="B205" t="str">
-        <f>"### "&amp;Regels!B205&amp;" ("&amp;Regels!A205&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E205&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F205&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C205&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A205&amp;" *("&amp;Regels!I205&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F205&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G205&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H205&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B203&amp;" ("&amp;Regels!A203&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E203&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F203&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C203&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A203&amp;" *("&amp;Regels!I203&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F203&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G203&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H203&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6648,11 +6544,11 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206">
-        <f>Regels!D206</f>
+        <f>Regels!D204</f>
         <v>0</v>
       </c>
       <c r="B206" t="str">
-        <f>"### "&amp;Regels!B206&amp;" ("&amp;Regels!A206&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E206&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F206&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C206&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A206&amp;" *("&amp;Regels!I206&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F206&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G206&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H206&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B204&amp;" ("&amp;Regels!A204&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E204&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F204&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C204&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A204&amp;" *("&amp;Regels!I204&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F204&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G204&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H204&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6668,11 +6564,11 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207">
-        <f>Regels!D207</f>
+        <f>Regels!D205</f>
         <v>0</v>
       </c>
       <c r="B207" t="str">
-        <f>"### "&amp;Regels!B207&amp;" ("&amp;Regels!A207&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E207&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F207&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C207&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A207&amp;" *("&amp;Regels!I207&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F207&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G207&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H207&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B205&amp;" ("&amp;Regels!A205&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E205&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F205&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C205&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A205&amp;" *("&amp;Regels!I205&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F205&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G205&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H205&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6688,11 +6584,11 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208">
-        <f>Regels!D208</f>
+        <f>Regels!D206</f>
         <v>0</v>
       </c>
       <c r="B208" t="str">
-        <f>"### "&amp;Regels!B208&amp;" ("&amp;Regels!A208&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E208&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F208&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C208&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A208&amp;" *("&amp;Regels!I208&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F208&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G208&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H208&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B206&amp;" ("&amp;Regels!A206&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E206&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F206&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C206&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A206&amp;" *("&amp;Regels!I206&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F206&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G206&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H206&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6708,11 +6604,11 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209">
-        <f>Regels!D209</f>
+        <f>Regels!D207</f>
         <v>0</v>
       </c>
       <c r="B209" t="str">
-        <f>"### "&amp;Regels!B209&amp;" ("&amp;Regels!A209&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E209&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F209&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C209&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A209&amp;" *("&amp;Regels!I209&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F209&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G209&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H209&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B207&amp;" ("&amp;Regels!A207&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E207&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F207&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C207&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A207&amp;" *("&amp;Regels!I207&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F207&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G207&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H207&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6728,11 +6624,11 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210">
-        <f>Regels!D210</f>
+        <f>Regels!D208</f>
         <v>0</v>
       </c>
       <c r="B210" t="str">
-        <f>"### "&amp;Regels!B210&amp;" ("&amp;Regels!A210&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E210&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F210&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C210&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A210&amp;" *("&amp;Regels!I210&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F210&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G210&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H210&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B208&amp;" ("&amp;Regels!A208&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E208&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F208&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C208&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A208&amp;" *("&amp;Regels!I208&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F208&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G208&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H208&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6748,11 +6644,11 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211">
-        <f>Regels!D211</f>
+        <f>Regels!D209</f>
         <v>0</v>
       </c>
       <c r="B211" t="str">
-        <f>"### "&amp;Regels!B211&amp;" ("&amp;Regels!A211&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E211&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F211&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C211&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A211&amp;" *("&amp;Regels!I211&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F211&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G211&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H211&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B209&amp;" ("&amp;Regels!A209&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E209&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F209&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C209&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A209&amp;" *("&amp;Regels!I209&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F209&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G209&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H209&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6768,11 +6664,11 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212">
-        <f>Regels!D212</f>
+        <f>Regels!D210</f>
         <v>0</v>
       </c>
       <c r="B212" t="str">
-        <f>"### "&amp;Regels!B212&amp;" ("&amp;Regels!A212&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E212&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F212&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C212&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A212&amp;" *("&amp;Regels!I212&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F212&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G212&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H212&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B210&amp;" ("&amp;Regels!A210&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E210&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F210&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C210&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A210&amp;" *("&amp;Regels!I210&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F210&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G210&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H210&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6788,11 +6684,11 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213">
-        <f>Regels!D213</f>
+        <f>Regels!D211</f>
         <v>0</v>
       </c>
       <c r="B213" t="str">
-        <f>"### "&amp;Regels!B213&amp;" ("&amp;Regels!A213&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E213&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F213&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C213&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A213&amp;" *("&amp;Regels!I213&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F213&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G213&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H213&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B211&amp;" ("&amp;Regels!A211&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E211&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F211&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C211&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A211&amp;" *("&amp;Regels!I211&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F211&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G211&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H211&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6808,11 +6704,11 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214">
-        <f>Regels!D214</f>
+        <f>Regels!D212</f>
         <v>0</v>
       </c>
       <c r="B214" t="str">
-        <f>"### "&amp;Regels!B214&amp;" ("&amp;Regels!A214&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E214&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F214&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C214&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A214&amp;" *("&amp;Regels!I214&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F214&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G214&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H214&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B212&amp;" ("&amp;Regels!A212&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E212&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F212&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C212&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A212&amp;" *("&amp;Regels!I212&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F212&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G212&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H212&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6828,11 +6724,11 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215">
-        <f>Regels!D215</f>
+        <f>Regels!D213</f>
         <v>0</v>
       </c>
       <c r="B215" t="str">
-        <f>"### "&amp;Regels!B215&amp;" ("&amp;Regels!A215&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E215&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F215&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C215&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A215&amp;" *("&amp;Regels!I215&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F215&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G215&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H215&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B213&amp;" ("&amp;Regels!A213&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E213&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F213&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C213&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A213&amp;" *("&amp;Regels!I213&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F213&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G213&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H213&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6848,11 +6744,11 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216">
-        <f>Regels!D216</f>
+        <f>Regels!D214</f>
         <v>0</v>
       </c>
       <c r="B216" t="str">
-        <f>"### "&amp;Regels!B216&amp;" ("&amp;Regels!A216&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E216&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F216&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C216&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A216&amp;" *("&amp;Regels!I216&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F216&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G216&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H216&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B214&amp;" ("&amp;Regels!A214&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E214&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F214&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C214&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A214&amp;" *("&amp;Regels!I214&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F214&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G214&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H214&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6868,11 +6764,11 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217">
-        <f>Regels!D217</f>
+        <f>Regels!D215</f>
         <v>0</v>
       </c>
       <c r="B217" t="str">
-        <f>"### "&amp;Regels!B217&amp;" ("&amp;Regels!A217&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E217&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F217&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C217&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A217&amp;" *("&amp;Regels!I217&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F217&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G217&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H217&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B215&amp;" ("&amp;Regels!A215&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E215&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F215&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C215&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A215&amp;" *("&amp;Regels!I215&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F215&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G215&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H215&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6888,11 +6784,11 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218">
-        <f>Regels!D218</f>
+        <f>Regels!D216</f>
         <v>0</v>
       </c>
       <c r="B218" t="str">
-        <f>"### "&amp;Regels!B218&amp;" ("&amp;Regels!A218&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E218&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F218&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C218&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A218&amp;" *("&amp;Regels!I218&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F218&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G218&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H218&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B216&amp;" ("&amp;Regels!A216&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E216&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F216&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C216&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A216&amp;" *("&amp;Regels!I216&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F216&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G216&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H216&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6908,11 +6804,11 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219">
-        <f>Regels!D219</f>
+        <f>Regels!D217</f>
         <v>0</v>
       </c>
       <c r="B219" t="str">
-        <f>"### "&amp;Regels!B219&amp;" ("&amp;Regels!A219&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E219&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F219&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C219&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A219&amp;" *("&amp;Regels!I219&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F219&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G219&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H219&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B217&amp;" ("&amp;Regels!A217&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E217&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F217&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C217&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A217&amp;" *("&amp;Regels!I217&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F217&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G217&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H217&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6928,11 +6824,11 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220">
-        <f>Regels!D220</f>
+        <f>Regels!D218</f>
         <v>0</v>
       </c>
       <c r="B220" t="str">
-        <f>"### "&amp;Regels!B220&amp;" ("&amp;Regels!A220&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E220&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F220&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C220&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A220&amp;" *("&amp;Regels!I220&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F220&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G220&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H220&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B218&amp;" ("&amp;Regels!A218&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E218&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F218&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C218&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A218&amp;" *("&amp;Regels!I218&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F218&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G218&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H218&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6948,11 +6844,11 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221">
-        <f>Regels!D221</f>
+        <f>Regels!D219</f>
         <v>0</v>
       </c>
       <c r="B221" t="str">
-        <f>"### "&amp;Regels!B221&amp;" ("&amp;Regels!A221&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E221&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F221&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C221&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A221&amp;" *("&amp;Regels!I221&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F221&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G221&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H221&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B219&amp;" ("&amp;Regels!A219&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E219&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F219&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C219&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A219&amp;" *("&amp;Regels!I219&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F219&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G219&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H219&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6968,11 +6864,11 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222">
-        <f>Regels!D222</f>
+        <f>Regels!D220</f>
         <v>0</v>
       </c>
       <c r="B222" t="str">
-        <f>"### "&amp;Regels!B222&amp;" ("&amp;Regels!A222&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E222&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F222&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C222&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A222&amp;" *("&amp;Regels!I222&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F222&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G222&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H222&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B220&amp;" ("&amp;Regels!A220&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E220&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F220&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C220&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A220&amp;" *("&amp;Regels!I220&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F220&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G220&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H220&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -6988,11 +6884,11 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223">
-        <f>Regels!D223</f>
+        <f>Regels!D221</f>
         <v>0</v>
       </c>
       <c r="B223" t="str">
-        <f>"### "&amp;Regels!B223&amp;" ("&amp;Regels!A223&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E223&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F223&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C223&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A223&amp;" *("&amp;Regels!I223&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F223&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G223&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H223&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B221&amp;" ("&amp;Regels!A221&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E221&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F221&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C221&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A221&amp;" *("&amp;Regels!I221&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F221&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G221&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H221&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7008,11 +6904,11 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224">
-        <f>Regels!D224</f>
+        <f>Regels!D222</f>
         <v>0</v>
       </c>
       <c r="B224" t="str">
-        <f>"### "&amp;Regels!B224&amp;" ("&amp;Regels!A224&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E224&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F224&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C224&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A224&amp;" *("&amp;Regels!I224&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F224&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G224&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H224&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B222&amp;" ("&amp;Regels!A222&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E222&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F222&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C222&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A222&amp;" *("&amp;Regels!I222&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F222&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G222&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H222&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7028,11 +6924,11 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225">
-        <f>Regels!D225</f>
+        <f>Regels!D223</f>
         <v>0</v>
       </c>
       <c r="B225" t="str">
-        <f>"### "&amp;Regels!B225&amp;" ("&amp;Regels!A225&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E225&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F225&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C225&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A225&amp;" *("&amp;Regels!I225&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F225&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G225&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H225&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B223&amp;" ("&amp;Regels!A223&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E223&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F223&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C223&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A223&amp;" *("&amp;Regels!I223&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F223&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G223&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H223&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7048,11 +6944,11 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226">
-        <f>Regels!D226</f>
+        <f>Regels!D224</f>
         <v>0</v>
       </c>
       <c r="B226" t="str">
-        <f>"### "&amp;Regels!B226&amp;" ("&amp;Regels!A226&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E226&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F226&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C226&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A226&amp;" *("&amp;Regels!I226&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F226&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G226&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H226&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B224&amp;" ("&amp;Regels!A224&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E224&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F224&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C224&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A224&amp;" *("&amp;Regels!I224&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F224&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G224&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H224&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7068,11 +6964,11 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227">
-        <f>Regels!D227</f>
+        <f>Regels!D225</f>
         <v>0</v>
       </c>
       <c r="B227" t="str">
-        <f>"### "&amp;Regels!B227&amp;" ("&amp;Regels!A227&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E227&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F227&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C227&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A227&amp;" *("&amp;Regels!I227&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F227&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G227&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H227&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B225&amp;" ("&amp;Regels!A225&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E225&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F225&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C225&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A225&amp;" *("&amp;Regels!I225&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F225&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G225&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H225&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7088,11 +6984,11 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228">
-        <f>Regels!D228</f>
+        <f>Regels!D226</f>
         <v>0</v>
       </c>
       <c r="B228" t="str">
-        <f>"### "&amp;Regels!B228&amp;" ("&amp;Regels!A228&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E228&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F228&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C228&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A228&amp;" *("&amp;Regels!I228&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F228&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G228&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H228&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B226&amp;" ("&amp;Regels!A226&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E226&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F226&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C226&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A226&amp;" *("&amp;Regels!I226&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F226&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G226&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H226&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7108,11 +7004,11 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229">
-        <f>Regels!D229</f>
+        <f>Regels!D227</f>
         <v>0</v>
       </c>
       <c r="B229" t="str">
-        <f>"### "&amp;Regels!B229&amp;" ("&amp;Regels!A229&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E229&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F229&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C229&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A229&amp;" *("&amp;Regels!I229&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F229&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G229&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H229&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B227&amp;" ("&amp;Regels!A227&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E227&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F227&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C227&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A227&amp;" *("&amp;Regels!I227&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F227&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G227&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H227&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7128,11 +7024,11 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230">
-        <f>Regels!D230</f>
+        <f>Regels!D228</f>
         <v>0</v>
       </c>
       <c r="B230" t="str">
-        <f>"### "&amp;Regels!B230&amp;" ("&amp;Regels!A230&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E230&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F230&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C230&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A230&amp;" *("&amp;Regels!I230&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F230&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G230&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H230&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B228&amp;" ("&amp;Regels!A228&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E228&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F228&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C228&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A228&amp;" *("&amp;Regels!I228&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F228&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G228&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H228&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7148,11 +7044,11 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231">
-        <f>Regels!D231</f>
+        <f>Regels!D229</f>
         <v>0</v>
       </c>
       <c r="B231" t="str">
-        <f>"### "&amp;Regels!B231&amp;" ("&amp;Regels!A231&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E231&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F231&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C231&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A231&amp;" *("&amp;Regels!I231&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F231&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G231&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H231&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B229&amp;" ("&amp;Regels!A229&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E229&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F229&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C229&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A229&amp;" *("&amp;Regels!I229&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F229&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G229&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H229&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7168,11 +7064,11 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232">
-        <f>Regels!D232</f>
+        <f>Regels!D230</f>
         <v>0</v>
       </c>
       <c r="B232" t="str">
-        <f>"### "&amp;Regels!B232&amp;" ("&amp;Regels!A232&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E232&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F232&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C232&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A232&amp;" *("&amp;Regels!I232&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F232&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G232&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H232&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B230&amp;" ("&amp;Regels!A230&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E230&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F230&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C230&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A230&amp;" *("&amp;Regels!I230&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F230&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G230&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H230&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7188,11 +7084,11 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233">
-        <f>Regels!D233</f>
+        <f>Regels!D231</f>
         <v>0</v>
       </c>
       <c r="B233" t="str">
-        <f>"### "&amp;Regels!B233&amp;" ("&amp;Regels!A233&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E233&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F233&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C233&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A233&amp;" *("&amp;Regels!I233&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F233&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G233&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H233&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B231&amp;" ("&amp;Regels!A231&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E231&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F231&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C231&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A231&amp;" *("&amp;Regels!I231&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F231&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G231&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H231&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7208,11 +7104,11 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234">
-        <f>Regels!D234</f>
+        <f>Regels!D232</f>
         <v>0</v>
       </c>
       <c r="B234" t="str">
-        <f>"### "&amp;Regels!B234&amp;" ("&amp;Regels!A234&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E234&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F234&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C234&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A234&amp;" *("&amp;Regels!I234&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F234&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G234&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H234&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B232&amp;" ("&amp;Regels!A232&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E232&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F232&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C232&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A232&amp;" *("&amp;Regels!I232&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F232&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G232&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H232&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7228,11 +7124,11 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235">
-        <f>Regels!D235</f>
+        <f>Regels!D233</f>
         <v>0</v>
       </c>
       <c r="B235" t="str">
-        <f>"### "&amp;Regels!B235&amp;" ("&amp;Regels!A235&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E235&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F235&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C235&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A235&amp;" *("&amp;Regels!I235&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F235&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G235&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H235&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B233&amp;" ("&amp;Regels!A233&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E233&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F233&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C233&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A233&amp;" *("&amp;Regels!I233&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F233&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G233&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H233&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7248,11 +7144,11 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236">
-        <f>Regels!D236</f>
+        <f>Regels!D234</f>
         <v>0</v>
       </c>
       <c r="B236" t="str">
-        <f>"### "&amp;Regels!B236&amp;" ("&amp;Regels!A236&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E236&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F236&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C236&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A236&amp;" *("&amp;Regels!I236&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F236&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G236&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H236&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B234&amp;" ("&amp;Regels!A234&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E234&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F234&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C234&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A234&amp;" *("&amp;Regels!I234&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F234&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G234&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H234&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7268,11 +7164,11 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237">
-        <f>Regels!D237</f>
+        <f>Regels!D235</f>
         <v>0</v>
       </c>
       <c r="B237" t="str">
-        <f>"### "&amp;Regels!B237&amp;" ("&amp;Regels!A237&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E237&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F237&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C237&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A237&amp;" *("&amp;Regels!I237&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F237&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G237&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H237&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B235&amp;" ("&amp;Regels!A235&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E235&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F235&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C235&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A235&amp;" *("&amp;Regels!I235&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F235&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G235&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H235&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7288,11 +7184,11 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238">
-        <f>Regels!D238</f>
+        <f>Regels!D236</f>
         <v>0</v>
       </c>
       <c r="B238" t="str">
-        <f>"### "&amp;Regels!B238&amp;" ("&amp;Regels!A238&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E238&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F238&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C238&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A238&amp;" *("&amp;Regels!I238&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F238&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G238&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H238&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B236&amp;" ("&amp;Regels!A236&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E236&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F236&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C236&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A236&amp;" *("&amp;Regels!I236&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F236&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G236&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H236&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7308,11 +7204,11 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239">
-        <f>Regels!D239</f>
+        <f>Regels!D237</f>
         <v>0</v>
       </c>
       <c r="B239" t="str">
-        <f>"### "&amp;Regels!B239&amp;" ("&amp;Regels!A239&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E239&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F239&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C239&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A239&amp;" *("&amp;Regels!I239&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F239&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G239&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H239&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B237&amp;" ("&amp;Regels!A237&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E237&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F237&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C237&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A237&amp;" *("&amp;Regels!I237&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F237&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G237&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H237&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7328,11 +7224,11 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240">
-        <f>Regels!D240</f>
+        <f>Regels!D238</f>
         <v>0</v>
       </c>
       <c r="B240" t="str">
-        <f>"### "&amp;Regels!B240&amp;" ("&amp;Regels!A240&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E240&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F240&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C240&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A240&amp;" *("&amp;Regels!I240&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F240&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G240&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H240&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B238&amp;" ("&amp;Regels!A238&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E238&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F238&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C238&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A238&amp;" *("&amp;Regels!I238&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F238&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G238&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H238&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7348,11 +7244,11 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241">
-        <f>Regels!D241</f>
+        <f>Regels!D239</f>
         <v>0</v>
       </c>
       <c r="B241" t="str">
-        <f>"### "&amp;Regels!B241&amp;" ("&amp;Regels!A241&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E241&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F241&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C241&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A241&amp;" *("&amp;Regels!I241&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F241&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G241&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H241&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B239&amp;" ("&amp;Regels!A239&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E239&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F239&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C239&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A239&amp;" *("&amp;Regels!I239&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F239&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G239&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H239&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7368,11 +7264,11 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242">
-        <f>Regels!D242</f>
+        <f>Regels!D240</f>
         <v>0</v>
       </c>
       <c r="B242" t="str">
-        <f>"### "&amp;Regels!B242&amp;" ("&amp;Regels!A242&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E242&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F242&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C242&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A242&amp;" *("&amp;Regels!I242&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F242&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G242&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H242&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B240&amp;" ("&amp;Regels!A240&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E240&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F240&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C240&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A240&amp;" *("&amp;Regels!I240&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F240&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G240&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H240&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7388,11 +7284,11 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243">
-        <f>Regels!D243</f>
+        <f>Regels!D241</f>
         <v>0</v>
       </c>
       <c r="B243" t="str">
-        <f>"### "&amp;Regels!B243&amp;" ("&amp;Regels!A243&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E243&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F243&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C243&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A243&amp;" *("&amp;Regels!I243&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F243&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G243&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H243&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B241&amp;" ("&amp;Regels!A241&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E241&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F241&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C241&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A241&amp;" *("&amp;Regels!I241&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F241&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G241&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H241&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7408,11 +7304,11 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244">
-        <f>Regels!D244</f>
+        <f>Regels!D242</f>
         <v>0</v>
       </c>
       <c r="B244" t="str">
-        <f>"### "&amp;Regels!B244&amp;" ("&amp;Regels!A244&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E244&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F244&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C244&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A244&amp;" *("&amp;Regels!I244&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F244&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G244&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H244&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B242&amp;" ("&amp;Regels!A242&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E242&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F242&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C242&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A242&amp;" *("&amp;Regels!I242&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F242&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G242&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H242&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7428,11 +7324,11 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245">
-        <f>Regels!D245</f>
+        <f>Regels!D243</f>
         <v>0</v>
       </c>
       <c r="B245" t="str">
-        <f>"### "&amp;Regels!B245&amp;" ("&amp;Regels!A245&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E245&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F245&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C245&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A245&amp;" *("&amp;Regels!I245&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F245&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G245&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H245&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B243&amp;" ("&amp;Regels!A243&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E243&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F243&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C243&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A243&amp;" *("&amp;Regels!I243&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F243&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G243&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H243&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7448,11 +7344,11 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246">
-        <f>Regels!D246</f>
+        <f>Regels!D244</f>
         <v>0</v>
       </c>
       <c r="B246" t="str">
-        <f>"### "&amp;Regels!B246&amp;" ("&amp;Regels!A246&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E246&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F246&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C246&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A246&amp;" *("&amp;Regels!I246&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F246&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G246&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H246&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B244&amp;" ("&amp;Regels!A244&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E244&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F244&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C244&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A244&amp;" *("&amp;Regels!I244&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F244&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G244&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H244&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7468,11 +7364,11 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247">
-        <f>Regels!D247</f>
+        <f>Regels!D245</f>
         <v>0</v>
       </c>
       <c r="B247" t="str">
-        <f>"### "&amp;Regels!B247&amp;" ("&amp;Regels!A247&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E247&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F247&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C247&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A247&amp;" *("&amp;Regels!I247&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F247&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G247&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H247&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B245&amp;" ("&amp;Regels!A245&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E245&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F245&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C245&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A245&amp;" *("&amp;Regels!I245&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F245&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G245&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H245&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7488,11 +7384,11 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248">
-        <f>Regels!D248</f>
+        <f>Regels!D246</f>
         <v>0</v>
       </c>
       <c r="B248" t="str">
-        <f>"### "&amp;Regels!B248&amp;" ("&amp;Regels!A248&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E248&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F248&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C248&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A248&amp;" *("&amp;Regels!I248&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F248&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G248&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H248&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B246&amp;" ("&amp;Regels!A246&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E246&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F246&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C246&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A246&amp;" *("&amp;Regels!I246&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F246&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G246&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H246&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7508,11 +7404,11 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249">
-        <f>Regels!D249</f>
+        <f>Regels!D247</f>
         <v>0</v>
       </c>
       <c r="B249" t="str">
-        <f>"### "&amp;Regels!B249&amp;" ("&amp;Regels!A249&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E249&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F249&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C249&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A249&amp;" *("&amp;Regels!I249&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F249&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G249&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H249&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B247&amp;" ("&amp;Regels!A247&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E247&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F247&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C247&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A247&amp;" *("&amp;Regels!I247&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F247&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G247&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H247&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7528,11 +7424,11 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250">
-        <f>Regels!D250</f>
+        <f>Regels!D248</f>
         <v>0</v>
       </c>
       <c r="B250" t="str">
-        <f>"### "&amp;Regels!B250&amp;" ("&amp;Regels!A250&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E250&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F250&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C250&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A250&amp;" *("&amp;Regels!I250&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F250&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G250&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H250&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B248&amp;" ("&amp;Regels!A248&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E248&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F248&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C248&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A248&amp;" *("&amp;Regels!I248&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F248&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G248&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H248&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7548,11 +7444,11 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251">
-        <f>Regels!D251</f>
+        <f>Regels!D249</f>
         <v>0</v>
       </c>
       <c r="B251" t="str">
-        <f>"### "&amp;Regels!B251&amp;" ("&amp;Regels!A251&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E251&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F251&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C251&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A251&amp;" *("&amp;Regels!I251&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F251&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G251&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H251&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B249&amp;" ("&amp;Regels!A249&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E249&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F249&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C249&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A249&amp;" *("&amp;Regels!I249&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F249&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G249&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H249&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7568,11 +7464,11 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252">
-        <f>Regels!D252</f>
+        <f>Regels!D250</f>
         <v>0</v>
       </c>
       <c r="B252" t="str">
-        <f>"### "&amp;Regels!B252&amp;" ("&amp;Regels!A252&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E252&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F252&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C252&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A252&amp;" *("&amp;Regels!I252&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F252&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G252&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H252&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B250&amp;" ("&amp;Regels!A250&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E250&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F250&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C250&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A250&amp;" *("&amp;Regels!I250&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F250&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G250&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H250&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7588,11 +7484,11 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253">
-        <f>Regels!D253</f>
+        <f>Regels!D251</f>
         <v>0</v>
       </c>
       <c r="B253" t="str">
-        <f>"### "&amp;Regels!B253&amp;" ("&amp;Regels!A253&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E253&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F253&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C253&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A253&amp;" *("&amp;Regels!I253&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F253&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G253&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H253&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B251&amp;" ("&amp;Regels!A251&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E251&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F251&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C251&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A251&amp;" *("&amp;Regels!I251&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F251&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G251&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H251&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7608,11 +7504,11 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254">
-        <f>Regels!D254</f>
+        <f>Regels!D252</f>
         <v>0</v>
       </c>
       <c r="B254" t="str">
-        <f>"### "&amp;Regels!B254&amp;" ("&amp;Regels!A254&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E254&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F254&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C254&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A254&amp;" *("&amp;Regels!I254&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F254&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G254&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H254&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B252&amp;" ("&amp;Regels!A252&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E252&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F252&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C252&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A252&amp;" *("&amp;Regels!I252&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F252&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G252&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H252&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7628,11 +7524,11 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255">
-        <f>Regels!D255</f>
+        <f>Regels!D253</f>
         <v>0</v>
       </c>
       <c r="B255" t="str">
-        <f>"### "&amp;Regels!B255&amp;" ("&amp;Regels!A255&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E255&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F255&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C255&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A255&amp;" *("&amp;Regels!I255&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F255&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G255&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H255&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B253&amp;" ("&amp;Regels!A253&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E253&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F253&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C253&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A253&amp;" *("&amp;Regels!I253&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F253&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G253&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H253&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7648,11 +7544,11 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256">
-        <f>Regels!D256</f>
+        <f>Regels!D254</f>
         <v>0</v>
       </c>
       <c r="B256" t="str">
-        <f>"### "&amp;Regels!B256&amp;" ("&amp;Regels!A256&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E256&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F256&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C256&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A256&amp;" *("&amp;Regels!I256&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F256&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G256&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H256&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B254&amp;" ("&amp;Regels!A254&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E254&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F254&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C254&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A254&amp;" *("&amp;Regels!I254&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F254&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G254&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H254&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7668,11 +7564,11 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257">
-        <f>Regels!D257</f>
+        <f>Regels!D255</f>
         <v>0</v>
       </c>
       <c r="B257" t="str">
-        <f>"### "&amp;Regels!B257&amp;" ("&amp;Regels!A257&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E257&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F257&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C257&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A257&amp;" *("&amp;Regels!I257&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F257&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G257&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H257&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B255&amp;" ("&amp;Regels!A255&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E255&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F255&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C255&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A255&amp;" *("&amp;Regels!I255&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F255&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G255&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H255&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7688,11 +7584,11 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258">
-        <f>Regels!D258</f>
+        <f>Regels!D256</f>
         <v>0</v>
       </c>
       <c r="B258" t="str">
-        <f>"### "&amp;Regels!B258&amp;" ("&amp;Regels!A258&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E258&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F258&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C258&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A258&amp;" *("&amp;Regels!I258&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F258&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G258&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H258&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B256&amp;" ("&amp;Regels!A256&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E256&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F256&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C256&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A256&amp;" *("&amp;Regels!I256&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F256&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G256&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H256&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7708,11 +7604,11 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259">
-        <f>Regels!D259</f>
+        <f>Regels!D257</f>
         <v>0</v>
       </c>
       <c r="B259" t="str">
-        <f>"### "&amp;Regels!B259&amp;" ("&amp;Regels!A259&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E259&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F259&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C259&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A259&amp;" *("&amp;Regels!I259&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F259&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G259&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H259&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B257&amp;" ("&amp;Regels!A257&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E257&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F257&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C257&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A257&amp;" *("&amp;Regels!I257&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F257&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G257&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H257&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7728,11 +7624,11 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260">
-        <f>Regels!D260</f>
+        <f>Regels!D258</f>
         <v>0</v>
       </c>
       <c r="B260" t="str">
-        <f>"### "&amp;Regels!B260&amp;" ("&amp;Regels!A260&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E260&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F260&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C260&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A260&amp;" *("&amp;Regels!I260&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F260&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G260&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H260&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B258&amp;" ("&amp;Regels!A258&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E258&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F258&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C258&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A258&amp;" *("&amp;Regels!I258&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F258&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G258&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H258&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7748,11 +7644,11 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261">
-        <f>Regels!D261</f>
+        <f>Regels!D259</f>
         <v>0</v>
       </c>
       <c r="B261" t="str">
-        <f>"### "&amp;Regels!B261&amp;" ("&amp;Regels!A261&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E261&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F261&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C261&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A261&amp;" *("&amp;Regels!I261&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F261&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G261&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H261&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B259&amp;" ("&amp;Regels!A259&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E259&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F259&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C259&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A259&amp;" *("&amp;Regels!I259&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F259&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G259&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H259&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7768,11 +7664,11 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262">
-        <f>Regels!D262</f>
+        <f>Regels!D260</f>
         <v>0</v>
       </c>
       <c r="B262" t="str">
-        <f>"### "&amp;Regels!B262&amp;" ("&amp;Regels!A262&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E262&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F262&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C262&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A262&amp;" *("&amp;Regels!I262&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F262&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G262&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H262&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B260&amp;" ("&amp;Regels!A260&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E260&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F260&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C260&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A260&amp;" *("&amp;Regels!I260&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F260&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G260&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H260&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7788,11 +7684,11 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263">
-        <f>Regels!D263</f>
+        <f>Regels!D261</f>
         <v>0</v>
       </c>
       <c r="B263" t="str">
-        <f>"### "&amp;Regels!B263&amp;" ("&amp;Regels!A263&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E263&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F263&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C263&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A263&amp;" *("&amp;Regels!I263&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F263&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G263&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H263&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B261&amp;" ("&amp;Regels!A261&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E261&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F261&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C261&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A261&amp;" *("&amp;Regels!I261&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F261&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G261&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H261&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7808,11 +7704,11 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264">
-        <f>Regels!D264</f>
+        <f>Regels!D262</f>
         <v>0</v>
       </c>
       <c r="B264" t="str">
-        <f>"### "&amp;Regels!B264&amp;" ("&amp;Regels!A264&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E264&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F264&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C264&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A264&amp;" *("&amp;Regels!I264&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F264&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G264&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H264&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B262&amp;" ("&amp;Regels!A262&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E262&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F262&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C262&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A262&amp;" *("&amp;Regels!I262&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F262&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G262&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H262&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7828,11 +7724,11 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265">
-        <f>Regels!D265</f>
+        <f>Regels!D263</f>
         <v>0</v>
       </c>
       <c r="B265" t="str">
-        <f>"### "&amp;Regels!B265&amp;" ("&amp;Regels!A265&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E265&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F265&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C265&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A265&amp;" *("&amp;Regels!I265&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F265&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G265&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H265&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B263&amp;" ("&amp;Regels!A263&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E263&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F263&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C263&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A263&amp;" *("&amp;Regels!I263&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F263&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G263&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H263&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7848,11 +7744,11 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266">
-        <f>Regels!D266</f>
+        <f>Regels!D264</f>
         <v>0</v>
       </c>
       <c r="B266" t="str">
-        <f>"### "&amp;Regels!B266&amp;" ("&amp;Regels!A266&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E266&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F266&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C266&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A266&amp;" *("&amp;Regels!I266&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F266&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G266&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H266&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B264&amp;" ("&amp;Regels!A264&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E264&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F264&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C264&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A264&amp;" *("&amp;Regels!I264&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F264&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G264&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H264&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7868,11 +7764,11 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267">
-        <f>Regels!D267</f>
+        <f>Regels!D265</f>
         <v>0</v>
       </c>
       <c r="B267" t="str">
-        <f>"### "&amp;Regels!B267&amp;" ("&amp;Regels!A267&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E267&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F267&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C267&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A267&amp;" *("&amp;Regels!I267&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F267&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G267&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H267&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B265&amp;" ("&amp;Regels!A265&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E265&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F265&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C265&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A265&amp;" *("&amp;Regels!I265&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F265&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G265&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H265&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7888,11 +7784,11 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268">
-        <f>Regels!D268</f>
+        <f>Regels!D266</f>
         <v>0</v>
       </c>
       <c r="B268" t="str">
-        <f>"### "&amp;Regels!B268&amp;" ("&amp;Regels!A268&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E268&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F268&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C268&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A268&amp;" *("&amp;Regels!I268&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F268&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G268&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H268&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B266&amp;" ("&amp;Regels!A266&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E266&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F266&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C266&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A266&amp;" *("&amp;Regels!I266&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F266&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G266&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H266&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7908,11 +7804,11 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269">
-        <f>Regels!D269</f>
+        <f>Regels!D267</f>
         <v>0</v>
       </c>
       <c r="B269" t="str">
-        <f>"### "&amp;Regels!B269&amp;" ("&amp;Regels!A269&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E269&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F269&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C269&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A269&amp;" *("&amp;Regels!I269&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F269&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G269&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H269&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B267&amp;" ("&amp;Regels!A267&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E267&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F267&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C267&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A267&amp;" *("&amp;Regels!I267&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F267&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G267&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H267&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7928,11 +7824,11 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270">
-        <f>Regels!D270</f>
+        <f>Regels!D268</f>
         <v>0</v>
       </c>
       <c r="B270" t="str">
-        <f>"### "&amp;Regels!B270&amp;" ("&amp;Regels!A270&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E270&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F270&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C270&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A270&amp;" *("&amp;Regels!I270&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F270&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G270&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H270&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B268&amp;" ("&amp;Regels!A268&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E268&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F268&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C268&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A268&amp;" *("&amp;Regels!I268&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F268&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G268&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H268&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7948,11 +7844,11 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271">
-        <f>Regels!D271</f>
+        <f>Regels!D269</f>
         <v>0</v>
       </c>
       <c r="B271" t="str">
-        <f>"### "&amp;Regels!B271&amp;" ("&amp;Regels!A271&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E271&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F271&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C271&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A271&amp;" *("&amp;Regels!I271&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F271&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G271&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H271&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B269&amp;" ("&amp;Regels!A269&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E269&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F269&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C269&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A269&amp;" *("&amp;Regels!I269&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F269&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G269&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H269&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7968,11 +7864,11 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272">
-        <f>Regels!D272</f>
+        <f>Regels!D270</f>
         <v>0</v>
       </c>
       <c r="B272" t="str">
-        <f>"### "&amp;Regels!B272&amp;" ("&amp;Regels!A272&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E272&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F272&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C272&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A272&amp;" *("&amp;Regels!I272&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F272&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G272&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H272&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B270&amp;" ("&amp;Regels!A270&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E270&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F270&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C270&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A270&amp;" *("&amp;Regels!I270&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F270&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G270&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H270&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -7988,11 +7884,11 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273">
-        <f>Regels!D273</f>
+        <f>Regels!D271</f>
         <v>0</v>
       </c>
       <c r="B273" t="str">
-        <f>"### "&amp;Regels!B273&amp;" ("&amp;Regels!A273&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E273&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F273&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C273&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A273&amp;" *("&amp;Regels!I273&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F273&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G273&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H273&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B271&amp;" ("&amp;Regels!A271&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E271&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F271&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C271&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A271&amp;" *("&amp;Regels!I271&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F271&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G271&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H271&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8008,11 +7904,11 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274">
-        <f>Regels!D274</f>
+        <f>Regels!D272</f>
         <v>0</v>
       </c>
       <c r="B274" t="str">
-        <f>"### "&amp;Regels!B274&amp;" ("&amp;Regels!A274&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E274&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F274&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C274&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A274&amp;" *("&amp;Regels!I274&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F274&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G274&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H274&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B272&amp;" ("&amp;Regels!A272&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E272&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F272&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C272&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A272&amp;" *("&amp;Regels!I272&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F272&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G272&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H272&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8028,11 +7924,11 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275">
-        <f>Regels!D275</f>
+        <f>Regels!D273</f>
         <v>0</v>
       </c>
       <c r="B275" t="str">
-        <f>"### "&amp;Regels!B275&amp;" ("&amp;Regels!A275&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E275&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F275&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C275&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A275&amp;" *("&amp;Regels!I275&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F275&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G275&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H275&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B273&amp;" ("&amp;Regels!A273&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E273&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F273&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C273&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A273&amp;" *("&amp;Regels!I273&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F273&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G273&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H273&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8048,11 +7944,11 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276">
-        <f>Regels!D276</f>
+        <f>Regels!D274</f>
         <v>0</v>
       </c>
       <c r="B276" t="str">
-        <f>"### "&amp;Regels!B276&amp;" ("&amp;Regels!A276&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E276&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F276&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C276&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A276&amp;" *("&amp;Regels!I276&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F276&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G276&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H276&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B274&amp;" ("&amp;Regels!A274&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E274&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F274&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C274&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A274&amp;" *("&amp;Regels!I274&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F274&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G274&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H274&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8068,11 +7964,11 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277">
-        <f>Regels!D277</f>
+        <f>Regels!D275</f>
         <v>0</v>
       </c>
       <c r="B277" t="str">
-        <f>"### "&amp;Regels!B277&amp;" ("&amp;Regels!A277&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E277&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F277&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C277&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A277&amp;" *("&amp;Regels!I277&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F277&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G277&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H277&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B275&amp;" ("&amp;Regels!A275&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E275&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F275&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C275&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A275&amp;" *("&amp;Regels!I275&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F275&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G275&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H275&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8088,11 +7984,11 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278">
-        <f>Regels!D278</f>
+        <f>Regels!D276</f>
         <v>0</v>
       </c>
       <c r="B278" t="str">
-        <f>"### "&amp;Regels!B278&amp;" ("&amp;Regels!A278&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E278&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F278&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C278&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A278&amp;" *("&amp;Regels!I278&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F278&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G278&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H278&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B276&amp;" ("&amp;Regels!A276&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E276&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F276&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C276&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A276&amp;" *("&amp;Regels!I276&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F276&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G276&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H276&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8108,11 +8004,11 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279">
-        <f>Regels!D279</f>
+        <f>Regels!D277</f>
         <v>0</v>
       </c>
       <c r="B279" t="str">
-        <f>"### "&amp;Regels!B279&amp;" ("&amp;Regels!A279&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E279&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F279&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C279&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A279&amp;" *("&amp;Regels!I279&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F279&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G279&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H279&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B277&amp;" ("&amp;Regels!A277&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E277&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F277&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C277&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A277&amp;" *("&amp;Regels!I277&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F277&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G277&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H277&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8128,11 +8024,11 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280">
-        <f>Regels!D280</f>
+        <f>Regels!D278</f>
         <v>0</v>
       </c>
       <c r="B280" t="str">
-        <f>"### "&amp;Regels!B280&amp;" ("&amp;Regels!A280&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E280&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F280&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C280&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A280&amp;" *("&amp;Regels!I280&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F280&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G280&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H280&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B278&amp;" ("&amp;Regels!A278&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E278&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F278&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C278&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A278&amp;" *("&amp;Regels!I278&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F278&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G278&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H278&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8148,11 +8044,11 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281">
-        <f>Regels!D281</f>
+        <f>Regels!D279</f>
         <v>0</v>
       </c>
       <c r="B281" t="str">
-        <f>"### "&amp;Regels!B281&amp;" ("&amp;Regels!A281&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E281&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F281&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C281&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A281&amp;" *("&amp;Regels!I281&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F281&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G281&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H281&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B279&amp;" ("&amp;Regels!A279&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E279&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F279&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C279&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A279&amp;" *("&amp;Regels!I279&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F279&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G279&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H279&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8168,11 +8064,11 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282">
-        <f>Regels!D282</f>
+        <f>Regels!D280</f>
         <v>0</v>
       </c>
       <c r="B282" t="str">
-        <f>"### "&amp;Regels!B282&amp;" ("&amp;Regels!A282&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E282&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F282&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C282&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A282&amp;" *("&amp;Regels!I282&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F282&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G282&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H282&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B280&amp;" ("&amp;Regels!A280&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E280&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F280&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C280&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A280&amp;" *("&amp;Regels!I280&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F280&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G280&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H280&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8188,11 +8084,11 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283">
-        <f>Regels!D283</f>
+        <f>Regels!D281</f>
         <v>0</v>
       </c>
       <c r="B283" t="str">
-        <f>"### "&amp;Regels!B283&amp;" ("&amp;Regels!A283&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E283&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F283&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C283&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A283&amp;" *("&amp;Regels!I283&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F283&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G283&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H283&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B281&amp;" ("&amp;Regels!A281&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E281&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F281&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C281&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A281&amp;" *("&amp;Regels!I281&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F281&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G281&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H281&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8208,11 +8104,11 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284">
-        <f>Regels!D284</f>
+        <f>Regels!D282</f>
         <v>0</v>
       </c>
       <c r="B284" t="str">
-        <f>"### "&amp;Regels!B284&amp;" ("&amp;Regels!A284&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E284&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F284&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C284&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A284&amp;" *("&amp;Regels!I284&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F284&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G284&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H284&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B282&amp;" ("&amp;Regels!A282&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E282&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F282&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C282&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A282&amp;" *("&amp;Regels!I282&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F282&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G282&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H282&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8228,11 +8124,11 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285">
-        <f>Regels!D285</f>
+        <f>Regels!D283</f>
         <v>0</v>
       </c>
       <c r="B285" t="str">
-        <f>"### "&amp;Regels!B285&amp;" ("&amp;Regels!A285&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E285&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F285&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C285&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A285&amp;" *("&amp;Regels!I285&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F285&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G285&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H285&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B283&amp;" ("&amp;Regels!A283&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E283&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F283&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C283&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A283&amp;" *("&amp;Regels!I283&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F283&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G283&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H283&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8248,11 +8144,11 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286">
-        <f>Regels!D286</f>
+        <f>Regels!D284</f>
         <v>0</v>
       </c>
       <c r="B286" t="str">
-        <f>"### "&amp;Regels!B286&amp;" ("&amp;Regels!A286&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E286&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F286&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C286&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A286&amp;" *("&amp;Regels!I286&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F286&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G286&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H286&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B284&amp;" ("&amp;Regels!A284&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E284&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F284&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C284&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A284&amp;" *("&amp;Regels!I284&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F284&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G284&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H284&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8268,11 +8164,11 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287">
-        <f>Regels!D287</f>
+        <f>Regels!D285</f>
         <v>0</v>
       </c>
       <c r="B287" t="str">
-        <f>"### "&amp;Regels!B287&amp;" ("&amp;Regels!A287&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E287&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F287&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C287&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A287&amp;" *("&amp;Regels!I287&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F287&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G287&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H287&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B285&amp;" ("&amp;Regels!A285&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E285&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F285&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C285&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A285&amp;" *("&amp;Regels!I285&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F285&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G285&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H285&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8288,11 +8184,11 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288">
-        <f>Regels!D288</f>
+        <f>Regels!D286</f>
         <v>0</v>
       </c>
       <c r="B288" t="str">
-        <f>"### "&amp;Regels!B288&amp;" ("&amp;Regels!A288&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E288&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F288&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C288&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A288&amp;" *("&amp;Regels!I288&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F288&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G288&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H288&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B286&amp;" ("&amp;Regels!A286&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E286&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F286&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C286&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A286&amp;" *("&amp;Regels!I286&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F286&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G286&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H286&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8308,11 +8204,11 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289">
-        <f>Regels!D289</f>
+        <f>Regels!D287</f>
         <v>0</v>
       </c>
       <c r="B289" t="str">
-        <f>"### "&amp;Regels!B289&amp;" ("&amp;Regels!A289&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E289&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F289&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C289&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A289&amp;" *("&amp;Regels!I289&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F289&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G289&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H289&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B287&amp;" ("&amp;Regels!A287&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E287&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F287&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C287&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A287&amp;" *("&amp;Regels!I287&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F287&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G287&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H287&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8328,11 +8224,11 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290">
-        <f>Regels!D290</f>
+        <f>Regels!D288</f>
         <v>0</v>
       </c>
       <c r="B290" t="str">
-        <f>"### "&amp;Regels!B290&amp;" ("&amp;Regels!A290&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E290&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F290&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C290&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A290&amp;" *("&amp;Regels!I290&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F290&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G290&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H290&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B288&amp;" ("&amp;Regels!A288&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E288&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F288&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C288&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A288&amp;" *("&amp;Regels!I288&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F288&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G288&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H288&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8348,11 +8244,11 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291">
-        <f>Regels!D291</f>
+        <f>Regels!D289</f>
         <v>0</v>
       </c>
       <c r="B291" t="str">
-        <f>"### "&amp;Regels!B291&amp;" ("&amp;Regels!A291&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E291&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F291&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C291&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A291&amp;" *("&amp;Regels!I291&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F291&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G291&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H291&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B289&amp;" ("&amp;Regels!A289&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E289&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F289&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C289&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A289&amp;" *("&amp;Regels!I289&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F289&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G289&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H289&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8368,11 +8264,11 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292">
-        <f>Regels!D292</f>
+        <f>Regels!D290</f>
         <v>0</v>
       </c>
       <c r="B292" t="str">
-        <f>"### "&amp;Regels!B292&amp;" ("&amp;Regels!A292&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E292&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F292&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C292&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A292&amp;" *("&amp;Regels!I292&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F292&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G292&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H292&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B290&amp;" ("&amp;Regels!A290&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E290&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F290&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C290&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A290&amp;" *("&amp;Regels!I290&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F290&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G290&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H290&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8388,11 +8284,11 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293">
-        <f>Regels!D293</f>
+        <f>Regels!D291</f>
         <v>0</v>
       </c>
       <c r="B293" t="str">
-        <f>"### "&amp;Regels!B293&amp;" ("&amp;Regels!A293&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E293&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F293&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C293&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A293&amp;" *("&amp;Regels!I293&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F293&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G293&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H293&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B291&amp;" ("&amp;Regels!A291&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E291&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F291&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C291&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A291&amp;" *("&amp;Regels!I291&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F291&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G291&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H291&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8408,11 +8304,11 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294">
-        <f>Regels!D294</f>
+        <f>Regels!D292</f>
         <v>0</v>
       </c>
       <c r="B294" t="str">
-        <f>"### "&amp;Regels!B294&amp;" ("&amp;Regels!A294&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E294&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F294&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C294&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A294&amp;" *("&amp;Regels!I294&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F294&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G294&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H294&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B292&amp;" ("&amp;Regels!A292&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E292&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F292&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C292&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A292&amp;" *("&amp;Regels!I292&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F292&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G292&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H292&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8428,11 +8324,11 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295">
-        <f>Regels!D295</f>
+        <f>Regels!D293</f>
         <v>0</v>
       </c>
       <c r="B295" t="str">
-        <f>"### "&amp;Regels!B295&amp;" ("&amp;Regels!A295&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E295&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F295&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C295&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A295&amp;" *("&amp;Regels!I295&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F295&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G295&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H295&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B293&amp;" ("&amp;Regels!A293&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E293&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F293&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C293&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A293&amp;" *("&amp;Regels!I293&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F293&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G293&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H293&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8448,11 +8344,11 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296">
-        <f>Regels!D296</f>
+        <f>Regels!D294</f>
         <v>0</v>
       </c>
       <c r="B296" t="str">
-        <f>"### "&amp;Regels!B296&amp;" ("&amp;Regels!A296&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E296&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F296&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C296&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A296&amp;" *("&amp;Regels!I296&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F296&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G296&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H296&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B294&amp;" ("&amp;Regels!A294&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E294&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F294&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C294&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A294&amp;" *("&amp;Regels!I294&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F294&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G294&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H294&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8468,11 +8364,11 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297">
-        <f>Regels!D297</f>
+        <f>Regels!D295</f>
         <v>0</v>
       </c>
       <c r="B297" t="str">
-        <f>"### "&amp;Regels!B297&amp;" ("&amp;Regels!A297&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E297&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F297&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C297&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A297&amp;" *("&amp;Regels!I297&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F297&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G297&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H297&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B295&amp;" ("&amp;Regels!A295&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E295&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F295&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C295&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A295&amp;" *("&amp;Regels!I295&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F295&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G295&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H295&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8488,11 +8384,11 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298">
-        <f>Regels!D298</f>
+        <f>Regels!D296</f>
         <v>0</v>
       </c>
       <c r="B298" t="str">
-        <f>"### "&amp;Regels!B298&amp;" ("&amp;Regels!A298&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E298&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F298&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C298&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A298&amp;" *("&amp;Regels!I298&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F298&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G298&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H298&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B296&amp;" ("&amp;Regels!A296&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E296&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F296&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C296&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A296&amp;" *("&amp;Regels!I296&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F296&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G296&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H296&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8508,11 +8404,11 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299">
-        <f>Regels!D299</f>
+        <f>Regels!D297</f>
         <v>0</v>
       </c>
       <c r="B299" t="str">
-        <f>"### "&amp;Regels!B299&amp;" ("&amp;Regels!A299&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E299&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F299&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C299&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A299&amp;" *("&amp;Regels!I299&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F299&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G299&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H299&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B297&amp;" ("&amp;Regels!A297&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E297&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F297&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C297&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A297&amp;" *("&amp;Regels!I297&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F297&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G297&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H297&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8528,11 +8424,11 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300">
-        <f>Regels!D300</f>
+        <f>Regels!D298</f>
         <v>0</v>
       </c>
       <c r="B300" t="str">
-        <f>"### "&amp;Regels!B300&amp;" ("&amp;Regels!A300&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E300&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F300&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C300&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A300&amp;" *("&amp;Regels!I300&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F300&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G300&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H300&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B298&amp;" ("&amp;Regels!A298&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E298&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F298&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C298&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A298&amp;" *("&amp;Regels!I298&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F298&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G298&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H298&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8548,11 +8444,11 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301">
-        <f>Regels!D301</f>
+        <f>Regels!D299</f>
         <v>0</v>
       </c>
       <c r="B301" t="str">
-        <f>"### "&amp;Regels!B301&amp;" ("&amp;Regels!A301&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E301&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F301&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C301&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A301&amp;" *("&amp;Regels!I301&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F301&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G301&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H301&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B299&amp;" ("&amp;Regels!A299&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E299&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F299&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C299&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A299&amp;" *("&amp;Regels!I299&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F299&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G299&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H299&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8568,11 +8464,11 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302">
-        <f>Regels!D302</f>
+        <f>Regels!D300</f>
         <v>0</v>
       </c>
       <c r="B302" t="str">
-        <f>"### "&amp;Regels!B302&amp;" ("&amp;Regels!A302&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E302&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F302&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C302&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A302&amp;" *("&amp;Regels!I302&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F302&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G302&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H302&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B300&amp;" ("&amp;Regels!A300&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E300&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F300&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C300&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A300&amp;" *("&amp;Regels!I300&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F300&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G300&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H300&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8588,11 +8484,11 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303">
-        <f>Regels!D303</f>
+        <f>Regels!D301</f>
         <v>0</v>
       </c>
       <c r="B303" t="str">
-        <f>"### "&amp;Regels!B303&amp;" ("&amp;Regels!A303&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E303&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F303&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C303&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A303&amp;" *("&amp;Regels!I303&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F303&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G303&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H303&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B301&amp;" ("&amp;Regels!A301&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E301&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F301&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C301&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A301&amp;" *("&amp;Regels!I301&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F301&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G301&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H301&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8608,11 +8504,11 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304">
-        <f>Regels!D304</f>
+        <f>Regels!D302</f>
         <v>0</v>
       </c>
       <c r="B304" t="str">
-        <f>"### "&amp;Regels!B304&amp;" ("&amp;Regels!A304&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E304&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F304&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C304&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A304&amp;" *("&amp;Regels!I304&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F304&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G304&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H304&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B302&amp;" ("&amp;Regels!A302&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E302&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F302&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C302&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A302&amp;" *("&amp;Regels!I302&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F302&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G302&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H302&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8628,11 +8524,11 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305">
-        <f>Regels!D305</f>
+        <f>Regels!D303</f>
         <v>0</v>
       </c>
       <c r="B305" t="str">
-        <f>"### "&amp;Regels!B305&amp;" ("&amp;Regels!A305&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E305&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F305&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C305&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A305&amp;" *("&amp;Regels!I305&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F305&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G305&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H305&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B303&amp;" ("&amp;Regels!A303&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E303&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F303&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C303&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A303&amp;" *("&amp;Regels!I303&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F303&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G303&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H303&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8648,11 +8544,11 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306">
-        <f>Regels!D306</f>
+        <f>Regels!D304</f>
         <v>0</v>
       </c>
       <c r="B306" t="str">
-        <f>"### "&amp;Regels!B306&amp;" ("&amp;Regels!A306&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E306&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F306&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C306&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A306&amp;" *("&amp;Regels!I306&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F306&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G306&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H306&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B304&amp;" ("&amp;Regels!A304&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E304&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F304&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C304&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A304&amp;" *("&amp;Regels!I304&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F304&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G304&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H304&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8668,11 +8564,11 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307">
-        <f>Regels!D307</f>
+        <f>Regels!D305</f>
         <v>0</v>
       </c>
       <c r="B307" t="str">
-        <f>"### "&amp;Regels!B307&amp;" ("&amp;Regels!A307&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E307&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F307&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C307&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A307&amp;" *("&amp;Regels!I307&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F307&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G307&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H307&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B305&amp;" ("&amp;Regels!A305&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E305&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F305&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C305&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A305&amp;" *("&amp;Regels!I305&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F305&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G305&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H305&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8688,11 +8584,11 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308">
-        <f>Regels!D308</f>
+        <f>Regels!D306</f>
         <v>0</v>
       </c>
       <c r="B308" t="str">
-        <f>"### "&amp;Regels!B308&amp;" ("&amp;Regels!A308&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E308&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F308&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C308&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A308&amp;" *("&amp;Regels!I308&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F308&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G308&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H308&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B306&amp;" ("&amp;Regels!A306&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E306&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F306&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C306&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A306&amp;" *("&amp;Regels!I306&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F306&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G306&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H306&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8708,11 +8604,11 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309">
-        <f>Regels!D309</f>
+        <f>Regels!D307</f>
         <v>0</v>
       </c>
       <c r="B309" t="str">
-        <f>"### "&amp;Regels!B309&amp;" ("&amp;Regels!A309&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E309&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F309&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C309&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A309&amp;" *("&amp;Regels!I309&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F309&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G309&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H309&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B307&amp;" ("&amp;Regels!A307&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E307&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F307&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C307&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A307&amp;" *("&amp;Regels!I307&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F307&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G307&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H307&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8728,11 +8624,11 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310">
-        <f>Regels!D310</f>
+        <f>Regels!D308</f>
         <v>0</v>
       </c>
       <c r="B310" t="str">
-        <f>"### "&amp;Regels!B310&amp;" ("&amp;Regels!A310&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E310&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F310&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C310&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A310&amp;" *("&amp;Regels!I310&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F310&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G310&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H310&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B308&amp;" ("&amp;Regels!A308&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E308&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F308&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C308&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A308&amp;" *("&amp;Regels!I308&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F308&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G308&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H308&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8748,11 +8644,11 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311">
-        <f>Regels!D311</f>
+        <f>Regels!D309</f>
         <v>0</v>
       </c>
       <c r="B311" t="str">
-        <f>"### "&amp;Regels!B311&amp;" ("&amp;Regels!A311&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E311&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F311&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C311&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A311&amp;" *("&amp;Regels!I311&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F311&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G311&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H311&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B309&amp;" ("&amp;Regels!A309&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E309&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F309&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C309&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A309&amp;" *("&amp;Regels!I309&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F309&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G309&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H309&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8768,11 +8664,11 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312">
-        <f>Regels!D312</f>
+        <f>Regels!D310</f>
         <v>0</v>
       </c>
       <c r="B312" t="str">
-        <f>"### "&amp;Regels!B312&amp;" ("&amp;Regels!A312&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E312&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F312&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C312&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A312&amp;" *("&amp;Regels!I312&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F312&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G312&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H312&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B310&amp;" ("&amp;Regels!A310&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E310&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F310&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C310&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A310&amp;" *("&amp;Regels!I310&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F310&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G310&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H310&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8788,11 +8684,11 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313">
-        <f>Regels!D313</f>
+        <f>Regels!D311</f>
         <v>0</v>
       </c>
       <c r="B313" t="str">
-        <f>"### "&amp;Regels!B313&amp;" ("&amp;Regels!A313&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E313&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F313&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C313&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A313&amp;" *("&amp;Regels!I313&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F313&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G313&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H313&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B311&amp;" ("&amp;Regels!A311&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E311&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F311&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C311&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A311&amp;" *("&amp;Regels!I311&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F311&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G311&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H311&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8808,11 +8704,11 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314">
-        <f>Regels!D314</f>
+        <f>Regels!D312</f>
         <v>0</v>
       </c>
       <c r="B314" t="str">
-        <f>"### "&amp;Regels!B314&amp;" ("&amp;Regels!A314&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E314&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F314&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C314&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A314&amp;" *("&amp;Regels!I314&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F314&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G314&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H314&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B312&amp;" ("&amp;Regels!A312&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E312&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F312&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C312&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A312&amp;" *("&amp;Regels!I312&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F312&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G312&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H312&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8828,11 +8724,11 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315">
-        <f>Regels!D315</f>
+        <f>Regels!D313</f>
         <v>0</v>
       </c>
       <c r="B315" t="str">
-        <f>"### "&amp;Regels!B315&amp;" ("&amp;Regels!A315&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E315&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F315&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C315&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A315&amp;" *("&amp;Regels!I315&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F315&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G315&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H315&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B313&amp;" ("&amp;Regels!A313&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E313&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F313&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C313&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A313&amp;" *("&amp;Regels!I313&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F313&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G313&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H313&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8848,11 +8744,11 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316">
-        <f>Regels!D316</f>
+        <f>Regels!D314</f>
         <v>0</v>
       </c>
       <c r="B316" t="str">
-        <f>"### "&amp;Regels!B316&amp;" ("&amp;Regels!A316&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E316&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F316&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C316&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A316&amp;" *("&amp;Regels!I316&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F316&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G316&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H316&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B314&amp;" ("&amp;Regels!A314&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E314&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F314&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C314&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A314&amp;" *("&amp;Regels!I314&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F314&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G314&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H314&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8868,11 +8764,11 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317">
-        <f>Regels!D317</f>
+        <f>Regels!D315</f>
         <v>0</v>
       </c>
       <c r="B317" t="str">
-        <f>"### "&amp;Regels!B317&amp;" ("&amp;Regels!A317&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E317&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F317&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C317&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A317&amp;" *("&amp;Regels!I317&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F317&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G317&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H317&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B315&amp;" ("&amp;Regels!A315&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E315&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F315&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C315&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A315&amp;" *("&amp;Regels!I315&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F315&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G315&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H315&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8888,11 +8784,11 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318">
-        <f>Regels!D318</f>
+        <f>Regels!D316</f>
         <v>0</v>
       </c>
       <c r="B318" t="str">
-        <f>"### "&amp;Regels!B318&amp;" ("&amp;Regels!A318&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E318&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F318&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C318&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A318&amp;" *("&amp;Regels!I318&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F318&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G318&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H318&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B316&amp;" ("&amp;Regels!A316&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E316&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F316&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C316&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A316&amp;" *("&amp;Regels!I316&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F316&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G316&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H316&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8908,11 +8804,11 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319">
-        <f>Regels!D319</f>
+        <f>Regels!D317</f>
         <v>0</v>
       </c>
       <c r="B319" t="str">
-        <f>"### "&amp;Regels!B319&amp;" ("&amp;Regels!A319&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E319&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F319&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C319&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A319&amp;" *("&amp;Regels!I319&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F319&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G319&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H319&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B317&amp;" ("&amp;Regels!A317&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E317&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F317&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C317&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A317&amp;" *("&amp;Regels!I317&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F317&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G317&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H317&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8928,11 +8824,11 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320">
-        <f>Regels!D320</f>
+        <f>Regels!D318</f>
         <v>0</v>
       </c>
       <c r="B320" t="str">
-        <f>"### "&amp;Regels!B320&amp;" ("&amp;Regels!A320&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E320&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F320&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C320&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A320&amp;" *("&amp;Regels!I320&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F320&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G320&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H320&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B318&amp;" ("&amp;Regels!A318&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E318&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F318&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C318&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A318&amp;" *("&amp;Regels!I318&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F318&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G318&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H318&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8948,11 +8844,11 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321">
-        <f>Regels!D321</f>
+        <f>Regels!D319</f>
         <v>0</v>
       </c>
       <c r="B321" t="str">
-        <f>"### "&amp;Regels!B321&amp;" ("&amp;Regels!A321&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E321&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F321&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C321&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A321&amp;" *("&amp;Regels!I321&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F321&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G321&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H321&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B319&amp;" ("&amp;Regels!A319&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E319&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F319&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C319&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A319&amp;" *("&amp;Regels!I319&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F319&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G319&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H319&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8968,11 +8864,11 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322">
-        <f>Regels!D322</f>
+        <f>Regels!D320</f>
         <v>0</v>
       </c>
       <c r="B322" t="str">
-        <f>"### "&amp;Regels!B322&amp;" ("&amp;Regels!A322&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E322&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F322&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C322&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A322&amp;" *("&amp;Regels!I322&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F322&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G322&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H322&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B320&amp;" ("&amp;Regels!A320&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E320&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F320&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C320&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A320&amp;" *("&amp;Regels!I320&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F320&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G320&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H320&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -8988,11 +8884,11 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323">
-        <f>Regels!D323</f>
+        <f>Regels!D321</f>
         <v>0</v>
       </c>
       <c r="B323" t="str">
-        <f>"### "&amp;Regels!B323&amp;" ("&amp;Regels!A323&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E323&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F323&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C323&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A323&amp;" *("&amp;Regels!I323&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F323&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G323&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H323&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B321&amp;" ("&amp;Regels!A321&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E321&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F321&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C321&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A321&amp;" *("&amp;Regels!I321&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F321&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G321&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H321&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9008,11 +8904,11 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324">
-        <f>Regels!D324</f>
+        <f>Regels!D322</f>
         <v>0</v>
       </c>
       <c r="B324" t="str">
-        <f>"### "&amp;Regels!B324&amp;" ("&amp;Regels!A324&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E324&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F324&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C324&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A324&amp;" *("&amp;Regels!I324&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F324&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G324&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H324&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B322&amp;" ("&amp;Regels!A322&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E322&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F322&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C322&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A322&amp;" *("&amp;Regels!I322&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F322&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G322&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H322&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9028,11 +8924,11 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325">
-        <f>Regels!D325</f>
+        <f>Regels!D323</f>
         <v>0</v>
       </c>
       <c r="B325" t="str">
-        <f>"### "&amp;Regels!B325&amp;" ("&amp;Regels!A325&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E325&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F325&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C325&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A325&amp;" *("&amp;Regels!I325&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F325&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G325&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H325&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B323&amp;" ("&amp;Regels!A323&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E323&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F323&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C323&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A323&amp;" *("&amp;Regels!I323&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F323&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G323&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H323&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9048,11 +8944,11 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326">
-        <f>Regels!D326</f>
+        <f>Regels!D324</f>
         <v>0</v>
       </c>
       <c r="B326" t="str">
-        <f>"### "&amp;Regels!B326&amp;" ("&amp;Regels!A326&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E326&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F326&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C326&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A326&amp;" *("&amp;Regels!I326&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F326&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G326&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H326&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B324&amp;" ("&amp;Regels!A324&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E324&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F324&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C324&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A324&amp;" *("&amp;Regels!I324&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F324&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G324&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H324&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9068,11 +8964,11 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327">
-        <f>Regels!D327</f>
+        <f>Regels!D325</f>
         <v>0</v>
       </c>
       <c r="B327" t="str">
-        <f>"### "&amp;Regels!B327&amp;" ("&amp;Regels!A327&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E327&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F327&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C327&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A327&amp;" *("&amp;Regels!I327&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F327&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G327&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H327&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B325&amp;" ("&amp;Regels!A325&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E325&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F325&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C325&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A325&amp;" *("&amp;Regels!I325&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F325&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G325&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H325&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9088,11 +8984,11 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328">
-        <f>Regels!D328</f>
+        <f>Regels!D326</f>
         <v>0</v>
       </c>
       <c r="B328" t="str">
-        <f>"### "&amp;Regels!B328&amp;" ("&amp;Regels!A328&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E328&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F328&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C328&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A328&amp;" *("&amp;Regels!I328&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F328&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G328&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H328&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B326&amp;" ("&amp;Regels!A326&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E326&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F326&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C326&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A326&amp;" *("&amp;Regels!I326&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F326&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G326&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H326&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9108,11 +9004,11 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329">
-        <f>Regels!D329</f>
+        <f>Regels!D327</f>
         <v>0</v>
       </c>
       <c r="B329" t="str">
-        <f>"### "&amp;Regels!B329&amp;" ("&amp;Regels!A329&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E329&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F329&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C329&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A329&amp;" *("&amp;Regels!I329&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F329&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G329&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H329&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B327&amp;" ("&amp;Regels!A327&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E327&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F327&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C327&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A327&amp;" *("&amp;Regels!I327&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F327&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G327&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H327&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9128,11 +9024,11 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330">
-        <f>Regels!D330</f>
+        <f>Regels!D328</f>
         <v>0</v>
       </c>
       <c r="B330" t="str">
-        <f>"### "&amp;Regels!B330&amp;" ("&amp;Regels!A330&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E330&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F330&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C330&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A330&amp;" *("&amp;Regels!I330&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F330&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G330&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H330&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B328&amp;" ("&amp;Regels!A328&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E328&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F328&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C328&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A328&amp;" *("&amp;Regels!I328&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F328&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G328&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H328&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9148,11 +9044,11 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331">
-        <f>Regels!D331</f>
+        <f>Regels!D329</f>
         <v>0</v>
       </c>
       <c r="B331" t="str">
-        <f>"### "&amp;Regels!B331&amp;" ("&amp;Regels!A331&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E331&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F331&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C331&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A331&amp;" *("&amp;Regels!I331&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F331&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G331&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H331&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B329&amp;" ("&amp;Regels!A329&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E329&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F329&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C329&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A329&amp;" *("&amp;Regels!I329&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F329&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G329&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H329&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9168,11 +9064,11 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332">
-        <f>Regels!D332</f>
+        <f>Regels!D330</f>
         <v>0</v>
       </c>
       <c r="B332" t="str">
-        <f>"### "&amp;Regels!B332&amp;" ("&amp;Regels!A332&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E332&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F332&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C332&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A332&amp;" *("&amp;Regels!I332&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F332&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G332&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H332&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B330&amp;" ("&amp;Regels!A330&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E330&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F330&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C330&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A330&amp;" *("&amp;Regels!I330&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F330&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G330&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H330&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9188,11 +9084,11 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333">
-        <f>Regels!D333</f>
+        <f>Regels!D331</f>
         <v>0</v>
       </c>
       <c r="B333" t="str">
-        <f>"### "&amp;Regels!B333&amp;" ("&amp;Regels!A333&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E333&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F333&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C333&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A333&amp;" *("&amp;Regels!I333&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F333&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G333&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H333&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B331&amp;" ("&amp;Regels!A331&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E331&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F331&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C331&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A331&amp;" *("&amp;Regels!I331&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F331&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G331&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H331&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9208,11 +9104,11 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334">
-        <f>Regels!D334</f>
+        <f>Regels!D332</f>
         <v>0</v>
       </c>
       <c r="B334" t="str">
-        <f>"### "&amp;Regels!B334&amp;" ("&amp;Regels!A334&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E334&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F334&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C334&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A334&amp;" *("&amp;Regels!I334&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F334&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G334&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H334&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B332&amp;" ("&amp;Regels!A332&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E332&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F332&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C332&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A332&amp;" *("&amp;Regels!I332&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F332&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G332&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H332&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9228,11 +9124,11 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335">
-        <f>Regels!D335</f>
+        <f>Regels!D333</f>
         <v>0</v>
       </c>
       <c r="B335" t="str">
-        <f>"### "&amp;Regels!B335&amp;" ("&amp;Regels!A335&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E335&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F335&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C335&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A335&amp;" *("&amp;Regels!I335&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F335&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G335&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H335&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B333&amp;" ("&amp;Regels!A333&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E333&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F333&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C333&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A333&amp;" *("&amp;Regels!I333&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F333&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G333&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H333&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9248,11 +9144,11 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336">
-        <f>Regels!D336</f>
+        <f>Regels!D334</f>
         <v>0</v>
       </c>
       <c r="B336" t="str">
-        <f>"### "&amp;Regels!B336&amp;" ("&amp;Regels!A336&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E336&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F336&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C336&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A336&amp;" *("&amp;Regels!I336&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F336&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G336&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H336&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B334&amp;" ("&amp;Regels!A334&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E334&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F334&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C334&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A334&amp;" *("&amp;Regels!I334&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F334&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G334&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H334&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9268,11 +9164,11 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337">
-        <f>Regels!D337</f>
+        <f>Regels!D335</f>
         <v>0</v>
       </c>
       <c r="B337" t="str">
-        <f>"### "&amp;Regels!B337&amp;" ("&amp;Regels!A337&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E337&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F337&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C337&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A337&amp;" *("&amp;Regels!I337&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F337&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G337&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H337&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B335&amp;" ("&amp;Regels!A335&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E335&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F335&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C335&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A335&amp;" *("&amp;Regels!I335&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F335&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G335&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H335&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9288,11 +9184,11 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338">
-        <f>Regels!D338</f>
+        <f>Regels!D336</f>
         <v>0</v>
       </c>
       <c r="B338" t="str">
-        <f>"### "&amp;Regels!B338&amp;" ("&amp;Regels!A338&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E338&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F338&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C338&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A338&amp;" *("&amp;Regels!I338&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F338&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G338&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H338&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B336&amp;" ("&amp;Regels!A336&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E336&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F336&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C336&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A336&amp;" *("&amp;Regels!I336&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F336&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G336&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H336&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9308,11 +9204,11 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339">
-        <f>Regels!D339</f>
+        <f>Regels!D337</f>
         <v>0</v>
       </c>
       <c r="B339" t="str">
-        <f>"### "&amp;Regels!B339&amp;" ("&amp;Regels!A339&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E339&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F339&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C339&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A339&amp;" *("&amp;Regels!I339&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F339&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G339&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H339&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B337&amp;" ("&amp;Regels!A337&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E337&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F337&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C337&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A337&amp;" *("&amp;Regels!I337&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F337&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G337&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H337&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9328,11 +9224,11 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340">
-        <f>Regels!D340</f>
+        <f>Regels!D338</f>
         <v>0</v>
       </c>
       <c r="B340" t="str">
-        <f>"### "&amp;Regels!B340&amp;" ("&amp;Regels!A340&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E340&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F340&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C340&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A340&amp;" *("&amp;Regels!I340&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F340&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G340&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H340&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B338&amp;" ("&amp;Regels!A338&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E338&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F338&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C338&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A338&amp;" *("&amp;Regels!I338&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F338&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G338&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H338&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9348,11 +9244,11 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341">
-        <f>Regels!D341</f>
+        <f>Regels!D339</f>
         <v>0</v>
       </c>
       <c r="B341" t="str">
-        <f>"### "&amp;Regels!B341&amp;" ("&amp;Regels!A341&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E341&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F341&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C341&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A341&amp;" *("&amp;Regels!I341&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F341&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G341&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H341&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B339&amp;" ("&amp;Regels!A339&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E339&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F339&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C339&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A339&amp;" *("&amp;Regels!I339&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F339&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G339&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H339&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9368,11 +9264,11 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342">
-        <f>Regels!D342</f>
+        <f>Regels!D340</f>
         <v>0</v>
       </c>
       <c r="B342" t="str">
-        <f>"### "&amp;Regels!B342&amp;" ("&amp;Regels!A342&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E342&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F342&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C342&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A342&amp;" *("&amp;Regels!I342&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F342&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G342&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H342&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B340&amp;" ("&amp;Regels!A340&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E340&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F340&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C340&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A340&amp;" *("&amp;Regels!I340&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F340&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G340&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H340&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9388,11 +9284,11 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343">
-        <f>Regels!D343</f>
+        <f>Regels!D341</f>
         <v>0</v>
       </c>
       <c r="B343" t="str">
-        <f>"### "&amp;Regels!B343&amp;" ("&amp;Regels!A343&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E343&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F343&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C343&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A343&amp;" *("&amp;Regels!I343&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F343&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G343&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H343&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B341&amp;" ("&amp;Regels!A341&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E341&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F341&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C341&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A341&amp;" *("&amp;Regels!I341&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F341&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G341&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H341&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9408,11 +9304,11 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344">
-        <f>Regels!D344</f>
+        <f>Regels!D342</f>
         <v>0</v>
       </c>
       <c r="B344" t="str">
-        <f>"### "&amp;Regels!B344&amp;" ("&amp;Regels!A344&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E344&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F344&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C344&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A344&amp;" *("&amp;Regels!I344&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F344&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G344&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H344&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B342&amp;" ("&amp;Regels!A342&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E342&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F342&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C342&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A342&amp;" *("&amp;Regels!I342&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F342&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G342&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H342&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9428,11 +9324,11 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345">
-        <f>Regels!D345</f>
+        <f>Regels!D343</f>
         <v>0</v>
       </c>
       <c r="B345" t="str">
-        <f>"### "&amp;Regels!B345&amp;" ("&amp;Regels!A345&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E345&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F345&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C345&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A345&amp;" *("&amp;Regels!I345&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F345&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G345&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H345&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B343&amp;" ("&amp;Regels!A343&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E343&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F343&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C343&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A343&amp;" *("&amp;Regels!I343&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F343&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G343&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H343&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9448,11 +9344,11 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346">
-        <f>Regels!D346</f>
+        <f>Regels!D344</f>
         <v>0</v>
       </c>
       <c r="B346" t="str">
-        <f>"### "&amp;Regels!B346&amp;" ("&amp;Regels!A346&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E346&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F346&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C346&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A346&amp;" *("&amp;Regels!I346&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F346&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G346&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H346&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B344&amp;" ("&amp;Regels!A344&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E344&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F344&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C344&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A344&amp;" *("&amp;Regels!I344&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F344&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G344&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H344&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9468,11 +9364,11 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347">
-        <f>Regels!D347</f>
+        <f>Regels!D345</f>
         <v>0</v>
       </c>
       <c r="B347" t="str">
-        <f>"### "&amp;Regels!B347&amp;" ("&amp;Regels!A347&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E347&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F347&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C347&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A347&amp;" *("&amp;Regels!I347&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F347&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G347&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H347&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B345&amp;" ("&amp;Regels!A345&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E345&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F345&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C345&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A345&amp;" *("&amp;Regels!I345&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F345&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G345&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H345&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9488,11 +9384,11 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348">
-        <f>Regels!D348</f>
+        <f>Regels!D346</f>
         <v>0</v>
       </c>
       <c r="B348" t="str">
-        <f>"### "&amp;Regels!B348&amp;" ("&amp;Regels!A348&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E348&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F348&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C348&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A348&amp;" *("&amp;Regels!I348&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F348&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G348&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H348&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B346&amp;" ("&amp;Regels!A346&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E346&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F346&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C346&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A346&amp;" *("&amp;Regels!I346&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F346&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G346&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H346&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9508,11 +9404,11 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349">
-        <f>Regels!D349</f>
+        <f>Regels!D347</f>
         <v>0</v>
       </c>
       <c r="B349" t="str">
-        <f>"### "&amp;Regels!B349&amp;" ("&amp;Regels!A349&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E349&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F349&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C349&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A349&amp;" *("&amp;Regels!I349&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F349&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G349&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H349&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B347&amp;" ("&amp;Regels!A347&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E347&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F347&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C347&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A347&amp;" *("&amp;Regels!I347&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F347&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G347&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H347&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9528,11 +9424,11 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350">
-        <f>Regels!D350</f>
+        <f>Regels!D348</f>
         <v>0</v>
       </c>
       <c r="B350" t="str">
-        <f>"### "&amp;Regels!B350&amp;" ("&amp;Regels!A350&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E350&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F350&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C350&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A350&amp;" *("&amp;Regels!I350&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F350&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G350&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H350&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B348&amp;" ("&amp;Regels!A348&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E348&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F348&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C348&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A348&amp;" *("&amp;Regels!I348&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F348&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G348&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H348&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9548,11 +9444,11 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351">
-        <f>Regels!D351</f>
+        <f>Regels!D349</f>
         <v>0</v>
       </c>
       <c r="B351" t="str">
-        <f>"### "&amp;Regels!B351&amp;" ("&amp;Regels!A351&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E351&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F351&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C351&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A351&amp;" *("&amp;Regels!I351&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F351&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G351&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H351&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B349&amp;" ("&amp;Regels!A349&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E349&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F349&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C349&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A349&amp;" *("&amp;Regels!I349&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F349&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G349&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H349&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9568,11 +9464,11 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352">
-        <f>Regels!D352</f>
+        <f>Regels!D350</f>
         <v>0</v>
       </c>
       <c r="B352" t="str">
-        <f>"### "&amp;Regels!B352&amp;" ("&amp;Regels!A352&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E352&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F352&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C352&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A352&amp;" *("&amp;Regels!I352&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F352&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G352&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H352&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B350&amp;" ("&amp;Regels!A350&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E350&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F350&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C350&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A350&amp;" *("&amp;Regels!I350&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F350&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G350&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H350&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9588,11 +9484,11 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353">
-        <f>Regels!D353</f>
+        <f>Regels!D351</f>
         <v>0</v>
       </c>
       <c r="B353" t="str">
-        <f>"### "&amp;Regels!B353&amp;" ("&amp;Regels!A353&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E353&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F353&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C353&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A353&amp;" *("&amp;Regels!I353&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F353&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G353&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H353&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B351&amp;" ("&amp;Regels!A351&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E351&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F351&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C351&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A351&amp;" *("&amp;Regels!I351&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F351&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G351&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H351&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9608,11 +9504,11 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354">
-        <f>Regels!D354</f>
+        <f>Regels!D352</f>
         <v>0</v>
       </c>
       <c r="B354" t="str">
-        <f>"### "&amp;Regels!B354&amp;" ("&amp;Regels!A354&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E354&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F354&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C354&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A354&amp;" *("&amp;Regels!I354&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F354&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G354&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H354&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B352&amp;" ("&amp;Regels!A352&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E352&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F352&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C352&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A352&amp;" *("&amp;Regels!I352&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F352&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G352&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H352&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9628,11 +9524,11 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355">
-        <f>Regels!D355</f>
+        <f>Regels!D353</f>
         <v>0</v>
       </c>
       <c r="B355" t="str">
-        <f>"### "&amp;Regels!B355&amp;" ("&amp;Regels!A355&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E355&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F355&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C355&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A355&amp;" *("&amp;Regels!I355&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F355&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G355&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H355&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B353&amp;" ("&amp;Regels!A353&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E353&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F353&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C353&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A353&amp;" *("&amp;Regels!I353&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F353&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G353&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H353&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9648,11 +9544,11 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356">
-        <f>Regels!D356</f>
+        <f>Regels!D354</f>
         <v>0</v>
       </c>
       <c r="B356" t="str">
-        <f>"### "&amp;Regels!B356&amp;" ("&amp;Regels!A356&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E356&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F356&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C356&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A356&amp;" *("&amp;Regels!I356&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F356&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G356&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H356&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B354&amp;" ("&amp;Regels!A354&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E354&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F354&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C354&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A354&amp;" *("&amp;Regels!I354&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F354&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G354&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H354&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9668,11 +9564,11 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357">
-        <f>Regels!D357</f>
+        <f>Regels!D355</f>
         <v>0</v>
       </c>
       <c r="B357" t="str">
-        <f>"### "&amp;Regels!B357&amp;" ("&amp;Regels!A357&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E357&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F357&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C357&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A357&amp;" *("&amp;Regels!I357&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F357&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G357&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H357&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B355&amp;" ("&amp;Regels!A355&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E355&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F355&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C355&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A355&amp;" *("&amp;Regels!I355&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F355&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G355&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H355&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9688,11 +9584,11 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358">
-        <f>Regels!D358</f>
+        <f>Regels!D356</f>
         <v>0</v>
       </c>
       <c r="B358" t="str">
-        <f>"### "&amp;Regels!B358&amp;" ("&amp;Regels!A358&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E358&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F358&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C358&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A358&amp;" *("&amp;Regels!I358&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F358&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G358&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H358&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B356&amp;" ("&amp;Regels!A356&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E356&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F356&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C356&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A356&amp;" *("&amp;Regels!I356&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F356&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G356&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H356&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9708,11 +9604,11 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359">
-        <f>Regels!D359</f>
+        <f>Regels!D357</f>
         <v>0</v>
       </c>
       <c r="B359" t="str">
-        <f>"### "&amp;Regels!B359&amp;" ("&amp;Regels!A359&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E359&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F359&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C359&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A359&amp;" *("&amp;Regels!I359&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F359&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G359&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H359&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B357&amp;" ("&amp;Regels!A357&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E357&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F357&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C357&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A357&amp;" *("&amp;Regels!I357&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F357&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G357&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H357&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9728,11 +9624,11 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360">
-        <f>Regels!D360</f>
+        <f>Regels!D358</f>
         <v>0</v>
       </c>
       <c r="B360" t="str">
-        <f>"### "&amp;Regels!B360&amp;" ("&amp;Regels!A360&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E360&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F360&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C360&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A360&amp;" *("&amp;Regels!I360&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F360&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G360&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H360&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B358&amp;" ("&amp;Regels!A358&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E358&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F358&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C358&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A358&amp;" *("&amp;Regels!I358&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F358&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G358&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H358&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9748,11 +9644,11 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361">
-        <f>Regels!D361</f>
+        <f>Regels!D359</f>
         <v>0</v>
       </c>
       <c r="B361" t="str">
-        <f>"### "&amp;Regels!B361&amp;" ("&amp;Regels!A361&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E361&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F361&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C361&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A361&amp;" *("&amp;Regels!I361&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F361&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G361&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H361&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B359&amp;" ("&amp;Regels!A359&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E359&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F359&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C359&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A359&amp;" *("&amp;Regels!I359&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F359&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G359&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H359&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9768,11 +9664,11 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362">
-        <f>Regels!D362</f>
+        <f>Regels!D360</f>
         <v>0</v>
       </c>
       <c r="B362" t="str">
-        <f>"### "&amp;Regels!B362&amp;" ("&amp;Regels!A362&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E362&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F362&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C362&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A362&amp;" *("&amp;Regels!I362&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F362&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G362&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H362&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B360&amp;" ("&amp;Regels!A360&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E360&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F360&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C360&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A360&amp;" *("&amp;Regels!I360&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F360&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G360&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H360&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9788,11 +9684,11 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363">
-        <f>Regels!D363</f>
+        <f>Regels!D361</f>
         <v>0</v>
       </c>
       <c r="B363" t="str">
-        <f>"### "&amp;Regels!B363&amp;" ("&amp;Regels!A363&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E363&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F363&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C363&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A363&amp;" *("&amp;Regels!I363&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F363&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G363&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H363&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B361&amp;" ("&amp;Regels!A361&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E361&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F361&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C361&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A361&amp;" *("&amp;Regels!I361&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F361&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G361&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H361&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9808,11 +9704,11 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364">
-        <f>Regels!D364</f>
+        <f>Regels!D362</f>
         <v>0</v>
       </c>
       <c r="B364" t="str">
-        <f>"### "&amp;Regels!B364&amp;" ("&amp;Regels!A364&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E364&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F364&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C364&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A364&amp;" *("&amp;Regels!I364&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F364&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G364&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H364&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B362&amp;" ("&amp;Regels!A362&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E362&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F362&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C362&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A362&amp;" *("&amp;Regels!I362&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F362&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G362&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H362&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9828,11 +9724,11 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365">
-        <f>Regels!D365</f>
+        <f>Regels!D363</f>
         <v>0</v>
       </c>
       <c r="B365" t="str">
-        <f>"### "&amp;Regels!B365&amp;" ("&amp;Regels!A365&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E365&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F365&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C365&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A365&amp;" *("&amp;Regels!I365&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F365&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G365&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H365&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B363&amp;" ("&amp;Regels!A363&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E363&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F363&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C363&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A363&amp;" *("&amp;Regels!I363&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F363&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G363&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H363&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9848,11 +9744,11 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366">
-        <f>Regels!D366</f>
+        <f>Regels!D364</f>
         <v>0</v>
       </c>
       <c r="B366" t="str">
-        <f>"### "&amp;Regels!B366&amp;" ("&amp;Regels!A366&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E366&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F366&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C366&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A366&amp;" *("&amp;Regels!I366&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F366&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G366&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H366&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B364&amp;" ("&amp;Regels!A364&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E364&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F364&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C364&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A364&amp;" *("&amp;Regels!I364&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F364&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G364&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H364&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9868,11 +9764,11 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367">
-        <f>Regels!D367</f>
+        <f>Regels!D365</f>
         <v>0</v>
       </c>
       <c r="B367" t="str">
-        <f>"### "&amp;Regels!B367&amp;" ("&amp;Regels!A367&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E367&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F367&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C367&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A367&amp;" *("&amp;Regels!I367&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F367&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G367&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H367&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B365&amp;" ("&amp;Regels!A365&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E365&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F365&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C365&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A365&amp;" *("&amp;Regels!I365&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F365&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G365&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H365&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9888,11 +9784,11 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368">
-        <f>Regels!D368</f>
+        <f>Regels!D366</f>
         <v>0</v>
       </c>
       <c r="B368" t="str">
-        <f>"### "&amp;Regels!B368&amp;" ("&amp;Regels!A368&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E368&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F368&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C368&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A368&amp;" *("&amp;Regels!I368&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F368&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G368&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H368&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B366&amp;" ("&amp;Regels!A366&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E366&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F366&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C366&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A366&amp;" *("&amp;Regels!I366&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F366&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G366&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H366&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9908,11 +9804,11 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369">
-        <f>Regels!D369</f>
+        <f>Regels!D367</f>
         <v>0</v>
       </c>
       <c r="B369" t="str">
-        <f>"### "&amp;Regels!B369&amp;" ("&amp;Regels!A369&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E369&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F369&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C369&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A369&amp;" *("&amp;Regels!I369&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F369&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G369&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H369&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B367&amp;" ("&amp;Regels!A367&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E367&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F367&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C367&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A367&amp;" *("&amp;Regels!I367&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F367&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G367&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H367&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9928,11 +9824,11 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370">
-        <f>Regels!D370</f>
+        <f>Regels!D368</f>
         <v>0</v>
       </c>
       <c r="B370" t="str">
-        <f>"### "&amp;Regels!B370&amp;" ("&amp;Regels!A370&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E370&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F370&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C370&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A370&amp;" *("&amp;Regels!I370&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F370&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G370&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H370&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B368&amp;" ("&amp;Regels!A368&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E368&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F368&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C368&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A368&amp;" *("&amp;Regels!I368&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F368&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G368&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H368&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9948,11 +9844,11 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371">
-        <f>Regels!D371</f>
+        <f>Regels!D369</f>
         <v>0</v>
       </c>
       <c r="B371" t="str">
-        <f>"### "&amp;Regels!B371&amp;" ("&amp;Regels!A371&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E371&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F371&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C371&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A371&amp;" *("&amp;Regels!I371&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F371&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G371&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H371&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B369&amp;" ("&amp;Regels!A369&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E369&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F369&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C369&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A369&amp;" *("&amp;Regels!I369&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F369&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G369&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H369&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -9968,11 +9864,11 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372">
-        <f>Regels!D372</f>
+        <f>Regels!D370</f>
         <v>0</v>
       </c>
       <c r="B372" t="str">
-        <f>"### "&amp;Regels!B372&amp;" ("&amp;Regels!A372&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E372&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F372&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C372&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A372&amp;" *("&amp;Regels!I372&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F372&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G372&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H372&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
+        <f>"### "&amp;Regels!B370&amp;" ("&amp;Regels!A370&amp;")"&amp;CHAR(10)&amp;CHAR(10)&amp;"Van toepassing op de "&amp;"`"&amp;Regels!E370&amp;"`, "&amp;"en valt binnen de categorie: "&amp;"`"&amp;Regels!F370&amp;"`"&amp;CHAR(10)&amp;CHAR(10)&amp;"| | |"&amp;CHAR(10)&amp;"| ----- | ---- | "&amp;CHAR(10)&amp;"| *Regel* | "&amp;Regels!C370&amp;" | "&amp;CHAR(10)&amp;"| *ID* | "&amp;Regels!A370&amp;" *("&amp;Regels!I370&amp;")* |"&amp;CHAR(10)&amp;"| *Categorie* | "&amp;Regels!F370&amp;CHAR(10)&amp;" |*Gerelateerd issue* | "&amp;Regels!G370&amp;" |"&amp;CHAR(10)&amp;" |*Controle query* | "&amp;Regels!H370&amp;" |"&amp;CHAR(10)&amp;"| {.index} | | "&amp;CHAR(10)&amp;CHAR(10)</f>
         <v xml:space="preserve">###  ()
 Van toepassing op de ``, en valt binnen de categorie: ``
 | | |
@@ -10007,13 +9903,13 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>b0c68e4b-9ec7-383d-39fa-9ae5610b9d1b</v>
+        <v>552002b9-984e-715b-6c46-c40d099a3c93</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>95dc019b-6870-4d68-794a-4614ce2c27a1</v>
+        <v>047acf2d-3c47-0f0a-a3bf-182dad3e4376</v>
       </c>
     </row>
   </sheetData>
